--- a/0.WBS.xlsx
+++ b/0.WBS.xlsx
@@ -9,15 +9,34 @@
   <sheets>
     <sheet name="history" state="hidden" sheetId="6" r:id="rId1"/>
     <sheet name="WBS" sheetId="67" r:id="rId2"/>
-    <sheet name="holiday" sheetId="69" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">WBS!$C$21:$S$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">WBS!$C$19:$S$49</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">history!$A$1:$H$39</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">WBS!$A$2:$S$48</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">WBS!$A$2:$S$49</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
     <definedName name="DAYS" hidden="1">#NAME?</definedName>
     <definedName name="DAYS" hidden="1">#NAME?</definedName>
     <definedName name="DAYS" hidden="1">#NAME?</definedName>
@@ -52,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="237">
   <si>
     <t>기간</t>
   </si>
@@ -740,6 +759,69 @@
   <si>
     <t>DDL</t>
   </si>
+  <si>
+    <t>Project 2.2.2</t>
+  </si>
+  <si>
+    <t>Project 2.2.3</t>
+  </si>
+  <si>
+    <t>Project 2.2.4</t>
+  </si>
+  <si>
+    <t>기술 명세서 작성</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flow </t>
+  </si>
+  <si>
+    <t>Flow Chart 작성</t>
+  </si>
+  <si>
+    <t>Project 2.4</t>
+  </si>
+  <si>
+    <t>스토리 보드 작성</t>
+  </si>
+  <si>
+    <t>Project 2.3.2</t>
+  </si>
+  <si>
+    <t>Project 2.3.3</t>
+  </si>
+  <si>
+    <t>기술 명세서</t>
+  </si>
+  <si>
+    <t>Flow Chart</t>
+  </si>
+  <si>
+    <t>스토리 보드</t>
+  </si>
+  <si>
+    <t>후보 요구사항 자료 (2.요구사항 정리.jpg)</t>
+  </si>
+  <si>
+    <t>개발</t>
+  </si>
+  <si>
+    <t>개발환경 구성</t>
+  </si>
+  <si>
+    <t>시스템 구성도(4.시스템 구성도.pptx)</t>
+  </si>
+  <si>
+    <t>1.브레인스토밍.jpg</t>
+  </si>
+  <si>
+    <t>2.요구사항 정리.jpg</t>
+  </si>
+  <si>
+    <t>3.요구사항 정의서.xlsx</t>
+  </si>
+  <si>
+    <t>4.시스템 구성도.pptx</t>
+  </si>
 </sst>
 </file>
 
@@ -755,7 +837,7 @@
     <numFmt numFmtId="181" formatCode="m&quot;월&quot;\ d&quot;일&quot;"/>
     <numFmt numFmtId="182" formatCode="yyyy&quot;/&quot;m&quot;/&quot;d;@"/>
   </numFmts>
-  <fonts count="76">
+  <fonts count="81">
     <font>
       <sz val="10.0"/>
       <name val="맑은 고딕"/>
@@ -1213,6 +1295,37 @@
       <name val="맑은 고딕"/>
       <color theme="0"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color/>
+    </font>
+    <font>
+      <sz val="9.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color/>
+    </font>
+    <font>
+      <sz val="9.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="0"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FF000000"/>
+    </font>
   </fonts>
   <fills count="51">
     <fill>
@@ -1519,7 +1632,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="83">
+  <borders count="92">
     <border>
       <left/>
       <right/>
@@ -2466,6 +2579,108 @@
         <color auto="1"/>
       </bottom>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="2919">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -11226,7 +11441,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="328">
+  <cellXfs count="383">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -12210,6 +12425,171 @@
     </xf>
     <xf numFmtId="0" fontId="40" fillId="22" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="50" fillId="50" borderId="2" xfId="962" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="50" borderId="83" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="50" borderId="84" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="50" borderId="83" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="50" borderId="84" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="50" fillId="50" borderId="85" xfId="964" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="50" fillId="50" borderId="85" xfId="963" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="50" fillId="50" borderId="85" xfId="962" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="50" fillId="50" borderId="85" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="16" borderId="86" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="16" borderId="83" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="22" borderId="84" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="22" borderId="83" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="22" borderId="83" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="22" borderId="84" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="50" fillId="22" borderId="85" xfId="964" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="50" fillId="22" borderId="85" xfId="963" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="50" fillId="22" borderId="85" xfId="962" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="50" fillId="22" borderId="85" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="22" borderId="86" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="49" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="49" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="38" fillId="49" borderId="4" xfId="953" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="38" fillId="49" borderId="49" xfId="953" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="50" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="22" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="49" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="50" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="22" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="49" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="50" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="22" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="49" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="50" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="22" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="14" borderId="87" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="22" borderId="84" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="50" borderId="88" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="50" borderId="89" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="49" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="50" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="50" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="22" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="22" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="22" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="49" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="49" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="49" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="50" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="50" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="49" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="49" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="14" borderId="90" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="14" borderId="91" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2908">
@@ -15131,13 +15511,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -15149,7 +15529,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="9020175"/>
+          <a:off x="3874770" y="9267825"/>
           <a:ext cx="19050" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -15166,13 +15546,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -15184,7 +15564,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="9020175"/>
+          <a:off x="3874770" y="9267825"/>
           <a:ext cx="19050" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -15201,13 +15581,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>960120</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>960120</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>246380</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -15219,7 +15599,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13645515" y="9029700"/>
+          <a:off x="13645515" y="9277350"/>
           <a:ext cx="0" cy="246380"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -15236,13 +15616,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>960120</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>960120</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>246380</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -15254,7 +15634,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13645515" y="9029700"/>
+          <a:off x="13645515" y="9277350"/>
           <a:ext cx="0" cy="246380"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -15271,13 +15651,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -15289,7 +15669,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="9020175"/>
+          <a:off x="3874770" y="9267825"/>
           <a:ext cx="19050" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -15306,13 +15686,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -15324,7 +15704,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="9020175"/>
+          <a:off x="3874770" y="9267825"/>
           <a:ext cx="19050" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -15341,13 +15721,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -15359,7 +15739,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="9020175"/>
+          <a:off x="3874770" y="9267825"/>
           <a:ext cx="19050" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -15376,13 +15756,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -15394,7 +15774,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="9020175"/>
+          <a:off x="3874770" y="9267825"/>
           <a:ext cx="19050" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -15411,13 +15791,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -15429,7 +15809,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="9020175"/>
+          <a:off x="3874770" y="9267825"/>
           <a:ext cx="19050" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -15446,13 +15826,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>960120</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>960120</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>246380</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -15464,7 +15844,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13645515" y="9029700"/>
+          <a:off x="13645515" y="9277350"/>
           <a:ext cx="0" cy="246380"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -15481,13 +15861,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>960120</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>960120</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>246380</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -15499,7 +15879,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13645515" y="9029700"/>
+          <a:off x="13645515" y="9277350"/>
           <a:ext cx="0" cy="246380"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -15516,13 +15896,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -15534,7 +15914,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="9020175"/>
+          <a:off x="3874770" y="9267825"/>
           <a:ext cx="19050" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -15551,13 +15931,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -15569,7 +15949,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="9020175"/>
+          <a:off x="3874770" y="9267825"/>
           <a:ext cx="19050" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -15586,13 +15966,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -15604,7 +15984,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="9020175"/>
+          <a:off x="3874770" y="9267825"/>
           <a:ext cx="19050" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -15621,13 +16001,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -15639,7 +16019,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="9020175"/>
+          <a:off x="3874770" y="9267825"/>
           <a:ext cx="19050" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -15656,13 +16036,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -15674,7 +16054,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="9020175"/>
+          <a:off x="3874770" y="9267825"/>
           <a:ext cx="19050" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -15691,13 +16071,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -15709,7 +16089,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="9020175"/>
+          <a:off x="3874770" y="9267825"/>
           <a:ext cx="19050" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -15726,13 +16106,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -15744,7 +16124,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="9020175"/>
+          <a:off x="3874770" y="9267825"/>
           <a:ext cx="19050" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -15761,13 +16141,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -15779,7 +16159,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="9020175"/>
+          <a:off x="3874770" y="9267825"/>
           <a:ext cx="19050" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -15796,13 +16176,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -15814,7 +16194,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="9020175"/>
+          <a:off x="3874770" y="9267825"/>
           <a:ext cx="19050" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -15831,13 +16211,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -15849,7 +16229,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="9020175"/>
+          <a:off x="3874770" y="9267825"/>
           <a:ext cx="19050" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -15866,13 +16246,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -15884,7 +16264,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="9020175"/>
+          <a:off x="3874770" y="9267825"/>
           <a:ext cx="19050" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -15901,13 +16281,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -15919,7 +16299,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="9020175"/>
+          <a:off x="3874770" y="9267825"/>
           <a:ext cx="19050" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -15936,13 +16316,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -15954,7 +16334,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="9020175"/>
+          <a:off x="3874770" y="9267825"/>
           <a:ext cx="19050" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -15971,13 +16351,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>960120</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>960120</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>246380</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -15989,7 +16369,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13645515" y="9029700"/>
+          <a:off x="13645515" y="9277350"/>
           <a:ext cx="0" cy="246380"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -16006,13 +16386,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>960120</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>960120</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>246380</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -16024,7 +16404,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13645515" y="9029700"/>
+          <a:off x="13645515" y="9277350"/>
           <a:ext cx="0" cy="246380"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -16041,13 +16421,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -16059,7 +16439,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="9020175"/>
+          <a:off x="3874770" y="9267825"/>
           <a:ext cx="19050" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -16076,13 +16456,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -16094,7 +16474,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="9020175"/>
+          <a:off x="3874770" y="9267825"/>
           <a:ext cx="19050" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -16111,13 +16491,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -16129,7 +16509,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="9020175"/>
+          <a:off x="3874770" y="9267825"/>
           <a:ext cx="19050" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -16146,13 +16526,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -16164,7 +16544,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="9020175"/>
+          <a:off x="3874770" y="9267825"/>
           <a:ext cx="19050" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -16181,13 +16561,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -16199,7 +16579,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="9020175"/>
+          <a:off x="3874770" y="9267825"/>
           <a:ext cx="19050" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -16216,13 +16596,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -16234,7 +16614,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="9020175"/>
+          <a:off x="3874770" y="9267825"/>
           <a:ext cx="19050" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -16251,13 +16631,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -16269,7 +16649,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="9020175"/>
+          <a:off x="3874770" y="9267825"/>
           <a:ext cx="19050" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -16286,13 +16666,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -16304,7 +16684,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="9020175"/>
+          <a:off x="3874770" y="9267825"/>
           <a:ext cx="19050" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -16321,13 +16701,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -16339,7 +16719,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="9020175"/>
+          <a:off x="3874770" y="9267825"/>
           <a:ext cx="19050" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -16356,13 +16736,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>960120</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>960120</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>246380</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -16374,7 +16754,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13645515" y="9029700"/>
+          <a:off x="13645515" y="9277350"/>
           <a:ext cx="0" cy="246380"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -16391,13 +16771,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>960120</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>960120</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>246380</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -16409,7 +16789,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13645515" y="9029700"/>
+          <a:off x="13645515" y="9277350"/>
           <a:ext cx="0" cy="246380"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -16426,13 +16806,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -16444,7 +16824,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="9020175"/>
+          <a:off x="3874770" y="9267825"/>
           <a:ext cx="19050" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -16461,13 +16841,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -16479,7 +16859,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="9020175"/>
+          <a:off x="3874770" y="9267825"/>
           <a:ext cx="19050" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -16496,13 +16876,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -16514,7 +16894,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="9020175"/>
+          <a:off x="3874770" y="9267825"/>
           <a:ext cx="19050" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -16531,13 +16911,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -16549,7 +16929,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="9020175"/>
+          <a:off x="3874770" y="9267825"/>
           <a:ext cx="19050" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -16566,13 +16946,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -16584,7 +16964,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="9020175"/>
+          <a:off x="3874770" y="9267825"/>
           <a:ext cx="19050" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -16601,13 +16981,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>960120</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>960120</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>246380</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -16619,7 +16999,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13645515" y="9029700"/>
+          <a:off x="13645515" y="9277350"/>
           <a:ext cx="0" cy="246380"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -16636,13 +17016,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>960120</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>960120</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>246380</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -16654,7 +17034,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13645515" y="9029700"/>
+          <a:off x="13645515" y="9277350"/>
           <a:ext cx="0" cy="246380"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -16671,13 +17051,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -16689,7 +17069,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="9020175"/>
+          <a:off x="3874770" y="9267825"/>
           <a:ext cx="19050" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -16706,13 +17086,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -16724,7 +17104,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="9020175"/>
+          <a:off x="3874770" y="9267825"/>
           <a:ext cx="19050" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -16741,13 +17121,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -16759,7 +17139,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="9020175"/>
+          <a:off x="3874770" y="9267825"/>
           <a:ext cx="19050" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -16776,13 +17156,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -16794,7 +17174,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="9020175"/>
+          <a:off x="3874770" y="9267825"/>
           <a:ext cx="19050" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -16811,13 +17191,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -16829,7 +17209,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="9020175"/>
+          <a:off x="3874770" y="9267825"/>
           <a:ext cx="19050" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -16846,13 +17226,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -16864,7 +17244,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="9020175"/>
+          <a:off x="3874770" y="9267825"/>
           <a:ext cx="19050" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -16881,13 +17261,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -16899,7 +17279,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="9020175"/>
+          <a:off x="3874770" y="9267825"/>
           <a:ext cx="19050" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -16916,13 +17296,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -16934,7 +17314,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="9020175"/>
+          <a:off x="3874770" y="9267825"/>
           <a:ext cx="19050" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -16951,13 +17331,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -16969,7 +17349,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="9020175"/>
+          <a:off x="3874770" y="9267825"/>
           <a:ext cx="19050" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -16986,13 +17366,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -17004,7 +17384,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="9020175"/>
+          <a:off x="3874770" y="9267825"/>
           <a:ext cx="19050" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -17021,13 +17401,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -17039,7 +17419,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="9020175"/>
+          <a:off x="3874770" y="9267825"/>
           <a:ext cx="19050" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -17056,13 +17436,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -17074,7 +17454,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="9020175"/>
+          <a:off x="3874770" y="9267825"/>
           <a:ext cx="19050" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -17091,13 +17471,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -17109,7 +17489,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="9020175"/>
+          <a:off x="3874770" y="9267825"/>
           <a:ext cx="19050" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -17126,13 +17506,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>960120</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>960120</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>246380</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -17144,7 +17524,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13645515" y="9029700"/>
+          <a:off x="13645515" y="9277350"/>
           <a:ext cx="0" cy="246380"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -17161,13 +17541,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>960120</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>960120</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>246380</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -17179,7 +17559,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13645515" y="9029700"/>
+          <a:off x="13645515" y="9277350"/>
           <a:ext cx="0" cy="246380"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -17196,13 +17576,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -17214,7 +17594,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="9020175"/>
+          <a:off x="3874770" y="9267825"/>
           <a:ext cx="19050" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -17231,13 +17611,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -17249,7 +17629,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="9020175"/>
+          <a:off x="3874770" y="9267825"/>
           <a:ext cx="19050" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -17266,13 +17646,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -17284,7 +17664,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="9020175"/>
+          <a:off x="3874770" y="9267825"/>
           <a:ext cx="19050" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -17301,13 +17681,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -17319,7 +17699,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="9020175"/>
+          <a:off x="3874770" y="9267825"/>
           <a:ext cx="19050" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -17336,13 +17716,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -17354,7 +17734,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="9020175"/>
+          <a:off x="3874770" y="9267825"/>
           <a:ext cx="19050" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -17371,13 +17751,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -17389,7 +17769,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="9020175"/>
+          <a:off x="3874770" y="9267825"/>
           <a:ext cx="19050" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -17406,13 +17786,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -17424,7 +17804,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="9020175"/>
+          <a:off x="3874770" y="9267825"/>
           <a:ext cx="19050" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -18680,11 +19060,11 @@
   <dimension ref="B2:AD66"/>
   <sheetViews>
     <sheetView topLeftCell="A2" showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="9" ySplit="5" topLeftCell="J19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="5" topLeftCell="J7" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="J2" sqref="J2"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="O25" sqref="O25"/>
+      <selection pane="bottomRight" activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14062500" defaultRowHeight="13.500000" outlineLevelRow="3"/>
@@ -18859,7 +19239,7 @@
       <c r="H6" s="236"/>
       <c r="I6" s="236"/>
       <c r="J6" s="78" t="str">
-        <f>CONCATENATE(NETWORKDAYS(K6,L6,holiday!B4:B39),"일")</f>
+        <f>CONCATENATE(NETWORKDAYS(K6,L6),"일")</f>
         <v>85일</v>
       </c>
       <c r="K6" s="79">
@@ -18878,15 +19258,15 @@
         <v>45264</v>
       </c>
       <c r="P6" s="81"/>
-      <c r="Q6" s="80" t="e">
-        <f>SUM(#REF!,#REF!,#REF!,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="R6" s="85" t="e">
+      <c r="Q6" s="80">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="381">
         <f ca="1">IF(Q6=100%,0,IF(_xlfn.DAYS(L6,TODAY())=0,0,_xlfn.DAYS(L6,TODAY())))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="S6" s="87"/>
+        <v>104</v>
+      </c>
+      <c r="S6" s="382"/>
       <c r="U6" s="22"/>
       <c r="V6" s="40" t="s">
         <v>51</v>
@@ -18912,7 +19292,7 @@
       <c r="H7" s="93"/>
       <c r="I7" s="94"/>
       <c r="J7" s="95" t="e">
-        <f>CONCATENATE(NETWORKDAYS(K7,L7,holiday!B3:B16),"일")</f>
+        <f>#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="K7" s="96" t="e">
@@ -18987,29 +19367,29 @@
       <c r="H8" s="110"/>
       <c r="I8" s="110"/>
       <c r="J8" s="111" t="e">
-        <f>IF(COUNTBLANK(K8:L8)&gt;0,"미정",CONCATENATE(NETWORKDAYS(K8,L8,holiday!B3:B16),"일"))</f>
-        <v>#VALUE!</v>
+        <f>#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="K8" s="112">
-        <f>K21</f>
+        <f>K19</f>
         <v>45265</v>
       </c>
       <c r="L8" s="112">
-        <f>L21</f>
+        <f>L19</f>
         <v>45274</v>
       </c>
       <c r="M8" s="113"/>
       <c r="N8" s="113"/>
       <c r="O8" s="115">
-        <f>O21</f>
+        <f>O19</f>
         <v>45265</v>
       </c>
       <c r="P8" s="115">
-        <f>P21</f>
+        <f>P19</f>
         <v>45274</v>
       </c>
       <c r="Q8" s="116">
-        <f ca="1">Q21</f>
+        <f ca="1">Q19</f>
         <v>1</v>
       </c>
       <c r="R8" s="120">
@@ -19038,7 +19418,7 @@
       <c r="H9" s="127"/>
       <c r="I9" s="127"/>
       <c r="J9" s="111" t="e">
-        <f>IF(COUNTBLANK(K9:L9)&gt;0,"미정",CONCATENATE(NETWORKDAYS(K9,L9,holiday!B3:B16),"일"))</f>
+        <f>#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="K9" s="128" t="e">
@@ -19089,7 +19469,7 @@
       <c r="H10" s="110"/>
       <c r="I10" s="110"/>
       <c r="J10" s="111" t="e">
-        <f>IF(COUNTBLANK(K10:L10)&gt;0,"미정",CONCATENATE(NETWORKDAYS(K10,L10,holiday!B5:B17),"일"))</f>
+        <f>#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="K10" s="112" t="e">
@@ -19140,7 +19520,7 @@
       <c r="H11" s="127"/>
       <c r="I11" s="127"/>
       <c r="J11" s="111" t="e">
-        <f>IF(COUNTBLANK(K11:L11)&gt;0,"미정",CONCATENATE(NETWORKDAYS(K11,L11,holiday!B5:B17),"일"))</f>
+        <f>#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="K11" s="128" t="e">
@@ -19191,7 +19571,7 @@
       <c r="H12" s="110"/>
       <c r="I12" s="110"/>
       <c r="J12" s="111" t="e">
-        <f>IF(COUNTBLANK(K12:L12)&gt;0,"미정",CONCATENATE(NETWORKDAYS(K12,L12,holiday!B7:B19),"일"))</f>
+        <f>#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="K12" s="112" t="e">
@@ -19239,7 +19619,7 @@
       <c r="H13" s="127"/>
       <c r="I13" s="127"/>
       <c r="J13" s="111" t="e">
-        <f>IF(COUNTBLANK(K13:L13)&gt;0,"미정",CONCATENATE(NETWORKDAYS(K13,L13,holiday!B7:B19),"일"))</f>
+        <f>#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="K13" s="128" t="e">
@@ -19290,7 +19670,7 @@
       <c r="H14" s="110"/>
       <c r="I14" s="110"/>
       <c r="J14" s="111" t="e">
-        <f>IF(COUNTBLANK(K14:L14)&gt;0,"미정",CONCATENATE(NETWORKDAYS(K14,L14,holiday!B9:B21),"일"))</f>
+        <f>#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="K14" s="112" t="e">
@@ -19341,7 +19721,7 @@
       <c r="H15" s="127"/>
       <c r="I15" s="127"/>
       <c r="J15" s="111" t="e">
-        <f>IF(COUNTBLANK(K15:L15)&gt;0,"미정",CONCATENATE(NETWORKDAYS(K15,L15,holiday!B9:B21),"일"))</f>
+        <f>#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="K15" s="128" t="e">
@@ -19392,7 +19772,7 @@
       <c r="H16" s="127"/>
       <c r="I16" s="127"/>
       <c r="J16" s="111" t="e">
-        <f>IF(COUNTBLANK(K16:L16)&gt;0,"미정",CONCATENATE(NETWORKDAYS(K16,L16,holiday!B10:B22),"일"))</f>
+        <f>#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="K16" s="128" t="e">
@@ -19443,7 +19823,7 @@
       <c r="H17" s="110"/>
       <c r="I17" s="110"/>
       <c r="J17" s="111" t="e">
-        <f>IF(COUNTBLANK(K17:L17)&gt;0,"미정",CONCATENATE(NETWORKDAYS(K17,L17,holiday!B12:B24),"일"))</f>
+        <f>#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="K17" s="112" t="e">
@@ -19494,7 +19874,7 @@
       <c r="H18" s="127"/>
       <c r="I18" s="127"/>
       <c r="J18" s="111" t="e">
-        <f>IF(COUNTBLANK(K18:L18)&gt;0,"미정",CONCATENATE(NETWORKDAYS(K18,L18,holiday!B12:B24),"일"))</f>
+        <f>#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="K18" s="128" t="e">
@@ -19531,7 +19911,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="136" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D19" s="137">
         <f>IF(COUNTBLANK(E19:I19)&lt;5,IF(E19&lt;&gt;"",0,IF(F19&lt;&gt;"",1,IF(G19&lt;&gt;"",2,IF(H19&lt;&gt;"",3,IF(I19&lt;&gt;"",4))))),"")</f>
@@ -19539,20 +19919,20 @@
       </c>
       <c r="E19" s="138"/>
       <c r="F19" s="139" t="s">
-        <v>182</v>
+        <v>154</v>
       </c>
       <c r="G19" s="139"/>
       <c r="H19" s="140"/>
       <c r="I19" s="140"/>
-      <c r="J19" s="95" t="str">
-        <f>CONCATENATE(NETWORKDAYS(K19,L19,holiday!B15:B28),"일")</f>
-        <v>10일</v>
+      <c r="J19" s="380" t="str">
+        <f>CONCATENATE(NETWORKDAYS(K19,L19),"일")</f>
+        <v>8일</v>
       </c>
       <c r="K19" s="142">
-        <v>45264</v>
+        <v>45265</v>
       </c>
       <c r="L19" s="143">
-        <v>45275</v>
+        <v>45274</v>
       </c>
       <c r="M19" s="144" t="s">
         <v>50</v>
@@ -19561,16 +19941,18 @@
         <v>167</v>
       </c>
       <c r="O19" s="144">
-        <v>45264</v>
-      </c>
-      <c r="P19" s="144"/>
+        <v>45265</v>
+      </c>
+      <c r="P19" s="144">
+        <v>45274</v>
+      </c>
       <c r="Q19" s="145">
-        <f>SUM(Q20)</f>
-        <v>0.01</v>
+        <f ca="1">SUM(Q20,Q23)/COUNT(Q20,Q23)</f>
+        <v>1</v>
       </c>
       <c r="R19" s="315">
         <f ca="1">IF(Q19=100%,0,IF(_xlfn.DAYS(L19,TODAY())=0,0,_xlfn.DAYS(L19,TODAY())))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S19" s="151"/>
       <c r="T19" s="27"/>
@@ -19586,7 +19968,7 @@
         <v>2</v>
       </c>
       <c r="C20" s="152" t="s">
-        <v>181</v>
+        <v>82</v>
       </c>
       <c r="D20" s="153">
         <f>IF(COUNTBLANK(E20:I20)&lt;5,IF(E20&lt;&gt;"",0,IF(F20&lt;&gt;"",1,IF(G20&lt;&gt;"",2,IF(H20&lt;&gt;"",3,IF(I20&lt;&gt;"",4))))),"")</f>
@@ -19595,19 +19977,19 @@
       <c r="E20" s="154"/>
       <c r="F20" s="155"/>
       <c r="G20" s="155" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="H20" s="152"/>
       <c r="I20" s="152"/>
-      <c r="J20" s="298" t="str">
-        <f>CONCATENATE(NETWORKDAYS(K20,L20,holiday!B33:B1048574),"일")</f>
-        <v>10일</v>
+      <c r="J20" s="378" t="str">
+        <f>CONCATENATE(NETWORKDAYS(K20,L20),"일")</f>
+        <v>2일</v>
       </c>
       <c r="K20" s="157">
-        <v>45264</v>
+        <v>45265</v>
       </c>
       <c r="L20" s="157">
-        <v>45275</v>
+        <v>45266</v>
       </c>
       <c r="M20" s="158" t="s">
         <v>50</v>
@@ -19616,130 +19998,131 @@
         <v>167</v>
       </c>
       <c r="O20" s="160">
-        <v>45264</v>
-      </c>
-      <c r="P20" s="160"/>
+        <v>45265</v>
+      </c>
+      <c r="P20" s="160">
+        <v>45267</v>
+      </c>
       <c r="Q20" s="159">
-        <v>0.01</v>
+        <f ca="1">SUM(Q20:Q23)/COUNT(Q20:Q23)</f>
+        <v>1</v>
       </c>
       <c r="R20" s="314">
         <f ca="1">IF(Q20=100%,0,IF(_xlfn.DAYS(L20,TODAY())=0,0,_xlfn.DAYS(L20,TODAY())))</f>
-        <v>1</v>
-      </c>
-      <c r="S20" s="164" t="s">
-        <v>198</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="S20" s="164"/>
       <c r="T20" s="30"/>
       <c r="U20" s="31"/>
       <c r="V20" s="34"/>
     </row>
-    <row r="21" spans="2:23" s="29" customFormat="1" ht="19.500000" customHeight="1" outlineLevel="1">
+    <row r="21" spans="2:23" s="32" customFormat="1" ht="19.500000" customHeight="1" outlineLevel="3">
       <c r="B21" s="88">
         <f>B20+1</f>
         <v>3</v>
       </c>
-      <c r="C21" s="136" t="s">
-        <v>54</v>
-      </c>
-      <c r="D21" s="137">
+      <c r="C21" s="165" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" s="166">
         <f>IF(COUNTBLANK(E21:I21)&lt;5,IF(E21&lt;&gt;"",0,IF(F21&lt;&gt;"",1,IF(G21&lt;&gt;"",2,IF(H21&lt;&gt;"",3,IF(I21&lt;&gt;"",4))))),"")</f>
+        <v>3</v>
+      </c>
+      <c r="E21" s="167"/>
+      <c r="F21" s="168"/>
+      <c r="G21" s="168"/>
+      <c r="H21" s="165" t="s">
+        <v>150</v>
+      </c>
+      <c r="I21" s="165"/>
+      <c r="J21" s="373" t="str">
+        <f>CONCATENATE(NETWORKDAYS(K21,L21),"일")</f>
+        <v>2일</v>
+      </c>
+      <c r="K21" s="170">
+        <v>45265</v>
+      </c>
+      <c r="L21" s="170">
+        <v>45266</v>
+      </c>
+      <c r="M21" s="171" t="s">
+        <v>50</v>
+      </c>
+      <c r="N21" s="171" t="s">
+        <v>167</v>
+      </c>
+      <c r="O21" s="170">
+        <v>45265</v>
+      </c>
+      <c r="P21" s="170">
+        <v>45266</v>
+      </c>
+      <c r="Q21" s="173">
         <v>1</v>
       </c>
-      <c r="E21" s="138"/>
-      <c r="F21" s="139" t="s">
-        <v>154</v>
-      </c>
-      <c r="G21" s="139"/>
-      <c r="H21" s="140"/>
-      <c r="I21" s="140"/>
-      <c r="J21" s="299" t="str">
-        <f>CONCATENATE(NETWORKDAYS(K21,L21,holiday!B34:B1048575),"일")</f>
-        <v>8일</v>
-      </c>
-      <c r="K21" s="142">
-        <v>45265</v>
-      </c>
-      <c r="L21" s="143">
-        <v>45274</v>
-      </c>
-      <c r="M21" s="144" t="s">
-        <v>50</v>
-      </c>
-      <c r="N21" s="144" t="s">
-        <v>167</v>
-      </c>
-      <c r="O21" s="144">
-        <v>45265</v>
-      </c>
-      <c r="P21" s="144">
-        <v>45274</v>
-      </c>
-      <c r="Q21" s="145">
-        <f ca="1">SUM(Q22,Q25)/COUNT(Q22,Q25)</f>
-        <v>1</v>
-      </c>
-      <c r="R21" s="315">
+      <c r="R21" s="314">
         <f ca="1">IF(Q21=100%,0,IF(_xlfn.DAYS(L21,TODAY())=0,0,_xlfn.DAYS(L21,TODAY())))</f>
         <v>0</v>
       </c>
-      <c r="S21" s="151"/>
-      <c r="T21" s="27"/>
-      <c r="U21" s="28"/>
-      <c r="V21" s="42"/>
-      <c r="W21" s="29" t="s">
-        <v>48</v>
-      </c>
+      <c r="S21" s="177" t="s">
+        <v>233</v>
+      </c>
+      <c r="T21" s="30"/>
+      <c r="U21" s="31"/>
+      <c r="V21" s="34"/>
+      <c r="W21" s="15"/>
     </row>
-    <row r="22" spans="2:23" s="32" customFormat="1" ht="19.500000" customHeight="1" outlineLevel="2">
+    <row r="22" spans="2:23" s="32" customFormat="1" ht="19.500000" customHeight="1" outlineLevel="3">
       <c r="B22" s="88">
         <f>B21+1</f>
         <v>4</v>
       </c>
-      <c r="C22" s="152" t="s">
-        <v>82</v>
-      </c>
-      <c r="D22" s="153">
+      <c r="C22" s="165" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" s="166">
         <f>IF(COUNTBLANK(E22:I22)&lt;5,IF(E22&lt;&gt;"",0,IF(F22&lt;&gt;"",1,IF(G22&lt;&gt;"",2,IF(H22&lt;&gt;"",3,IF(I22&lt;&gt;"",4))))),"")</f>
-        <v>2</v>
-      </c>
-      <c r="E22" s="154"/>
-      <c r="F22" s="155"/>
-      <c r="G22" s="155" t="s">
-        <v>155</v>
-      </c>
-      <c r="H22" s="152"/>
-      <c r="I22" s="152"/>
-      <c r="J22" s="156" t="str">
-        <f>CONCATENATE(NETWORKDAYS(K22,L22,holiday!B4:B39),"일")</f>
+        <v>3</v>
+      </c>
+      <c r="E22" s="167"/>
+      <c r="F22" s="168"/>
+      <c r="G22" s="168"/>
+      <c r="H22" s="165" t="s">
+        <v>157</v>
+      </c>
+      <c r="I22" s="165"/>
+      <c r="J22" s="373" t="str">
+        <f>CONCATENATE(NETWORKDAYS(K22,L22),"일")</f>
         <v>2일</v>
       </c>
-      <c r="K22" s="157">
+      <c r="K22" s="170">
         <v>45265</v>
       </c>
-      <c r="L22" s="157">
+      <c r="L22" s="170">
         <v>45266</v>
       </c>
-      <c r="M22" s="158" t="s">
-        <v>50</v>
-      </c>
-      <c r="N22" s="158" t="s">
+      <c r="M22" s="171" t="s">
+        <v>43</v>
+      </c>
+      <c r="N22" s="171" t="s">
         <v>167</v>
       </c>
-      <c r="O22" s="160">
-        <v>45265</v>
-      </c>
-      <c r="P22" s="160">
+      <c r="O22" s="170">
+        <v>45266</v>
+      </c>
+      <c r="P22" s="170">
         <v>45267</v>
       </c>
-      <c r="Q22" s="159">
-        <f ca="1">SUM(Q22:Q25)/COUNT(Q22:Q25)</f>
+      <c r="Q22" s="173">
         <v>1</v>
       </c>
       <c r="R22" s="314">
         <f ca="1">IF(Q22=100%,0,IF(_xlfn.DAYS(L22,TODAY())=0,0,_xlfn.DAYS(L22,TODAY())))</f>
         <v>0</v>
       </c>
-      <c r="S22" s="164"/>
+      <c r="S22" s="177" t="s">
+        <v>234</v>
+      </c>
       <c r="T22" s="30"/>
       <c r="U22" s="31"/>
       <c r="V22" s="34"/>
@@ -19749,52 +20132,51 @@
         <f>B22+1</f>
         <v>5</v>
       </c>
-      <c r="C23" s="165" t="s">
-        <v>83</v>
-      </c>
-      <c r="D23" s="166">
+      <c r="C23" s="300" t="s">
+        <v>161</v>
+      </c>
+      <c r="D23" s="301">
         <f>IF(COUNTBLANK(E23:I23)&lt;5,IF(E23&lt;&gt;"",0,IF(F23&lt;&gt;"",1,IF(G23&lt;&gt;"",2,IF(H23&lt;&gt;"",3,IF(I23&lt;&gt;"",4))))),"")</f>
-        <v>3</v>
-      </c>
-      <c r="E23" s="167"/>
-      <c r="F23" s="168"/>
-      <c r="G23" s="168"/>
-      <c r="H23" s="165" t="s">
-        <v>150</v>
-      </c>
-      <c r="I23" s="165"/>
-      <c r="J23" s="169" t="str">
-        <f>CONCATENATE(NETWORKDAYS(K23,L23,holiday!B4:B39),"일")</f>
-        <v>2일</v>
-      </c>
-      <c r="K23" s="170">
-        <v>45265</v>
-      </c>
-      <c r="L23" s="170">
-        <v>45266</v>
-      </c>
-      <c r="M23" s="171" t="s">
-        <v>50</v>
-      </c>
-      <c r="N23" s="171" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="302"/>
+      <c r="F23" s="303"/>
+      <c r="G23" s="303" t="s">
+        <v>188</v>
+      </c>
+      <c r="H23" s="300"/>
+      <c r="I23" s="300"/>
+      <c r="J23" s="378" t="str">
+        <f>CONCATENATE(NETWORKDAYS(K23,L23),"일")</f>
+        <v>4일</v>
+      </c>
+      <c r="K23" s="305">
+        <v>45271</v>
+      </c>
+      <c r="L23" s="305">
+        <v>45274</v>
+      </c>
+      <c r="M23" s="306" t="s">
+        <v>43</v>
+      </c>
+      <c r="N23" s="306" t="s">
         <v>167</v>
       </c>
-      <c r="O23" s="170">
-        <v>45265</v>
-      </c>
-      <c r="P23" s="170">
-        <v>45266</v>
-      </c>
-      <c r="Q23" s="173">
+      <c r="O23" s="305">
+        <v>45271</v>
+      </c>
+      <c r="P23" s="305">
+        <v>45274</v>
+      </c>
+      <c r="Q23" s="307">
+        <f>SUM(Q24:Q25)/COUNT(Q24:Q25)</f>
         <v>1</v>
       </c>
       <c r="R23" s="314">
         <f ca="1">IF(Q23=100%,0,IF(_xlfn.DAYS(L23,TODAY())=0,0,_xlfn.DAYS(L23,TODAY())))</f>
         <v>0</v>
       </c>
-      <c r="S23" s="177" t="s">
-        <v>199</v>
-      </c>
+      <c r="S23" s="312"/>
       <c r="T23" s="30"/>
       <c r="U23" s="31"/>
       <c r="V23" s="34"/>
@@ -19805,7 +20187,7 @@
         <v>6</v>
       </c>
       <c r="C24" s="165" t="s">
-        <v>84</v>
+        <v>162</v>
       </c>
       <c r="D24" s="166">
         <f>IF(COUNTBLANK(E24:I24)&lt;5,IF(E24&lt;&gt;"",0,IF(F24&lt;&gt;"",1,IF(G24&lt;&gt;"",2,IF(H24&lt;&gt;"",3,IF(I24&lt;&gt;"",4))))),"")</f>
@@ -19815,18 +20197,18 @@
       <c r="F24" s="168"/>
       <c r="G24" s="168"/>
       <c r="H24" s="165" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I24" s="165"/>
-      <c r="J24" s="169" t="str">
-        <f>CONCATENATE(NETWORKDAYS(K24,L24,holiday!B4:B39),"일")</f>
+      <c r="J24" s="373" t="str">
+        <f>CONCATENATE(NETWORKDAYS(K24,L24),"일")</f>
         <v>2일</v>
       </c>
       <c r="K24" s="170">
-        <v>45265</v>
+        <v>45271</v>
       </c>
       <c r="L24" s="170">
-        <v>45266</v>
+        <v>45272</v>
       </c>
       <c r="M24" s="171" t="s">
         <v>43</v>
@@ -19835,10 +20217,10 @@
         <v>167</v>
       </c>
       <c r="O24" s="170">
-        <v>45266</v>
+        <v>45271</v>
       </c>
       <c r="P24" s="170">
-        <v>45267</v>
+        <v>45273</v>
       </c>
       <c r="Q24" s="173">
         <v>1</v>
@@ -19847,9 +20229,7 @@
         <f ca="1">IF(Q24=100%,0,IF(_xlfn.DAYS(L24,TODAY())=0,0,_xlfn.DAYS(L24,TODAY())))</f>
         <v>0</v>
       </c>
-      <c r="S24" s="177" t="s">
-        <v>200</v>
-      </c>
+      <c r="S24" s="177"/>
       <c r="T24" s="30"/>
       <c r="U24" s="31"/>
       <c r="V24" s="34"/>
@@ -19859,729 +20239,663 @@
         <f>B24+1</f>
         <v>7</v>
       </c>
-      <c r="C25" s="300" t="s">
-        <v>161</v>
-      </c>
-      <c r="D25" s="301">
+      <c r="C25" s="165" t="s">
+        <v>163</v>
+      </c>
+      <c r="D25" s="166">
         <f>IF(COUNTBLANK(E25:I25)&lt;5,IF(E25&lt;&gt;"",0,IF(F25&lt;&gt;"",1,IF(G25&lt;&gt;"",2,IF(H25&lt;&gt;"",3,IF(I25&lt;&gt;"",4))))),"")</f>
-        <v>2</v>
-      </c>
-      <c r="E25" s="302"/>
-      <c r="F25" s="303"/>
-      <c r="G25" s="303" t="s">
-        <v>188</v>
-      </c>
-      <c r="H25" s="300"/>
-      <c r="I25" s="300"/>
-      <c r="J25" s="304" t="str">
-        <f>CONCATENATE(NETWORKDAYS(K25,L25,holiday!B4:B39),"일")</f>
-        <v>4일</v>
-      </c>
-      <c r="K25" s="305">
-        <v>45271</v>
-      </c>
-      <c r="L25" s="305">
+        <v>3</v>
+      </c>
+      <c r="E25" s="167"/>
+      <c r="F25" s="168"/>
+      <c r="G25" s="168"/>
+      <c r="H25" s="165" t="s">
+        <v>172</v>
+      </c>
+      <c r="I25" s="165"/>
+      <c r="J25" s="373" t="str">
+        <f>CONCATENATE(NETWORKDAYS(K25,L25),"일")</f>
+        <v>2일</v>
+      </c>
+      <c r="K25" s="170">
+        <v>45273</v>
+      </c>
+      <c r="L25" s="170">
         <v>45274</v>
       </c>
-      <c r="M25" s="306" t="s">
+      <c r="M25" s="171" t="s">
         <v>43</v>
       </c>
-      <c r="N25" s="306" t="s">
+      <c r="N25" s="171" t="s">
         <v>167</v>
       </c>
-      <c r="O25" s="305">
-        <v>45271</v>
-      </c>
-      <c r="P25" s="305">
+      <c r="O25" s="170">
+        <v>45273</v>
+      </c>
+      <c r="P25" s="170">
         <v>45274</v>
       </c>
-      <c r="Q25" s="307">
-        <f>SUM(Q26:Q27)/COUNT(Q26:Q27)</f>
+      <c r="Q25" s="173">
         <v>1</v>
       </c>
       <c r="R25" s="314">
         <f ca="1">IF(Q25=100%,0,IF(_xlfn.DAYS(L25,TODAY())=0,0,_xlfn.DAYS(L25,TODAY())))</f>
         <v>0</v>
       </c>
-      <c r="S25" s="312"/>
+      <c r="S25" s="177" t="s">
+        <v>235</v>
+      </c>
       <c r="T25" s="30"/>
       <c r="U25" s="31"/>
       <c r="V25" s="34"/>
     </row>
-    <row r="26" spans="2:23" s="32" customFormat="1" ht="19.500000" customHeight="1" outlineLevel="3">
+    <row r="26" spans="2:23" s="29" customFormat="1" ht="19.500000" customHeight="1" outlineLevel="1">
       <c r="B26" s="88">
         <f>B25+1</f>
         <v>8</v>
       </c>
-      <c r="C26" s="165" t="s">
-        <v>162</v>
-      </c>
-      <c r="D26" s="166">
+      <c r="C26" s="136" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" s="137">
         <f>IF(COUNTBLANK(E26:I26)&lt;5,IF(E26&lt;&gt;"",0,IF(F26&lt;&gt;"",1,IF(G26&lt;&gt;"",2,IF(H26&lt;&gt;"",3,IF(I26&lt;&gt;"",4))))),"")</f>
-        <v>3</v>
-      </c>
-      <c r="E26" s="167"/>
-      <c r="F26" s="168"/>
-      <c r="G26" s="168"/>
-      <c r="H26" s="165" t="s">
-        <v>156</v>
-      </c>
-      <c r="I26" s="165"/>
-      <c r="J26" s="169" t="str">
-        <f>CONCATENATE(NETWORKDAYS(K26,L26,holiday!B4:B39),"일")</f>
-        <v>2일</v>
-      </c>
-      <c r="K26" s="170">
-        <v>45271</v>
-      </c>
-      <c r="L26" s="170">
-        <v>45272</v>
-      </c>
-      <c r="M26" s="171" t="s">
-        <v>43</v>
-      </c>
-      <c r="N26" s="171" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26" s="138"/>
+      <c r="F26" s="139" t="s">
+        <v>109</v>
+      </c>
+      <c r="G26" s="139"/>
+      <c r="H26" s="140"/>
+      <c r="I26" s="140"/>
+      <c r="J26" s="380" t="str">
+        <f>CONCATENATE(NETWORKDAYS(K26,L26),"일")</f>
+        <v>5일</v>
+      </c>
+      <c r="K26" s="144">
+        <v>45278</v>
+      </c>
+      <c r="L26" s="144">
+        <v>45284</v>
+      </c>
+      <c r="M26" s="144" t="s">
+        <v>50</v>
+      </c>
+      <c r="N26" s="144" t="s">
         <v>167</v>
       </c>
-      <c r="O26" s="170">
-        <v>45271</v>
-      </c>
-      <c r="P26" s="170">
-        <v>45273</v>
-      </c>
-      <c r="Q26" s="173">
-        <v>1</v>
+      <c r="O26" s="144">
+        <v>45278</v>
+      </c>
+      <c r="P26" s="144"/>
+      <c r="Q26" s="145">
+        <f>(SUM(Q27,Q28,Q33)/COUNT(Q27,Q28,Q33))</f>
+        <v>0.333333333333333</v>
       </c>
       <c r="R26" s="314">
         <f ca="1">IF(Q26=100%,0,IF(_xlfn.DAYS(L26,TODAY())=0,0,_xlfn.DAYS(L26,TODAY())))</f>
-        <v>0</v>
-      </c>
-      <c r="S26" s="177"/>
-      <c r="T26" s="30"/>
-      <c r="U26" s="31"/>
-      <c r="V26" s="34"/>
+        <v>6</v>
+      </c>
+      <c r="S26" s="151"/>
+      <c r="T26" s="27"/>
+      <c r="U26" s="28"/>
+      <c r="V26" s="42"/>
     </row>
-    <row r="27" spans="2:23" s="32" customFormat="1" ht="19.500000" customHeight="1" outlineLevel="3">
-      <c r="B27" s="88" t="e">
-        <f>#REF!+1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C27" s="165" t="s">
-        <v>163</v>
-      </c>
-      <c r="D27" s="166">
+    <row r="27" spans="2:23" s="32" customFormat="1" ht="19.500000" customHeight="1" outlineLevel="2">
+      <c r="B27" s="88">
+        <f>B26+1</f>
+        <v>9</v>
+      </c>
+      <c r="C27" s="152" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" s="153">
         <f>IF(COUNTBLANK(E27:I27)&lt;5,IF(E27&lt;&gt;"",0,IF(F27&lt;&gt;"",1,IF(G27&lt;&gt;"",2,IF(H27&lt;&gt;"",3,IF(I27&lt;&gt;"",4))))),"")</f>
-        <v>3</v>
-      </c>
-      <c r="E27" s="167"/>
-      <c r="F27" s="168"/>
-      <c r="G27" s="168"/>
-      <c r="H27" s="165" t="s">
-        <v>172</v>
-      </c>
-      <c r="I27" s="165"/>
-      <c r="J27" s="169" t="str">
-        <f>CONCATENATE(NETWORKDAYS(K27,L27,holiday!B5:B40),"일")</f>
-        <v>2일</v>
-      </c>
-      <c r="K27" s="170">
-        <v>45273</v>
-      </c>
-      <c r="L27" s="170">
-        <v>45274</v>
-      </c>
-      <c r="M27" s="171" t="s">
-        <v>43</v>
-      </c>
-      <c r="N27" s="171" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" s="154"/>
+      <c r="F27" s="155"/>
+      <c r="G27" s="155" t="s">
+        <v>202</v>
+      </c>
+      <c r="H27" s="152"/>
+      <c r="I27" s="152"/>
+      <c r="J27" s="378" t="str">
+        <f>CONCATENATE(NETWORKDAYS(K27,L27),"일")</f>
+        <v>1일</v>
+      </c>
+      <c r="K27" s="157">
+        <v>45278</v>
+      </c>
+      <c r="L27" s="157">
+        <v>45278</v>
+      </c>
+      <c r="M27" s="158" t="s">
+        <v>50</v>
+      </c>
+      <c r="N27" s="158" t="s">
         <v>167</v>
       </c>
-      <c r="O27" s="170">
-        <v>45273</v>
-      </c>
-      <c r="P27" s="170">
-        <v>45274</v>
-      </c>
-      <c r="Q27" s="173">
+      <c r="O27" s="160">
+        <v>45278</v>
+      </c>
+      <c r="P27" s="160">
+        <v>45278</v>
+      </c>
+      <c r="Q27" s="159">
         <v>1</v>
       </c>
       <c r="R27" s="314">
         <f ca="1">IF(Q27=100%,0,IF(_xlfn.DAYS(L27,TODAY())=0,0,_xlfn.DAYS(L27,TODAY())))</f>
         <v>0</v>
       </c>
-      <c r="S27" s="177" t="s">
-        <v>201</v>
+      <c r="S27" s="179" t="s">
+        <v>236</v>
       </c>
       <c r="T27" s="30"/>
       <c r="U27" s="31"/>
       <c r="V27" s="34"/>
     </row>
-    <row r="28" spans="2:23" s="29" customFormat="1" ht="19.500000" customHeight="1" outlineLevel="1">
-      <c r="B28" s="88" t="e">
+    <row r="28" spans="2:23" s="32" customFormat="1" ht="19.500000" customHeight="1" outlineLevel="2">
+      <c r="B28" s="88">
         <f>B27+1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C28" s="136" t="s">
-        <v>55</v>
-      </c>
-      <c r="D28" s="137">
+        <v>10</v>
+      </c>
+      <c r="C28" s="152" t="s">
+        <v>69</v>
+      </c>
+      <c r="D28" s="153">
         <f>IF(COUNTBLANK(E28:I28)&lt;5,IF(E28&lt;&gt;"",0,IF(F28&lt;&gt;"",1,IF(G28&lt;&gt;"",2,IF(H28&lt;&gt;"",3,IF(I28&lt;&gt;"",4))))),"")</f>
-        <v>1</v>
-      </c>
-      <c r="E28" s="138"/>
-      <c r="F28" s="139" t="s">
-        <v>109</v>
-      </c>
-      <c r="G28" s="139"/>
-      <c r="H28" s="140"/>
-      <c r="I28" s="140"/>
-      <c r="J28" s="141" t="str">
-        <f>IF(COUNTBLANK(K28:L28)&gt;0,"미정",CONCATENATE(NETWORKDAYS(K28,L28,holiday!B4:B39),"일"))</f>
-        <v>7일</v>
-      </c>
-      <c r="K28" s="144">
-        <f>MIN(K29:K35)</f>
-        <v>43150</v>
-      </c>
-      <c r="L28" s="144">
-        <f>MAX(L29:L35)</f>
-        <v>43158</v>
-      </c>
-      <c r="M28" s="144" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28" s="154"/>
+      <c r="F28" s="155"/>
+      <c r="G28" s="155" t="s">
+        <v>146</v>
+      </c>
+      <c r="H28" s="152"/>
+      <c r="I28" s="152"/>
+      <c r="J28" s="378" t="str">
+        <f>CONCATENATE(NETWORKDAYS(K28,L28),"일")</f>
+        <v>5일</v>
+      </c>
+      <c r="K28" s="157">
+        <v>45278</v>
+      </c>
+      <c r="L28" s="157">
+        <v>45284</v>
+      </c>
+      <c r="M28" s="158" t="s">
         <v>50</v>
       </c>
-      <c r="N28" s="144" t="s">
-        <v>123</v>
-      </c>
-      <c r="O28" s="144">
-        <f>IF(COUNTA(O29:O35)&gt;0,MIN(O29:O35),"")</f>
-        <v>43150</v>
-      </c>
-      <c r="P28" s="144">
-        <f>IF(COUNTA(P29:P35)&gt;0,MAX(P29:P35),"")</f>
-        <v>43158</v>
-      </c>
-      <c r="Q28" s="145">
-        <f>SUM(Q29,Q32)/COUNT(Q29,Q32)</f>
+      <c r="N28" s="158" t="s">
+        <v>167</v>
+      </c>
+      <c r="O28" s="160">
+        <v>45278</v>
+      </c>
+      <c r="P28" s="160"/>
+      <c r="Q28" s="159">
         <v>0</v>
       </c>
-      <c r="R28" s="149">
-        <f>IF(COUNTBLANK(K28:L28)&gt;0,0,IF(L28-$O$2&lt;=0,0,NETWORKDAYS($O$2,L28,holiday!B4:B39)))</f>
-        <v>30825</v>
-      </c>
-      <c r="S28" s="151"/>
-      <c r="T28" s="27"/>
-      <c r="U28" s="28"/>
-      <c r="V28" s="42"/>
+      <c r="R28" s="314">
+        <f ca="1">IF(Q28=100%,0,IF(_xlfn.DAYS(L28,TODAY())=0,0,_xlfn.DAYS(L28,TODAY())))</f>
+        <v>6</v>
+      </c>
+      <c r="S28" s="164"/>
+      <c r="T28" s="30"/>
+      <c r="U28" s="31"/>
+      <c r="V28" s="34"/>
     </row>
-    <row r="29" spans="2:23" s="32" customFormat="1" ht="19.500000" customHeight="1" outlineLevel="2">
-      <c r="B29" s="88" t="e">
+    <row r="29" spans="2:23" s="32" customFormat="1" ht="19.500000" customHeight="1" outlineLevel="3">
+      <c r="B29" s="88">
         <f>B28+1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C29" s="152" t="s">
-        <v>68</v>
-      </c>
-      <c r="D29" s="153">
+        <v>11</v>
+      </c>
+      <c r="C29" s="165" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" s="166">
         <f>IF(COUNTBLANK(E29:I29)&lt;5,IF(E29&lt;&gt;"",0,IF(F29&lt;&gt;"",1,IF(G29&lt;&gt;"",2,IF(H29&lt;&gt;"",3,IF(I29&lt;&gt;"",4))))),"")</f>
-        <v>2</v>
-      </c>
-      <c r="E29" s="154"/>
-      <c r="F29" s="155"/>
-      <c r="G29" s="155" t="s">
-        <v>202</v>
-      </c>
-      <c r="H29" s="152"/>
-      <c r="I29" s="152"/>
-      <c r="J29" s="156" t="str">
-        <f>CONCATENATE(NETWORKDAYS(K29,L29,holiday!B4:B39),"일")</f>
-        <v>2일</v>
-      </c>
-      <c r="K29" s="157">
-        <v>43150</v>
-      </c>
-      <c r="L29" s="157">
-        <v>43151</v>
-      </c>
-      <c r="M29" s="158" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" s="167"/>
+      <c r="F29" s="168"/>
+      <c r="G29" s="316"/>
+      <c r="H29" s="165" t="s">
+        <v>207</v>
+      </c>
+      <c r="I29" s="165"/>
+      <c r="J29" s="373" t="str">
+        <f>CONCATENATE(NETWORKDAYS(K29,L29),"일")</f>
+        <v>1일</v>
+      </c>
+      <c r="K29" s="170">
+        <v>45278</v>
+      </c>
+      <c r="L29" s="170">
+        <v>45278</v>
+      </c>
+      <c r="M29" s="171" t="s">
         <v>50</v>
       </c>
-      <c r="N29" s="158" t="s">
-        <v>124</v>
-      </c>
-      <c r="O29" s="160">
-        <v>43150</v>
-      </c>
-      <c r="P29" s="160">
-        <v>43152</v>
-      </c>
-      <c r="Q29" s="159">
+      <c r="N29" s="171" t="s">
+        <v>167</v>
+      </c>
+      <c r="O29" s="325">
+        <v>45278</v>
+      </c>
+      <c r="P29" s="325"/>
+      <c r="Q29" s="326">
         <v>0</v>
       </c>
-      <c r="R29" s="120">
-        <f>IF(COUNTBLANK(K29:L29)&gt;0,0,IF(L29-$O$2&lt;=0,0,NETWORKDAYS($O$2,L29,holiday!B4:B39)))</f>
-        <v>30820</v>
-      </c>
-      <c r="S29" s="179" t="s">
-        <v>211</v>
+      <c r="R29" s="314">
+        <f ca="1">IF(Q29=100%,0,IF(_xlfn.DAYS(L29,TODAY())=0,0,_xlfn.DAYS(L29,TODAY())))</f>
+        <v>0</v>
+      </c>
+      <c r="S29" s="327" t="s">
+        <v>212</v>
       </c>
       <c r="T29" s="30"/>
       <c r="U29" s="31"/>
       <c r="V29" s="34"/>
     </row>
     <row r="30" spans="2:23" s="32" customFormat="1" ht="19.500000" customHeight="1" outlineLevel="2">
-      <c r="B30" s="88" t="e">
+      <c r="B30" s="88">
         <f>B29+1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C30" s="152" t="s">
-        <v>69</v>
-      </c>
-      <c r="D30" s="153">
+        <v>12</v>
+      </c>
+      <c r="C30" s="165" t="s">
+        <v>216</v>
+      </c>
+      <c r="D30" s="320">
         <f>IF(COUNTBLANK(E30:I30)&lt;5,IF(E30&lt;&gt;"",0,IF(F30&lt;&gt;"",1,IF(G30&lt;&gt;"",2,IF(H30&lt;&gt;"",3,IF(I30&lt;&gt;"",4))))),"")</f>
-        <v>2</v>
-      </c>
-      <c r="E30" s="154"/>
-      <c r="F30" s="155"/>
-      <c r="G30" s="155" t="s">
-        <v>146</v>
-      </c>
-      <c r="H30" s="152"/>
-      <c r="I30" s="152"/>
-      <c r="J30" s="156" t="str">
-        <f>CONCATENATE(NETWORKDAYS(K30,L30,holiday!B4:B39),"일")</f>
+        <v>3</v>
+      </c>
+      <c r="E30" s="321"/>
+      <c r="F30" s="316"/>
+      <c r="G30" s="316"/>
+      <c r="H30" s="319" t="s">
+        <v>208</v>
+      </c>
+      <c r="I30" s="319"/>
+      <c r="J30" s="373" t="str">
+        <f>CONCATENATE(NETWORKDAYS(K30,L30),"일")</f>
         <v>4일</v>
       </c>
-      <c r="K30" s="157">
-        <f>MIN(K31)</f>
-        <v>43151</v>
-      </c>
-      <c r="L30" s="157">
-        <f>MAX(L31)</f>
-        <v>43154</v>
-      </c>
-      <c r="M30" s="158" t="s">
+      <c r="K30" s="323">
+        <v>45279</v>
+      </c>
+      <c r="L30" s="323">
+        <v>45282</v>
+      </c>
+      <c r="M30" s="324" t="s">
         <v>50</v>
       </c>
-      <c r="N30" s="158" t="s">
-        <v>124</v>
-      </c>
-      <c r="O30" s="160">
-        <f>MIN(O31)</f>
-        <v>43151</v>
-      </c>
-      <c r="P30" s="160">
-        <f>MAX(P31)</f>
-        <v>43154</v>
-      </c>
-      <c r="Q30" s="159">
+      <c r="N30" s="324" t="s">
+        <v>167</v>
+      </c>
+      <c r="O30" s="325"/>
+      <c r="P30" s="325"/>
+      <c r="Q30" s="326">
         <v>0</v>
       </c>
-      <c r="R30" s="120">
-        <f>IF(COUNTBLANK(K30:L30)&gt;0,0,IF(L30-$O$2&lt;=0,0,NETWORKDAYS($O$2,L30,holiday!B4:B39)))</f>
-        <v>30823</v>
-      </c>
-      <c r="S30" s="164"/>
+      <c r="R30" s="314">
+        <f ca="1">IF(Q30=100%,0,IF(_xlfn.DAYS(L30,TODAY())=0,0,_xlfn.DAYS(L30,TODAY())))</f>
+        <v>4</v>
+      </c>
+      <c r="S30" s="327" t="s">
+        <v>213</v>
+      </c>
       <c r="T30" s="30"/>
       <c r="U30" s="31"/>
       <c r="V30" s="34"/>
     </row>
-    <row r="31" spans="2:23" s="32" customFormat="1" ht="19.500000" customHeight="1" outlineLevel="3">
-      <c r="B31" s="88" t="e">
+    <row r="31" spans="2:23" s="32" customFormat="1" ht="19.500000">
+      <c r="B31" s="88">
         <f>B30+1</f>
-        <v>#REF!</v>
+        <v>13</v>
       </c>
       <c r="C31" s="165" t="s">
-        <v>70</v>
-      </c>
-      <c r="D31" s="166">
-        <f>IF(COUNTBLANK(E31:I31)&lt;5,IF(E31&lt;&gt;"",0,IF(F31&lt;&gt;"",1,IF(G31&lt;&gt;"",2,IF(H31&lt;&gt;"",3,IF(I31&lt;&gt;"",4))))),"")</f>
-        <v>3</v>
-      </c>
-      <c r="E31" s="167"/>
-      <c r="F31" s="168"/>
+        <v>217</v>
+      </c>
+      <c r="D31" s="320"/>
+      <c r="E31" s="321"/>
+      <c r="F31" s="316"/>
       <c r="G31" s="316"/>
-      <c r="H31" s="165" t="s">
-        <v>207</v>
-      </c>
-      <c r="I31" s="165"/>
-      <c r="J31" s="169" t="str">
-        <f>CONCATENATE(NETWORKDAYS(K31,L31,holiday!B4:B39),"일")</f>
-        <v>4일</v>
-      </c>
-      <c r="K31" s="170">
-        <v>43151</v>
-      </c>
-      <c r="L31" s="170">
-        <v>43154</v>
-      </c>
-      <c r="M31" s="171" t="s">
-        <v>50</v>
-      </c>
-      <c r="N31" s="171" t="s">
-        <v>124</v>
-      </c>
-      <c r="O31" s="325">
-        <v>43151</v>
-      </c>
-      <c r="P31" s="325">
-        <v>43154</v>
-      </c>
-      <c r="Q31" s="326">
-        <v>0</v>
-      </c>
-      <c r="R31" s="120">
-        <f>IF(COUNTBLANK(K31:L31)&gt;0,0,IF(L31-$O$2&lt;=0,0,NETWORKDAYS($O$2,L31,holiday!B4:B39)))</f>
-        <v>30823</v>
+      <c r="H31" s="319" t="s">
+        <v>209</v>
+      </c>
+      <c r="I31" s="319"/>
+      <c r="J31" s="373" t="str">
+        <f>CONCATENATE(NETWORKDAYS(K31,L31),"일")</f>
+        <v>0일</v>
+      </c>
+      <c r="K31" s="323">
+        <v>45283</v>
+      </c>
+      <c r="L31" s="323">
+        <v>45284</v>
+      </c>
+      <c r="M31" s="324"/>
+      <c r="N31" s="324" t="s">
+        <v>167</v>
+      </c>
+      <c r="O31" s="325"/>
+      <c r="P31" s="325"/>
+      <c r="Q31" s="326"/>
+      <c r="R31" s="314">
+        <f ca="1">IF(Q31=100%,0,IF(_xlfn.DAYS(L31,TODAY())=0,0,_xlfn.DAYS(L31,TODAY())))</f>
+        <v>6</v>
       </c>
       <c r="S31" s="327" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="T31" s="30"/>
       <c r="U31" s="31"/>
       <c r="V31" s="34"/>
     </row>
-    <row r="32" spans="2:23" s="32" customFormat="1" ht="19.500000" customHeight="1" outlineLevel="2">
-      <c r="B32" s="88" t="e">
+    <row r="32" spans="2:23" s="32" customFormat="1" ht="19.500000">
+      <c r="B32" s="88">
         <f>B31+1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C32" s="319" t="s">
-        <v>71</v>
-      </c>
-      <c r="D32" s="320">
-        <f>IF(COUNTBLANK(E32:I32)&lt;5,IF(E32&lt;&gt;"",0,IF(F32&lt;&gt;"",1,IF(G32&lt;&gt;"",2,IF(H32&lt;&gt;"",3,IF(I32&lt;&gt;"",4))))),"")</f>
-        <v>3</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C32" s="165" t="s">
+        <v>218</v>
+      </c>
+      <c r="D32" s="320"/>
       <c r="E32" s="321"/>
       <c r="F32" s="316"/>
       <c r="G32" s="316"/>
       <c r="H32" s="319" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="I32" s="319"/>
-      <c r="J32" s="322" t="str">
-        <f>CONCATENATE(NETWORKDAYS(K32,L32,holiday!B4:B39),"일")</f>
-        <v>5일</v>
+      <c r="J32" s="373" t="str">
+        <f>CONCATENATE(NETWORKDAYS(K32,L32),"일")</f>
+        <v>0일</v>
       </c>
       <c r="K32" s="323">
-        <f>MIN(K35)</f>
-        <v>43152</v>
+        <v>45284</v>
       </c>
       <c r="L32" s="323">
-        <f>MAX(L35)</f>
-        <v>43158</v>
-      </c>
-      <c r="M32" s="324" t="s">
-        <v>50</v>
-      </c>
+        <v>45284</v>
+      </c>
+      <c r="M32" s="324"/>
       <c r="N32" s="324" t="s">
-        <v>125</v>
-      </c>
-      <c r="O32" s="325">
-        <f>MIN(O35)</f>
-        <v>43152</v>
-      </c>
-      <c r="P32" s="325">
-        <f>MAX(P35)</f>
-        <v>43158</v>
-      </c>
-      <c r="Q32" s="326">
-        <v>0</v>
-      </c>
-      <c r="R32" s="120">
-        <f>IF(COUNTBLANK(K32:L32)&gt;0,0,IF(L32-$O$2&lt;=0,0,NETWORKDAYS($O$2,L32,holiday!B4:B39)))</f>
-        <v>30825</v>
+        <v>167</v>
+      </c>
+      <c r="O32" s="325"/>
+      <c r="P32" s="325"/>
+      <c r="Q32" s="326"/>
+      <c r="R32" s="314">
+        <f ca="1">IF(Q32=100%,0,IF(_xlfn.DAYS(L32,TODAY())=0,0,_xlfn.DAYS(L32,TODAY())))</f>
+        <v>6</v>
       </c>
       <c r="S32" s="327" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="T32" s="30"/>
       <c r="U32" s="31"/>
       <c r="V32" s="34"/>
     </row>
-    <row r="33" spans="2:22" s="32" customFormat="1" ht="19.500000">
-      <c r="B33" s="88"/>
-      <c r="C33" s="319"/>
-      <c r="D33" s="320"/>
-      <c r="E33" s="321"/>
-      <c r="F33" s="316"/>
-      <c r="G33" s="316"/>
-      <c r="H33" s="319" t="s">
-        <v>209</v>
-      </c>
-      <c r="I33" s="319"/>
-      <c r="J33" s="322"/>
-      <c r="K33" s="323"/>
-      <c r="L33" s="323"/>
-      <c r="M33" s="324"/>
-      <c r="N33" s="324"/>
-      <c r="O33" s="325"/>
-      <c r="P33" s="325"/>
-      <c r="Q33" s="326"/>
-      <c r="R33" s="120"/>
-      <c r="S33" s="327" t="s">
-        <v>214</v>
-      </c>
+    <row r="33" spans="2:22" s="32" customFormat="1" ht="19.500000" customHeight="1" outlineLevel="3">
+      <c r="B33" s="88">
+        <f>B32+1</f>
+        <v>15</v>
+      </c>
+      <c r="C33" s="300" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33" s="301">
+        <f>IF(COUNTBLANK(E33:I33)&lt;5,IF(E33&lt;&gt;"",0,IF(F33&lt;&gt;"",1,IF(G33&lt;&gt;"",2,IF(H33&lt;&gt;"",3,IF(I33&lt;&gt;"",4))))),"")</f>
+        <v>2</v>
+      </c>
+      <c r="E33" s="302"/>
+      <c r="F33" s="303"/>
+      <c r="G33" s="303" t="s">
+        <v>147</v>
+      </c>
+      <c r="H33" s="300"/>
+      <c r="I33" s="300"/>
+      <c r="J33" s="378" t="str">
+        <f>CONCATENATE(NETWORKDAYS(K33,L33),"일")</f>
+        <v>5일</v>
+      </c>
+      <c r="K33" s="305">
+        <v>45278</v>
+      </c>
+      <c r="L33" s="305">
+        <v>45284</v>
+      </c>
+      <c r="M33" s="306"/>
+      <c r="N33" s="306" t="s">
+        <v>167</v>
+      </c>
+      <c r="O33" s="328"/>
+      <c r="P33" s="328"/>
+      <c r="Q33" s="307">
+        <v>0</v>
+      </c>
+      <c r="R33" s="314">
+        <f ca="1">IF(Q33=100%,0,IF(_xlfn.DAYS(L33,TODAY())=0,0,_xlfn.DAYS(L33,TODAY())))</f>
+        <v>6</v>
+      </c>
+      <c r="S33" s="177"/>
       <c r="T33" s="30"/>
       <c r="U33" s="31"/>
       <c r="V33" s="34"/>
     </row>
     <row r="34" spans="2:22" s="32" customFormat="1" ht="19.500000">
-      <c r="B34" s="88"/>
-      <c r="C34" s="319"/>
+      <c r="B34" s="88">
+        <f>B33+1</f>
+        <v>16</v>
+      </c>
+      <c r="C34" s="165" t="s">
+        <v>72</v>
+      </c>
       <c r="D34" s="320"/>
       <c r="E34" s="321"/>
       <c r="F34" s="316"/>
       <c r="G34" s="316"/>
       <c r="H34" s="319" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="I34" s="319"/>
-      <c r="J34" s="322"/>
+      <c r="J34" s="373" t="str">
+        <f>CONCATENATE(NETWORKDAYS(K34,L34),"일")</f>
+        <v>0일</v>
+      </c>
       <c r="K34" s="323"/>
       <c r="L34" s="323"/>
       <c r="M34" s="324"/>
-      <c r="N34" s="324"/>
+      <c r="N34" s="324" t="s">
+        <v>167</v>
+      </c>
       <c r="O34" s="325"/>
       <c r="P34" s="325"/>
       <c r="Q34" s="326"/>
-      <c r="R34" s="120"/>
+      <c r="R34" s="314" t="e">
+        <f ca="1">IF(Q34=100%,0,IF(_xlfn.DAYS(L34,TODAY())=0,0,_xlfn.DAYS(L34,TODAY())))</f>
+        <v>#VALUE!</v>
+      </c>
       <c r="S34" s="327" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="T34" s="30"/>
       <c r="U34" s="31"/>
       <c r="V34" s="34"/>
     </row>
-    <row r="35" spans="2:22" s="32" customFormat="1" ht="19.500000" customHeight="1" outlineLevel="3">
-      <c r="B35" s="88" t="e">
-        <f>B32+1</f>
-        <v>#REF!</v>
+    <row r="35" spans="2:22" s="32" customFormat="1" ht="19.500000">
+      <c r="B35" s="88">
+        <f>B34+1</f>
+        <v>17</v>
       </c>
       <c r="C35" s="165" t="s">
-        <v>72</v>
-      </c>
-      <c r="D35" s="166">
-        <f>IF(COUNTBLANK(E35:I35)&lt;5,IF(E35&lt;&gt;"",0,IF(F35&lt;&gt;"",1,IF(G35&lt;&gt;"",2,IF(H35&lt;&gt;"",3,IF(I35&lt;&gt;"",4))))),"")</f>
-        <v>3</v>
-      </c>
-      <c r="E35" s="167"/>
-      <c r="F35" s="168"/>
-      <c r="G35" s="168"/>
-      <c r="H35" s="165" t="s">
-        <v>209</v>
-      </c>
-      <c r="I35" s="165"/>
-      <c r="J35" s="169" t="str">
-        <f>CONCATENATE(NETWORKDAYS(K35,L35,holiday!B4:B39),"일")</f>
-        <v>5일</v>
-      </c>
-      <c r="K35" s="170">
-        <v>43152</v>
-      </c>
-      <c r="L35" s="170">
-        <v>43158</v>
-      </c>
-      <c r="M35" s="171" t="s">
-        <v>50</v>
-      </c>
-      <c r="N35" s="171" t="s">
-        <v>126</v>
-      </c>
-      <c r="O35" s="182">
-        <v>43152</v>
-      </c>
-      <c r="P35" s="182">
-        <v>43158</v>
-      </c>
-      <c r="Q35" s="173">
-        <v>0</v>
-      </c>
-      <c r="R35" s="120">
-        <f>IF(COUNTBLANK(K35:L35)&gt;0,0,IF(L35-$O$2&lt;=0,0,NETWORKDAYS($O$2,L35,holiday!B4:B39)))</f>
-        <v>30825</v>
-      </c>
-      <c r="S35" s="177" t="s">
-        <v>134</v>
+        <v>224</v>
+      </c>
+      <c r="D35" s="320"/>
+      <c r="E35" s="321"/>
+      <c r="F35" s="316"/>
+      <c r="G35" s="316"/>
+      <c r="H35" s="319" t="s">
+        <v>221</v>
+      </c>
+      <c r="I35" s="319"/>
+      <c r="J35" s="373" t="str">
+        <f>CONCATENATE(NETWORKDAYS(K35,L35),"일")</f>
+        <v>0일</v>
+      </c>
+      <c r="K35" s="323"/>
+      <c r="L35" s="323"/>
+      <c r="M35" s="324"/>
+      <c r="N35" s="324" t="s">
+        <v>167</v>
+      </c>
+      <c r="O35" s="325"/>
+      <c r="P35" s="325"/>
+      <c r="Q35" s="326"/>
+      <c r="R35" s="314" t="e">
+        <f ca="1">IF(Q35=100%,0,IF(_xlfn.DAYS(L35,TODAY())=0,0,_xlfn.DAYS(L35,TODAY())))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S35" s="327" t="s">
+        <v>227</v>
       </c>
       <c r="T35" s="30"/>
       <c r="U35" s="31"/>
       <c r="V35" s="34"/>
     </row>
-    <row r="36" spans="2:22" s="29" customFormat="1" ht="19.500000" customHeight="1" outlineLevel="1">
-      <c r="B36" s="88" t="e">
+    <row r="36" spans="2:22" s="32" customFormat="1" ht="19.500000">
+      <c r="B36" s="88">
         <f>B35+1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C36" s="136" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" s="165" t="s">
+        <v>225</v>
+      </c>
+      <c r="D36" s="320"/>
+      <c r="E36" s="321"/>
+      <c r="F36" s="316"/>
+      <c r="G36" s="316"/>
+      <c r="H36" s="319" t="s">
+        <v>223</v>
+      </c>
+      <c r="I36" s="319"/>
+      <c r="J36" s="373" t="str">
+        <f>CONCATENATE(NETWORKDAYS(K36,L36),"일")</f>
+        <v>0일</v>
+      </c>
+      <c r="K36" s="323"/>
+      <c r="L36" s="323"/>
+      <c r="M36" s="324"/>
+      <c r="N36" s="324" t="s">
+        <v>167</v>
+      </c>
+      <c r="O36" s="325"/>
+      <c r="P36" s="325"/>
+      <c r="Q36" s="326"/>
+      <c r="R36" s="314" t="e">
+        <f ca="1">IF(Q36=100%,0,IF(_xlfn.DAYS(L36,TODAY())=0,0,_xlfn.DAYS(L36,TODAY())))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S36" s="327" t="s">
+        <v>228</v>
+      </c>
+      <c r="T36" s="30"/>
+      <c r="U36" s="31"/>
+      <c r="V36" s="34"/>
+    </row>
+    <row r="37" spans="2:22" s="29" customFormat="1" ht="19.500000" customHeight="1" outlineLevel="1">
+      <c r="B37" s="88">
+        <f>B36+1</f>
+        <v>19</v>
+      </c>
+      <c r="C37" s="136" t="s">
         <v>80</v>
       </c>
-      <c r="D36" s="137">
-        <f>IF(COUNTBLANK(E36:I36)&lt;5,IF(E36&lt;&gt;"",0,IF(F36&lt;&gt;"",1,IF(G36&lt;&gt;"",2,IF(H36&lt;&gt;"",3,IF(I36&lt;&gt;"",4))))),"")</f>
+      <c r="D37" s="137">
+        <f>IF(COUNTBLANK(E37:I37)&lt;5,IF(E37&lt;&gt;"",0,IF(F37&lt;&gt;"",1,IF(G37&lt;&gt;"",2,IF(H37&lt;&gt;"",3,IF(I37&lt;&gt;"",4))))),"")</f>
         <v>1</v>
       </c>
-      <c r="E36" s="138"/>
-      <c r="F36" s="139" t="s">
-        <v>110</v>
-      </c>
-      <c r="G36" s="139"/>
-      <c r="H36" s="140"/>
-      <c r="I36" s="140"/>
-      <c r="J36" s="141" t="str">
-        <f>IF(COUNTBLANK(K36:L36)&gt;0,"미정",CONCATENATE(NETWORKDAYS(K36,L36,holiday!B4:B39),"일"))</f>
-        <v>18일</v>
-      </c>
-      <c r="K36" s="144">
-        <f>IF(COUNTA(K37:K44)&gt;0,MIN(K37:K44),"")</f>
-        <v>43161</v>
-      </c>
-      <c r="L36" s="144">
-        <f>IF(COUNTA(L37:L44)&gt;0,MAX(L37:L44),"")</f>
-        <v>43186</v>
-      </c>
-      <c r="M36" s="144" t="s">
-        <v>44</v>
-      </c>
-      <c r="N36" s="144" t="s">
-        <v>130</v>
-      </c>
-      <c r="O36" s="144">
-        <f>IF(COUNTA(O37:O44)&gt;0,MIN(O37:O44),"")</f>
-        <v>43161</v>
-      </c>
-      <c r="P36" s="144">
-        <f>IF(COUNTA(P37:P44)&gt;0,MAX(P37:P44),"")</f>
-        <v>43179</v>
-      </c>
-      <c r="Q36" s="145" t="e">
+      <c r="E37" s="138"/>
+      <c r="F37" s="139" t="s">
+        <v>230</v>
+      </c>
+      <c r="G37" s="139"/>
+      <c r="H37" s="140"/>
+      <c r="I37" s="140"/>
+      <c r="J37" s="380" t="str">
+        <f>CONCATENATE(NETWORKDAYS(K37,L37),"일")</f>
+        <v>0일</v>
+      </c>
+      <c r="K37" s="144"/>
+      <c r="L37" s="144"/>
+      <c r="M37" s="144"/>
+      <c r="N37" s="144"/>
+      <c r="O37" s="144"/>
+      <c r="P37" s="144"/>
+      <c r="Q37" s="145" t="e">
         <f>SUM(#REF!,#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="R36" s="149">
-        <f>IF(COUNTBLANK(K36:L36)&gt;0,0,IF(L36-$O$2&lt;=0,0,NETWORKDAYS($O$2,L36,holiday!B4:B39)))</f>
-        <v>30844</v>
-      </c>
-      <c r="S36" s="151"/>
-      <c r="T36" s="27"/>
-      <c r="U36" s="28"/>
-      <c r="V36" s="42"/>
+      <c r="R37" s="314" t="e">
+        <f ca="1">IF(Q37=100%,0,IF(_xlfn.DAYS(L37,TODAY())=0,0,_xlfn.DAYS(L37,TODAY())))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="S37" s="151"/>
+      <c r="T37" s="27"/>
+      <c r="U37" s="28"/>
+      <c r="V37" s="42"/>
     </row>
-    <row r="37" spans="2:22" s="32" customFormat="1" ht="19.500000" customHeight="1" outlineLevel="2">
-      <c r="B37" s="88" t="e">
-        <f>B36+1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C37" s="152" t="s">
+    <row r="38" spans="2:22" s="32" customFormat="1" ht="19.500000" customHeight="1" outlineLevel="2">
+      <c r="B38" s="88">
+        <f>B37+1</f>
+        <v>20</v>
+      </c>
+      <c r="C38" s="152" t="s">
         <v>85</v>
       </c>
-      <c r="D37" s="153">
-        <f>IF(COUNTBLANK(E37:I37)&lt;5,IF(E37&lt;&gt;"",0,IF(F37&lt;&gt;"",1,IF(G37&lt;&gt;"",2,IF(H37&lt;&gt;"",3,IF(I37&lt;&gt;"",4))))),"")</f>
+      <c r="D38" s="153">
+        <f>IF(COUNTBLANK(E38:I38)&lt;5,IF(E38&lt;&gt;"",0,IF(F38&lt;&gt;"",1,IF(G38&lt;&gt;"",2,IF(H38&lt;&gt;"",3,IF(I38&lt;&gt;"",4))))),"")</f>
         <v>2</v>
       </c>
-      <c r="E37" s="154"/>
-      <c r="F37" s="155"/>
-      <c r="G37" s="155" t="s">
-        <v>113</v>
-      </c>
-      <c r="H37" s="152"/>
-      <c r="I37" s="152"/>
-      <c r="J37" s="156" t="str">
-        <f>CONCATENATE(NETWORKDAYS(K37,L37,holiday!B4:B39),"일")</f>
-        <v>10일</v>
-      </c>
-      <c r="K37" s="157">
-        <f>MIN(K38:K41)</f>
-        <v>43161</v>
-      </c>
-      <c r="L37" s="157">
-        <f>MAX(L38:L41)</f>
-        <v>43174</v>
-      </c>
-      <c r="M37" s="158" t="s">
-        <v>44</v>
-      </c>
-      <c r="N37" s="158" t="s">
-        <v>129</v>
-      </c>
-      <c r="O37" s="160">
-        <f>MIN(O38:O41)</f>
-        <v>43161</v>
-      </c>
-      <c r="P37" s="160">
-        <f>MAX(P38:P41)</f>
-        <v>43174</v>
-      </c>
-      <c r="Q37" s="159">
+      <c r="E38" s="154"/>
+      <c r="F38" s="155"/>
+      <c r="G38" s="155" t="s">
+        <v>231</v>
+      </c>
+      <c r="H38" s="152"/>
+      <c r="I38" s="152"/>
+      <c r="J38" s="378" t="str">
+        <f>CONCATENATE(NETWORKDAYS(K38,L38),"일")</f>
+        <v>0일</v>
+      </c>
+      <c r="K38" s="157"/>
+      <c r="L38" s="157"/>
+      <c r="M38" s="158"/>
+      <c r="N38" s="158"/>
+      <c r="O38" s="160"/>
+      <c r="P38" s="160"/>
+      <c r="Q38" s="159">
         <v>0</v>
       </c>
-      <c r="R37" s="120">
-        <f>IF(COUNTBLANK(K37:L37)&gt;0,0,IF(L37-$O$2&lt;=0,0,NETWORKDAYS($O$2,L37,holiday!B4:B39)))</f>
-        <v>30836</v>
-      </c>
-      <c r="S37" s="164"/>
-      <c r="T37" s="30"/>
-      <c r="U37" s="31"/>
-      <c r="V37" s="34"/>
-    </row>
-    <row r="38" spans="2:22" s="32" customFormat="1" ht="19.500000" customHeight="1" outlineLevel="3">
-      <c r="B38" s="88" t="e">
-        <f>B37+1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C38" s="165" t="s">
-        <v>87</v>
-      </c>
-      <c r="D38" s="166">
-        <f>IF(COUNTBLANK(E38:I38)&lt;5,IF(E38&lt;&gt;"",0,IF(F38&lt;&gt;"",1,IF(G38&lt;&gt;"",2,IF(H38&lt;&gt;"",3,IF(I38&lt;&gt;"",4))))),"")</f>
-        <v>3</v>
-      </c>
-      <c r="E38" s="167"/>
-      <c r="F38" s="168"/>
-      <c r="G38" s="168"/>
-      <c r="H38" s="165" t="s">
-        <v>116</v>
-      </c>
-      <c r="I38" s="165"/>
-      <c r="J38" s="169" t="str">
-        <f>CONCATENATE(NETWORKDAYS(K38,L38,holiday!B4:B39),"일")</f>
-        <v>2일</v>
-      </c>
-      <c r="K38" s="170">
-        <v>43161</v>
-      </c>
-      <c r="L38" s="170">
-        <v>43164</v>
-      </c>
-      <c r="M38" s="171" t="s">
-        <v>44</v>
-      </c>
-      <c r="N38" s="171" t="s">
-        <v>129</v>
-      </c>
-      <c r="O38" s="180">
-        <v>43161</v>
-      </c>
-      <c r="P38" s="180"/>
-      <c r="Q38" s="173">
-        <v>0</v>
-      </c>
-      <c r="R38" s="120">
-        <f>IF(COUNTBLANK(K38:L38)&gt;0,0,IF(L38-$O$2&lt;=0,0,NETWORKDAYS($O$2,L38,holiday!B4:B39)))</f>
-        <v>30828</v>
-      </c>
-      <c r="S38" s="177"/>
+      <c r="R38" s="314" t="e">
+        <f ca="1">IF(Q38=100%,0,IF(_xlfn.DAYS(L38,TODAY())=0,0,_xlfn.DAYS(L38,TODAY())))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S38" s="164"/>
       <c r="T38" s="30"/>
       <c r="U38" s="31"/>
       <c r="V38" s="34"/>
     </row>
     <row r="39" spans="2:22" s="32" customFormat="1" ht="19.500000" customHeight="1" outlineLevel="3">
-      <c r="B39" s="88" t="e">
+      <c r="B39" s="88">
         <f>B38+1</f>
-        <v>#REF!</v>
+        <v>21</v>
       </c>
       <c r="C39" s="165" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="D39" s="166">
         <f>IF(COUNTBLANK(E39:I39)&lt;5,IF(E39&lt;&gt;"",0,IF(F39&lt;&gt;"",1,IF(G39&lt;&gt;"",2,IF(H39&lt;&gt;"",3,IF(I39&lt;&gt;"",4))))),"")</f>
@@ -20591,35 +20905,25 @@
       <c r="F39" s="168"/>
       <c r="G39" s="168"/>
       <c r="H39" s="165" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I39" s="165"/>
-      <c r="J39" s="169" t="str">
-        <f>CONCATENATE(NETWORKDAYS(K39,L39,holiday!B4:B39),"일")</f>
-        <v>3일</v>
-      </c>
-      <c r="K39" s="170">
-        <v>43165</v>
-      </c>
-      <c r="L39" s="170">
-        <v>43167</v>
-      </c>
-      <c r="M39" s="171" t="s">
-        <v>44</v>
-      </c>
-      <c r="N39" s="171" t="s">
-        <v>124</v>
-      </c>
-      <c r="O39" s="180">
-        <v>43165</v>
-      </c>
-      <c r="P39" s="180"/>
-      <c r="Q39" s="173">
+      <c r="J39" s="373" t="str">
+        <f>CONCATENATE(NETWORKDAYS(K39,L39),"일")</f>
+        <v>0일</v>
+      </c>
+      <c r="K39" s="170"/>
+      <c r="L39" s="170"/>
+      <c r="M39" s="171"/>
+      <c r="N39" s="171"/>
+      <c r="O39" s="325"/>
+      <c r="P39" s="325"/>
+      <c r="Q39" s="326">
         <v>0</v>
       </c>
-      <c r="R39" s="120">
-        <f>IF(COUNTBLANK(K39:L39)&gt;0,0,IF(L39-$O$2&lt;=0,0,NETWORKDAYS($O$2,L39,holiday!B4:B39)))</f>
-        <v>30831</v>
+      <c r="R39" s="314" t="e">
+        <f ca="1">IF(Q39=100%,0,IF(_xlfn.DAYS(L39,TODAY())=0,0,_xlfn.DAYS(L39,TODAY())))</f>
+        <v>#VALUE!</v>
       </c>
       <c r="S39" s="177"/>
       <c r="T39" s="30"/>
@@ -20627,12 +20931,12 @@
       <c r="V39" s="34"/>
     </row>
     <row r="40" spans="2:22" s="32" customFormat="1" ht="19.500000" customHeight="1" outlineLevel="3">
-      <c r="B40" s="88" t="e">
+      <c r="B40" s="88">
         <f>B39+1</f>
-        <v>#REF!</v>
+        <v>22</v>
       </c>
       <c r="C40" s="165" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D40" s="166">
         <f>IF(COUNTBLANK(E40:I40)&lt;5,IF(E40&lt;&gt;"",0,IF(F40&lt;&gt;"",1,IF(G40&lt;&gt;"",2,IF(H40&lt;&gt;"",3,IF(I40&lt;&gt;"",4))))),"")</f>
@@ -20645,32 +20949,22 @@
         <v>117</v>
       </c>
       <c r="I40" s="165"/>
-      <c r="J40" s="169" t="str">
-        <f>CONCATENATE(NETWORKDAYS(K40,L40,holiday!B4:B39),"일")</f>
-        <v>4일</v>
-      </c>
-      <c r="K40" s="170">
-        <v>43164</v>
-      </c>
-      <c r="L40" s="170">
-        <v>43167</v>
-      </c>
-      <c r="M40" s="171" t="s">
-        <v>44</v>
-      </c>
-      <c r="N40" s="171" t="s">
-        <v>129</v>
-      </c>
-      <c r="O40" s="180">
-        <v>43164</v>
-      </c>
-      <c r="P40" s="180"/>
-      <c r="Q40" s="173">
+      <c r="J40" s="373" t="str">
+        <f>CONCATENATE(NETWORKDAYS(K40,L40),"일")</f>
+        <v>0일</v>
+      </c>
+      <c r="K40" s="170"/>
+      <c r="L40" s="170"/>
+      <c r="M40" s="171"/>
+      <c r="N40" s="171"/>
+      <c r="O40" s="325"/>
+      <c r="P40" s="325"/>
+      <c r="Q40" s="326">
         <v>0</v>
       </c>
-      <c r="R40" s="120">
-        <f>IF(COUNTBLANK(K40:L40)&gt;0,0,IF(L40-$O$2&lt;=0,0,NETWORKDAYS($O$2,L40,holiday!B4:B39)))</f>
-        <v>30831</v>
+      <c r="R40" s="314" t="e">
+        <f ca="1">IF(Q40=100%,0,IF(_xlfn.DAYS(L40,TODAY())=0,0,_xlfn.DAYS(L40,TODAY())))</f>
+        <v>#VALUE!</v>
       </c>
       <c r="S40" s="177"/>
       <c r="T40" s="30"/>
@@ -20678,12 +20972,12 @@
       <c r="V40" s="34"/>
     </row>
     <row r="41" spans="2:22" s="32" customFormat="1" ht="19.500000" customHeight="1" outlineLevel="3">
-      <c r="B41" s="88" t="e">
+      <c r="B41" s="88">
         <f>B40+1</f>
-        <v>#REF!</v>
+        <v>23</v>
       </c>
       <c r="C41" s="165" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="D41" s="166">
         <f>IF(COUNTBLANK(E41:I41)&lt;5,IF(E41&lt;&gt;"",0,IF(F41&lt;&gt;"",1,IF(G41&lt;&gt;"",2,IF(H41&lt;&gt;"",3,IF(I41&lt;&gt;"",4))))),"")</f>
@@ -20693,160 +20987,120 @@
       <c r="F41" s="168"/>
       <c r="G41" s="168"/>
       <c r="H41" s="165" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I41" s="165"/>
-      <c r="J41" s="169" t="str">
-        <f>CONCATENATE(NETWORKDAYS(K41,L41,holiday!B4:B39),"일")</f>
-        <v>4일</v>
-      </c>
-      <c r="K41" s="170">
-        <v>43170</v>
-      </c>
-      <c r="L41" s="170">
-        <v>43174</v>
-      </c>
-      <c r="M41" s="171" t="s">
-        <v>44</v>
-      </c>
-      <c r="N41" s="171" t="s">
-        <v>129</v>
-      </c>
-      <c r="O41" s="180">
-        <v>43170</v>
-      </c>
-      <c r="P41" s="180">
-        <v>43174</v>
-      </c>
-      <c r="Q41" s="173">
+      <c r="J41" s="373" t="str">
+        <f>CONCATENATE(NETWORKDAYS(K41,L41),"일")</f>
+        <v>0일</v>
+      </c>
+      <c r="K41" s="170"/>
+      <c r="L41" s="170"/>
+      <c r="M41" s="171"/>
+      <c r="N41" s="171"/>
+      <c r="O41" s="325"/>
+      <c r="P41" s="325"/>
+      <c r="Q41" s="326">
         <v>0</v>
       </c>
-      <c r="R41" s="120">
-        <f>IF(COUNTBLANK(K41:L41)&gt;0,0,IF(L41-$O$2&lt;=0,0,NETWORKDAYS($O$2,L41,holiday!B4:B39)))</f>
-        <v>30836</v>
+      <c r="R41" s="314" t="e">
+        <f ca="1">IF(Q41=100%,0,IF(_xlfn.DAYS(L41,TODAY())=0,0,_xlfn.DAYS(L41,TODAY())))</f>
+        <v>#VALUE!</v>
       </c>
       <c r="S41" s="177"/>
       <c r="T41" s="30"/>
       <c r="U41" s="31"/>
       <c r="V41" s="34"/>
     </row>
-    <row r="42" spans="2:22" s="32" customFormat="1" ht="19.500000" customHeight="1" outlineLevel="2">
-      <c r="B42" s="88" t="e">
+    <row r="42" spans="2:22" s="32" customFormat="1" ht="19.500000" customHeight="1" outlineLevel="3">
+      <c r="B42" s="88">
         <f>B41+1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C42" s="152" t="s">
-        <v>86</v>
-      </c>
-      <c r="D42" s="153">
+        <v>24</v>
+      </c>
+      <c r="C42" s="165" t="s">
+        <v>88</v>
+      </c>
+      <c r="D42" s="166">
         <f>IF(COUNTBLANK(E42:I42)&lt;5,IF(E42&lt;&gt;"",0,IF(F42&lt;&gt;"",1,IF(G42&lt;&gt;"",2,IF(H42&lt;&gt;"",3,IF(I42&lt;&gt;"",4))))),"")</f>
-        <v>2</v>
-      </c>
-      <c r="E42" s="154"/>
-      <c r="F42" s="155"/>
-      <c r="G42" s="155" t="s">
-        <v>114</v>
-      </c>
-      <c r="H42" s="152"/>
-      <c r="I42" s="152"/>
-      <c r="J42" s="156" t="str">
-        <f>CONCATENATE(NETWORKDAYS(K42,L42,holiday!B4:B39),"일")</f>
-        <v>8일</v>
-      </c>
-      <c r="K42" s="157">
-        <f>MIN(K43:K44)</f>
-        <v>43175</v>
-      </c>
-      <c r="L42" s="157">
-        <f>MAX(L43:L44)</f>
-        <v>43186</v>
-      </c>
-      <c r="M42" s="158" t="s">
-        <v>44</v>
-      </c>
-      <c r="N42" s="158" t="s">
-        <v>129</v>
-      </c>
-      <c r="O42" s="160">
-        <f>MIN(O43:O44)</f>
-        <v>43175</v>
-      </c>
-      <c r="P42" s="160">
-        <f>MAX(P43:P44)</f>
-        <v>43179</v>
-      </c>
-      <c r="Q42" s="159">
+        <v>3</v>
+      </c>
+      <c r="E42" s="167"/>
+      <c r="F42" s="168"/>
+      <c r="G42" s="168"/>
+      <c r="H42" s="165" t="s">
+        <v>118</v>
+      </c>
+      <c r="I42" s="165"/>
+      <c r="J42" s="373" t="str">
+        <f>CONCATENATE(NETWORKDAYS(K42,L42),"일")</f>
+        <v>0일</v>
+      </c>
+      <c r="K42" s="170"/>
+      <c r="L42" s="170"/>
+      <c r="M42" s="171"/>
+      <c r="N42" s="171"/>
+      <c r="O42" s="325"/>
+      <c r="P42" s="325"/>
+      <c r="Q42" s="326">
         <v>0</v>
       </c>
-      <c r="R42" s="120">
-        <f>IF(COUNTBLANK(K42:L42)&gt;0,0,IF(L42-$O$2&lt;=0,0,NETWORKDAYS($O$2,L42,holiday!B4:B39)))</f>
-        <v>30844</v>
-      </c>
-      <c r="S42" s="164"/>
+      <c r="R42" s="314" t="e">
+        <f ca="1">IF(Q42=100%,0,IF(_xlfn.DAYS(L42,TODAY())=0,0,_xlfn.DAYS(L42,TODAY())))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S42" s="177"/>
       <c r="T42" s="30"/>
       <c r="U42" s="31"/>
       <c r="V42" s="34"/>
     </row>
-    <row r="43" spans="2:22" s="32" customFormat="1" ht="19.500000" customHeight="1" outlineLevel="3">
-      <c r="B43" s="88" t="e">
+    <row r="43" spans="2:22" s="32" customFormat="1" ht="19.500000" customHeight="1" outlineLevel="2">
+      <c r="B43" s="88">
         <f>B42+1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C43" s="165" t="s">
-        <v>89</v>
-      </c>
-      <c r="D43" s="166">
+        <v>25</v>
+      </c>
+      <c r="C43" s="152" t="s">
+        <v>86</v>
+      </c>
+      <c r="D43" s="153">
         <f>IF(COUNTBLANK(E43:I43)&lt;5,IF(E43&lt;&gt;"",0,IF(F43&lt;&gt;"",1,IF(G43&lt;&gt;"",2,IF(H43&lt;&gt;"",3,IF(I43&lt;&gt;"",4))))),"")</f>
-        <v>3</v>
-      </c>
-      <c r="E43" s="167"/>
-      <c r="F43" s="168"/>
-      <c r="G43" s="168"/>
-      <c r="H43" s="165" t="s">
-        <v>120</v>
-      </c>
-      <c r="I43" s="165"/>
-      <c r="J43" s="169" t="str">
-        <f>CONCATENATE(NETWORKDAYS(K43,L43,holiday!B4:B39),"일")</f>
-        <v>3일</v>
-      </c>
-      <c r="K43" s="170">
-        <v>43175</v>
-      </c>
-      <c r="L43" s="170">
-        <v>43179</v>
-      </c>
-      <c r="M43" s="171" t="s">
-        <v>44</v>
-      </c>
-      <c r="N43" s="171" t="s">
-        <v>129</v>
-      </c>
-      <c r="O43" s="180">
-        <v>43175</v>
-      </c>
-      <c r="P43" s="180">
-        <v>43179</v>
-      </c>
-      <c r="Q43" s="173">
+        <v>2</v>
+      </c>
+      <c r="E43" s="154"/>
+      <c r="F43" s="155"/>
+      <c r="G43" s="155" t="s">
+        <v>114</v>
+      </c>
+      <c r="H43" s="152"/>
+      <c r="I43" s="152"/>
+      <c r="J43" s="378" t="str">
+        <f>CONCATENATE(NETWORKDAYS(K43,L43),"일")</f>
+        <v>0일</v>
+      </c>
+      <c r="K43" s="157"/>
+      <c r="L43" s="157"/>
+      <c r="M43" s="158"/>
+      <c r="N43" s="158"/>
+      <c r="O43" s="160"/>
+      <c r="P43" s="160"/>
+      <c r="Q43" s="159">
         <v>0</v>
       </c>
-      <c r="R43" s="120">
-        <f>IF(COUNTBLANK(K43:L43)&gt;0,0,IF(L43-$O$2&lt;=0,0,NETWORKDAYS($O$2,L43,holiday!B4:B39)))</f>
-        <v>30839</v>
-      </c>
-      <c r="S43" s="177"/>
+      <c r="R43" s="314" t="e">
+        <f ca="1">IF(Q43=100%,0,IF(_xlfn.DAYS(L43,TODAY())=0,0,_xlfn.DAYS(L43,TODAY())))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S43" s="164"/>
       <c r="T43" s="30"/>
       <c r="U43" s="31"/>
       <c r="V43" s="34"/>
     </row>
     <row r="44" spans="2:22" s="32" customFormat="1" ht="19.500000" customHeight="1" outlineLevel="3">
-      <c r="B44" s="88" t="e">
+      <c r="B44" s="88">
         <f>B43+1</f>
-        <v>#REF!</v>
+        <v>26</v>
       </c>
       <c r="C44" s="165" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D44" s="166">
         <f>IF(COUNTBLANK(E44:I44)&lt;5,IF(E44&lt;&gt;"",0,IF(F44&lt;&gt;"",1,IF(G44&lt;&gt;"",2,IF(H44&lt;&gt;"",3,IF(I44&lt;&gt;"",4))))),"")</f>
@@ -20856,337 +21110,329 @@
       <c r="F44" s="168"/>
       <c r="G44" s="168"/>
       <c r="H44" s="165" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I44" s="165"/>
-      <c r="J44" s="169" t="str">
-        <f>CONCATENATE(NETWORKDAYS(K44,L44,holiday!B4:B39),"일")</f>
-        <v>5일</v>
-      </c>
-      <c r="K44" s="170">
-        <v>43180</v>
-      </c>
-      <c r="L44" s="170">
-        <v>43186</v>
-      </c>
-      <c r="M44" s="171" t="s">
-        <v>44</v>
-      </c>
-      <c r="N44" s="171" t="s">
-        <v>129</v>
-      </c>
-      <c r="O44" s="180"/>
-      <c r="P44" s="180"/>
-      <c r="Q44" s="173">
+      <c r="J44" s="373" t="str">
+        <f>CONCATENATE(NETWORKDAYS(K44,L44),"일")</f>
+        <v>0일</v>
+      </c>
+      <c r="K44" s="170"/>
+      <c r="L44" s="170"/>
+      <c r="M44" s="171"/>
+      <c r="N44" s="171"/>
+      <c r="O44" s="325"/>
+      <c r="P44" s="325"/>
+      <c r="Q44" s="326">
         <v>0</v>
       </c>
-      <c r="R44" s="120">
-        <f>IF(COUNTBLANK(K44:L44)&gt;0,0,IF(L44-$O$2&lt;=0,0,NETWORKDAYS($O$2,L44,holiday!B4:B39)))</f>
-        <v>30844</v>
+      <c r="R44" s="314" t="e">
+        <f ca="1">IF(Q44=100%,0,IF(_xlfn.DAYS(L44,TODAY())=0,0,_xlfn.DAYS(L44,TODAY())))</f>
+        <v>#VALUE!</v>
       </c>
       <c r="S44" s="177"/>
       <c r="T44" s="30"/>
       <c r="U44" s="31"/>
       <c r="V44" s="34"/>
     </row>
-    <row r="45" spans="2:22" s="29" customFormat="1" ht="19.500000" customHeight="1" outlineLevel="1">
-      <c r="B45" s="88" t="e">
+    <row r="45" spans="2:22" s="32" customFormat="1" ht="19.500000" customHeight="1" outlineLevel="3">
+      <c r="B45" s="88">
         <f>B44+1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C45" s="183" t="s">
+        <v>27</v>
+      </c>
+      <c r="C45" s="165" t="s">
+        <v>90</v>
+      </c>
+      <c r="D45" s="166">
+        <f>IF(COUNTBLANK(E45:I45)&lt;5,IF(E45&lt;&gt;"",0,IF(F45&lt;&gt;"",1,IF(G45&lt;&gt;"",2,IF(H45&lt;&gt;"",3,IF(I45&lt;&gt;"",4))))),"")</f>
+        <v>3</v>
+      </c>
+      <c r="E45" s="167"/>
+      <c r="F45" s="168"/>
+      <c r="G45" s="168"/>
+      <c r="H45" s="165" t="s">
+        <v>122</v>
+      </c>
+      <c r="I45" s="165"/>
+      <c r="J45" s="373" t="str">
+        <f>CONCATENATE(NETWORKDAYS(K45,L45),"일")</f>
+        <v>0일</v>
+      </c>
+      <c r="K45" s="170"/>
+      <c r="L45" s="170"/>
+      <c r="M45" s="171"/>
+      <c r="N45" s="171"/>
+      <c r="O45" s="325"/>
+      <c r="P45" s="325"/>
+      <c r="Q45" s="326">
+        <v>0</v>
+      </c>
+      <c r="R45" s="314" t="e">
+        <f ca="1">IF(Q45=100%,0,IF(_xlfn.DAYS(L45,TODAY())=0,0,_xlfn.DAYS(L45,TODAY())))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S45" s="177"/>
+      <c r="T45" s="30"/>
+      <c r="U45" s="31"/>
+      <c r="V45" s="34"/>
+    </row>
+    <row r="46" spans="2:22" s="29" customFormat="1" ht="19.500000" customHeight="1" outlineLevel="1">
+      <c r="B46" s="88">
+        <f>B45+1</f>
+        <v>28</v>
+      </c>
+      <c r="C46" s="183" t="s">
         <v>81</v>
       </c>
-      <c r="D45" s="184">
-        <f>IF(COUNTBLANK(E45:I45)&lt;5,IF(E45&lt;&gt;"",0,IF(F45&lt;&gt;"",1,IF(G45&lt;&gt;"",2,IF(H45&lt;&gt;"",3,IF(I45&lt;&gt;"",4))))),"")</f>
+      <c r="D46" s="184">
+        <f>IF(COUNTBLANK(E46:I46)&lt;5,IF(E46&lt;&gt;"",0,IF(F46&lt;&gt;"",1,IF(G46&lt;&gt;"",2,IF(H46&lt;&gt;"",3,IF(I46&lt;&gt;"",4))))),"")</f>
         <v>1</v>
       </c>
-      <c r="E45" s="185"/>
-      <c r="F45" s="186" t="s">
+      <c r="E46" s="185"/>
+      <c r="F46" s="186" t="s">
         <v>111</v>
       </c>
-      <c r="G45" s="186"/>
-      <c r="H45" s="187"/>
-      <c r="I45" s="187"/>
-      <c r="J45" s="188" t="str">
-        <f>IF(COUNTBLANK(K45:L45)&gt;0,"미정",CONCATENATE(NETWORKDAYS(K45,L45,holiday!B4:B39),"일"))</f>
-        <v>21일</v>
-      </c>
-      <c r="K45" s="189">
-        <f>MIN(K46:K48)</f>
-        <v>43187</v>
-      </c>
-      <c r="L45" s="189">
-        <f>MAX(L46:L48)</f>
-        <v>43215</v>
-      </c>
-      <c r="M45" s="189" t="s">
-        <v>50</v>
-      </c>
-      <c r="N45" s="189" t="s">
-        <v>127</v>
-      </c>
-      <c r="O45" s="189">
-        <f>IF(COUNTA(O46:O48)&gt;0,MIN(O46:O48),"")</f>
-        <v>43187</v>
-      </c>
-      <c r="P45" s="189" t="str">
-        <f>IF(COUNTA(P46:P48)&gt;0,MAX(P46:P48),"")</f>
-        <v/>
-      </c>
-      <c r="Q45" s="190">
+      <c r="G46" s="186"/>
+      <c r="H46" s="187"/>
+      <c r="I46" s="187"/>
+      <c r="J46" s="380" t="str">
+        <f>CONCATENATE(NETWORKDAYS(K46,L46),"일")</f>
+        <v>0일</v>
+      </c>
+      <c r="K46" s="189"/>
+      <c r="L46" s="189"/>
+      <c r="M46" s="189"/>
+      <c r="N46" s="189"/>
+      <c r="O46" s="189"/>
+      <c r="P46" s="189"/>
+      <c r="Q46" s="190">
         <v>0</v>
       </c>
-      <c r="R45" s="194">
-        <f>IF(COUNTBLANK(K45:L45)&gt;0,0,IF(L45-$O$2&lt;=0,0,NETWORKDAYS($O$2,L45,holiday!B4:B39)))</f>
-        <v>30865</v>
-      </c>
-      <c r="S45" s="196"/>
-      <c r="T45" s="27"/>
-      <c r="U45" s="28"/>
-      <c r="V45" s="42"/>
-    </row>
-    <row r="46" spans="2:22" s="32" customFormat="1" ht="19.500000" customHeight="1" outlineLevel="3">
-      <c r="B46" s="88" t="e">
-        <f>B45+1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C46" s="197" t="s">
-        <v>91</v>
-      </c>
-      <c r="D46" s="198">
-        <f>IF(COUNTBLANK(E46:I46)&lt;5,IF(E46&lt;&gt;"",0,IF(F46&lt;&gt;"",1,IF(G46&lt;&gt;"",2,IF(H46&lt;&gt;"",3,IF(I46&lt;&gt;"",4))))),"")</f>
-        <v>2</v>
-      </c>
-      <c r="E46" s="154"/>
-      <c r="F46" s="199"/>
-      <c r="G46" s="199" t="s">
-        <v>113</v>
-      </c>
-      <c r="H46" s="197"/>
-      <c r="I46" s="197"/>
-      <c r="J46" s="200" t="str">
-        <f>CONCATENATE(NETWORKDAYS(K46,L46,holiday!B4:B39),"일")</f>
-        <v>3일</v>
-      </c>
-      <c r="K46" s="201">
-        <v>43187</v>
-      </c>
-      <c r="L46" s="201">
-        <v>43189</v>
-      </c>
-      <c r="M46" s="202" t="s">
-        <v>50</v>
-      </c>
-      <c r="N46" s="202" t="s">
-        <v>128</v>
-      </c>
-      <c r="O46" s="204">
-        <v>43187</v>
-      </c>
-      <c r="P46" s="204"/>
-      <c r="Q46" s="203">
-        <v>0.1</v>
-      </c>
-      <c r="R46" s="120">
-        <f>IF(COUNTBLANK(K46:L46)&gt;0,0,IF(L46-$O$2&lt;=0,0,NETWORKDAYS($O$2,L46,holiday!B4:B39)))</f>
-        <v>30847</v>
-      </c>
-      <c r="S46" s="208" t="s">
-        <v>135</v>
-      </c>
-      <c r="T46" s="30"/>
-      <c r="U46" s="31"/>
-      <c r="V46" s="34"/>
+      <c r="R46" s="314" t="e">
+        <f ca="1">IF(Q46=100%,0,IF(_xlfn.DAYS(L46,TODAY())=0,0,_xlfn.DAYS(L46,TODAY())))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S46" s="196"/>
+      <c r="T46" s="27"/>
+      <c r="U46" s="28"/>
+      <c r="V46" s="42"/>
     </row>
     <row r="47" spans="2:22" s="32" customFormat="1" ht="19.500000" customHeight="1" outlineLevel="3">
-      <c r="B47" s="88" t="e">
+      <c r="B47" s="88">
         <f>B46+1</f>
-        <v>#REF!</v>
+        <v>29</v>
       </c>
       <c r="C47" s="197" t="s">
-        <v>75</v>
-      </c>
-      <c r="D47" s="153">
+        <v>91</v>
+      </c>
+      <c r="D47" s="198">
         <f>IF(COUNTBLANK(E47:I47)&lt;5,IF(E47&lt;&gt;"",0,IF(F47&lt;&gt;"",1,IF(G47&lt;&gt;"",2,IF(H47&lt;&gt;"",3,IF(I47&lt;&gt;"",4))))),"")</f>
         <v>2</v>
       </c>
       <c r="E47" s="154"/>
-      <c r="F47" s="155"/>
-      <c r="G47" s="155" t="s">
-        <v>114</v>
-      </c>
-      <c r="H47" s="152"/>
-      <c r="I47" s="152"/>
-      <c r="J47" s="156" t="str">
-        <f>CONCATENATE(NETWORKDAYS(K47,L47,holiday!B4:B39),"일")</f>
-        <v>4일</v>
-      </c>
-      <c r="K47" s="157">
-        <v>43192</v>
-      </c>
-      <c r="L47" s="157">
-        <v>43195</v>
-      </c>
-      <c r="M47" s="158" t="s">
-        <v>43</v>
-      </c>
-      <c r="N47" s="158" t="s">
-        <v>78</v>
-      </c>
-      <c r="O47" s="160"/>
-      <c r="P47" s="160"/>
-      <c r="Q47" s="159">
-        <v>0.2</v>
-      </c>
-      <c r="R47" s="120">
-        <f>IF(COUNTBLANK(K47:L47)&gt;0,0,IF(L47-$O$2&lt;=0,0,NETWORKDAYS($O$2,L47,holiday!B4:B39)))</f>
-        <v>30851</v>
-      </c>
-      <c r="S47" s="164" t="s">
-        <v>136</v>
-      </c>
+      <c r="F47" s="199"/>
+      <c r="G47" s="199" t="s">
+        <v>113</v>
+      </c>
+      <c r="H47" s="197"/>
+      <c r="I47" s="197"/>
+      <c r="J47" s="378" t="str">
+        <f>CONCATENATE(NETWORKDAYS(K47,L47),"일")</f>
+        <v>0일</v>
+      </c>
+      <c r="K47" s="201"/>
+      <c r="L47" s="201"/>
+      <c r="M47" s="202"/>
+      <c r="N47" s="202"/>
+      <c r="O47" s="204"/>
+      <c r="P47" s="204"/>
+      <c r="Q47" s="203">
+        <v>0</v>
+      </c>
+      <c r="R47" s="314" t="e">
+        <f ca="1">IF(Q47=100%,0,IF(_xlfn.DAYS(L47,TODAY())=0,0,_xlfn.DAYS(L47,TODAY())))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S47" s="208"/>
       <c r="T47" s="30"/>
       <c r="U47" s="31"/>
       <c r="V47" s="34"/>
     </row>
     <row r="48" spans="2:22" s="32" customFormat="1" ht="19.500000" customHeight="1" outlineLevel="3">
-      <c r="B48" s="88" t="e">
+      <c r="B48" s="88">
         <f>B47+1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C48" s="209" t="s">
-        <v>76</v>
-      </c>
-      <c r="D48" s="210">
+        <v>30</v>
+      </c>
+      <c r="C48" s="197" t="s">
+        <v>75</v>
+      </c>
+      <c r="D48" s="153">
         <f>IF(COUNTBLANK(E48:I48)&lt;5,IF(E48&lt;&gt;"",0,IF(F48&lt;&gt;"",1,IF(G48&lt;&gt;"",2,IF(H48&lt;&gt;"",3,IF(I48&lt;&gt;"",4))))),"")</f>
         <v>2</v>
       </c>
-      <c r="E48" s="211"/>
-      <c r="F48" s="212"/>
-      <c r="G48" s="212" t="s">
-        <v>115</v>
-      </c>
-      <c r="H48" s="213"/>
-      <c r="I48" s="213"/>
-      <c r="J48" s="214" t="str">
-        <f>CONCATENATE(NETWORKDAYS(K48,L48,holiday!B4:B39),"일")</f>
-        <v>14일</v>
-      </c>
-      <c r="K48" s="215">
-        <v>43196</v>
-      </c>
-      <c r="L48" s="215">
-        <v>43215</v>
-      </c>
-      <c r="M48" s="216" t="s">
-        <v>44</v>
-      </c>
-      <c r="N48" s="216" t="s">
-        <v>124</v>
-      </c>
-      <c r="O48" s="218"/>
-      <c r="P48" s="218"/>
-      <c r="Q48" s="219">
-        <v>0.3</v>
-      </c>
-      <c r="R48" s="221">
-        <f>IF(COUNTBLANK(K48:L48)&gt;0,0,IF(L48-$O$2&lt;=0,0,NETWORKDAYS($O$2,L48,holiday!B4:B39)))</f>
-        <v>30865</v>
-      </c>
-      <c r="S48" s="223"/>
+      <c r="E48" s="154"/>
+      <c r="F48" s="155"/>
+      <c r="G48" s="155" t="s">
+        <v>114</v>
+      </c>
+      <c r="H48" s="152"/>
+      <c r="I48" s="152"/>
+      <c r="J48" s="378" t="str">
+        <f>CONCATENATE(NETWORKDAYS(K48,L48),"일")</f>
+        <v>0일</v>
+      </c>
+      <c r="K48" s="157"/>
+      <c r="L48" s="157"/>
+      <c r="M48" s="158"/>
+      <c r="N48" s="158"/>
+      <c r="O48" s="160"/>
+      <c r="P48" s="160"/>
+      <c r="Q48" s="159">
+        <v>0</v>
+      </c>
+      <c r="R48" s="314" t="e">
+        <f ca="1">IF(Q48=100%,0,IF(_xlfn.DAYS(L48,TODAY())=0,0,_xlfn.DAYS(L48,TODAY())))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S48" s="164"/>
       <c r="T48" s="30"/>
       <c r="U48" s="31"/>
       <c r="V48" s="34"/>
     </row>
-    <row r="49" spans="2:22" outlineLevel="1">
-      <c r="B49" s="32"/>
-      <c r="D49" s="32"/>
-      <c r="E49" s="32"/>
-      <c r="F49" s="32"/>
-      <c r="G49" s="32"/>
-      <c r="H49" s="32"/>
-      <c r="I49" s="32"/>
-      <c r="K49" s="32"/>
-      <c r="M49" s="32"/>
-      <c r="N49" s="32"/>
-      <c r="T49" s="32"/>
-      <c r="V49" s="32"/>
+    <row r="49" spans="2:22" s="32" customFormat="1" ht="19.500000" customHeight="1" outlineLevel="3">
+      <c r="B49" s="88">
+        <f>B48+1</f>
+        <v>31</v>
+      </c>
+      <c r="C49" s="209" t="s">
+        <v>76</v>
+      </c>
+      <c r="D49" s="210">
+        <f>IF(COUNTBLANK(E49:I49)&lt;5,IF(E49&lt;&gt;"",0,IF(F49&lt;&gt;"",1,IF(G49&lt;&gt;"",2,IF(H49&lt;&gt;"",3,IF(I49&lt;&gt;"",4))))),"")</f>
+        <v>2</v>
+      </c>
+      <c r="E49" s="211"/>
+      <c r="F49" s="212"/>
+      <c r="G49" s="212" t="s">
+        <v>115</v>
+      </c>
+      <c r="H49" s="213"/>
+      <c r="I49" s="213"/>
+      <c r="J49" s="378" t="str">
+        <f>CONCATENATE(NETWORKDAYS(K49,L49),"일")</f>
+        <v>0일</v>
+      </c>
+      <c r="K49" s="215"/>
+      <c r="L49" s="215"/>
+      <c r="M49" s="216"/>
+      <c r="N49" s="216"/>
+      <c r="O49" s="218"/>
+      <c r="P49" s="218"/>
+      <c r="Q49" s="219">
+        <v>0</v>
+      </c>
+      <c r="R49" s="314" t="e">
+        <f ca="1">IF(Q49=100%,0,IF(_xlfn.DAYS(L49,TODAY())=0,0,_xlfn.DAYS(L49,TODAY())))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S49" s="223"/>
+      <c r="T49" s="30"/>
+      <c r="U49" s="31"/>
+      <c r="V49" s="34"/>
     </row>
-    <row r="50" spans="2:22">
-      <c r="B50" s="29"/>
-      <c r="D50" s="29"/>
-      <c r="E50" s="29"/>
-      <c r="F50" s="29"/>
-      <c r="G50" s="29"/>
-      <c r="H50" s="29"/>
-      <c r="I50" s="29"/>
-      <c r="K50" s="29"/>
-      <c r="M50" s="29"/>
-      <c r="N50" s="29"/>
-      <c r="T50" s="29"/>
-      <c r="V50" s="29"/>
+    <row r="50" spans="2:22" outlineLevel="1">
+      <c r="B50" s="32"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="32"/>
+      <c r="G50" s="32"/>
+      <c r="H50" s="32"/>
+      <c r="I50" s="32"/>
+      <c r="J50" s="15"/>
+      <c r="K50" s="32"/>
+      <c r="L50" s="35"/>
+      <c r="M50" s="32"/>
+      <c r="N50" s="32"/>
+      <c r="O50" s="35"/>
+      <c r="P50" s="35"/>
+      <c r="Q50" s="36"/>
+      <c r="R50" s="34"/>
+      <c r="S50" s="37"/>
+      <c r="T50" s="32"/>
+      <c r="U50" s="20"/>
+      <c r="V50" s="32"/>
     </row>
     <row r="51" spans="2:22">
-      <c r="B51" s="32"/>
-      <c r="D51" s="32"/>
-      <c r="E51" s="32"/>
-      <c r="F51" s="32"/>
-      <c r="G51" s="32"/>
-      <c r="H51" s="32"/>
-      <c r="I51" s="32"/>
-      <c r="K51" s="32"/>
-      <c r="M51" s="32"/>
-      <c r="N51" s="32"/>
-      <c r="T51" s="32"/>
-      <c r="V51" s="32"/>
+      <c r="B51" s="29"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="29"/>
+      <c r="E51" s="29"/>
+      <c r="F51" s="29"/>
+      <c r="G51" s="29"/>
+      <c r="H51" s="29"/>
+      <c r="I51" s="29"/>
+      <c r="J51" s="15"/>
+      <c r="K51" s="29"/>
+      <c r="L51" s="35"/>
+      <c r="M51" s="29"/>
+      <c r="N51" s="29"/>
+      <c r="O51" s="35"/>
+      <c r="P51" s="35"/>
+      <c r="Q51" s="36"/>
+      <c r="R51" s="34"/>
+      <c r="S51" s="37"/>
+      <c r="T51" s="29"/>
+      <c r="U51" s="20"/>
+      <c r="V51" s="29"/>
     </row>
     <row r="52" spans="2:22">
       <c r="B52" s="32"/>
+      <c r="C52" s="16"/>
       <c r="D52" s="32"/>
       <c r="E52" s="32"/>
       <c r="F52" s="32"/>
       <c r="G52" s="32"/>
       <c r="H52" s="32"/>
       <c r="I52" s="32"/>
+      <c r="J52" s="15"/>
       <c r="K52" s="32"/>
+      <c r="L52" s="35"/>
       <c r="M52" s="32"/>
       <c r="N52" s="32"/>
+      <c r="O52" s="35"/>
+      <c r="P52" s="35"/>
+      <c r="Q52" s="36"/>
+      <c r="R52" s="34"/>
+      <c r="S52" s="37"/>
       <c r="T52" s="32"/>
+      <c r="U52" s="20"/>
       <c r="V52" s="32"/>
     </row>
     <row r="53" spans="2:22">
       <c r="B53" s="32"/>
-      <c r="C53" s="38"/>
       <c r="D53" s="32"/>
       <c r="E53" s="32"/>
       <c r="F53" s="32"/>
       <c r="G53" s="32"/>
       <c r="H53" s="32"/>
       <c r="I53" s="32"/>
-      <c r="J53" s="39"/>
       <c r="K53" s="32"/>
-      <c r="L53" s="36"/>
       <c r="M53" s="32"/>
       <c r="N53" s="32"/>
-      <c r="O53" s="36"/>
-      <c r="P53" s="36"/>
-      <c r="Q53" s="33"/>
-      <c r="R53" s="37"/>
-      <c r="S53" s="20"/>
       <c r="T53" s="32"/>
-      <c r="U53" s="15"/>
       <c r="V53" s="32"/>
     </row>
     <row r="54" spans="2:22">
       <c r="B54" s="32"/>
+      <c r="C54" s="38"/>
       <c r="D54" s="32"/>
       <c r="E54" s="32"/>
       <c r="F54" s="32"/>
       <c r="G54" s="32"/>
       <c r="H54" s="32"/>
       <c r="I54" s="32"/>
-      <c r="J54" s="20"/>
+      <c r="J54" s="39"/>
       <c r="K54" s="32"/>
       <c r="L54" s="36"/>
       <c r="M54" s="32"/>
@@ -21202,73 +21448,120 @@
     </row>
     <row r="55" spans="2:22">
       <c r="B55" s="32"/>
-      <c r="C55" s="32"/>
       <c r="D55" s="32"/>
       <c r="E55" s="32"/>
       <c r="F55" s="32"/>
       <c r="G55" s="32"/>
       <c r="H55" s="32"/>
       <c r="I55" s="32"/>
+      <c r="J55" s="20"/>
       <c r="K55" s="32"/>
+      <c r="L55" s="36"/>
       <c r="M55" s="32"/>
       <c r="N55" s="32"/>
-      <c r="R55" s="33"/>
+      <c r="O55" s="36"/>
+      <c r="P55" s="36"/>
+      <c r="Q55" s="33"/>
+      <c r="R55" s="37"/>
+      <c r="S55" s="20"/>
       <c r="T55" s="32"/>
+      <c r="U55" s="15"/>
       <c r="V55" s="32"/>
     </row>
     <row r="56" spans="2:22">
+      <c r="B56" s="32"/>
       <c r="C56" s="32"/>
-      <c r="J56" s="32"/>
-      <c r="L56" s="32"/>
-      <c r="O56" s="32"/>
-      <c r="P56" s="32"/>
-      <c r="Q56" s="32"/>
+      <c r="D56" s="32"/>
+      <c r="E56" s="32"/>
+      <c r="F56" s="32"/>
+      <c r="G56" s="32"/>
+      <c r="H56" s="32"/>
+      <c r="I56" s="32"/>
+      <c r="K56" s="32"/>
+      <c r="M56" s="32"/>
+      <c r="N56" s="32"/>
       <c r="R56" s="33"/>
-      <c r="S56" s="32"/>
-      <c r="U56" s="32"/>
+      <c r="T56" s="32"/>
+      <c r="V56" s="32"/>
     </row>
     <row r="57" spans="2:22">
+      <c r="B57" s="15"/>
       <c r="C57" s="32"/>
+      <c r="D57" s="35"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="14"/>
+      <c r="H57" s="15"/>
+      <c r="I57" s="16"/>
       <c r="J57" s="32"/>
+      <c r="K57" s="35"/>
       <c r="L57" s="32"/>
+      <c r="M57" s="35"/>
+      <c r="N57" s="35"/>
       <c r="O57" s="32"/>
       <c r="P57" s="32"/>
       <c r="Q57" s="32"/>
+      <c r="R57" s="33"/>
       <c r="S57" s="32"/>
+      <c r="T57" s="15"/>
       <c r="U57" s="32"/>
+      <c r="V57" s="15"/>
     </row>
     <row r="58" spans="2:22">
+      <c r="B58" s="15"/>
       <c r="C58" s="32"/>
+      <c r="D58" s="35"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="14"/>
+      <c r="G58" s="14"/>
+      <c r="H58" s="15"/>
+      <c r="I58" s="16"/>
       <c r="J58" s="32"/>
+      <c r="K58" s="35"/>
       <c r="L58" s="32"/>
+      <c r="M58" s="35"/>
+      <c r="N58" s="35"/>
       <c r="O58" s="32"/>
       <c r="P58" s="32"/>
       <c r="Q58" s="32"/>
-      <c r="R58" s="32"/>
       <c r="S58" s="32"/>
+      <c r="T58" s="15"/>
       <c r="U58" s="32"/>
+      <c r="V58" s="15"/>
     </row>
     <row r="59" spans="2:22">
-      <c r="C59" s="29"/>
-      <c r="J59" s="29"/>
-      <c r="L59" s="29"/>
-      <c r="O59" s="29"/>
-      <c r="P59" s="29"/>
-      <c r="Q59" s="29"/>
-      <c r="R59" s="29"/>
-      <c r="S59" s="29"/>
-      <c r="U59" s="29"/>
+      <c r="B59" s="15"/>
+      <c r="C59" s="32"/>
+      <c r="D59" s="35"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="14"/>
+      <c r="G59" s="14"/>
+      <c r="H59" s="15"/>
+      <c r="I59" s="16"/>
+      <c r="J59" s="32"/>
+      <c r="K59" s="35"/>
+      <c r="L59" s="32"/>
+      <c r="M59" s="35"/>
+      <c r="N59" s="35"/>
+      <c r="O59" s="32"/>
+      <c r="P59" s="32"/>
+      <c r="Q59" s="32"/>
+      <c r="R59" s="32"/>
+      <c r="S59" s="32"/>
+      <c r="T59" s="15"/>
+      <c r="U59" s="32"/>
+      <c r="V59" s="15"/>
     </row>
     <row r="60" spans="2:22">
-      <c r="C60" s="32"/>
-      <c r="J60" s="32"/>
-      <c r="L60" s="32"/>
-      <c r="O60" s="32"/>
-      <c r="P60" s="32"/>
-      <c r="Q60" s="32"/>
-      <c r="R60" s="32"/>
-      <c r="S60" s="32"/>
-      <c r="U60" s="32"/>
+      <c r="C60" s="29"/>
+      <c r="J60" s="29"/>
+      <c r="L60" s="29"/>
+      <c r="O60" s="29"/>
+      <c r="P60" s="29"/>
+      <c r="Q60" s="29"/>
+      <c r="R60" s="29"/>
+      <c r="S60" s="29"/>
+      <c r="U60" s="29"/>
     </row>
     <row r="61" spans="2:22">
       <c r="C61" s="32"/>
@@ -21282,6 +21575,7 @@
       <c r="U61" s="32"/>
     </row>
     <row r="62" spans="2:22">
+      <c r="C62" s="32"/>
       <c r="J62" s="32"/>
       <c r="L62" s="32"/>
       <c r="O62" s="32"/>
@@ -21290,6 +21584,49 @@
       <c r="R62" s="32"/>
       <c r="S62" s="32"/>
       <c r="U62" s="32"/>
+    </row>
+    <row r="63" spans="2:22">
+      <c r="C63" s="16"/>
+      <c r="J63" s="32"/>
+      <c r="L63" s="32"/>
+      <c r="O63" s="32"/>
+      <c r="P63" s="32"/>
+      <c r="Q63" s="32"/>
+      <c r="R63" s="32"/>
+      <c r="S63" s="32"/>
+      <c r="U63" s="32"/>
+    </row>
+    <row r="64" spans="2:22">
+      <c r="C64" s="16"/>
+      <c r="J64" s="15"/>
+      <c r="L64" s="35"/>
+      <c r="O64" s="35"/>
+      <c r="P64" s="35"/>
+      <c r="Q64" s="36"/>
+      <c r="R64" s="34"/>
+      <c r="S64" s="37"/>
+      <c r="U64" s="20"/>
+    </row>
+    <row r="65" spans="3:21">
+      <c r="C65" s="16"/>
+      <c r="J65" s="15"/>
+      <c r="L65" s="35"/>
+      <c r="O65" s="35"/>
+      <c r="P65" s="35"/>
+      <c r="Q65" s="36"/>
+      <c r="R65" s="34"/>
+      <c r="S65" s="37"/>
+      <c r="U65" s="20"/>
+    </row>
+    <row r="66" spans="3:21">
+      <c r="J66" s="15"/>
+      <c r="L66" s="35"/>
+      <c r="O66" s="35"/>
+      <c r="P66" s="35"/>
+      <c r="Q66" s="36"/>
+      <c r="R66" s="34"/>
+      <c r="S66" s="37"/>
+      <c r="U66" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -21304,8 +21641,8 @@
     <mergeCell ref="E6:I6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="Q6:Q48">
-    <cfRule type="dataBar" priority="1533">
+  <conditionalFormatting sqref="Q6:Q49">
+    <cfRule type="dataBar" priority="1587">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -21313,13 +21650,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{d393c38a-a686-a4b5-d393-c38aa686a4b5}</x14:id>
+          <x14:id>{b9f9a9e1-ccfc-efde-b9f9-a9e1ccfcefde}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q27">
-    <cfRule type="dataBar" priority="1308">
+  <conditionalFormatting sqref="Q25">
+    <cfRule type="dataBar" priority="1322">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -21327,13 +21664,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5f1f4f16-2a4a-2839-5f1f-4f162a4a2839}</x14:id>
+          <x14:id>{2565357c-5465-6342-2565-357c54656342}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q27">
-    <cfRule type="dataBar" priority="1254">
+  <conditionalFormatting sqref="Q25">
+    <cfRule type="dataBar" priority="1262">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -21341,54 +21678,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{db9bcb82-ae8e-acbd-db9b-cb82ae8eacbd}</x14:id>
+          <x14:id>{a1e1b1f8-d4e4-e7c6-a1e1-b1f8d4e4e7c6}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q19">
-    <cfRule type="dataBar" priority="1185">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6727773e-1231-1dc1-6727-773e12311dc1}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q19">
-    <cfRule type="dataBar" priority="1153">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{e3a3f3ba-96b5-9485-e3a3-f3ba96b59485}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q20">
-    <cfRule type="dataBar" priority="1493">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{11514148-6455-6677-1151-414864556677}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q28">
+  <conditionalFormatting sqref="Q26">
     <cfRule type="dataBar" priority="1489">
       <dataBar>
         <cfvo type="min"/>
@@ -21397,13 +21692,97 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{95d585cc-e3d1-e2f3-95d5-85cce3d1e2f3}</x14:id>
+          <x14:id>{2d6d3d74-5868-6b4a-2d6d-3d7458686b4a}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q34">
+    <cfRule type="dataBar" priority="1565">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{a9e9b9f0-dcec-efce-a9e9-b9f0dcecefce}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q34">
+    <cfRule type="dataBar" priority="1561">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{1555f54c-6352-6372-1555-f54c63526372}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q35">
+    <cfRule type="dataBar" priority="1557">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{91d181c8-e4d4-e7f6-91d1-81c8e4d4e7f6}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q35">
+    <cfRule type="dataBar" priority="1553">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{f9b9e9ad-8cbc-af9e-f9b9-e9ad8cbcaf9e}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q36">
+    <cfRule type="dataBar" priority="1549">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7d3d6d24-7838-2b1a-7d3d-6d2478382b1a}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q36">
+    <cfRule type="dataBar" priority="1545">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{f1b1e1a8-84b4-a796-f1b1-e1a884b4a796}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="S31"/>
+    <hyperlink r:id="rId1" ref="S29"/>
   </hyperlinks>
   <pageMargins left="0.71" right="0.71" top="0.75" bottom="0.75" header="0.31" footer="0.31"/>
   <pageSetup paperSize="8" scale="68" fitToHeight="0" orientation="landscape"/>
@@ -21413,7 +21792,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{d393c38a-a686-a4b5-d393-c38aa686a4b5}">
+          <x14:cfRule type="dataBar" id="{b9f9a9e1-ccfc-efde-b9f9-a9e1ccfcefde}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -21424,7 +21803,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5f1f4f16-2a4a-2839-5f1f-4f162a4a2839}">
+          <x14:cfRule type="dataBar" id="{2565357c-5465-6342-2565-357c54656342}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -21435,7 +21814,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{db9bcb82-ae8e-acbd-db9b-cb82ae8eacbd}">
+          <x14:cfRule type="dataBar" id="{a1e1b1f8-d4e4-e7c6-a1e1-b1f8d4e4e7c6}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -21446,7 +21825,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6727773e-1231-1dc1-6727-773e12311dc1}">
+          <x14:cfRule type="dataBar" id="{2d6d3d74-5868-6b4a-2d6d-3d7458686b4a}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -21457,7 +21836,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{e3a3f3ba-96b5-9485-e3a3-f3ba96b59485}">
+          <x14:cfRule type="dataBar" id="{a9e9b9f0-dcec-efce-a9e9-b9f0dcecefce}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -21468,7 +21847,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{11514148-6455-6677-1151-414864556677}">
+          <x14:cfRule type="dataBar" id="{1555f54c-6352-6372-1555-f54c63526372}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -21479,7 +21858,40 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{95d585cc-e3d1-e2f3-95d5-85cce3d1e2f3}">
+          <x14:cfRule type="dataBar" id="{91d181c8-e4d4-e7f6-91d1-81c8e4d4e7f6}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF000000"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{f9b9e9ad-8cbc-af9e-f9b9-e9ad8cbcaf9e}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF000000"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{7d3d6d24-7838-2b1a-7d3d-6d2478382b1a}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF000000"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{f1b1e1a8-84b4-a796-f1b1-e1a884b4a796}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -21493,247 +21905,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:C39"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="13.500000"/>
-  <cols>
-    <col min="1" max="1" width="5.57642875" customWidth="1" outlineLevel="0"/>
-    <col min="2" max="2" width="13.29071413" customWidth="1" outlineLevel="0"/>
-    <col min="3" max="3" width="14.29071413" customWidth="1" outlineLevel="0"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:3" ht="17.250000">
-      <c r="B2" s="259" t="s">
-        <v>92</v>
-      </c>
-      <c r="C2" s="259"/>
-    </row>
-    <row r="3" spans="2:3" ht="14.250000">
-      <c r="B3" s="47" t="s">
-        <v>94</v>
-      </c>
-      <c r="C3" s="44" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3">
-      <c r="B4" s="48">
-        <v>45270</v>
-      </c>
-      <c r="C4" s="49" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3">
-      <c r="B5" s="50">
-        <v>43146</v>
-      </c>
-      <c r="C5" s="51" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3">
-      <c r="B6" s="50">
-        <v>43147</v>
-      </c>
-      <c r="C6" s="51" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3">
-      <c r="B7" s="50">
-        <v>43160</v>
-      </c>
-      <c r="C7" s="51" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3">
-      <c r="B8" s="50">
-        <v>43227</v>
-      </c>
-      <c r="C8" s="51" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3">
-      <c r="B9" s="50">
-        <v>43242</v>
-      </c>
-      <c r="C9" s="51" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3">
-      <c r="B10" s="50">
-        <v>43257</v>
-      </c>
-      <c r="C10" s="51" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3">
-      <c r="B11" s="50">
-        <v>43264</v>
-      </c>
-      <c r="C11" s="51" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3">
-      <c r="B12" s="50">
-        <v>43327</v>
-      </c>
-      <c r="C12" s="51" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3">
-      <c r="B13" s="50">
-        <v>43367</v>
-      </c>
-      <c r="C13" s="51" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3">
-      <c r="B14" s="50">
-        <v>43368</v>
-      </c>
-      <c r="C14" s="51" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3">
-      <c r="B15" s="50">
-        <v>43369</v>
-      </c>
-      <c r="C15" s="51" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3">
-      <c r="B16" s="50">
-        <v>43376</v>
-      </c>
-      <c r="C16" s="51" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3">
-      <c r="B17" s="50">
-        <v>43382</v>
-      </c>
-      <c r="C17" s="51" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3">
-      <c r="B18" s="50">
-        <v>43459</v>
-      </c>
-      <c r="C18" s="51" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3">
-      <c r="B19" s="46"/>
-      <c r="C19" s="45"/>
-    </row>
-    <row r="20" spans="2:3">
-      <c r="B20" s="46"/>
-      <c r="C20" s="45"/>
-    </row>
-    <row r="21" spans="2:3">
-      <c r="B21" s="46"/>
-      <c r="C21" s="45"/>
-    </row>
-    <row r="22" spans="2:3">
-      <c r="B22" s="46"/>
-      <c r="C22" s="45"/>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="46"/>
-      <c r="C23" s="45"/>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="46"/>
-      <c r="C24" s="45"/>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="46"/>
-      <c r="C25" s="45"/>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="B26" s="46"/>
-      <c r="C26" s="45"/>
-    </row>
-    <row r="27" spans="2:3">
-      <c r="B27" s="46"/>
-      <c r="C27" s="45"/>
-    </row>
-    <row r="28" spans="2:3">
-      <c r="B28" s="46"/>
-      <c r="C28" s="45"/>
-    </row>
-    <row r="29" spans="2:3">
-      <c r="B29" s="46"/>
-      <c r="C29" s="45"/>
-    </row>
-    <row r="30" spans="2:3">
-      <c r="B30" s="46"/>
-      <c r="C30" s="45"/>
-    </row>
-    <row r="31" spans="2:3">
-      <c r="B31" s="46"/>
-      <c r="C31" s="45"/>
-    </row>
-    <row r="32" spans="2:3">
-      <c r="B32" s="46"/>
-      <c r="C32" s="45"/>
-    </row>
-    <row r="33" spans="2:3">
-      <c r="B33" s="46"/>
-      <c r="C33" s="45"/>
-    </row>
-    <row r="34" spans="2:3">
-      <c r="B34" s="46"/>
-      <c r="C34" s="45"/>
-    </row>
-    <row r="35" spans="2:3">
-      <c r="B35" s="46"/>
-      <c r="C35" s="45"/>
-    </row>
-    <row r="36" spans="2:3">
-      <c r="B36" s="46"/>
-      <c r="C36" s="45"/>
-    </row>
-    <row r="37" spans="2:3">
-      <c r="B37" s="46"/>
-      <c r="C37" s="45"/>
-    </row>
-    <row r="38" spans="2:3">
-      <c r="B38" s="46"/>
-      <c r="C38" s="45"/>
-    </row>
-    <row r="39" spans="2:3">
-      <c r="B39" s="46"/>
-      <c r="C39" s="45"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:C2"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
 </file>
--- a/0.WBS.xlsx
+++ b/0.WBS.xlsx
@@ -58,6 +58,70 @@
     <definedName name="DAYS" hidden="1">#NAME?</definedName>
     <definedName name="DAYS" hidden="1">#NAME?</definedName>
     <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -71,7 +135,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="242">
   <si>
     <t>기간</t>
   </si>
@@ -822,6 +886,19 @@
   <si>
     <t>4.시스템 구성도.pptx</t>
   </si>
+  <si>
+    <t>5.ERD.png</t>
+  </si>
+  <si>
+    <t>5.ERD.jpg</t>
+  </si>
+  <si>
+    <t>DB Table 정의서 작성</t>
+  </si>
+  <si>
+    <t>DAYS(</t>
+  </si>
+  <si/>
 </sst>
 </file>
 
@@ -1296,35 +1373,31 @@
       <color theme="0"/>
     </font>
     <font>
-      <b/>
       <sz val="9.0"/>
       <name val="맑은 고딕"/>
       <scheme val="minor"/>
-      <color/>
+      <color rgb="FF000000"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="10.0"/>
       <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color/>
+      <color theme="1"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="10.0"/>
       <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color theme="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color theme="0"/>
+      <color theme="1" tint="0.150000"/>
     </font>
     <font>
       <sz val="10.0"/>
       <name val="맑은 고딕"/>
       <color rgb="FF000000"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="0"/>
     </font>
   </fonts>
   <fills count="51">
@@ -1632,7 +1705,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="92">
+  <borders count="87">
     <border>
       <left/>
       <right/>
@@ -2580,58 +2653,6 @@
       </bottom>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -2671,15 +2692,10 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="2919">
@@ -12429,61 +12445,61 @@
     <xf numFmtId="177" fontId="50" fillId="50" borderId="2" xfId="962" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="50" borderId="83" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="50" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="50" borderId="84" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="50" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="50" borderId="83" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="50" borderId="84" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="50" borderId="4" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="50" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="50" fillId="50" borderId="85" xfId="964" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="50" fillId="50" borderId="49" xfId="964" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="50" fillId="50" borderId="85" xfId="963" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="50" fillId="50" borderId="49" xfId="963" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="50" fillId="50" borderId="85" xfId="962" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="50" fillId="50" borderId="49" xfId="962" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="50" fillId="50" borderId="85" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="50" fillId="50" borderId="49" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="16" borderId="86" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="16" borderId="82" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="16" borderId="83" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="22" borderId="84" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="22" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="22" borderId="83" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="22" borderId="83" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="22" borderId="4" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="22" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="22" borderId="84" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="22" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="50" fillId="22" borderId="85" xfId="964" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="50" fillId="22" borderId="49" xfId="964" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="50" fillId="22" borderId="85" xfId="963" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="50" fillId="22" borderId="49" xfId="963" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="50" fillId="22" borderId="85" xfId="962" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="50" fillId="22" borderId="49" xfId="962" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="50" fillId="22" borderId="85" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="50" fillId="22" borderId="49" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="22" borderId="86" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="22" borderId="82" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="49" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -12504,6 +12520,18 @@
     <xf numFmtId="0" fontId="38" fillId="22" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="46" fillId="49" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="50" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="22" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="76" fillId="49" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -12513,37 +12541,25 @@
     <xf numFmtId="0" fontId="76" fillId="22" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="76" fillId="49" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="49" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="76" fillId="50" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="50" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="76" fillId="22" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="22" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="14" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="49" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="76" fillId="22" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="50" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="76" fillId="50" borderId="83" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="22" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="14" borderId="87" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="22" borderId="84" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="50" borderId="88" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="50" borderId="89" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="50" borderId="84" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="49" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -12552,43 +12568,43 @@
     <xf numFmtId="0" fontId="38" fillId="50" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="46" fillId="50" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="22" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="22" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="49" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="49" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="49" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="50" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="76" fillId="50" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="22" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="14" borderId="85" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="22" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="14" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="22" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="49" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="49" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="49" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="50" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="50" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="78" fillId="49" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="79" fillId="49" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="14" borderId="90" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="14" borderId="91" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -19057,14 +19073,14 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:AD66"/>
+  <dimension ref="B2:AD64"/>
   <sheetViews>
     <sheetView topLeftCell="A2" showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="9" ySplit="5" topLeftCell="J7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="5" topLeftCell="J22" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="J2" sqref="J2"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="O30" sqref="O30"/>
+      <selection pane="bottomRight" activeCell="S30" sqref="S30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14062500" defaultRowHeight="13.500000" outlineLevelRow="3"/>
@@ -19239,8 +19255,8 @@
       <c r="H6" s="236"/>
       <c r="I6" s="236"/>
       <c r="J6" s="78" t="str">
-        <f>CONCATENATE(NETWORKDAYS(K6,L6),"일")</f>
-        <v>85일</v>
+        <f>CONCATENATE(_xlfn.DAYS(L6,K6),"일")</f>
+        <v>118일</v>
       </c>
       <c r="K6" s="79">
         <v>45264</v>
@@ -19262,11 +19278,11 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="R6" s="381">
+      <c r="R6" s="378">
         <f ca="1">IF(Q6=100%,0,IF(_xlfn.DAYS(L6,TODAY())=0,0,_xlfn.DAYS(L6,TODAY())))</f>
-        <v>104</v>
-      </c>
-      <c r="S6" s="382"/>
+        <v>101</v>
+      </c>
+      <c r="S6" s="379"/>
       <c r="U6" s="22"/>
       <c r="V6" s="40" t="s">
         <v>51</v>
@@ -19924,9 +19940,9 @@
       <c r="G19" s="139"/>
       <c r="H19" s="140"/>
       <c r="I19" s="140"/>
-      <c r="J19" s="380" t="str">
-        <f>CONCATENATE(NETWORKDAYS(K19,L19),"일")</f>
-        <v>8일</v>
+      <c r="J19" s="368" t="str">
+        <f>CONCATENATE(_xlfn.DAYS(L19,K19),"일")</f>
+        <v>9일</v>
       </c>
       <c r="K19" s="142">
         <v>45265</v>
@@ -19981,9 +19997,9 @@
       </c>
       <c r="H20" s="152"/>
       <c r="I20" s="152"/>
-      <c r="J20" s="378" t="str">
-        <f>CONCATENATE(NETWORKDAYS(K20,L20),"일")</f>
-        <v>2일</v>
+      <c r="J20" s="377" t="str">
+        <f>CONCATENATE(_xlfn.DAYS(L20,K20),"일")</f>
+        <v>1일</v>
       </c>
       <c r="K20" s="157">
         <v>45265</v>
@@ -20035,9 +20051,9 @@
         <v>150</v>
       </c>
       <c r="I21" s="165"/>
-      <c r="J21" s="373" t="str">
-        <f>CONCATENATE(NETWORKDAYS(K21,L21),"일")</f>
-        <v>2일</v>
+      <c r="J21" s="365" t="str">
+        <f>CONCATENATE(_xlfn.DAYS(L21,K21),"일")</f>
+        <v>1일</v>
       </c>
       <c r="K21" s="170">
         <v>45265</v>
@@ -20091,9 +20107,9 @@
         <v>157</v>
       </c>
       <c r="I22" s="165"/>
-      <c r="J22" s="373" t="str">
-        <f>CONCATENATE(NETWORKDAYS(K22,L22),"일")</f>
-        <v>2일</v>
+      <c r="J22" s="365" t="str">
+        <f>CONCATENATE(_xlfn.DAYS(L22,K22),"일")</f>
+        <v>1일</v>
       </c>
       <c r="K22" s="170">
         <v>45265</v>
@@ -20146,9 +20162,9 @@
       </c>
       <c r="H23" s="300"/>
       <c r="I23" s="300"/>
-      <c r="J23" s="378" t="str">
-        <f>CONCATENATE(NETWORKDAYS(K23,L23),"일")</f>
-        <v>4일</v>
+      <c r="J23" s="377" t="str">
+        <f>CONCATENATE(_xlfn.DAYS(L23,K23),"일")</f>
+        <v>3일</v>
       </c>
       <c r="K23" s="305">
         <v>45271</v>
@@ -20200,9 +20216,9 @@
         <v>156</v>
       </c>
       <c r="I24" s="165"/>
-      <c r="J24" s="373" t="str">
-        <f>CONCATENATE(NETWORKDAYS(K24,L24),"일")</f>
-        <v>2일</v>
+      <c r="J24" s="365" t="str">
+        <f>CONCATENATE(_xlfn.DAYS(L24,K24),"일")</f>
+        <v>1일</v>
       </c>
       <c r="K24" s="170">
         <v>45271</v>
@@ -20253,9 +20269,9 @@
         <v>172</v>
       </c>
       <c r="I25" s="165"/>
-      <c r="J25" s="373" t="str">
-        <f>CONCATENATE(NETWORKDAYS(K25,L25),"일")</f>
-        <v>2일</v>
+      <c r="J25" s="365" t="str">
+        <f>CONCATENATE(_xlfn.DAYS(L25,K25),"일")</f>
+        <v>1일</v>
       </c>
       <c r="K25" s="170">
         <v>45273</v>
@@ -20308,7 +20324,7 @@
       <c r="G26" s="139"/>
       <c r="H26" s="140"/>
       <c r="I26" s="140"/>
-      <c r="J26" s="380" t="str">
+      <c r="J26" s="368" t="str">
         <f>CONCATENATE(NETWORKDAYS(K26,L26),"일")</f>
         <v>5일</v>
       </c>
@@ -20330,11 +20346,11 @@
       <c r="P26" s="144"/>
       <c r="Q26" s="145">
         <f>(SUM(Q27,Q28,Q33)/COUNT(Q27,Q28,Q33))</f>
-        <v>0.333333333333333</v>
+        <v>0.533333333333333</v>
       </c>
       <c r="R26" s="314">
         <f ca="1">IF(Q26=100%,0,IF(_xlfn.DAYS(L26,TODAY())=0,0,_xlfn.DAYS(L26,TODAY())))</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="S26" s="151"/>
       <c r="T26" s="27"/>
@@ -20360,9 +20376,9 @@
       </c>
       <c r="H27" s="152"/>
       <c r="I27" s="152"/>
-      <c r="J27" s="378" t="str">
-        <f>CONCATENATE(NETWORKDAYS(K27,L27),"일")</f>
-        <v>1일</v>
+      <c r="J27" s="377" t="str">
+        <f>CONCATENATE(_xlfn.DAYS(L27,K27),"일")</f>
+        <v>0일</v>
       </c>
       <c r="K27" s="157">
         <v>45278</v>
@@ -20415,9 +20431,9 @@
       </c>
       <c r="H28" s="152"/>
       <c r="I28" s="152"/>
-      <c r="J28" s="378" t="str">
-        <f>CONCATENATE(NETWORKDAYS(K28,L28),"일")</f>
-        <v>5일</v>
+      <c r="J28" s="377" t="str">
+        <f>CONCATENATE(_xlfn.DAYS(L28,K28),"일")</f>
+        <v>6일</v>
       </c>
       <c r="K28" s="157">
         <v>45278</v>
@@ -20436,11 +20452,11 @@
       </c>
       <c r="P28" s="160"/>
       <c r="Q28" s="159">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R28" s="314">
         <f ca="1">IF(Q28=100%,0,IF(_xlfn.DAYS(L28,TODAY())=0,0,_xlfn.DAYS(L28,TODAY())))</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="S28" s="164"/>
       <c r="T28" s="30"/>
@@ -20466,9 +20482,9 @@
         <v>207</v>
       </c>
       <c r="I29" s="165"/>
-      <c r="J29" s="373" t="str">
-        <f>CONCATENATE(NETWORKDAYS(K29,L29),"일")</f>
-        <v>1일</v>
+      <c r="J29" s="365" t="str">
+        <f>CONCATENATE(_xlfn.DAYS(L29,K29),"일")</f>
+        <v>0일</v>
       </c>
       <c r="K29" s="170">
         <v>45278</v>
@@ -20485,17 +20501,17 @@
       <c r="O29" s="325">
         <v>45278</v>
       </c>
-      <c r="P29" s="325"/>
+      <c r="P29" s="325">
+        <v>45278</v>
+      </c>
       <c r="Q29" s="326">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R29" s="314">
         <f ca="1">IF(Q29=100%,0,IF(_xlfn.DAYS(L29,TODAY())=0,0,_xlfn.DAYS(L29,TODAY())))</f>
         <v>0</v>
       </c>
-      <c r="S29" s="327" t="s">
-        <v>212</v>
-      </c>
+      <c r="S29" s="327"/>
       <c r="T29" s="30"/>
       <c r="U29" s="31"/>
       <c r="V29" s="34"/>
@@ -20519,9 +20535,9 @@
         <v>208</v>
       </c>
       <c r="I30" s="319"/>
-      <c r="J30" s="373" t="str">
-        <f>CONCATENATE(NETWORKDAYS(K30,L30),"일")</f>
-        <v>4일</v>
+      <c r="J30" s="365" t="str">
+        <f>CONCATENATE(_xlfn.DAYS(L30,K30),"일")</f>
+        <v>3일</v>
       </c>
       <c r="K30" s="323">
         <v>45279</v>
@@ -20535,17 +20551,21 @@
       <c r="N30" s="324" t="s">
         <v>167</v>
       </c>
-      <c r="O30" s="325"/>
-      <c r="P30" s="325"/>
+      <c r="O30" s="325">
+        <v>45279</v>
+      </c>
+      <c r="P30" s="325">
+        <v>45281</v>
+      </c>
       <c r="Q30" s="326">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R30" s="314">
         <f ca="1">IF(Q30=100%,0,IF(_xlfn.DAYS(L30,TODAY())=0,0,_xlfn.DAYS(L30,TODAY())))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S30" s="327" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="T30" s="30"/>
       <c r="U30" s="31"/>
@@ -20559,17 +20579,20 @@
       <c r="C31" s="165" t="s">
         <v>217</v>
       </c>
-      <c r="D31" s="320"/>
+      <c r="D31" s="320">
+        <f>IF(COUNTBLANK(E31:I31)&lt;5,IF(E31&lt;&gt;"",0,IF(F31&lt;&gt;"",1,IF(G31&lt;&gt;"",2,IF(H31&lt;&gt;"",3,IF(I31&lt;&gt;"",4))))),"")</f>
+        <v>3</v>
+      </c>
       <c r="E31" s="321"/>
       <c r="F31" s="316"/>
       <c r="G31" s="316"/>
       <c r="H31" s="319" t="s">
-        <v>209</v>
+        <v>239</v>
       </c>
       <c r="I31" s="319"/>
-      <c r="J31" s="373" t="str">
-        <f>CONCATENATE(NETWORKDAYS(K31,L31),"일")</f>
-        <v>0일</v>
+      <c r="J31" s="365" t="str">
+        <f>CONCATENATE(_xlfn.DAYS(L31,K31),"일")</f>
+        <v>1일</v>
       </c>
       <c r="K31" s="323">
         <v>45283</v>
@@ -20581,12 +20604,16 @@
       <c r="N31" s="324" t="s">
         <v>167</v>
       </c>
-      <c r="O31" s="325"/>
+      <c r="O31" s="325">
+        <v>45281</v>
+      </c>
       <c r="P31" s="325"/>
-      <c r="Q31" s="326"/>
+      <c r="Q31" s="326">
+        <v>0.1</v>
+      </c>
       <c r="R31" s="314">
         <f ca="1">IF(Q31=100%,0,IF(_xlfn.DAYS(L31,TODAY())=0,0,_xlfn.DAYS(L31,TODAY())))</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="S31" s="327" t="s">
         <v>214</v>
@@ -20603,7 +20630,10 @@
       <c r="C32" s="165" t="s">
         <v>218</v>
       </c>
-      <c r="D32" s="320"/>
+      <c r="D32" s="320">
+        <f>IF(COUNTBLANK(E32:I32)&lt;5,IF(E32&lt;&gt;"",0,IF(F32&lt;&gt;"",1,IF(G32&lt;&gt;"",2,IF(H32&lt;&gt;"",3,IF(I32&lt;&gt;"",4))))),"")</f>
+        <v>3</v>
+      </c>
       <c r="E32" s="321"/>
       <c r="F32" s="316"/>
       <c r="G32" s="316"/>
@@ -20611,8 +20641,8 @@
         <v>210</v>
       </c>
       <c r="I32" s="319"/>
-      <c r="J32" s="373" t="str">
-        <f>CONCATENATE(NETWORKDAYS(K32,L32),"일")</f>
+      <c r="J32" s="365" t="str">
+        <f>CONCATENATE(_xlfn.DAYS(L32,K32),"일")</f>
         <v>0일</v>
       </c>
       <c r="K32" s="323">
@@ -20627,10 +20657,12 @@
       </c>
       <c r="O32" s="325"/>
       <c r="P32" s="325"/>
-      <c r="Q32" s="326"/>
+      <c r="Q32" s="326">
+        <v>0.1</v>
+      </c>
       <c r="R32" s="314">
         <f ca="1">IF(Q32=100%,0,IF(_xlfn.DAYS(L32,TODAY())=0,0,_xlfn.DAYS(L32,TODAY())))</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="S32" s="327" t="s">
         <v>215</v>
@@ -20658,9 +20690,9 @@
       </c>
       <c r="H33" s="300"/>
       <c r="I33" s="300"/>
-      <c r="J33" s="378" t="str">
-        <f>CONCATENATE(NETWORKDAYS(K33,L33),"일")</f>
-        <v>5일</v>
+      <c r="J33" s="377" t="str">
+        <f>CONCATENATE(_xlfn.DAYS(L33,K33),"일")</f>
+        <v>6일</v>
       </c>
       <c r="K33" s="305">
         <v>45278</v>
@@ -20675,11 +20707,11 @@
       <c r="O33" s="328"/>
       <c r="P33" s="328"/>
       <c r="Q33" s="307">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="R33" s="314">
         <f ca="1">IF(Q33=100%,0,IF(_xlfn.DAYS(L33,TODAY())=0,0,_xlfn.DAYS(L33,TODAY())))</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="S33" s="177"/>
       <c r="T33" s="30"/>
@@ -20694,7 +20726,10 @@
       <c r="C34" s="165" t="s">
         <v>72</v>
       </c>
-      <c r="D34" s="320"/>
+      <c r="D34" s="166">
+        <f>IF(COUNTBLANK(E34:I34)&lt;5,IF(E34&lt;&gt;"",0,IF(F34&lt;&gt;"",1,IF(G34&lt;&gt;"",2,IF(H34&lt;&gt;"",3,IF(I34&lt;&gt;"",4))))),"")</f>
+        <v>3</v>
+      </c>
       <c r="E34" s="321"/>
       <c r="F34" s="316"/>
       <c r="G34" s="316"/>
@@ -20702,9 +20737,9 @@
         <v>219</v>
       </c>
       <c r="I34" s="319"/>
-      <c r="J34" s="373" t="str">
-        <f>CONCATENATE(NETWORKDAYS(K34,L34),"일")</f>
-        <v>0일</v>
+      <c r="J34" s="365" t="e">
+        <f>CONCATENATE(_xlfn.DAYS(L34,K34),"일")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="K34" s="323"/>
       <c r="L34" s="323"/>
@@ -20734,7 +20769,10 @@
       <c r="C35" s="165" t="s">
         <v>224</v>
       </c>
-      <c r="D35" s="320"/>
+      <c r="D35" s="166">
+        <f>IF(COUNTBLANK(E35:I35)&lt;5,IF(E35&lt;&gt;"",0,IF(F35&lt;&gt;"",1,IF(G35&lt;&gt;"",2,IF(H35&lt;&gt;"",3,IF(I35&lt;&gt;"",4))))),"")</f>
+        <v>3</v>
+      </c>
       <c r="E35" s="321"/>
       <c r="F35" s="316"/>
       <c r="G35" s="316"/>
@@ -20742,9 +20780,9 @@
         <v>221</v>
       </c>
       <c r="I35" s="319"/>
-      <c r="J35" s="373" t="str">
-        <f>CONCATENATE(NETWORKDAYS(K35,L35),"일")</f>
-        <v>0일</v>
+      <c r="J35" s="365" t="e">
+        <f>CONCATENATE(_xlfn.DAYS(L35,K35),"일")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="K35" s="323"/>
       <c r="L35" s="323"/>
@@ -20774,7 +20812,10 @@
       <c r="C36" s="165" t="s">
         <v>225</v>
       </c>
-      <c r="D36" s="320"/>
+      <c r="D36" s="166">
+        <f>IF(COUNTBLANK(E36:I36)&lt;5,IF(E36&lt;&gt;"",0,IF(F36&lt;&gt;"",1,IF(G36&lt;&gt;"",2,IF(H36&lt;&gt;"",3,IF(I36&lt;&gt;"",4))))),"")</f>
+        <v>3</v>
+      </c>
       <c r="E36" s="321"/>
       <c r="F36" s="316"/>
       <c r="G36" s="316"/>
@@ -20782,9 +20823,9 @@
         <v>223</v>
       </c>
       <c r="I36" s="319"/>
-      <c r="J36" s="373" t="str">
-        <f>CONCATENATE(NETWORKDAYS(K36,L36),"일")</f>
-        <v>0일</v>
+      <c r="J36" s="365" t="e">
+        <f>CONCATENATE(_xlfn.DAYS(L36,K36),"일")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="K36" s="323"/>
       <c r="L36" s="323"/>
@@ -20825,7 +20866,7 @@
       <c r="G37" s="139"/>
       <c r="H37" s="140"/>
       <c r="I37" s="140"/>
-      <c r="J37" s="380" t="str">
+      <c r="J37" s="368" t="str">
         <f>CONCATENATE(NETWORKDAYS(K37,L37),"일")</f>
         <v>0일</v>
       </c>
@@ -20867,7 +20908,7 @@
       </c>
       <c r="H38" s="152"/>
       <c r="I38" s="152"/>
-      <c r="J38" s="378" t="str">
+      <c r="J38" s="377" t="str">
         <f>CONCATENATE(NETWORKDAYS(K38,L38),"일")</f>
         <v>0일</v>
       </c>
@@ -20908,7 +20949,7 @@
         <v>116</v>
       </c>
       <c r="I39" s="165"/>
-      <c r="J39" s="373" t="str">
+      <c r="J39" s="365" t="str">
         <f>CONCATENATE(NETWORKDAYS(K39,L39),"일")</f>
         <v>0일</v>
       </c>
@@ -20949,7 +20990,7 @@
         <v>117</v>
       </c>
       <c r="I40" s="165"/>
-      <c r="J40" s="373" t="str">
+      <c r="J40" s="365" t="str">
         <f>CONCATENATE(NETWORKDAYS(K40,L40),"일")</f>
         <v>0일</v>
       </c>
@@ -20990,7 +21031,7 @@
         <v>117</v>
       </c>
       <c r="I41" s="165"/>
-      <c r="J41" s="373" t="str">
+      <c r="J41" s="365" t="str">
         <f>CONCATENATE(NETWORKDAYS(K41,L41),"일")</f>
         <v>0일</v>
       </c>
@@ -21031,7 +21072,7 @@
         <v>118</v>
       </c>
       <c r="I42" s="165"/>
-      <c r="J42" s="373" t="str">
+      <c r="J42" s="365" t="str">
         <f>CONCATENATE(NETWORKDAYS(K42,L42),"일")</f>
         <v>0일</v>
       </c>
@@ -21072,7 +21113,7 @@
       </c>
       <c r="H43" s="152"/>
       <c r="I43" s="152"/>
-      <c r="J43" s="378" t="str">
+      <c r="J43" s="377" t="str">
         <f>CONCATENATE(NETWORKDAYS(K43,L43),"일")</f>
         <v>0일</v>
       </c>
@@ -21113,7 +21154,7 @@
         <v>120</v>
       </c>
       <c r="I44" s="165"/>
-      <c r="J44" s="373" t="str">
+      <c r="J44" s="365" t="str">
         <f>CONCATENATE(NETWORKDAYS(K44,L44),"일")</f>
         <v>0일</v>
       </c>
@@ -21154,7 +21195,7 @@
         <v>122</v>
       </c>
       <c r="I45" s="165"/>
-      <c r="J45" s="373" t="str">
+      <c r="J45" s="365" t="str">
         <f>CONCATENATE(NETWORKDAYS(K45,L45),"일")</f>
         <v>0일</v>
       </c>
@@ -21195,7 +21236,7 @@
       <c r="G46" s="186"/>
       <c r="H46" s="187"/>
       <c r="I46" s="187"/>
-      <c r="J46" s="380" t="str">
+      <c r="J46" s="368" t="str">
         <f>CONCATENATE(NETWORKDAYS(K46,L46),"일")</f>
         <v>0일</v>
       </c>
@@ -21236,7 +21277,7 @@
       </c>
       <c r="H47" s="197"/>
       <c r="I47" s="197"/>
-      <c r="J47" s="378" t="str">
+      <c r="J47" s="377" t="str">
         <f>CONCATENATE(NETWORKDAYS(K47,L47),"일")</f>
         <v>0일</v>
       </c>
@@ -21277,7 +21318,7 @@
       </c>
       <c r="H48" s="152"/>
       <c r="I48" s="152"/>
-      <c r="J48" s="378" t="str">
+      <c r="J48" s="377" t="str">
         <f>CONCATENATE(NETWORKDAYS(K48,L48),"일")</f>
         <v>0일</v>
       </c>
@@ -21318,7 +21359,7 @@
       </c>
       <c r="H49" s="213"/>
       <c r="I49" s="213"/>
-      <c r="J49" s="378" t="str">
+      <c r="J49" s="377" t="str">
         <f>CONCATENATE(NETWORKDAYS(K49,L49),"일")</f>
         <v>0일</v>
       </c>
@@ -21342,71 +21383,44 @@
     </row>
     <row r="50" spans="2:22" outlineLevel="1">
       <c r="B50" s="32"/>
-      <c r="C50" s="16"/>
       <c r="D50" s="32"/>
       <c r="E50" s="32"/>
       <c r="F50" s="32"/>
       <c r="G50" s="32"/>
       <c r="H50" s="32"/>
       <c r="I50" s="32"/>
-      <c r="J50" s="15"/>
       <c r="K50" s="32"/>
-      <c r="L50" s="35"/>
       <c r="M50" s="32"/>
       <c r="N50" s="32"/>
-      <c r="O50" s="35"/>
-      <c r="P50" s="35"/>
-      <c r="Q50" s="36"/>
-      <c r="R50" s="34"/>
-      <c r="S50" s="37"/>
       <c r="T50" s="32"/>
-      <c r="U50" s="20"/>
       <c r="V50" s="32"/>
     </row>
     <row r="51" spans="2:22">
       <c r="B51" s="29"/>
-      <c r="C51" s="16"/>
       <c r="D51" s="29"/>
       <c r="E51" s="29"/>
       <c r="F51" s="29"/>
       <c r="G51" s="29"/>
       <c r="H51" s="29"/>
       <c r="I51" s="29"/>
-      <c r="J51" s="15"/>
       <c r="K51" s="29"/>
-      <c r="L51" s="35"/>
       <c r="M51" s="29"/>
       <c r="N51" s="29"/>
-      <c r="O51" s="35"/>
-      <c r="P51" s="35"/>
-      <c r="Q51" s="36"/>
-      <c r="R51" s="34"/>
-      <c r="S51" s="37"/>
       <c r="T51" s="29"/>
-      <c r="U51" s="20"/>
       <c r="V51" s="29"/>
     </row>
     <row r="52" spans="2:22">
       <c r="B52" s="32"/>
-      <c r="C52" s="16"/>
       <c r="D52" s="32"/>
       <c r="E52" s="32"/>
       <c r="F52" s="32"/>
       <c r="G52" s="32"/>
       <c r="H52" s="32"/>
       <c r="I52" s="32"/>
-      <c r="J52" s="15"/>
       <c r="K52" s="32"/>
-      <c r="L52" s="35"/>
       <c r="M52" s="32"/>
       <c r="N52" s="32"/>
-      <c r="O52" s="35"/>
-      <c r="P52" s="35"/>
-      <c r="Q52" s="36"/>
-      <c r="R52" s="34"/>
-      <c r="S52" s="37"/>
       <c r="T52" s="32"/>
-      <c r="U52" s="20"/>
       <c r="V52" s="32"/>
     </row>
     <row r="53" spans="2:22">
@@ -21485,72 +21499,36 @@
       <c r="V56" s="32"/>
     </row>
     <row r="57" spans="2:22">
-      <c r="B57" s="15"/>
       <c r="C57" s="32"/>
-      <c r="D57" s="35"/>
-      <c r="E57" s="15"/>
-      <c r="F57" s="14"/>
-      <c r="G57" s="14"/>
-      <c r="H57" s="15"/>
-      <c r="I57" s="16"/>
       <c r="J57" s="32"/>
-      <c r="K57" s="35"/>
       <c r="L57" s="32"/>
-      <c r="M57" s="35"/>
-      <c r="N57" s="35"/>
       <c r="O57" s="32"/>
       <c r="P57" s="32"/>
       <c r="Q57" s="32"/>
       <c r="R57" s="33"/>
       <c r="S57" s="32"/>
-      <c r="T57" s="15"/>
       <c r="U57" s="32"/>
-      <c r="V57" s="15"/>
     </row>
     <row r="58" spans="2:22">
-      <c r="B58" s="15"/>
       <c r="C58" s="32"/>
-      <c r="D58" s="35"/>
-      <c r="E58" s="15"/>
-      <c r="F58" s="14"/>
-      <c r="G58" s="14"/>
-      <c r="H58" s="15"/>
-      <c r="I58" s="16"/>
       <c r="J58" s="32"/>
-      <c r="K58" s="35"/>
       <c r="L58" s="32"/>
-      <c r="M58" s="35"/>
-      <c r="N58" s="35"/>
       <c r="O58" s="32"/>
       <c r="P58" s="32"/>
       <c r="Q58" s="32"/>
       <c r="S58" s="32"/>
-      <c r="T58" s="15"/>
       <c r="U58" s="32"/>
-      <c r="V58" s="15"/>
     </row>
     <row r="59" spans="2:22">
-      <c r="B59" s="15"/>
       <c r="C59" s="32"/>
-      <c r="D59" s="35"/>
-      <c r="E59" s="15"/>
-      <c r="F59" s="14"/>
-      <c r="G59" s="14"/>
-      <c r="H59" s="15"/>
-      <c r="I59" s="16"/>
       <c r="J59" s="32"/>
-      <c r="K59" s="35"/>
       <c r="L59" s="32"/>
-      <c r="M59" s="35"/>
-      <c r="N59" s="35"/>
       <c r="O59" s="32"/>
       <c r="P59" s="32"/>
       <c r="Q59" s="32"/>
       <c r="R59" s="32"/>
       <c r="S59" s="32"/>
-      <c r="T59" s="15"/>
       <c r="U59" s="32"/>
-      <c r="V59" s="15"/>
     </row>
     <row r="60" spans="2:22">
       <c r="C60" s="29"/>
@@ -21586,7 +21564,6 @@
       <c r="U62" s="32"/>
     </row>
     <row r="63" spans="2:22">
-      <c r="C63" s="16"/>
       <c r="J63" s="32"/>
       <c r="L63" s="32"/>
       <c r="O63" s="32"/>
@@ -21595,38 +21572,6 @@
       <c r="R63" s="32"/>
       <c r="S63" s="32"/>
       <c r="U63" s="32"/>
-    </row>
-    <row r="64" spans="2:22">
-      <c r="C64" s="16"/>
-      <c r="J64" s="15"/>
-      <c r="L64" s="35"/>
-      <c r="O64" s="35"/>
-      <c r="P64" s="35"/>
-      <c r="Q64" s="36"/>
-      <c r="R64" s="34"/>
-      <c r="S64" s="37"/>
-      <c r="U64" s="20"/>
-    </row>
-    <row r="65" spans="3:21">
-      <c r="C65" s="16"/>
-      <c r="J65" s="15"/>
-      <c r="L65" s="35"/>
-      <c r="O65" s="35"/>
-      <c r="P65" s="35"/>
-      <c r="Q65" s="36"/>
-      <c r="R65" s="34"/>
-      <c r="S65" s="37"/>
-      <c r="U65" s="20"/>
-    </row>
-    <row r="66" spans="3:21">
-      <c r="J66" s="15"/>
-      <c r="L66" s="35"/>
-      <c r="O66" s="35"/>
-      <c r="P66" s="35"/>
-      <c r="Q66" s="36"/>
-      <c r="R66" s="34"/>
-      <c r="S66" s="37"/>
-      <c r="U66" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -21642,7 +21587,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="Q6:Q49">
-    <cfRule type="dataBar" priority="1587">
+    <cfRule type="dataBar" priority="1623">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -21650,13 +21595,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b9f9a9e1-ccfc-efde-b9f9-a9e1ccfcefde}</x14:id>
+          <x14:id>{3272226b-4767-6455-3272-226b47676455}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q25">
-    <cfRule type="dataBar" priority="1322">
+    <cfRule type="dataBar" priority="1326">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -21664,7 +21609,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2565357c-5465-6342-2565-357c54656342}</x14:id>
+          <x14:id>{b6f6a6ef-c3e3-e9d1-b6f6-a6efc3e3e9d1}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -21678,7 +21623,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{a1e1b1f8-d4e4-e7c6-a1e1-b1f8d4e4e7c6}</x14:id>
+          <x14:id>{3a7a2a63-4f6f-6c5d-3a7a-2a634f6f6c5d}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -21692,13 +21637,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2d6d3d74-5868-6b4a-2d6d-3d7458686b4a}</x14:id>
+          <x14:id>{befeaee7-cbeb-e8d9-befe-aee7cbebe8d9}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q34">
-    <cfRule type="dataBar" priority="1565">
+    <cfRule type="dataBar" priority="1585">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -21706,12 +21651,40 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{a9e9b9f0-dcec-efce-a9e9-b9f0dcecefce}</x14:id>
+          <x14:id>{2262327b-5777-6445-2262-327b57776445}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q34">
+    <cfRule type="dataBar" priority="1577">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{a6e6b6ff-d3f3-e8c1-a6e6-b6ffd3f3e8c1}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q35">
+    <cfRule type="dataBar" priority="1569">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{2a6a3a73-5f7f-6c4d-2a6a-3a735f7f6c4d}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q35">
     <cfRule type="dataBar" priority="1561">
       <dataBar>
         <cfvo type="min"/>
@@ -21720,26 +21693,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1555f54c-6352-6372-1555-f54c63526372}</x14:id>
+          <x14:id>{aeeebef7-dbfb-e8c9-aeee-bef7dbfbe8c9}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q35">
-    <cfRule type="dataBar" priority="1557">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{91d181c8-e4d4-e7f6-91d1-81c8e4d4e7f6}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q35">
+  <conditionalFormatting sqref="Q36">
     <cfRule type="dataBar" priority="1553">
       <dataBar>
         <cfvo type="min"/>
@@ -21748,21 +21707,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{f9b9e9ad-8cbc-af9e-f9b9-e9ad8cbcaf9e}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q36">
-    <cfRule type="dataBar" priority="1549">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7d3d6d24-7838-2b1a-7d3d-6d2478382b1a}</x14:id>
+          <x14:id>{1252c24b-6747-6475-1252-c24b67476475}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -21776,23 +21721,20 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{f1b1e1a8-84b4-a796-f1b1-e1a884b4a796}</x14:id>
+          <x14:id>{96d686cf-e3c3-eff1-96d6-86cfe3c3eff1}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink r:id="rId1" ref="S29"/>
-  </hyperlinks>
   <pageMargins left="0.71" right="0.71" top="0.75" bottom="0.75" header="0.31" footer="0.31"/>
   <pageSetup paperSize="8" scale="68" fitToHeight="0" orientation="landscape"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{b9f9a9e1-ccfc-efde-b9f9-a9e1ccfcefde}">
+          <x14:cfRule type="dataBar" id="{3272226b-4767-6455-3272-226b47676455}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -21803,7 +21745,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2565357c-5465-6342-2565-357c54656342}">
+          <x14:cfRule type="dataBar" id="{b6f6a6ef-c3e3-e9d1-b6f6-a6efc3e3e9d1}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -21814,7 +21756,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{a1e1b1f8-d4e4-e7c6-a1e1-b1f8d4e4e7c6}">
+          <x14:cfRule type="dataBar" id="{3a7a2a63-4f6f-6c5d-3a7a-2a634f6f6c5d}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -21825,7 +21767,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2d6d3d74-5868-6b4a-2d6d-3d7458686b4a}">
+          <x14:cfRule type="dataBar" id="{befeaee7-cbeb-e8d9-befe-aee7cbebe8d9}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -21836,7 +21778,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{a9e9b9f0-dcec-efce-a9e9-b9f0dcecefce}">
+          <x14:cfRule type="dataBar" id="{2262327b-5777-6445-2262-327b57776445}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -21847,7 +21789,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1555f54c-6352-6372-1555-f54c63526372}">
+          <x14:cfRule type="dataBar" id="{a6e6b6ff-d3f3-e8c1-a6e6-b6ffd3f3e8c1}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -21858,7 +21800,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{91d181c8-e4d4-e7f6-91d1-81c8e4d4e7f6}">
+          <x14:cfRule type="dataBar" id="{2a6a3a73-5f7f-6c4d-2a6a-3a735f7f6c4d}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -21869,7 +21811,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{f9b9e9ad-8cbc-af9e-f9b9-e9ad8cbcaf9e}">
+          <x14:cfRule type="dataBar" id="{aeeebef7-dbfb-e8c9-aeee-bef7dbfbe8c9}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -21880,7 +21822,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7d3d6d24-7838-2b1a-7d3d-6d2478382b1a}">
+          <x14:cfRule type="dataBar" id="{1252c24b-6747-6475-1252-c24b67476475}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -21891,7 +21833,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{f1b1e1a8-84b4-a796-f1b1-e1a884b4a796}">
+          <x14:cfRule type="dataBar" id="{96d686cf-e3c3-eff1-96d6-86cfe3c3eff1}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>

--- a/0.WBS.xlsx
+++ b/0.WBS.xlsx
@@ -122,6 +122,88 @@
     <definedName name="DAYS" hidden="1">#NAME?</definedName>
     <definedName name="DAYS" hidden="1">#NAME?</definedName>
     <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -914,7 +996,7 @@
     <numFmt numFmtId="181" formatCode="m&quot;월&quot;\ d&quot;일&quot;"/>
     <numFmt numFmtId="182" formatCode="yyyy&quot;/&quot;m&quot;/&quot;d;@"/>
   </numFmts>
-  <fonts count="81">
+  <fonts count="80">
     <font>
       <sz val="10.0"/>
       <name val="맑은 고딕"/>
@@ -1381,23 +1463,18 @@
     <font>
       <sz val="10.0"/>
       <name val="맑은 고딕"/>
-      <color theme="1"/>
-    </font>
-    <font>
-      <sz val="10.0"/>
-      <name val="맑은 고딕"/>
       <color theme="1" tint="0.150000"/>
-    </font>
-    <font>
-      <sz val="10.0"/>
-      <name val="맑은 고딕"/>
-      <color rgb="FF000000"/>
     </font>
     <font>
       <b/>
       <sz val="10.0"/>
       <name val="맑은 고딕"/>
       <color theme="0"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FF000000"/>
     </font>
   </fonts>
   <fills count="51">
@@ -1705,7 +1782,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="87">
+  <borders count="86">
     <border>
       <left/>
       <right/>
@@ -2690,13 +2767,6 @@
         <color theme="1"/>
       </bottom>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2919">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -11457,7 +11527,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="383">
+  <cellXfs count="382">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -12598,13 +12668,10 @@
     <xf numFmtId="0" fontId="40" fillId="14" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -19073,14 +19140,14 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:AD64"/>
+  <dimension ref="B2:AD63"/>
   <sheetViews>
     <sheetView topLeftCell="A2" showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="9" ySplit="5" topLeftCell="J22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="5" topLeftCell="J7" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="J2" sqref="J2"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="S30" sqref="S30"/>
+      <selection pane="bottomRight" activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14062500" defaultRowHeight="13.500000" outlineLevelRow="3"/>
@@ -19280,7 +19347,7 @@
       </c>
       <c r="R6" s="378">
         <f ca="1">IF(Q6=100%,0,IF(_xlfn.DAYS(L6,TODAY())=0,0,_xlfn.DAYS(L6,TODAY())))</f>
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="S6" s="379"/>
       <c r="U6" s="22"/>
@@ -20350,7 +20417,7 @@
       </c>
       <c r="R26" s="314">
         <f ca="1">IF(Q26=100%,0,IF(_xlfn.DAYS(L26,TODAY())=0,0,_xlfn.DAYS(L26,TODAY())))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S26" s="151"/>
       <c r="T26" s="27"/>
@@ -20456,7 +20523,7 @@
       </c>
       <c r="R28" s="314">
         <f ca="1">IF(Q28=100%,0,IF(_xlfn.DAYS(L28,TODAY())=0,0,_xlfn.DAYS(L28,TODAY())))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S28" s="164"/>
       <c r="T28" s="30"/>
@@ -20609,11 +20676,11 @@
       </c>
       <c r="P31" s="325"/>
       <c r="Q31" s="326">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="R31" s="314">
         <f ca="1">IF(Q31=100%,0,IF(_xlfn.DAYS(L31,TODAY())=0,0,_xlfn.DAYS(L31,TODAY())))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S31" s="327" t="s">
         <v>214</v>
@@ -20662,7 +20729,7 @@
       </c>
       <c r="R32" s="314">
         <f ca="1">IF(Q32=100%,0,IF(_xlfn.DAYS(L32,TODAY())=0,0,_xlfn.DAYS(L32,TODAY())))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S32" s="327" t="s">
         <v>215</v>
@@ -20711,7 +20778,7 @@
       </c>
       <c r="R33" s="314">
         <f ca="1">IF(Q33=100%,0,IF(_xlfn.DAYS(L33,TODAY())=0,0,_xlfn.DAYS(L33,TODAY())))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S33" s="177"/>
       <c r="T33" s="30"/>
@@ -21595,7 +21662,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3272226b-4767-6455-3272-226b47676455}</x14:id>
+          <x14:id>{8bcb9bd2-fedf-fced-8bcb-9bd2fedffced}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -21609,7 +21676,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b6f6a6ef-c3e3-e9d1-b6f6-a6efc3e3e9d1}</x14:id>
+          <x14:id>{2f4f1f56-7a5b-7869-2f4f-1f567a5b7869}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -21623,7 +21690,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3a7a2a63-4f6f-6c5d-3a7a-2a634f6f6c5d}</x14:id>
+          <x14:id>{83c393da-f6d7-f4e5-83c3-93daf6d7f4e5}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -21637,7 +21704,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{befeaee7-cbeb-e8d9-befe-aee7cbebe8d9}</x14:id>
+          <x14:id>{b747175e-7253-7761-b747-175e72537761}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -21651,7 +21718,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2262327b-5777-6445-2262-327b57776445}</x14:id>
+          <x14:id>{9bdb8bc2-eece-ecfd-9bdb-8bc2eeceecfd}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -21665,7 +21732,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{a6e6b6ff-d3f3-e8c1-a6e6-b6ffd3f3e8c1}</x14:id>
+          <x14:id>{1f5f8f46-6a4a-6879-1f5f-8f466a4a6879}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -21679,7 +21746,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2a6a3a73-5f7f-6c4d-2a6a-3a735f7f6c4d}</x14:id>
+          <x14:id>{93d383ca-e6c6-e4f5-93d3-83cae6c6e4f5}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -21693,7 +21760,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{aeeebef7-dbfb-e8c9-aeee-bef7dbfbe8c9}</x14:id>
+          <x14:id>{1757174e-6242-6671-1757-174e62426671}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -21707,7 +21774,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1252c24b-6747-6475-1252-c24b67476475}</x14:id>
+          <x14:id>{abebbbf2-defd-dccd-abeb-bbf2defddccd}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -21721,7 +21788,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{96d686cf-e3c3-eff1-96d6-86cfe3c3eff1}</x14:id>
+          <x14:id>{2f6f3f76-5a79-5849-2f6f-3f765a795849}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -21734,7 +21801,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{3272226b-4767-6455-3272-226b47676455}">
+          <x14:cfRule type="dataBar" id="{8bcb9bd2-fedf-fced-8bcb-9bd2fedffced}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -21745,7 +21812,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{b6f6a6ef-c3e3-e9d1-b6f6-a6efc3e3e9d1}">
+          <x14:cfRule type="dataBar" id="{2f4f1f56-7a5b-7869-2f4f-1f567a5b7869}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -21756,7 +21823,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{3a7a2a63-4f6f-6c5d-3a7a-2a634f6f6c5d}">
+          <x14:cfRule type="dataBar" id="{83c393da-f6d7-f4e5-83c3-93daf6d7f4e5}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -21767,7 +21834,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{befeaee7-cbeb-e8d9-befe-aee7cbebe8d9}">
+          <x14:cfRule type="dataBar" id="{b747175e-7253-7761-b747-175e72537761}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -21778,7 +21845,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2262327b-5777-6445-2262-327b57776445}">
+          <x14:cfRule type="dataBar" id="{9bdb8bc2-eece-ecfd-9bdb-8bc2eeceecfd}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -21789,7 +21856,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{a6e6b6ff-d3f3-e8c1-a6e6-b6ffd3f3e8c1}">
+          <x14:cfRule type="dataBar" id="{1f5f8f46-6a4a-6879-1f5f-8f466a4a6879}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -21800,7 +21867,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2a6a3a73-5f7f-6c4d-2a6a-3a735f7f6c4d}">
+          <x14:cfRule type="dataBar" id="{93d383ca-e6c6-e4f5-93d3-83cae6c6e4f5}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -21811,7 +21878,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{aeeebef7-dbfb-e8c9-aeee-bef7dbfbe8c9}">
+          <x14:cfRule type="dataBar" id="{1757174e-6242-6671-1757-174e62426671}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -21822,7 +21889,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1252c24b-6747-6475-1252-c24b67476475}">
+          <x14:cfRule type="dataBar" id="{abebbbf2-defd-dccd-abeb-bbf2defddccd}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -21833,7 +21900,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{96d686cf-e3c3-eff1-96d6-86cfe3c3eff1}">
+          <x14:cfRule type="dataBar" id="{2f6f3f76-5a79-5849-2f6f-3f765a795849}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>

--- a/0.WBS.xlsx
+++ b/0.WBS.xlsx
@@ -204,6 +204,88 @@
     <definedName name="DAYS" hidden="1">#NAME?</definedName>
     <definedName name="DAYS" hidden="1">#NAME?</definedName>
     <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -217,7 +299,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="243">
   <si>
     <t>기간</t>
   </si>
@@ -981,6 +1063,9 @@
     <t>DAYS(</t>
   </si>
   <si/>
+  <si>
+    <t>6.테이블 기술서.xlsx</t>
+  </si>
 </sst>
 </file>
 
@@ -19143,11 +19228,11 @@
   <dimension ref="B2:AD63"/>
   <sheetViews>
     <sheetView topLeftCell="A2" showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="9" ySplit="5" topLeftCell="J7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="5" topLeftCell="J25" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="J2" sqref="J2"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="O33" sqref="O33"/>
+      <selection pane="bottomRight" activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14062500" defaultRowHeight="13.500000" outlineLevelRow="3"/>
@@ -19347,7 +19432,7 @@
       </c>
       <c r="R6" s="378">
         <f ca="1">IF(Q6=100%,0,IF(_xlfn.DAYS(L6,TODAY())=0,0,_xlfn.DAYS(L6,TODAY())))</f>
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="S6" s="379"/>
       <c r="U6" s="22"/>
@@ -20393,13 +20478,13 @@
       <c r="I26" s="140"/>
       <c r="J26" s="368" t="str">
         <f>CONCATENATE(NETWORKDAYS(K26,L26),"일")</f>
-        <v>5일</v>
+        <v>10일</v>
       </c>
       <c r="K26" s="144">
         <v>45278</v>
       </c>
       <c r="L26" s="144">
-        <v>45284</v>
+        <v>45289</v>
       </c>
       <c r="M26" s="144" t="s">
         <v>50</v>
@@ -20413,11 +20498,11 @@
       <c r="P26" s="144"/>
       <c r="Q26" s="145">
         <f>(SUM(Q27,Q28,Q33)/COUNT(Q27,Q28,Q33))</f>
-        <v>0.533333333333333</v>
+        <v>0.7</v>
       </c>
       <c r="R26" s="314">
         <f ca="1">IF(Q26=100%,0,IF(_xlfn.DAYS(L26,TODAY())=0,0,_xlfn.DAYS(L26,TODAY())))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S26" s="151"/>
       <c r="T26" s="27"/>
@@ -20517,13 +20602,16 @@
       <c r="O28" s="160">
         <v>45278</v>
       </c>
-      <c r="P28" s="160"/>
+      <c r="P28" s="160">
+        <v>45286</v>
+      </c>
       <c r="Q28" s="159">
-        <v>0.5</v>
+        <f>SUM(Q29:Q32)/COUNT(Q29:Q32)</f>
+        <v>1</v>
       </c>
       <c r="R28" s="314">
         <f ca="1">IF(Q28=100%,0,IF(_xlfn.DAYS(L28,TODAY())=0,0,_xlfn.DAYS(L28,TODAY())))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S28" s="164"/>
       <c r="T28" s="30"/>
@@ -20659,13 +20747,13 @@
       <c r="I31" s="319"/>
       <c r="J31" s="365" t="str">
         <f>CONCATENATE(_xlfn.DAYS(L31,K31),"일")</f>
-        <v>1일</v>
+        <v>3일</v>
       </c>
       <c r="K31" s="323">
         <v>45283</v>
       </c>
       <c r="L31" s="323">
-        <v>45284</v>
+        <v>45286</v>
       </c>
       <c r="M31" s="324"/>
       <c r="N31" s="324" t="s">
@@ -20674,16 +20762,18 @@
       <c r="O31" s="325">
         <v>45281</v>
       </c>
-      <c r="P31" s="325"/>
+      <c r="P31" s="325">
+        <v>45286</v>
+      </c>
       <c r="Q31" s="326">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="R31" s="314">
         <f ca="1">IF(Q31=100%,0,IF(_xlfn.DAYS(L31,TODAY())=0,0,_xlfn.DAYS(L31,TODAY())))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S31" s="327" t="s">
-        <v>214</v>
+        <v>242</v>
       </c>
       <c r="T31" s="30"/>
       <c r="U31" s="31"/>
@@ -20713,23 +20803,27 @@
         <v>0일</v>
       </c>
       <c r="K32" s="323">
-        <v>45284</v>
+        <v>45286</v>
       </c>
       <c r="L32" s="323">
-        <v>45284</v>
+        <v>45286</v>
       </c>
       <c r="M32" s="324"/>
       <c r="N32" s="324" t="s">
         <v>167</v>
       </c>
-      <c r="O32" s="325"/>
-      <c r="P32" s="325"/>
+      <c r="O32" s="325">
+        <v>45286</v>
+      </c>
+      <c r="P32" s="325">
+        <v>45286</v>
+      </c>
       <c r="Q32" s="326">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="R32" s="314">
         <f ca="1">IF(Q32=100%,0,IF(_xlfn.DAYS(L32,TODAY())=0,0,_xlfn.DAYS(L32,TODAY())))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S32" s="327" t="s">
         <v>215</v>
@@ -20759,26 +20853,30 @@
       <c r="I33" s="300"/>
       <c r="J33" s="377" t="str">
         <f>CONCATENATE(_xlfn.DAYS(L33,K33),"일")</f>
-        <v>6일</v>
+        <v>8일</v>
       </c>
       <c r="K33" s="305">
         <v>45278</v>
       </c>
       <c r="L33" s="305">
-        <v>45284</v>
+        <v>45286</v>
       </c>
       <c r="M33" s="306"/>
       <c r="N33" s="306" t="s">
         <v>167</v>
       </c>
-      <c r="O33" s="328"/>
-      <c r="P33" s="328"/>
+      <c r="O33" s="328">
+        <v>45278</v>
+      </c>
+      <c r="P33" s="328">
+        <v>45291</v>
+      </c>
       <c r="Q33" s="307">
         <v>0.1</v>
       </c>
       <c r="R33" s="314">
         <f ca="1">IF(Q33=100%,0,IF(_xlfn.DAYS(L33,TODAY())=0,0,_xlfn.DAYS(L33,TODAY())))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S33" s="177"/>
       <c r="T33" s="30"/>
@@ -21662,7 +21760,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8bcb9bd2-fedf-fced-8bcb-9bd2fedffced}</x14:id>
+          <x14:id>{bafaaae3-cfef-ecdd-bafa-aae3cfefecdd}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -21676,7 +21774,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2f4f1f56-7a5b-7869-2f4f-1f567a5b7869}</x14:id>
+          <x14:id>{3e7e2e67-4b6b-6859-3e7e-2e674b6b6859}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -21690,7 +21788,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{83c393da-f6d7-f4e5-83c3-93daf6d7f4e5}</x14:id>
+          <x14:id>{b2f2a2eb-c7e7-e4d5-b2f2-a2ebc7e7e4d5}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -21704,7 +21802,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b747175e-7253-7761-b747-175e72537761}</x14:id>
+          <x14:id>{3676266f-4363-6051-3676-266f43636051}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -21718,7 +21816,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9bdb8bc2-eece-ecfd-9bdb-8bc2eeceecfd}</x14:id>
+          <x14:id>{aaeabaf3-dfff-eccd-aaea-baf3dfffeccd}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -21732,7 +21830,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1f5f8f46-6a4a-6879-1f5f-8f466a4a6879}</x14:id>
+          <x14:id>{2e6e3e77-5b7b-6849-2e6e-3e775b7b6849}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -21746,7 +21844,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{93d383ca-e6c6-e4f5-93d3-83cae6c6e4f5}</x14:id>
+          <x14:id>{a2e2b2fb-d7f7-e4c5-a2e2-b2fbd7f7e4c5}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -21760,7 +21858,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1757174e-6242-6671-1757-174e62426671}</x14:id>
+          <x14:id>{2666367f-5373-6141-2666-367f53736141}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -21774,7 +21872,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{abebbbf2-defd-dccd-abeb-bbf2defddccd}</x14:id>
+          <x14:id>{9ada8ac3-efcf-ecfd-9ada-8ac3efcfecfd}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -21788,7 +21886,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2f6f3f76-5a79-5849-2f6f-3f765a795849}</x14:id>
+          <x14:id>{1e5e5e47-6b4b-6879-1e5e-5e476b4b6879}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -21801,7 +21899,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8bcb9bd2-fedf-fced-8bcb-9bd2fedffced}">
+          <x14:cfRule type="dataBar" id="{bafaaae3-cfef-ecdd-bafa-aae3cfefecdd}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -21812,7 +21910,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2f4f1f56-7a5b-7869-2f4f-1f567a5b7869}">
+          <x14:cfRule type="dataBar" id="{3e7e2e67-4b6b-6859-3e7e-2e674b6b6859}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -21823,7 +21921,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{83c393da-f6d7-f4e5-83c3-93daf6d7f4e5}">
+          <x14:cfRule type="dataBar" id="{b2f2a2eb-c7e7-e4d5-b2f2-a2ebc7e7e4d5}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -21834,7 +21932,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{b747175e-7253-7761-b747-175e72537761}">
+          <x14:cfRule type="dataBar" id="{3676266f-4363-6051-3676-266f43636051}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -21845,7 +21943,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9bdb8bc2-eece-ecfd-9bdb-8bc2eeceecfd}">
+          <x14:cfRule type="dataBar" id="{aaeabaf3-dfff-eccd-aaea-baf3dfffeccd}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -21856,7 +21954,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1f5f8f46-6a4a-6879-1f5f-8f466a4a6879}">
+          <x14:cfRule type="dataBar" id="{2e6e3e77-5b7b-6849-2e6e-3e775b7b6849}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -21867,7 +21965,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{93d383ca-e6c6-e4f5-93d3-83cae6c6e4f5}">
+          <x14:cfRule type="dataBar" id="{a2e2b2fb-d7f7-e4c5-a2e2-b2fbd7f7e4c5}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -21878,7 +21976,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1757174e-6242-6671-1757-174e62426671}">
+          <x14:cfRule type="dataBar" id="{2666367f-5373-6141-2666-367f53736141}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -21889,7 +21987,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{abebbbf2-defd-dccd-abeb-bbf2defddccd}">
+          <x14:cfRule type="dataBar" id="{9ada8ac3-efcf-ecfd-9ada-8ac3efcfecfd}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -21900,7 +21998,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2f6f3f76-5a79-5849-2f6f-3f765a795849}">
+          <x14:cfRule type="dataBar" id="{1e5e5e47-6b4b-6879-1e5e-5e476b4b6879}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>

--- a/0.WBS.xlsx
+++ b/0.WBS.xlsx
@@ -286,6 +286,88 @@
     <definedName name="DAYS" hidden="1">#NAME?</definedName>
     <definedName name="DAYS" hidden="1">#NAME?</definedName>
     <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -299,7 +381,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="244">
   <si>
     <t>기간</t>
   </si>
@@ -1065,6 +1147,9 @@
   <si/>
   <si>
     <t>6.테이블 기술서.xlsx</t>
+  </si>
+  <si>
+    <t>7.DDL.sql</t>
   </si>
 </sst>
 </file>
@@ -19232,7 +19317,7 @@
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="J2" sqref="J2"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="L34" sqref="L34"/>
+      <selection pane="bottomRight" activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14062500" defaultRowHeight="13.500000" outlineLevelRow="3"/>
@@ -19432,7 +19517,7 @@
       </c>
       <c r="R6" s="378">
         <f ca="1">IF(Q6=100%,0,IF(_xlfn.DAYS(L6,TODAY())=0,0,_xlfn.DAYS(L6,TODAY())))</f>
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="S6" s="379"/>
       <c r="U6" s="22"/>
@@ -20502,7 +20587,7 @@
       </c>
       <c r="R26" s="314">
         <f ca="1">IF(Q26=100%,0,IF(_xlfn.DAYS(L26,TODAY())=0,0,_xlfn.DAYS(L26,TODAY())))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S26" s="151"/>
       <c r="T26" s="27"/>
@@ -20816,7 +20901,7 @@
         <v>45286</v>
       </c>
       <c r="P32" s="325">
-        <v>45286</v>
+        <v>45287</v>
       </c>
       <c r="Q32" s="326">
         <v>1</v>
@@ -20826,7 +20911,7 @@
         <v>0</v>
       </c>
       <c r="S32" s="327" t="s">
-        <v>215</v>
+        <v>243</v>
       </c>
       <c r="T32" s="30"/>
       <c r="U32" s="31"/>
@@ -20876,7 +20961,7 @@
       </c>
       <c r="R33" s="314">
         <f ca="1">IF(Q33=100%,0,IF(_xlfn.DAYS(L33,TODAY())=0,0,_xlfn.DAYS(L33,TODAY())))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S33" s="177"/>
       <c r="T33" s="30"/>
@@ -21760,7 +21845,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{bafaaae3-cfef-ecdd-bafa-aae3cfefecdd}</x14:id>
+          <x14:id>{ce8ede97-bb9a-b9a8-ce8e-de97bb9ab9a8}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -21774,7 +21859,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3e7e2e67-4b6b-6859-3e7e-2e674b6b6859}</x14:id>
+          <x14:id>{4afa5a13-3f1e-3d2c-4afa-5a133f1e3d2c}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -21788,7 +21873,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b2f2a2eb-c7e7-e4d5-b2f2-a2ebc7e7e4d5}</x14:id>
+          <x14:id>{c686d69f-b392-b1a7-c686-d69fb392b1a7}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -21802,7 +21887,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3676266f-4363-6051-3676-266f43636051}</x14:id>
+          <x14:id>{4262521b-3716-3524-4262-521b37163524}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -21816,7 +21901,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{aaeabaf3-dfff-eccd-aaea-baf3dfffeccd}</x14:id>
+          <x14:id>{de9ece87-ab8b-a9b8-de9e-ce87ab8ba9b8}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -21830,7 +21915,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2e6e3e77-5b7b-6849-2e6e-3e775b7b6849}</x14:id>
+          <x14:id>{5a1a4a53-2f8f-2d3c-5a1a-4a532f8f2d3c}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -21844,7 +21929,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{a2e2b2fb-d7f7-e4c5-a2e2-b2fbd7f7e4c5}</x14:id>
+          <x14:id>{d696c68f-a383-a1b6-d696-c68fa383a1b6}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -21858,7 +21943,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2666367f-5373-6141-2666-367f53736141}</x14:id>
+          <x14:id>{521242cb-2717-2534-5212-42cb27172534}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -21872,7 +21957,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9ada8ac3-efcf-ecfd-9ada-8ac3efcfecfd}</x14:id>
+          <x14:id>{eeaefeb7-9bb8-9988-eeae-feb79bb89988}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -21886,7 +21971,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1e5e5e47-6b4b-6879-1e5e-5e476b4b6879}</x14:id>
+          <x14:id>{6a2a7a33-1f3c-1d1c-6a2a-7a331f3c1d1c}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -21899,7 +21984,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{bafaaae3-cfef-ecdd-bafa-aae3cfefecdd}">
+          <x14:cfRule type="dataBar" id="{ce8ede97-bb9a-b9a8-ce8e-de97bb9ab9a8}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -21910,7 +21995,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{3e7e2e67-4b6b-6859-3e7e-2e674b6b6859}">
+          <x14:cfRule type="dataBar" id="{4afa5a13-3f1e-3d2c-4afa-5a133f1e3d2c}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -21921,7 +22006,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{b2f2a2eb-c7e7-e4d5-b2f2-a2ebc7e7e4d5}">
+          <x14:cfRule type="dataBar" id="{c686d69f-b392-b1a7-c686-d69fb392b1a7}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -21932,7 +22017,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{3676266f-4363-6051-3676-266f43636051}">
+          <x14:cfRule type="dataBar" id="{4262521b-3716-3524-4262-521b37163524}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -21943,7 +22028,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{aaeabaf3-dfff-eccd-aaea-baf3dfffeccd}">
+          <x14:cfRule type="dataBar" id="{de9ece87-ab8b-a9b8-de9e-ce87ab8ba9b8}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -21954,7 +22039,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2e6e3e77-5b7b-6849-2e6e-3e775b7b6849}">
+          <x14:cfRule type="dataBar" id="{5a1a4a53-2f8f-2d3c-5a1a-4a532f8f2d3c}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -21965,7 +22050,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{a2e2b2fb-d7f7-e4c5-a2e2-b2fbd7f7e4c5}">
+          <x14:cfRule type="dataBar" id="{d696c68f-a383-a1b6-d696-c68fa383a1b6}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -21976,7 +22061,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2666367f-5373-6141-2666-367f53736141}">
+          <x14:cfRule type="dataBar" id="{521242cb-2717-2534-5212-42cb27172534}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -21987,7 +22072,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9ada8ac3-efcf-ecfd-9ada-8ac3efcfecfd}">
+          <x14:cfRule type="dataBar" id="{eeaefeb7-9bb8-9988-eeae-feb79bb89988}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -21998,7 +22083,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1e5e5e47-6b4b-6879-1e5e-5e476b4b6879}">
+          <x14:cfRule type="dataBar" id="{6a2a7a33-1f3c-1d1c-6a2a-7a331f3c1d1c}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>

--- a/0.WBS.xlsx
+++ b/0.WBS.xlsx
@@ -368,6 +368,88 @@
     <definedName name="DAYS" hidden="1">#NAME?</definedName>
     <definedName name="DAYS" hidden="1">#NAME?</definedName>
     <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -381,7 +463,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="253">
   <si>
     <t>기간</t>
   </si>
@@ -1150,6 +1232,33 @@
   </si>
   <si>
     <t>7.DDL.sql</t>
+  </si>
+  <si>
+    <t>기능 정리</t>
+  </si>
+  <si>
+    <t>2023-12--27</t>
+  </si>
+  <si>
+    <t>8.기능명세서.xlsx</t>
+  </si>
+  <si>
+    <t>9.API 설계서.xlsx</t>
+  </si>
+  <si>
+    <t>6.테이블기술서.xlsx</t>
+  </si>
+  <si>
+    <t>8.기능 명세서.xlsx</t>
+  </si>
+  <si>
+    <t>10.스토리 보드.jpg</t>
+  </si>
+  <si>
+    <t>8.API 설계서.xlsx</t>
+  </si>
+  <si>
+    <t>8.기능정리.xlsx</t>
   </si>
 </sst>
 </file>
@@ -19317,7 +19426,7 @@
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="J2" sqref="J2"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="K34" sqref="K34"/>
+      <selection pane="bottomRight" activeCell="O36" sqref="O36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14062500" defaultRowHeight="13.500000" outlineLevelRow="3"/>
@@ -19517,7 +19626,7 @@
       </c>
       <c r="R6" s="378">
         <f ca="1">IF(Q6=100%,0,IF(_xlfn.DAYS(L6,TODAY())=0,0,_xlfn.DAYS(L6,TODAY())))</f>
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S6" s="379"/>
       <c r="U6" s="22"/>
@@ -20583,11 +20692,11 @@
       <c r="P26" s="144"/>
       <c r="Q26" s="145">
         <f>(SUM(Q27,Q28,Q33)/COUNT(Q27,Q28,Q33))</f>
-        <v>0.7</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="R26" s="314">
         <f ca="1">IF(Q26=100%,0,IF(_xlfn.DAYS(L26,TODAY())=0,0,_xlfn.DAYS(L26,TODAY())))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S26" s="151"/>
       <c r="T26" s="27"/>
@@ -20938,13 +21047,13 @@
       <c r="I33" s="300"/>
       <c r="J33" s="377" t="str">
         <f>CONCATENATE(_xlfn.DAYS(L33,K33),"일")</f>
-        <v>8일</v>
+        <v>11일</v>
       </c>
       <c r="K33" s="305">
-        <v>45278</v>
+        <v>45287</v>
       </c>
       <c r="L33" s="305">
-        <v>45286</v>
+        <v>45298</v>
       </c>
       <c r="M33" s="306"/>
       <c r="N33" s="306" t="s">
@@ -20957,11 +21066,12 @@
         <v>45291</v>
       </c>
       <c r="Q33" s="307">
-        <v>0.1</v>
+        <f>SUM(Q34:Q36)/COUNT(Q34:Q36)</f>
+        <v>0.333333333333333</v>
       </c>
       <c r="R33" s="314">
         <f ca="1">IF(Q33=100%,0,IF(_xlfn.DAYS(L33,TODAY())=0,0,_xlfn.DAYS(L33,TODAY())))</f>
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="S33" s="177"/>
       <c r="T33" s="30"/>
@@ -20984,28 +21094,38 @@
       <c r="F34" s="316"/>
       <c r="G34" s="316"/>
       <c r="H34" s="319" t="s">
-        <v>219</v>
+        <v>244</v>
       </c>
       <c r="I34" s="319"/>
-      <c r="J34" s="365" t="e">
+      <c r="J34" s="365" t="str">
         <f>CONCATENATE(_xlfn.DAYS(L34,K34),"일")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K34" s="323"/>
-      <c r="L34" s="323"/>
+        <v>2일</v>
+      </c>
+      <c r="K34" s="323">
+        <v>45287</v>
+      </c>
+      <c r="L34" s="323">
+        <v>45289</v>
+      </c>
       <c r="M34" s="324"/>
       <c r="N34" s="324" t="s">
         <v>167</v>
       </c>
-      <c r="O34" s="325"/>
-      <c r="P34" s="325"/>
-      <c r="Q34" s="326"/>
-      <c r="R34" s="314" t="e">
+      <c r="O34" s="325">
+        <v>45287</v>
+      </c>
+      <c r="P34" s="325">
+        <v>45288</v>
+      </c>
+      <c r="Q34" s="326">
+        <v>1</v>
+      </c>
+      <c r="R34" s="314">
         <f ca="1">IF(Q34=100%,0,IF(_xlfn.DAYS(L34,TODAY())=0,0,_xlfn.DAYS(L34,TODAY())))</f>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="S34" s="327" t="s">
-        <v>226</v>
+        <v>252</v>
       </c>
       <c r="T34" s="30"/>
       <c r="U34" s="31"/>
@@ -21027,28 +21147,38 @@
       <c r="F35" s="316"/>
       <c r="G35" s="316"/>
       <c r="H35" s="319" t="s">
-        <v>221</v>
+        <v>143</v>
       </c>
       <c r="I35" s="319"/>
-      <c r="J35" s="365" t="e">
+      <c r="J35" s="365" t="str">
         <f>CONCATENATE(_xlfn.DAYS(L35,K35),"일")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K35" s="323"/>
-      <c r="L35" s="323"/>
+        <v>6일</v>
+      </c>
+      <c r="K35" s="323">
+        <v>45287</v>
+      </c>
+      <c r="L35" s="323">
+        <v>45293</v>
+      </c>
       <c r="M35" s="324"/>
       <c r="N35" s="324" t="s">
         <v>167</v>
       </c>
-      <c r="O35" s="325"/>
-      <c r="P35" s="325"/>
-      <c r="Q35" s="326"/>
-      <c r="R35" s="314" t="e">
+      <c r="O35" s="325">
+        <v>45288</v>
+      </c>
+      <c r="P35" s="325">
+        <v>45289</v>
+      </c>
+      <c r="Q35" s="326">
+        <v>0</v>
+      </c>
+      <c r="R35" s="314">
         <f ca="1">IF(Q35=100%,0,IF(_xlfn.DAYS(L35,TODAY())=0,0,_xlfn.DAYS(L35,TODAY())))</f>
-        <v>#VALUE!</v>
+        <v>5</v>
       </c>
       <c r="S35" s="327" t="s">
-        <v>227</v>
+        <v>247</v>
       </c>
       <c r="T35" s="30"/>
       <c r="U35" s="31"/>
@@ -21073,25 +21203,31 @@
         <v>223</v>
       </c>
       <c r="I36" s="319"/>
-      <c r="J36" s="365" t="e">
+      <c r="J36" s="365" t="str">
         <f>CONCATENATE(_xlfn.DAYS(L36,K36),"일")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K36" s="323"/>
-      <c r="L36" s="323"/>
+        <v>5일</v>
+      </c>
+      <c r="K36" s="323">
+        <v>45293</v>
+      </c>
+      <c r="L36" s="323">
+        <v>45298</v>
+      </c>
       <c r="M36" s="324"/>
       <c r="N36" s="324" t="s">
         <v>167</v>
       </c>
       <c r="O36" s="325"/>
       <c r="P36" s="325"/>
-      <c r="Q36" s="326"/>
-      <c r="R36" s="314" t="e">
+      <c r="Q36" s="326">
+        <v>0</v>
+      </c>
+      <c r="R36" s="314">
         <f ca="1">IF(Q36=100%,0,IF(_xlfn.DAYS(L36,TODAY())=0,0,_xlfn.DAYS(L36,TODAY())))</f>
-        <v>#VALUE!</v>
+        <v>10</v>
       </c>
       <c r="S36" s="327" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="T36" s="30"/>
       <c r="U36" s="31"/>
@@ -21845,7 +21981,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ce8ede97-bb9a-b9a8-ce8e-de97bb9ab9a8}</x14:id>
+          <x14:id>{2363337a-5677-7544-2363-337a56777544}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -21859,7 +21995,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4afa5a13-3f1e-3d2c-4afa-5a133f1e3d2c}</x14:id>
+          <x14:id>{a7e7b7fe-d2f3-f1cb-a7e7-b7fed2f3f1cb}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -21873,7 +22009,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{c686d69f-b392-b1a7-c686-d69fb392b1a7}</x14:id>
+          <x14:id>{2b6b3b72-5e7f-7d4c-2b6b-3b725e7f7d4c}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -21887,7 +22023,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4262521b-3716-3524-4262-521b37163524}</x14:id>
+          <x14:id>{afefbff6-dafb-f9c8-afef-bff6dafbf9c8}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -21901,7 +22037,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{de9ece87-ab8b-a9b8-de9e-ce87ab8ba9b8}</x14:id>
+          <x14:id>{3373236a-4667-7554-3373-236a46677554}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -21915,7 +22051,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5a1a4a53-2f8f-2d3c-5a1a-4a532f8f2d3c}</x14:id>
+          <x14:id>{b7f7a7ee-c2e3-f1da-b7f7-a7eec2e3f1da}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -21929,7 +22065,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{d696c68f-a383-a1b6-d696-c68fa383a1b6}</x14:id>
+          <x14:id>{3b7b2b62-4e6f-7d5c-3b7b-2b624e6f7d5c}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -21943,7 +22079,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{521242cb-2717-2534-5212-42cb27172534}</x14:id>
+          <x14:id>{bfffafe6-caeb-f9d8-bfff-afe6caebf9d8}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -21957,7 +22093,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{eeaefeb7-9bb8-9988-eeae-feb79bb89988}</x14:id>
+          <x14:id>{f343135a-7657-7564-f343-135a76577564}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -21971,7 +22107,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6a2a7a33-1f3c-1d1c-6a2a-7a331f3c1d1c}</x14:id>
+          <x14:id>{87c797de-f2d3-f1ed-87c7-97def2d3f1ed}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -21984,7 +22120,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{ce8ede97-bb9a-b9a8-ce8e-de97bb9ab9a8}">
+          <x14:cfRule type="dataBar" id="{2363337a-5677-7544-2363-337a56777544}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -21995,7 +22131,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4afa5a13-3f1e-3d2c-4afa-5a133f1e3d2c}">
+          <x14:cfRule type="dataBar" id="{a7e7b7fe-d2f3-f1cb-a7e7-b7fed2f3f1cb}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -22006,7 +22142,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{c686d69f-b392-b1a7-c686-d69fb392b1a7}">
+          <x14:cfRule type="dataBar" id="{2b6b3b72-5e7f-7d4c-2b6b-3b725e7f7d4c}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -22017,7 +22153,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4262521b-3716-3524-4262-521b37163524}">
+          <x14:cfRule type="dataBar" id="{afefbff6-dafb-f9c8-afef-bff6dafbf9c8}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -22028,7 +22164,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{de9ece87-ab8b-a9b8-de9e-ce87ab8ba9b8}">
+          <x14:cfRule type="dataBar" id="{3373236a-4667-7554-3373-236a46677554}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -22039,7 +22175,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5a1a4a53-2f8f-2d3c-5a1a-4a532f8f2d3c}">
+          <x14:cfRule type="dataBar" id="{b7f7a7ee-c2e3-f1da-b7f7-a7eec2e3f1da}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -22050,7 +22186,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{d696c68f-a383-a1b6-d696-c68fa383a1b6}">
+          <x14:cfRule type="dataBar" id="{3b7b2b62-4e6f-7d5c-3b7b-2b624e6f7d5c}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -22061,7 +22197,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{521242cb-2717-2534-5212-42cb27172534}">
+          <x14:cfRule type="dataBar" id="{bfffafe6-caeb-f9d8-bfff-afe6caebf9d8}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -22072,7 +22208,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{eeaefeb7-9bb8-9988-eeae-feb79bb89988}">
+          <x14:cfRule type="dataBar" id="{f343135a-7657-7564-f343-135a76577564}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -22083,7 +22219,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6a2a7a33-1f3c-1d1c-6a2a-7a331f3c1d1c}">
+          <x14:cfRule type="dataBar" id="{87c797de-f2d3-f1ed-87c7-97def2d3f1ed}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>

--- a/0.WBS.xlsx
+++ b/0.WBS.xlsx
@@ -450,6 +450,252 @@
     <definedName name="DAYS" hidden="1">#NAME?</definedName>
     <definedName name="DAYS" hidden="1">#NAME?</definedName>
     <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -463,7 +709,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="254">
   <si>
     <t>기간</t>
   </si>
@@ -1259,6 +1505,9 @@
   </si>
   <si>
     <t>8.기능정리.xlsx</t>
+  </si>
+  <si>
+    <t>9.API 설계서.json</t>
   </si>
 </sst>
 </file>
@@ -19422,11 +19671,11 @@
   <dimension ref="B2:AD63"/>
   <sheetViews>
     <sheetView topLeftCell="A2" showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="9" ySplit="5" topLeftCell="J25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="5" topLeftCell="J22" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="J2" sqref="J2"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="O36" sqref="O36"/>
+      <selection pane="bottomRight" activeCell="S35" sqref="S35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14062500" defaultRowHeight="13.500000" outlineLevelRow="3"/>
@@ -19626,7 +19875,7 @@
       </c>
       <c r="R6" s="378">
         <f ca="1">IF(Q6=100%,0,IF(_xlfn.DAYS(L6,TODAY())=0,0,_xlfn.DAYS(L6,TODAY())))</f>
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="S6" s="379"/>
       <c r="U6" s="22"/>
@@ -20672,13 +20921,13 @@
       <c r="I26" s="140"/>
       <c r="J26" s="368" t="str">
         <f>CONCATENATE(NETWORKDAYS(K26,L26),"일")</f>
-        <v>10일</v>
+        <v>15일</v>
       </c>
       <c r="K26" s="144">
         <v>45278</v>
       </c>
       <c r="L26" s="144">
-        <v>45289</v>
+        <v>45298</v>
       </c>
       <c r="M26" s="144" t="s">
         <v>50</v>
@@ -20692,11 +20941,11 @@
       <c r="P26" s="144"/>
       <c r="Q26" s="145">
         <f>(SUM(Q27,Q28,Q33)/COUNT(Q27,Q28,Q33))</f>
-        <v>0.777777777777778</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="R26" s="314">
         <f ca="1">IF(Q26=100%,0,IF(_xlfn.DAYS(L26,TODAY())=0,0,_xlfn.DAYS(L26,TODAY())))</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S26" s="151"/>
       <c r="T26" s="27"/>
@@ -21067,11 +21316,11 @@
       </c>
       <c r="Q33" s="307">
         <f>SUM(Q34:Q36)/COUNT(Q34:Q36)</f>
-        <v>0.333333333333333</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="R33" s="314">
         <f ca="1">IF(Q33=100%,0,IF(_xlfn.DAYS(L33,TODAY())=0,0,_xlfn.DAYS(L33,TODAY())))</f>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="S33" s="177"/>
       <c r="T33" s="30"/>
@@ -21168,17 +21417,17 @@
         <v>45288</v>
       </c>
       <c r="P35" s="325">
-        <v>45289</v>
+        <v>45294</v>
       </c>
       <c r="Q35" s="326">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R35" s="314">
         <f ca="1">IF(Q35=100%,0,IF(_xlfn.DAYS(L35,TODAY())=0,0,_xlfn.DAYS(L35,TODAY())))</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S35" s="327" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="T35" s="30"/>
       <c r="U35" s="31"/>
@@ -21205,10 +21454,10 @@
       <c r="I36" s="319"/>
       <c r="J36" s="365" t="str">
         <f>CONCATENATE(_xlfn.DAYS(L36,K36),"일")</f>
-        <v>5일</v>
-      </c>
-      <c r="K36" s="323">
-        <v>45293</v>
+        <v>3일</v>
+      </c>
+      <c r="K36" s="325">
+        <v>45295</v>
       </c>
       <c r="L36" s="323">
         <v>45298</v>
@@ -21217,14 +21466,16 @@
       <c r="N36" s="324" t="s">
         <v>167</v>
       </c>
-      <c r="O36" s="325"/>
+      <c r="O36" s="325">
+        <v>45295</v>
+      </c>
       <c r="P36" s="325"/>
       <c r="Q36" s="326">
         <v>0</v>
       </c>
       <c r="R36" s="314">
         <f ca="1">IF(Q36=100%,0,IF(_xlfn.DAYS(L36,TODAY())=0,0,_xlfn.DAYS(L36,TODAY())))</f>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="S36" s="327" t="s">
         <v>250</v>
@@ -21981,7 +22232,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2363337a-5677-7544-2363-337a56777544}</x14:id>
+          <x14:id>{98d888c1-eddc-effe-98d8-88c1eddceffe}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -21995,7 +22246,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{a7e7b7fe-d2f3-f1cb-a7e7-b7fed2f3f1cb}</x14:id>
+          <x14:id>{1c5c9c45-6958-6b7a-1c5c-9c4569586b7a}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -22009,7 +22260,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2b6b3b72-5e7f-7d4c-2b6b-3b725e7f7d4c}</x14:id>
+          <x14:id>{9ede8ec9-e5d4-e7f6-9ede-8ec9e5d4e7f6}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -22023,7 +22274,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{afefbff6-dafb-f9c8-afef-bff6dafbf9c8}</x14:id>
+          <x14:id>{1454044d-6157-6372-1454-044d61576372}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -22037,7 +22288,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3373236a-4667-7554-3373-236a46677554}</x14:id>
+          <x14:id>{88c898d1-fdcd-ffee-88c8-98d1fdcdffee}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -22051,7 +22302,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b7f7a7ee-c2e3-f1da-b7f7-a7eec2e3f1da}</x14:id>
+          <x14:id>{3c4c1c55-7949-7b6a-3c4c-1c5579497b6a}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -22065,7 +22316,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3b7b2b62-4e6f-7d5c-3b7b-2b624e6f7d5c}</x14:id>
+          <x14:id>{8fcf9fd9-f5c5-f7e6-8fcf-9fd9f5c5f7e6}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -22079,7 +22330,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{bfffafe6-caeb-f9d8-bfff-afe6caebf9d8}</x14:id>
+          <x14:id>{a444145d-7141-7362-a444-145d71417362}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -22093,7 +22344,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{f343135a-7657-7564-f343-135a76577564}</x14:id>
+          <x14:id>{b8f8a8e1-cdfe-cfde-b8f8-a8e1cdfecfde}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -22107,7 +22358,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{87c797de-f2d3-f1ed-87c7-97def2d3f1ed}</x14:id>
+          <x14:id>{3c7c2c65-497a-4b5a-3c7c-2c65497a4b5a}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -22120,7 +22371,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2363337a-5677-7544-2363-337a56777544}">
+          <x14:cfRule type="dataBar" id="{98d888c1-eddc-effe-98d8-88c1eddceffe}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -22131,7 +22382,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{a7e7b7fe-d2f3-f1cb-a7e7-b7fed2f3f1cb}">
+          <x14:cfRule type="dataBar" id="{1c5c9c45-6958-6b7a-1c5c-9c4569586b7a}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -22142,7 +22393,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2b6b3b72-5e7f-7d4c-2b6b-3b725e7f7d4c}">
+          <x14:cfRule type="dataBar" id="{9ede8ec9-e5d4-e7f6-9ede-8ec9e5d4e7f6}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -22153,7 +22404,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{afefbff6-dafb-f9c8-afef-bff6dafbf9c8}">
+          <x14:cfRule type="dataBar" id="{1454044d-6157-6372-1454-044d61576372}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -22164,7 +22415,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{3373236a-4667-7554-3373-236a46677554}">
+          <x14:cfRule type="dataBar" id="{88c898d1-fdcd-ffee-88c8-98d1fdcdffee}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -22175,7 +22426,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{b7f7a7ee-c2e3-f1da-b7f7-a7eec2e3f1da}">
+          <x14:cfRule type="dataBar" id="{3c4c1c55-7949-7b6a-3c4c-1c5579497b6a}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -22186,7 +22437,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{3b7b2b62-4e6f-7d5c-3b7b-2b624e6f7d5c}">
+          <x14:cfRule type="dataBar" id="{8fcf9fd9-f5c5-f7e6-8fcf-9fd9f5c5f7e6}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -22197,7 +22448,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{bfffafe6-caeb-f9d8-bfff-afe6caebf9d8}">
+          <x14:cfRule type="dataBar" id="{a444145d-7141-7362-a444-145d71417362}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -22208,7 +22459,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{f343135a-7657-7564-f343-135a76577564}">
+          <x14:cfRule type="dataBar" id="{b8f8a8e1-cdfe-cfde-b8f8-a8e1cdfecfde}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -22219,7 +22470,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{87c797de-f2d3-f1ed-87c7-97def2d3f1ed}">
+          <x14:cfRule type="dataBar" id="{3c7c2c65-497a-4b5a-3c7c-2c65497a4b5a}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>

--- a/0.WBS.xlsx
+++ b/0.WBS.xlsx
@@ -696,6 +696,88 @@
     <definedName name="DAYS" hidden="1">#NAME?</definedName>
     <definedName name="DAYS" hidden="1">#NAME?</definedName>
     <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -709,7 +791,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="256">
   <si>
     <t>기간</t>
   </si>
@@ -1508,6 +1590,12 @@
   </si>
   <si>
     <t>9.API 설계서.json</t>
+  </si>
+  <si>
+    <t>기능 FlowChart 설계</t>
+  </si>
+  <si>
+    <t>10.FlowChart.jpg</t>
   </si>
 </sst>
 </file>
@@ -19675,7 +19763,7 @@
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="J2" sqref="J2"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="S35" sqref="S35"/>
+      <selection pane="bottomRight" activeCell="P36" sqref="P36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14062500" defaultRowHeight="13.500000" outlineLevelRow="3"/>
@@ -19875,7 +19963,7 @@
       </c>
       <c r="R6" s="378">
         <f ca="1">IF(Q6=100%,0,IF(_xlfn.DAYS(L6,TODAY())=0,0,_xlfn.DAYS(L6,TODAY())))</f>
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="S6" s="379"/>
       <c r="U6" s="22"/>
@@ -20945,7 +21033,7 @@
       </c>
       <c r="R26" s="314">
         <f ca="1">IF(Q26=100%,0,IF(_xlfn.DAYS(L26,TODAY())=0,0,_xlfn.DAYS(L26,TODAY())))</f>
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="S26" s="151"/>
       <c r="T26" s="27"/>
@@ -21296,13 +21384,13 @@
       <c r="I33" s="300"/>
       <c r="J33" s="377" t="str">
         <f>CONCATENATE(_xlfn.DAYS(L33,K33),"일")</f>
-        <v>11일</v>
+        <v>14일</v>
       </c>
       <c r="K33" s="305">
         <v>45287</v>
       </c>
       <c r="L33" s="305">
-        <v>45298</v>
+        <v>45301</v>
       </c>
       <c r="M33" s="306"/>
       <c r="N33" s="306" t="s">
@@ -21312,7 +21400,7 @@
         <v>45278</v>
       </c>
       <c r="P33" s="328">
-        <v>45291</v>
+        <v>45301</v>
       </c>
       <c r="Q33" s="307">
         <f>SUM(Q34:Q36)/COUNT(Q34:Q36)</f>
@@ -21320,7 +21408,7 @@
       </c>
       <c r="R33" s="314">
         <f ca="1">IF(Q33=100%,0,IF(_xlfn.DAYS(L33,TODAY())=0,0,_xlfn.DAYS(L33,TODAY())))</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S33" s="177"/>
       <c r="T33" s="30"/>
@@ -21449,25 +21537,25 @@
       <c r="F36" s="316"/>
       <c r="G36" s="316"/>
       <c r="H36" s="319" t="s">
-        <v>223</v>
+        <v>254</v>
       </c>
       <c r="I36" s="319"/>
       <c r="J36" s="365" t="str">
         <f>CONCATENATE(_xlfn.DAYS(L36,K36),"일")</f>
-        <v>3일</v>
+        <v>2일</v>
       </c>
       <c r="K36" s="325">
-        <v>45295</v>
+        <v>45299</v>
       </c>
       <c r="L36" s="323">
-        <v>45298</v>
+        <v>45301</v>
       </c>
       <c r="M36" s="324"/>
       <c r="N36" s="324" t="s">
         <v>167</v>
       </c>
       <c r="O36" s="325">
-        <v>45295</v>
+        <v>45299</v>
       </c>
       <c r="P36" s="325"/>
       <c r="Q36" s="326">
@@ -21475,10 +21563,10 @@
       </c>
       <c r="R36" s="314">
         <f ca="1">IF(Q36=100%,0,IF(_xlfn.DAYS(L36,TODAY())=0,0,_xlfn.DAYS(L36,TODAY())))</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S36" s="327" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="T36" s="30"/>
       <c r="U36" s="31"/>
@@ -22232,7 +22320,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{98d888c1-eddc-effe-98d8-88c1eddceffe}</x14:id>
+          <x14:id>{8bcb9bd2-fedf-fced-8bcb-9bd2fedffced}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -22246,7 +22334,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1c5c9c45-6958-6b7a-1c5c-9c4569586b7a}</x14:id>
+          <x14:id>{2f4f1f56-7a5b-7869-2f4f-1f567a5b7869}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -22260,7 +22348,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9ede8ec9-e5d4-e7f6-9ede-8ec9e5d4e7f6}</x14:id>
+          <x14:id>{83c393da-f6d7-f4e5-83c3-93daf6d7f4e5}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -22274,7 +22362,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1454044d-6157-6372-1454-044d61576372}</x14:id>
+          <x14:id>{b747175e-7253-7761-b747-175e72537761}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -22288,7 +22376,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{88c898d1-fdcd-ffee-88c8-98d1fdcdffee}</x14:id>
+          <x14:id>{9bdb8bc2-eece-ecfd-9bdb-8bc2eeceecfd}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -22302,7 +22390,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3c4c1c55-7949-7b6a-3c4c-1c5579497b6a}</x14:id>
+          <x14:id>{1f5f8f46-6a4a-6879-1f5f-8f466a4a6879}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -22316,7 +22404,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8fcf9fd9-f5c5-f7e6-8fcf-9fd9f5c5f7e6}</x14:id>
+          <x14:id>{93d383ca-e6c6-e4f5-93d3-83cae6c6e4f5}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -22330,7 +22418,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{a444145d-7141-7362-a444-145d71417362}</x14:id>
+          <x14:id>{1757174e-6242-6671-1757-174e62426671}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -22344,7 +22432,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b8f8a8e1-cdfe-cfde-b8f8-a8e1cdfecfde}</x14:id>
+          <x14:id>{abebbbf2-defd-dccd-abeb-bbf2defddccd}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -22358,7 +22446,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3c7c2c65-497a-4b5a-3c7c-2c65497a4b5a}</x14:id>
+          <x14:id>{2f6f3f76-5a79-5849-2f6f-3f765a795849}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -22371,7 +22459,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{98d888c1-eddc-effe-98d8-88c1eddceffe}">
+          <x14:cfRule type="dataBar" id="{8bcb9bd2-fedf-fced-8bcb-9bd2fedffced}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -22382,7 +22470,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1c5c9c45-6958-6b7a-1c5c-9c4569586b7a}">
+          <x14:cfRule type="dataBar" id="{2f4f1f56-7a5b-7869-2f4f-1f567a5b7869}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -22393,7 +22481,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9ede8ec9-e5d4-e7f6-9ede-8ec9e5d4e7f6}">
+          <x14:cfRule type="dataBar" id="{83c393da-f6d7-f4e5-83c3-93daf6d7f4e5}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -22404,7 +22492,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1454044d-6157-6372-1454-044d61576372}">
+          <x14:cfRule type="dataBar" id="{b747175e-7253-7761-b747-175e72537761}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -22415,7 +22503,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{88c898d1-fdcd-ffee-88c8-98d1fdcdffee}">
+          <x14:cfRule type="dataBar" id="{9bdb8bc2-eece-ecfd-9bdb-8bc2eeceecfd}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -22426,7 +22514,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{3c4c1c55-7949-7b6a-3c4c-1c5579497b6a}">
+          <x14:cfRule type="dataBar" id="{1f5f8f46-6a4a-6879-1f5f-8f466a4a6879}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -22437,7 +22525,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8fcf9fd9-f5c5-f7e6-8fcf-9fd9f5c5f7e6}">
+          <x14:cfRule type="dataBar" id="{93d383ca-e6c6-e4f5-93d3-83cae6c6e4f5}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -22448,7 +22536,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{a444145d-7141-7362-a444-145d71417362}">
+          <x14:cfRule type="dataBar" id="{1757174e-6242-6671-1757-174e62426671}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -22459,7 +22547,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{b8f8a8e1-cdfe-cfde-b8f8-a8e1cdfecfde}">
+          <x14:cfRule type="dataBar" id="{abebbbf2-defd-dccd-abeb-bbf2defddccd}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -22470,7 +22558,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{3c7c2c65-497a-4b5a-3c7c-2c65497a4b5a}">
+          <x14:cfRule type="dataBar" id="{2f6f3f76-5a79-5849-2f6f-3f765a795849}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>

--- a/0.WBS.xlsx
+++ b/0.WBS.xlsx
@@ -778,6 +778,88 @@
     <definedName name="DAYS" hidden="1">#NAME?</definedName>
     <definedName name="DAYS" hidden="1">#NAME?</definedName>
     <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -791,7 +873,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="257">
   <si>
     <t>기간</t>
   </si>
@@ -1596,6 +1678,9 @@
   </si>
   <si>
     <t>10.FlowChart.jpg</t>
+  </si>
+  <si>
+    <t>10.Flowchart.drawio</t>
   </si>
 </sst>
 </file>
@@ -19759,11 +19844,11 @@
   <dimension ref="B2:AD63"/>
   <sheetViews>
     <sheetView topLeftCell="A2" showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="9" ySplit="5" topLeftCell="J22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="5" topLeftCell="J25" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="J2" sqref="J2"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="P36" sqref="P36"/>
+      <selection pane="bottomRight" activeCell="N38" sqref="N38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14062500" defaultRowHeight="13.500000" outlineLevelRow="3"/>
@@ -19963,7 +20048,7 @@
       </c>
       <c r="R6" s="378">
         <f ca="1">IF(Q6=100%,0,IF(_xlfn.DAYS(L6,TODAY())=0,0,_xlfn.DAYS(L6,TODAY())))</f>
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="S6" s="379"/>
       <c r="U6" s="22"/>
@@ -21026,14 +21111,16 @@
       <c r="O26" s="144">
         <v>45278</v>
       </c>
-      <c r="P26" s="144"/>
+      <c r="P26" s="144">
+        <v>45303</v>
+      </c>
       <c r="Q26" s="145">
         <f>(SUM(Q27,Q28,Q33)/COUNT(Q27,Q28,Q33))</f>
-        <v>0.888888888888889</v>
+        <v>1</v>
       </c>
       <c r="R26" s="314">
         <f ca="1">IF(Q26=100%,0,IF(_xlfn.DAYS(L26,TODAY())=0,0,_xlfn.DAYS(L26,TODAY())))</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S26" s="151"/>
       <c r="T26" s="27"/>
@@ -21384,13 +21471,13 @@
       <c r="I33" s="300"/>
       <c r="J33" s="377" t="str">
         <f>CONCATENATE(_xlfn.DAYS(L33,K33),"일")</f>
-        <v>14일</v>
+        <v>15일</v>
       </c>
       <c r="K33" s="305">
         <v>45287</v>
       </c>
       <c r="L33" s="305">
-        <v>45301</v>
+        <v>45302</v>
       </c>
       <c r="M33" s="306"/>
       <c r="N33" s="306" t="s">
@@ -21400,15 +21487,15 @@
         <v>45278</v>
       </c>
       <c r="P33" s="328">
-        <v>45301</v>
+        <v>45303</v>
       </c>
       <c r="Q33" s="307">
         <f>SUM(Q34:Q36)/COUNT(Q34:Q36)</f>
-        <v>0.666666666666667</v>
+        <v>1</v>
       </c>
       <c r="R33" s="314">
         <f ca="1">IF(Q33=100%,0,IF(_xlfn.DAYS(L33,TODAY())=0,0,_xlfn.DAYS(L33,TODAY())))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S33" s="177"/>
       <c r="T33" s="30"/>
@@ -21542,13 +21629,13 @@
       <c r="I36" s="319"/>
       <c r="J36" s="365" t="str">
         <f>CONCATENATE(_xlfn.DAYS(L36,K36),"일")</f>
-        <v>2일</v>
+        <v>3일</v>
       </c>
       <c r="K36" s="325">
         <v>45299</v>
       </c>
       <c r="L36" s="323">
-        <v>45301</v>
+        <v>45302</v>
       </c>
       <c r="M36" s="324"/>
       <c r="N36" s="324" t="s">
@@ -21557,16 +21644,18 @@
       <c r="O36" s="325">
         <v>45299</v>
       </c>
-      <c r="P36" s="325"/>
+      <c r="P36" s="325">
+        <v>45303</v>
+      </c>
       <c r="Q36" s="326">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R36" s="314">
         <f ca="1">IF(Q36=100%,0,IF(_xlfn.DAYS(L36,TODAY())=0,0,_xlfn.DAYS(L36,TODAY())))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S36" s="327" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="T36" s="30"/>
       <c r="U36" s="31"/>
@@ -22320,7 +22409,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8bcb9bd2-fedf-fced-8bcb-9bd2fedffced}</x14:id>
+          <x14:id>{6626763f-1332-3fc1-6626-763f13323fc1}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -22334,7 +22423,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2f4f1f56-7a5b-7869-2f4f-1f567a5b7869}</x14:id>
+          <x14:id>{e2a2f2bb-97b6-b485-e2a2-f2bb97b6b485}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -22348,7 +22437,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{83c393da-f6d7-f4e5-83c3-93daf6d7f4e5}</x14:id>
+          <x14:id>{6e2e7e37-1b3a-3859-6e2e-7e371b3a3859}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -22362,7 +22451,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b747175e-7253-7761-b747-175e72537761}</x14:id>
+          <x14:id>{eaaafab3-9fbe-bc8d-eaaa-fab39fbebc8d}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -22376,7 +22465,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9bdb8bc2-eece-ecfd-9bdb-8bc2eeceecfd}</x14:id>
+          <x14:id>{7636662f-0322-3e11-7636-662f03223e11}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -22390,7 +22479,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1f5f8f46-6a4a-6879-1f5f-8f466a4a6879}</x14:id>
+          <x14:id>{f2b2e2ab-87a6-b495-f2b2-e2ab87a6b495}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -22404,7 +22493,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{93d383ca-e6c6-e4f5-93d3-83cae6c6e4f5}</x14:id>
+          <x14:id>{7e3e6e27-9b2a-3819-7e3e-6e279b2a3819}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -22418,7 +22507,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1757174e-6242-6671-1757-174e62426671}</x14:id>
+          <x14:id>{fabaeaa3-8fae-bc9d-faba-eaa38faebc9d}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -22432,7 +22521,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{abebbbf2-defd-dccd-abeb-bbf2defddccd}</x14:id>
+          <x14:id>{4626561f-3312-3921-4626-561f33123921}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -22446,7 +22535,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2f6f3f76-5a79-5849-2f6f-3f765a795849}</x14:id>
+          <x14:id>{c282d29b-b796-b4a5-c282-d29bb796b4a5}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -22459,7 +22548,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8bcb9bd2-fedf-fced-8bcb-9bd2fedffced}">
+          <x14:cfRule type="dataBar" id="{6626763f-1332-3fc1-6626-763f13323fc1}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -22470,7 +22559,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2f4f1f56-7a5b-7869-2f4f-1f567a5b7869}">
+          <x14:cfRule type="dataBar" id="{e2a2f2bb-97b6-b485-e2a2-f2bb97b6b485}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -22481,7 +22570,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{83c393da-f6d7-f4e5-83c3-93daf6d7f4e5}">
+          <x14:cfRule type="dataBar" id="{6e2e7e37-1b3a-3859-6e2e-7e371b3a3859}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -22492,7 +22581,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{b747175e-7253-7761-b747-175e72537761}">
+          <x14:cfRule type="dataBar" id="{eaaafab3-9fbe-bc8d-eaaa-fab39fbebc8d}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -22503,7 +22592,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9bdb8bc2-eece-ecfd-9bdb-8bc2eeceecfd}">
+          <x14:cfRule type="dataBar" id="{7636662f-0322-3e11-7636-662f03223e11}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -22514,7 +22603,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1f5f8f46-6a4a-6879-1f5f-8f466a4a6879}">
+          <x14:cfRule type="dataBar" id="{f2b2e2ab-87a6-b495-f2b2-e2ab87a6b495}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -22525,7 +22614,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{93d383ca-e6c6-e4f5-93d3-83cae6c6e4f5}">
+          <x14:cfRule type="dataBar" id="{7e3e6e27-9b2a-3819-7e3e-6e279b2a3819}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -22536,7 +22625,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1757174e-6242-6671-1757-174e62426671}">
+          <x14:cfRule type="dataBar" id="{fabaeaa3-8fae-bc9d-faba-eaa38faebc9d}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -22547,7 +22636,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{abebbbf2-defd-dccd-abeb-bbf2defddccd}">
+          <x14:cfRule type="dataBar" id="{4626561f-3312-3921-4626-561f33123921}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -22558,7 +22647,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2f6f3f76-5a79-5849-2f6f-3f765a795849}">
+          <x14:cfRule type="dataBar" id="{c282d29b-b796-b4a5-c282-d29bb796b4a5}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>

--- a/0.WBS.xlsx
+++ b/0.WBS.xlsx
@@ -14,9 +14,91 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">WBS!$C$19:$S$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">WBS!$C$19:$S$57</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">history!$A$1:$H$39</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">WBS!$A$2:$S$49</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">WBS!$A$2:$S$57</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
     <definedName name="DAYS" hidden="1">#NAME?</definedName>
     <definedName name="DAYS" hidden="1">#NAME?</definedName>
     <definedName name="DAYS" hidden="1">#NAME?</definedName>
@@ -873,7 +955,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="279">
   <si>
     <t>기간</t>
   </si>
@@ -1681,6 +1763,72 @@
   </si>
   <si>
     <t>10.Flowchart.drawio</t>
+  </si>
+  <si>
+    <t>백엔드</t>
+  </si>
+  <si>
+    <t>프론트엔드</t>
+  </si>
+  <si>
+    <t>백엔드 개발</t>
+  </si>
+  <si>
+    <t>프론트엔드 개발</t>
+  </si>
+  <si>
+    <t>Project 4.1.1</t>
+  </si>
+  <si>
+    <t>Project 4.2.1</t>
+  </si>
+  <si>
+    <t>Project 4.3.1</t>
+  </si>
+  <si>
+    <t>개발환경 세팅</t>
+  </si>
+  <si>
+    <t>Spring Boot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project 생성 및 </t>
+  </si>
+  <si>
+    <t>개발 준비</t>
+  </si>
+  <si>
+    <t>패키지 설계</t>
+  </si>
+  <si>
+    <t>Spring Boot 사전</t>
+  </si>
+  <si>
+    <t>사전 준비</t>
+  </si>
+  <si>
+    <t>Spring Boot 예제</t>
+  </si>
+  <si>
+    <t>개발환경</t>
+  </si>
+  <si>
+    <t>PC 세팅</t>
+  </si>
+  <si>
+    <t>Git 세팅</t>
+  </si>
+  <si>
+    <t>기능 개발</t>
+  </si>
+  <si>
+    <t>Eclipse 세팅</t>
+  </si>
+  <si>
+    <t>Eclipse/JDK 세팅</t>
+  </si>
+  <si>
+    <t>유저 기능 개발</t>
   </si>
 </sst>
 </file>
@@ -2483,7 +2631,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="86">
+  <borders count="105">
     <border>
       <left/>
       <right/>
@@ -3468,6 +3616,184 @@
         <color theme="1"/>
       </bottom>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="2919">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -12228,7 +12554,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="382">
+  <cellXfs count="418">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -13374,6 +13700,114 @@
     </xf>
     <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="10" borderId="86" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="10" borderId="87" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="10" borderId="88" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="49" fillId="10" borderId="89" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="10" borderId="90" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="10" borderId="90" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="50" fillId="10" borderId="91" xfId="964" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="50" fillId="10" borderId="91" xfId="963" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="50" fillId="10" borderId="91" xfId="962" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="50" fillId="10" borderId="91" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="10" borderId="92" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="14" borderId="93" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="10" borderId="93" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="10" borderId="93" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="49" fillId="10" borderId="94" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="10" borderId="95" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="10" borderId="95" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="50" borderId="96" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="50" fillId="10" borderId="97" xfId="964" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="50" fillId="10" borderId="97" xfId="963" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="50" fillId="10" borderId="97" xfId="962" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="50" fillId="10" borderId="97" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="64" fontId="40" fillId="13" borderId="96" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="10" borderId="97" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="14" borderId="98" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="16" borderId="99" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="16" borderId="100" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="49" fillId="16" borderId="101" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="16" borderId="99" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="22" borderId="102" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="50" fillId="16" borderId="103" xfId="964" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="50" fillId="16" borderId="103" xfId="963" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="50" fillId="22" borderId="103" xfId="962" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="50" fillId="22" borderId="103" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="64" fontId="40" fillId="13" borderId="102" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="16" borderId="104" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2908">
@@ -16295,13 +16729,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -16313,8 +16747,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="9267825"/>
-          <a:ext cx="19050" cy="257175"/>
+          <a:off x="3874770" y="11249025"/>
+          <a:ext cx="19050" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
         <a:noFill/>
@@ -16330,13 +16764,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -16348,8 +16782,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="9267825"/>
-          <a:ext cx="19050" cy="257175"/>
+          <a:off x="3874770" y="11249025"/>
+          <a:ext cx="19050" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
         <a:noFill/>
@@ -16365,13 +16799,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>960120</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>960120</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>246380</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -16383,7 +16817,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13645515" y="9277350"/>
+          <a:off x="13645515" y="11506200"/>
           <a:ext cx="0" cy="246380"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -16400,13 +16834,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>960120</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>960120</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>246380</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -16418,7 +16852,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13645515" y="9277350"/>
+          <a:off x="13645515" y="11506200"/>
           <a:ext cx="0" cy="246380"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -16435,13 +16869,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -16453,8 +16887,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="9267825"/>
-          <a:ext cx="19050" cy="257175"/>
+          <a:off x="3874770" y="11249025"/>
+          <a:ext cx="19050" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
         <a:noFill/>
@@ -16470,13 +16904,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -16488,8 +16922,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="9267825"/>
-          <a:ext cx="19050" cy="257175"/>
+          <a:off x="3874770" y="11249025"/>
+          <a:ext cx="19050" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
         <a:noFill/>
@@ -16505,13 +16939,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -16523,8 +16957,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="9267825"/>
-          <a:ext cx="19050" cy="257175"/>
+          <a:off x="3874770" y="11249025"/>
+          <a:ext cx="19050" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
         <a:noFill/>
@@ -16540,13 +16974,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -16558,8 +16992,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="9267825"/>
-          <a:ext cx="19050" cy="257175"/>
+          <a:off x="3874770" y="11249025"/>
+          <a:ext cx="19050" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
         <a:noFill/>
@@ -16575,13 +17009,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -16593,8 +17027,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="9267825"/>
-          <a:ext cx="19050" cy="257175"/>
+          <a:off x="3874770" y="11249025"/>
+          <a:ext cx="19050" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
         <a:noFill/>
@@ -16610,13 +17044,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>960120</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>960120</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>246380</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -16628,7 +17062,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13645515" y="9277350"/>
+          <a:off x="13645515" y="11506200"/>
           <a:ext cx="0" cy="246380"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -16645,13 +17079,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>960120</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>960120</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>246380</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -16663,7 +17097,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13645515" y="9277350"/>
+          <a:off x="13645515" y="11506200"/>
           <a:ext cx="0" cy="246380"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -16680,13 +17114,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -16698,8 +17132,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="9267825"/>
-          <a:ext cx="19050" cy="257175"/>
+          <a:off x="3874770" y="11249025"/>
+          <a:ext cx="19050" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
         <a:noFill/>
@@ -16715,13 +17149,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -16733,8 +17167,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="9267825"/>
-          <a:ext cx="19050" cy="257175"/>
+          <a:off x="3874770" y="11249025"/>
+          <a:ext cx="19050" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
         <a:noFill/>
@@ -16750,13 +17184,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -16768,8 +17202,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="9267825"/>
-          <a:ext cx="19050" cy="257175"/>
+          <a:off x="3874770" y="11249025"/>
+          <a:ext cx="19050" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
         <a:noFill/>
@@ -16785,13 +17219,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -16803,8 +17237,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="9267825"/>
-          <a:ext cx="19050" cy="257175"/>
+          <a:off x="3874770" y="11249025"/>
+          <a:ext cx="19050" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
         <a:noFill/>
@@ -16820,13 +17254,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -16838,8 +17272,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="9267825"/>
-          <a:ext cx="19050" cy="257175"/>
+          <a:off x="3874770" y="11249025"/>
+          <a:ext cx="19050" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
         <a:noFill/>
@@ -16855,13 +17289,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -16873,8 +17307,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="9267825"/>
-          <a:ext cx="19050" cy="257175"/>
+          <a:off x="3874770" y="11249025"/>
+          <a:ext cx="19050" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
         <a:noFill/>
@@ -16890,13 +17324,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -16908,8 +17342,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="9267825"/>
-          <a:ext cx="19050" cy="257175"/>
+          <a:off x="3874770" y="11249025"/>
+          <a:ext cx="19050" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
         <a:noFill/>
@@ -16925,13 +17359,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -16943,8 +17377,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="9267825"/>
-          <a:ext cx="19050" cy="257175"/>
+          <a:off x="3874770" y="11249025"/>
+          <a:ext cx="19050" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
         <a:noFill/>
@@ -16960,13 +17394,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -16978,8 +17412,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="9267825"/>
-          <a:ext cx="19050" cy="257175"/>
+          <a:off x="3874770" y="11249025"/>
+          <a:ext cx="19050" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
         <a:noFill/>
@@ -16995,13 +17429,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -17013,8 +17447,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="9267825"/>
-          <a:ext cx="19050" cy="257175"/>
+          <a:off x="3874770" y="11249025"/>
+          <a:ext cx="19050" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
         <a:noFill/>
@@ -17030,13 +17464,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -17048,8 +17482,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="9267825"/>
-          <a:ext cx="19050" cy="257175"/>
+          <a:off x="3874770" y="11249025"/>
+          <a:ext cx="19050" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
         <a:noFill/>
@@ -17065,13 +17499,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -17083,8 +17517,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="9267825"/>
-          <a:ext cx="19050" cy="257175"/>
+          <a:off x="3874770" y="11249025"/>
+          <a:ext cx="19050" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
         <a:noFill/>
@@ -17100,13 +17534,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -17118,8 +17552,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="9267825"/>
-          <a:ext cx="19050" cy="257175"/>
+          <a:off x="3874770" y="11249025"/>
+          <a:ext cx="19050" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
         <a:noFill/>
@@ -17135,13 +17569,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>960120</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>960120</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>246380</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -17153,7 +17587,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13645515" y="9277350"/>
+          <a:off x="13645515" y="11506200"/>
           <a:ext cx="0" cy="246380"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -17170,13 +17604,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>960120</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>960120</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>246380</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -17188,7 +17622,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13645515" y="9277350"/>
+          <a:off x="13645515" y="11506200"/>
           <a:ext cx="0" cy="246380"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -17205,13 +17639,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -17223,8 +17657,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="9267825"/>
-          <a:ext cx="19050" cy="257175"/>
+          <a:off x="3874770" y="11249025"/>
+          <a:ext cx="19050" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
         <a:noFill/>
@@ -17240,13 +17674,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -17258,8 +17692,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="9267825"/>
-          <a:ext cx="19050" cy="257175"/>
+          <a:off x="3874770" y="11249025"/>
+          <a:ext cx="19050" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
         <a:noFill/>
@@ -17275,13 +17709,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -17293,8 +17727,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="9267825"/>
-          <a:ext cx="19050" cy="257175"/>
+          <a:off x="3874770" y="11249025"/>
+          <a:ext cx="19050" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
         <a:noFill/>
@@ -17310,13 +17744,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -17328,8 +17762,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="9267825"/>
-          <a:ext cx="19050" cy="257175"/>
+          <a:off x="3874770" y="11249025"/>
+          <a:ext cx="19050" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
         <a:noFill/>
@@ -17345,13 +17779,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -17363,8 +17797,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="9267825"/>
-          <a:ext cx="19050" cy="257175"/>
+          <a:off x="3874770" y="11249025"/>
+          <a:ext cx="19050" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
         <a:noFill/>
@@ -17380,13 +17814,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -17398,8 +17832,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="9267825"/>
-          <a:ext cx="19050" cy="257175"/>
+          <a:off x="3874770" y="11249025"/>
+          <a:ext cx="19050" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
         <a:noFill/>
@@ -17415,13 +17849,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -17433,8 +17867,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="9267825"/>
-          <a:ext cx="19050" cy="257175"/>
+          <a:off x="3874770" y="11249025"/>
+          <a:ext cx="19050" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
         <a:noFill/>
@@ -17450,13 +17884,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -17468,8 +17902,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="9267825"/>
-          <a:ext cx="19050" cy="257175"/>
+          <a:off x="3874770" y="11249025"/>
+          <a:ext cx="19050" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
         <a:noFill/>
@@ -17485,13 +17919,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -17503,8 +17937,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="9267825"/>
-          <a:ext cx="19050" cy="257175"/>
+          <a:off x="3874770" y="11249025"/>
+          <a:ext cx="19050" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
         <a:noFill/>
@@ -17520,13 +17954,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>960120</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>960120</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>246380</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -17538,7 +17972,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13645515" y="9277350"/>
+          <a:off x="13645515" y="11506200"/>
           <a:ext cx="0" cy="246380"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -17555,13 +17989,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>960120</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>960120</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>246380</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -17573,7 +18007,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13645515" y="9277350"/>
+          <a:off x="13645515" y="11506200"/>
           <a:ext cx="0" cy="246380"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -17590,13 +18024,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -17608,8 +18042,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="9267825"/>
-          <a:ext cx="19050" cy="257175"/>
+          <a:off x="3874770" y="11249025"/>
+          <a:ext cx="19050" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
         <a:noFill/>
@@ -17625,13 +18059,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -17643,8 +18077,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="9267825"/>
-          <a:ext cx="19050" cy="257175"/>
+          <a:off x="3874770" y="11249025"/>
+          <a:ext cx="19050" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
         <a:noFill/>
@@ -17660,13 +18094,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -17678,8 +18112,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="9267825"/>
-          <a:ext cx="19050" cy="257175"/>
+          <a:off x="3874770" y="11249025"/>
+          <a:ext cx="19050" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
         <a:noFill/>
@@ -17695,13 +18129,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -17713,8 +18147,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="9267825"/>
-          <a:ext cx="19050" cy="257175"/>
+          <a:off x="3874770" y="11249025"/>
+          <a:ext cx="19050" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
         <a:noFill/>
@@ -17730,13 +18164,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -17748,8 +18182,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="9267825"/>
-          <a:ext cx="19050" cy="257175"/>
+          <a:off x="3874770" y="11249025"/>
+          <a:ext cx="19050" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
         <a:noFill/>
@@ -17765,13 +18199,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>960120</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>960120</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>246380</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -17783,7 +18217,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13645515" y="9277350"/>
+          <a:off x="13645515" y="11506200"/>
           <a:ext cx="0" cy="246380"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -17800,13 +18234,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>960120</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>960120</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>246380</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -17818,7 +18252,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13645515" y="9277350"/>
+          <a:off x="13645515" y="11506200"/>
           <a:ext cx="0" cy="246380"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -17835,13 +18269,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -17853,8 +18287,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="9267825"/>
-          <a:ext cx="19050" cy="257175"/>
+          <a:off x="3874770" y="11249025"/>
+          <a:ext cx="19050" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
         <a:noFill/>
@@ -17870,13 +18304,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -17888,8 +18322,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="9267825"/>
-          <a:ext cx="19050" cy="257175"/>
+          <a:off x="3874770" y="11249025"/>
+          <a:ext cx="19050" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
         <a:noFill/>
@@ -17905,13 +18339,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -17923,8 +18357,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="9267825"/>
-          <a:ext cx="19050" cy="257175"/>
+          <a:off x="3874770" y="11249025"/>
+          <a:ext cx="19050" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
         <a:noFill/>
@@ -17940,13 +18374,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -17958,8 +18392,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="9267825"/>
-          <a:ext cx="19050" cy="257175"/>
+          <a:off x="3874770" y="11249025"/>
+          <a:ext cx="19050" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
         <a:noFill/>
@@ -17975,13 +18409,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -17993,8 +18427,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="9267825"/>
-          <a:ext cx="19050" cy="257175"/>
+          <a:off x="3874770" y="11249025"/>
+          <a:ext cx="19050" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
         <a:noFill/>
@@ -18010,13 +18444,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -18028,8 +18462,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="9267825"/>
-          <a:ext cx="19050" cy="257175"/>
+          <a:off x="3874770" y="11249025"/>
+          <a:ext cx="19050" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
         <a:noFill/>
@@ -18045,13 +18479,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -18063,8 +18497,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="9267825"/>
-          <a:ext cx="19050" cy="257175"/>
+          <a:off x="3874770" y="11249025"/>
+          <a:ext cx="19050" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
         <a:noFill/>
@@ -18080,13 +18514,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -18098,8 +18532,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="9267825"/>
-          <a:ext cx="19050" cy="257175"/>
+          <a:off x="3874770" y="11249025"/>
+          <a:ext cx="19050" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
         <a:noFill/>
@@ -18115,13 +18549,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -18133,8 +18567,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="9267825"/>
-          <a:ext cx="19050" cy="257175"/>
+          <a:off x="3874770" y="11249025"/>
+          <a:ext cx="19050" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
         <a:noFill/>
@@ -18150,13 +18584,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -18168,8 +18602,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="9267825"/>
-          <a:ext cx="19050" cy="257175"/>
+          <a:off x="3874770" y="11249025"/>
+          <a:ext cx="19050" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
         <a:noFill/>
@@ -18185,13 +18619,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -18203,8 +18637,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="9267825"/>
-          <a:ext cx="19050" cy="257175"/>
+          <a:off x="3874770" y="11249025"/>
+          <a:ext cx="19050" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
         <a:noFill/>
@@ -18220,13 +18654,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -18238,8 +18672,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="9267825"/>
-          <a:ext cx="19050" cy="257175"/>
+          <a:off x="3874770" y="11249025"/>
+          <a:ext cx="19050" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
         <a:noFill/>
@@ -18255,13 +18689,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -18273,8 +18707,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="9267825"/>
-          <a:ext cx="19050" cy="257175"/>
+          <a:off x="3874770" y="11249025"/>
+          <a:ext cx="19050" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
         <a:noFill/>
@@ -18290,13 +18724,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>960120</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>960120</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>246380</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -18308,7 +18742,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13645515" y="9277350"/>
+          <a:off x="13645515" y="11506200"/>
           <a:ext cx="0" cy="246380"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -18325,13 +18759,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>960120</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>960120</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>246380</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -18343,7 +18777,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13645515" y="9277350"/>
+          <a:off x="13645515" y="11506200"/>
           <a:ext cx="0" cy="246380"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -18360,13 +18794,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -18378,8 +18812,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="9267825"/>
-          <a:ext cx="19050" cy="257175"/>
+          <a:off x="3874770" y="11249025"/>
+          <a:ext cx="19050" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
         <a:noFill/>
@@ -18395,13 +18829,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -18413,8 +18847,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="9267825"/>
-          <a:ext cx="19050" cy="257175"/>
+          <a:off x="3874770" y="11249025"/>
+          <a:ext cx="19050" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
         <a:noFill/>
@@ -18430,13 +18864,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -18448,8 +18882,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="9267825"/>
-          <a:ext cx="19050" cy="257175"/>
+          <a:off x="3874770" y="11249025"/>
+          <a:ext cx="19050" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
         <a:noFill/>
@@ -18465,13 +18899,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -18483,8 +18917,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="9267825"/>
-          <a:ext cx="19050" cy="257175"/>
+          <a:off x="3874770" y="11249025"/>
+          <a:ext cx="19050" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
         <a:noFill/>
@@ -18500,13 +18934,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -18518,8 +18952,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="9267825"/>
-          <a:ext cx="19050" cy="257175"/>
+          <a:off x="3874770" y="11249025"/>
+          <a:ext cx="19050" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
         <a:noFill/>
@@ -18535,13 +18969,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -18553,8 +18987,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="9267825"/>
-          <a:ext cx="19050" cy="257175"/>
+          <a:off x="3874770" y="11249025"/>
+          <a:ext cx="19050" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
         <a:noFill/>
@@ -18570,13 +19004,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -18588,8 +19022,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="9267825"/>
-          <a:ext cx="19050" cy="257175"/>
+          <a:off x="3874770" y="11249025"/>
+          <a:ext cx="19050" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
         <a:noFill/>
@@ -19841,14 +20275,14 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:AD63"/>
+  <dimension ref="B2:AD75"/>
   <sheetViews>
     <sheetView topLeftCell="A2" showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="9" ySplit="5" topLeftCell="J25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="5" topLeftCell="J37" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="J2" sqref="J2"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="N38" sqref="N38"/>
+      <selection pane="bottomRight" activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14062500" defaultRowHeight="13.500000" outlineLevelRow="3"/>
@@ -21675,20 +22109,26 @@
       </c>
       <c r="E37" s="138"/>
       <c r="F37" s="139" t="s">
-        <v>230</v>
+        <v>259</v>
       </c>
       <c r="G37" s="139"/>
       <c r="H37" s="140"/>
       <c r="I37" s="140"/>
       <c r="J37" s="368" t="str">
         <f>CONCATENATE(NETWORKDAYS(K37,L37),"일")</f>
-        <v>0일</v>
-      </c>
-      <c r="K37" s="144"/>
+        <v>-32360일</v>
+      </c>
+      <c r="K37" s="144">
+        <v>45303</v>
+      </c>
       <c r="L37" s="144"/>
       <c r="M37" s="144"/>
-      <c r="N37" s="144"/>
-      <c r="O37" s="144"/>
+      <c r="N37" s="144" t="s">
+        <v>167</v>
+      </c>
+      <c r="O37" s="144">
+        <v>45303</v>
+      </c>
       <c r="P37" s="144"/>
       <c r="Q37" s="145" t="e">
         <f>SUM(#REF!,#REF!)</f>
@@ -21718,26 +22158,37 @@
       <c r="E38" s="154"/>
       <c r="F38" s="155"/>
       <c r="G38" s="155" t="s">
-        <v>231</v>
+        <v>264</v>
       </c>
       <c r="H38" s="152"/>
       <c r="I38" s="152"/>
       <c r="J38" s="377" t="str">
         <f>CONCATENATE(NETWORKDAYS(K38,L38),"일")</f>
-        <v>0일</v>
-      </c>
-      <c r="K38" s="157"/>
-      <c r="L38" s="157"/>
+        <v>1일</v>
+      </c>
+      <c r="K38" s="157">
+        <v>45303</v>
+      </c>
+      <c r="L38" s="157">
+        <v>45303</v>
+      </c>
       <c r="M38" s="158"/>
-      <c r="N38" s="158"/>
-      <c r="O38" s="160"/>
-      <c r="P38" s="160"/>
+      <c r="N38" s="158" t="s">
+        <v>167</v>
+      </c>
+      <c r="O38" s="160">
+        <v>45303</v>
+      </c>
+      <c r="P38" s="160">
+        <v>45303</v>
+      </c>
       <c r="Q38" s="159">
+        <f>SUM(Q39:Q41)/COUNT(Q39:Q41)</f>
+        <v>1</v>
+      </c>
+      <c r="R38" s="314">
+        <f ca="1">IF(Q38=100%,0,IF(_xlfn.DAYS(L38,TODAY())=0,0,_xlfn.DAYS(L38,TODAY())))</f>
         <v>0</v>
-      </c>
-      <c r="R38" s="314" t="e">
-        <f ca="1">IF(Q38=100%,0,IF(_xlfn.DAYS(L38,TODAY())=0,0,_xlfn.DAYS(L38,TODAY())))</f>
-        <v>#VALUE!</v>
       </c>
       <c r="S38" s="164"/>
       <c r="T38" s="30"/>
@@ -21760,32 +22211,42 @@
       <c r="F39" s="168"/>
       <c r="G39" s="168"/>
       <c r="H39" s="165" t="s">
-        <v>116</v>
+        <v>273</v>
       </c>
       <c r="I39" s="165"/>
       <c r="J39" s="365" t="str">
         <f>CONCATENATE(NETWORKDAYS(K39,L39),"일")</f>
-        <v>0일</v>
-      </c>
-      <c r="K39" s="170"/>
-      <c r="L39" s="170"/>
+        <v>1일</v>
+      </c>
+      <c r="K39" s="170">
+        <v>45303</v>
+      </c>
+      <c r="L39" s="170">
+        <v>45303</v>
+      </c>
       <c r="M39" s="171"/>
-      <c r="N39" s="171"/>
-      <c r="O39" s="325"/>
-      <c r="P39" s="325"/>
+      <c r="N39" s="324" t="s">
+        <v>167</v>
+      </c>
+      <c r="O39" s="170">
+        <v>45303</v>
+      </c>
+      <c r="P39" s="170">
+        <v>45303</v>
+      </c>
       <c r="Q39" s="326">
+        <v>1</v>
+      </c>
+      <c r="R39" s="314">
+        <f ca="1">IF(Q39=100%,0,IF(_xlfn.DAYS(L39,TODAY())=0,0,_xlfn.DAYS(L39,TODAY())))</f>
         <v>0</v>
-      </c>
-      <c r="R39" s="314" t="e">
-        <f ca="1">IF(Q39=100%,0,IF(_xlfn.DAYS(L39,TODAY())=0,0,_xlfn.DAYS(L39,TODAY())))</f>
-        <v>#VALUE!</v>
       </c>
       <c r="S39" s="177"/>
       <c r="T39" s="30"/>
       <c r="U39" s="31"/>
       <c r="V39" s="34"/>
     </row>
-    <row r="40" spans="2:22" s="32" customFormat="1" ht="19.500000" customHeight="1" outlineLevel="3">
+    <row r="40" spans="2:22" s="32" customFormat="1" ht="19.500000">
       <c r="B40" s="88">
         <f>B39+1</f>
         <v>22</v>
@@ -21801,32 +22262,42 @@
       <c r="F40" s="168"/>
       <c r="G40" s="168"/>
       <c r="H40" s="165" t="s">
-        <v>117</v>
+        <v>274</v>
       </c>
       <c r="I40" s="165"/>
       <c r="J40" s="365" t="str">
         <f>CONCATENATE(NETWORKDAYS(K40,L40),"일")</f>
-        <v>0일</v>
-      </c>
-      <c r="K40" s="170"/>
-      <c r="L40" s="170"/>
+        <v>1일</v>
+      </c>
+      <c r="K40" s="170">
+        <v>45303</v>
+      </c>
+      <c r="L40" s="170">
+        <v>45303</v>
+      </c>
       <c r="M40" s="171"/>
-      <c r="N40" s="171"/>
-      <c r="O40" s="325"/>
-      <c r="P40" s="325"/>
+      <c r="N40" s="324" t="s">
+        <v>167</v>
+      </c>
+      <c r="O40" s="170">
+        <v>45303</v>
+      </c>
+      <c r="P40" s="170">
+        <v>45303</v>
+      </c>
       <c r="Q40" s="326">
+        <v>1</v>
+      </c>
+      <c r="R40" s="314">
+        <f>IF(Q40=100%,0,IF(_xlfn.DAYS(L40,TODAY())=0,0,_xlfn.DAYS(L40,TODAY())))</f>
         <v>0</v>
-      </c>
-      <c r="R40" s="314" t="e">
-        <f ca="1">IF(Q40=100%,0,IF(_xlfn.DAYS(L40,TODAY())=0,0,_xlfn.DAYS(L40,TODAY())))</f>
-        <v>#VALUE!</v>
       </c>
       <c r="S40" s="177"/>
       <c r="T40" s="30"/>
       <c r="U40" s="31"/>
       <c r="V40" s="34"/>
     </row>
-    <row r="41" spans="2:22" s="32" customFormat="1" ht="19.500000" customHeight="1" outlineLevel="3">
+    <row r="41" spans="2:22" s="32" customFormat="1" ht="19.500000">
       <c r="B41" s="88">
         <f>B40+1</f>
         <v>23</v>
@@ -21842,109 +22313,125 @@
       <c r="F41" s="168"/>
       <c r="G41" s="168"/>
       <c r="H41" s="165" t="s">
-        <v>117</v>
+        <v>277</v>
       </c>
       <c r="I41" s="165"/>
       <c r="J41" s="365" t="str">
         <f>CONCATENATE(NETWORKDAYS(K41,L41),"일")</f>
-        <v>0일</v>
-      </c>
-      <c r="K41" s="170"/>
-      <c r="L41" s="170"/>
+        <v>1일</v>
+      </c>
+      <c r="K41" s="170">
+        <v>45303</v>
+      </c>
+      <c r="L41" s="170">
+        <v>45303</v>
+      </c>
       <c r="M41" s="171"/>
-      <c r="N41" s="171"/>
-      <c r="O41" s="325"/>
-      <c r="P41" s="325"/>
+      <c r="N41" s="324" t="s">
+        <v>167</v>
+      </c>
+      <c r="O41" s="170">
+        <v>45303</v>
+      </c>
+      <c r="P41" s="170">
+        <v>45303</v>
+      </c>
       <c r="Q41" s="326">
+        <v>1</v>
+      </c>
+      <c r="R41" s="314">
+        <f>IF(Q41=100%,0,IF(DAYS(L41,TODAY())=0,0,DAYS(L41,TODAY())))</f>
         <v>0</v>
-      </c>
-      <c r="R41" s="314" t="e">
-        <f ca="1">IF(Q41=100%,0,IF(_xlfn.DAYS(L41,TODAY())=0,0,_xlfn.DAYS(L41,TODAY())))</f>
-        <v>#VALUE!</v>
       </c>
       <c r="S41" s="177"/>
       <c r="T41" s="30"/>
       <c r="U41" s="31"/>
       <c r="V41" s="34"/>
     </row>
-    <row r="42" spans="2:22" s="32" customFormat="1" ht="19.500000" customHeight="1" outlineLevel="3">
+    <row r="42" spans="2:22" s="32" customFormat="1" ht="19.500000" customHeight="1" outlineLevel="2">
       <c r="B42" s="88">
-        <f>B41+1</f>
-        <v>24</v>
-      </c>
-      <c r="C42" s="165" t="s">
-        <v>88</v>
-      </c>
-      <c r="D42" s="166">
+        <f>B40+1</f>
+        <v>23</v>
+      </c>
+      <c r="C42" s="152" t="s">
+        <v>86</v>
+      </c>
+      <c r="D42" s="153">
         <f>IF(COUNTBLANK(E42:I42)&lt;5,IF(E42&lt;&gt;"",0,IF(F42&lt;&gt;"",1,IF(G42&lt;&gt;"",2,IF(H42&lt;&gt;"",3,IF(I42&lt;&gt;"",4))))),"")</f>
-        <v>3</v>
-      </c>
-      <c r="E42" s="167"/>
-      <c r="F42" s="168"/>
-      <c r="G42" s="168"/>
-      <c r="H42" s="165" t="s">
-        <v>118</v>
-      </c>
-      <c r="I42" s="165"/>
-      <c r="J42" s="365" t="str">
+        <v>2</v>
+      </c>
+      <c r="E42" s="154"/>
+      <c r="F42" s="155"/>
+      <c r="G42" s="155" t="s">
+        <v>278</v>
+      </c>
+      <c r="H42" s="152"/>
+      <c r="I42" s="152"/>
+      <c r="J42" s="377" t="str">
         <f>CONCATENATE(NETWORKDAYS(K42,L42),"일")</f>
         <v>0일</v>
       </c>
-      <c r="K42" s="170"/>
-      <c r="L42" s="170"/>
-      <c r="M42" s="171"/>
-      <c r="N42" s="171"/>
-      <c r="O42" s="325"/>
-      <c r="P42" s="325"/>
-      <c r="Q42" s="326">
+      <c r="K42" s="157">
+        <v>45303</v>
+      </c>
+      <c r="L42" s="157"/>
+      <c r="M42" s="158"/>
+      <c r="N42" s="158" t="s">
+        <v>167</v>
+      </c>
+      <c r="O42" s="160"/>
+      <c r="P42" s="160"/>
+      <c r="Q42" s="159">
         <v>0</v>
       </c>
       <c r="R42" s="314" t="e">
         <f ca="1">IF(Q42=100%,0,IF(_xlfn.DAYS(L42,TODAY())=0,0,_xlfn.DAYS(L42,TODAY())))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="S42" s="177"/>
+      <c r="S42" s="164"/>
       <c r="T42" s="30"/>
       <c r="U42" s="31"/>
       <c r="V42" s="34"/>
     </row>
-    <row r="43" spans="2:22" s="32" customFormat="1" ht="19.500000" customHeight="1" outlineLevel="2">
+    <row r="43" spans="2:22" s="32" customFormat="1" ht="19.500000" customHeight="1" outlineLevel="3">
       <c r="B43" s="88">
         <f>B42+1</f>
-        <v>25</v>
-      </c>
-      <c r="C43" s="152" t="s">
-        <v>86</v>
-      </c>
-      <c r="D43" s="153">
+        <v>24</v>
+      </c>
+      <c r="C43" s="165" t="s">
+        <v>89</v>
+      </c>
+      <c r="D43" s="166">
         <f>IF(COUNTBLANK(E43:I43)&lt;5,IF(E43&lt;&gt;"",0,IF(F43&lt;&gt;"",1,IF(G43&lt;&gt;"",2,IF(H43&lt;&gt;"",3,IF(I43&lt;&gt;"",4))))),"")</f>
-        <v>2</v>
-      </c>
-      <c r="E43" s="154"/>
-      <c r="F43" s="155"/>
-      <c r="G43" s="155" t="s">
-        <v>114</v>
-      </c>
-      <c r="H43" s="152"/>
-      <c r="I43" s="152"/>
-      <c r="J43" s="377" t="str">
+        <v>3</v>
+      </c>
+      <c r="E43" s="167"/>
+      <c r="F43" s="168"/>
+      <c r="G43" s="168"/>
+      <c r="H43" s="165" t="s">
+        <v>120</v>
+      </c>
+      <c r="I43" s="165"/>
+      <c r="J43" s="365" t="str">
         <f>CONCATENATE(NETWORKDAYS(K43,L43),"일")</f>
         <v>0일</v>
       </c>
-      <c r="K43" s="157"/>
-      <c r="L43" s="157"/>
-      <c r="M43" s="158"/>
-      <c r="N43" s="158"/>
-      <c r="O43" s="160"/>
-      <c r="P43" s="160"/>
-      <c r="Q43" s="159">
+      <c r="K43" s="170"/>
+      <c r="L43" s="170"/>
+      <c r="M43" s="171"/>
+      <c r="N43" s="171" t="s">
+        <v>167</v>
+      </c>
+      <c r="O43" s="325"/>
+      <c r="P43" s="325"/>
+      <c r="Q43" s="326">
         <v>0</v>
       </c>
       <c r="R43" s="314" t="e">
         <f ca="1">IF(Q43=100%,0,IF(_xlfn.DAYS(L43,TODAY())=0,0,_xlfn.DAYS(L43,TODAY())))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="S43" s="164"/>
+      <c r="S43" s="177"/>
       <c r="T43" s="30"/>
       <c r="U43" s="31"/>
       <c r="V43" s="34"/>
@@ -21952,7 +22439,7 @@
     <row r="44" spans="2:22" s="32" customFormat="1" ht="19.500000" customHeight="1" outlineLevel="3">
       <c r="B44" s="88">
         <f>B43+1</f>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C44" s="165" t="s">
         <v>89</v>
@@ -21975,15 +22462,17 @@
       <c r="K44" s="170"/>
       <c r="L44" s="170"/>
       <c r="M44" s="171"/>
-      <c r="N44" s="171"/>
+      <c r="N44" s="171" t="s">
+        <v>167</v>
+      </c>
       <c r="O44" s="325"/>
       <c r="P44" s="325"/>
       <c r="Q44" s="326">
         <v>0</v>
       </c>
       <c r="R44" s="314" t="e">
-        <f ca="1">IF(Q44=100%,0,IF(_xlfn.DAYS(L44,TODAY())=0,0,_xlfn.DAYS(L44,TODAY())))</f>
-        <v>#VALUE!</v>
+        <f>IF(Q44=100%,0,IF(DAYS(L44,TODAY())=0,0,DAYS(L44,TODAY())))</f>
+        <v>#NAME?</v>
       </c>
       <c r="S44" s="177"/>
       <c r="T44" s="30"/>
@@ -21993,10 +22482,10 @@
     <row r="45" spans="2:22" s="32" customFormat="1" ht="19.500000" customHeight="1" outlineLevel="3">
       <c r="B45" s="88">
         <f>B44+1</f>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C45" s="165" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D45" s="166">
         <f>IF(COUNTBLANK(E45:I45)&lt;5,IF(E45&lt;&gt;"",0,IF(F45&lt;&gt;"",1,IF(G45&lt;&gt;"",2,IF(H45&lt;&gt;"",3,IF(I45&lt;&gt;"",4))))),"")</f>
@@ -22006,7 +22495,7 @@
       <c r="F45" s="168"/>
       <c r="G45" s="168"/>
       <c r="H45" s="165" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I45" s="165"/>
       <c r="J45" s="365" t="str">
@@ -22016,99 +22505,105 @@
       <c r="K45" s="170"/>
       <c r="L45" s="170"/>
       <c r="M45" s="171"/>
-      <c r="N45" s="171"/>
+      <c r="N45" s="171" t="s">
+        <v>167</v>
+      </c>
       <c r="O45" s="325"/>
       <c r="P45" s="325"/>
       <c r="Q45" s="326">
         <v>0</v>
       </c>
       <c r="R45" s="314" t="e">
-        <f ca="1">IF(Q45=100%,0,IF(_xlfn.DAYS(L45,TODAY())=0,0,_xlfn.DAYS(L45,TODAY())))</f>
-        <v>#VALUE!</v>
+        <f ca="1">IF(Q45=100%,0,IF(DAYS(L45,TODAY())=0,0,DAYS(L45,TODAY())))</f>
+        <v>#NAME?</v>
       </c>
       <c r="S45" s="177"/>
       <c r="T45" s="30"/>
       <c r="U45" s="31"/>
       <c r="V45" s="34"/>
     </row>
-    <row r="46" spans="2:22" s="29" customFormat="1" ht="19.500000" customHeight="1" outlineLevel="1">
+    <row r="46" spans="2:22" s="32" customFormat="1" ht="19.500000" customHeight="1" outlineLevel="3">
       <c r="B46" s="88">
         <f>B45+1</f>
-        <v>28</v>
-      </c>
-      <c r="C46" s="183" t="s">
-        <v>81</v>
-      </c>
-      <c r="D46" s="184">
+        <v>27</v>
+      </c>
+      <c r="C46" s="165" t="s">
+        <v>89</v>
+      </c>
+      <c r="D46" s="166">
         <f>IF(COUNTBLANK(E46:I46)&lt;5,IF(E46&lt;&gt;"",0,IF(F46&lt;&gt;"",1,IF(G46&lt;&gt;"",2,IF(H46&lt;&gt;"",3,IF(I46&lt;&gt;"",4))))),"")</f>
-        <v>1</v>
-      </c>
-      <c r="E46" s="185"/>
-      <c r="F46" s="186" t="s">
-        <v>111</v>
-      </c>
-      <c r="G46" s="186"/>
-      <c r="H46" s="187"/>
-      <c r="I46" s="187"/>
-      <c r="J46" s="368" t="str">
+        <v>3</v>
+      </c>
+      <c r="E46" s="167"/>
+      <c r="F46" s="168"/>
+      <c r="G46" s="168"/>
+      <c r="H46" s="165" t="s">
+        <v>120</v>
+      </c>
+      <c r="I46" s="165"/>
+      <c r="J46" s="365" t="str">
         <f>CONCATENATE(NETWORKDAYS(K46,L46),"일")</f>
         <v>0일</v>
       </c>
-      <c r="K46" s="189"/>
-      <c r="L46" s="189"/>
-      <c r="M46" s="189"/>
-      <c r="N46" s="189"/>
-      <c r="O46" s="189"/>
-      <c r="P46" s="189"/>
-      <c r="Q46" s="190">
+      <c r="K46" s="170"/>
+      <c r="L46" s="170"/>
+      <c r="M46" s="171"/>
+      <c r="N46" s="171" t="s">
+        <v>167</v>
+      </c>
+      <c r="O46" s="325"/>
+      <c r="P46" s="325"/>
+      <c r="Q46" s="326">
         <v>0</v>
       </c>
       <c r="R46" s="314" t="e">
-        <f ca="1">IF(Q46=100%,0,IF(_xlfn.DAYS(L46,TODAY())=0,0,_xlfn.DAYS(L46,TODAY())))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S46" s="196"/>
-      <c r="T46" s="27"/>
-      <c r="U46" s="28"/>
-      <c r="V46" s="42"/>
+        <f ca="1">IF(Q46=100%,0,IF(DAYS(L46,TODAY())=0,0,DAYS(L46,TODAY())))</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="S46" s="177"/>
+      <c r="T46" s="30"/>
+      <c r="U46" s="31"/>
+      <c r="V46" s="34"/>
     </row>
     <row r="47" spans="2:22" s="32" customFormat="1" ht="19.500000" customHeight="1" outlineLevel="3">
       <c r="B47" s="88">
         <f>B46+1</f>
-        <v>29</v>
-      </c>
-      <c r="C47" s="197" t="s">
-        <v>91</v>
-      </c>
-      <c r="D47" s="198">
+        <v>28</v>
+      </c>
+      <c r="C47" s="165" t="s">
+        <v>89</v>
+      </c>
+      <c r="D47" s="166">
         <f>IF(COUNTBLANK(E47:I47)&lt;5,IF(E47&lt;&gt;"",0,IF(F47&lt;&gt;"",1,IF(G47&lt;&gt;"",2,IF(H47&lt;&gt;"",3,IF(I47&lt;&gt;"",4))))),"")</f>
-        <v>2</v>
-      </c>
-      <c r="E47" s="154"/>
-      <c r="F47" s="199"/>
-      <c r="G47" s="199" t="s">
-        <v>113</v>
-      </c>
-      <c r="H47" s="197"/>
-      <c r="I47" s="197"/>
-      <c r="J47" s="377" t="str">
+        <v>3</v>
+      </c>
+      <c r="E47" s="167"/>
+      <c r="F47" s="168"/>
+      <c r="G47" s="168"/>
+      <c r="H47" s="165" t="s">
+        <v>120</v>
+      </c>
+      <c r="I47" s="165"/>
+      <c r="J47" s="365" t="str">
         <f>CONCATENATE(NETWORKDAYS(K47,L47),"일")</f>
         <v>0일</v>
       </c>
-      <c r="K47" s="201"/>
-      <c r="L47" s="201"/>
-      <c r="M47" s="202"/>
-      <c r="N47" s="202"/>
-      <c r="O47" s="204"/>
-      <c r="P47" s="204"/>
-      <c r="Q47" s="203">
+      <c r="K47" s="170"/>
+      <c r="L47" s="170"/>
+      <c r="M47" s="171"/>
+      <c r="N47" s="171" t="s">
+        <v>167</v>
+      </c>
+      <c r="O47" s="325"/>
+      <c r="P47" s="325"/>
+      <c r="Q47" s="326">
         <v>0</v>
       </c>
       <c r="R47" s="314" t="e">
-        <f ca="1">IF(Q47=100%,0,IF(_xlfn.DAYS(L47,TODAY())=0,0,_xlfn.DAYS(L47,TODAY())))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S47" s="208"/>
+        <f ca="1">IF(Q47=100%,0,IF(DAYS(L47,TODAY())=0,0,DAYS(L47,TODAY())))</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="S47" s="177"/>
       <c r="T47" s="30"/>
       <c r="U47" s="31"/>
       <c r="V47" s="34"/>
@@ -22116,40 +22611,42 @@
     <row r="48" spans="2:22" s="32" customFormat="1" ht="19.500000" customHeight="1" outlineLevel="3">
       <c r="B48" s="88">
         <f>B47+1</f>
-        <v>30</v>
-      </c>
-      <c r="C48" s="197" t="s">
-        <v>75</v>
-      </c>
-      <c r="D48" s="153">
+        <v>29</v>
+      </c>
+      <c r="C48" s="165" t="s">
+        <v>89</v>
+      </c>
+      <c r="D48" s="166">
         <f>IF(COUNTBLANK(E48:I48)&lt;5,IF(E48&lt;&gt;"",0,IF(F48&lt;&gt;"",1,IF(G48&lt;&gt;"",2,IF(H48&lt;&gt;"",3,IF(I48&lt;&gt;"",4))))),"")</f>
-        <v>2</v>
-      </c>
-      <c r="E48" s="154"/>
-      <c r="F48" s="155"/>
-      <c r="G48" s="155" t="s">
-        <v>114</v>
-      </c>
-      <c r="H48" s="152"/>
-      <c r="I48" s="152"/>
-      <c r="J48" s="377" t="str">
+        <v>3</v>
+      </c>
+      <c r="E48" s="167"/>
+      <c r="F48" s="168"/>
+      <c r="G48" s="168"/>
+      <c r="H48" s="165" t="s">
+        <v>120</v>
+      </c>
+      <c r="I48" s="165"/>
+      <c r="J48" s="365" t="str">
         <f>CONCATENATE(NETWORKDAYS(K48,L48),"일")</f>
         <v>0일</v>
       </c>
-      <c r="K48" s="157"/>
-      <c r="L48" s="157"/>
-      <c r="M48" s="158"/>
-      <c r="N48" s="158"/>
-      <c r="O48" s="160"/>
-      <c r="P48" s="160"/>
-      <c r="Q48" s="159">
+      <c r="K48" s="170"/>
+      <c r="L48" s="170"/>
+      <c r="M48" s="171"/>
+      <c r="N48" s="171" t="s">
+        <v>167</v>
+      </c>
+      <c r="O48" s="325"/>
+      <c r="P48" s="325"/>
+      <c r="Q48" s="326">
         <v>0</v>
       </c>
       <c r="R48" s="314" t="e">
-        <f ca="1">IF(Q48=100%,0,IF(_xlfn.DAYS(L48,TODAY())=0,0,_xlfn.DAYS(L48,TODAY())))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S48" s="164"/>
+        <f ca="1">IF(Q48=100%,0,IF(DAYS(L48,TODAY())=0,0,DAYS(L48,TODAY())))</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="S48" s="177"/>
       <c r="T48" s="30"/>
       <c r="U48" s="31"/>
       <c r="V48" s="34"/>
@@ -22157,235 +22654,706 @@
     <row r="49" spans="2:22" s="32" customFormat="1" ht="19.500000" customHeight="1" outlineLevel="3">
       <c r="B49" s="88">
         <f>B48+1</f>
-        <v>31</v>
-      </c>
-      <c r="C49" s="209" t="s">
-        <v>76</v>
-      </c>
-      <c r="D49" s="210">
+        <v>30</v>
+      </c>
+      <c r="C49" s="165" t="s">
+        <v>89</v>
+      </c>
+      <c r="D49" s="166">
         <f>IF(COUNTBLANK(E49:I49)&lt;5,IF(E49&lt;&gt;"",0,IF(F49&lt;&gt;"",1,IF(G49&lt;&gt;"",2,IF(H49&lt;&gt;"",3,IF(I49&lt;&gt;"",4))))),"")</f>
-        <v>2</v>
-      </c>
-      <c r="E49" s="211"/>
-      <c r="F49" s="212"/>
-      <c r="G49" s="212" t="s">
-        <v>115</v>
-      </c>
-      <c r="H49" s="213"/>
-      <c r="I49" s="213"/>
-      <c r="J49" s="377" t="str">
+        <v>3</v>
+      </c>
+      <c r="E49" s="167"/>
+      <c r="F49" s="168"/>
+      <c r="G49" s="168"/>
+      <c r="H49" s="165" t="s">
+        <v>120</v>
+      </c>
+      <c r="I49" s="165"/>
+      <c r="J49" s="365" t="str">
         <f>CONCATENATE(NETWORKDAYS(K49,L49),"일")</f>
         <v>0일</v>
       </c>
-      <c r="K49" s="215"/>
-      <c r="L49" s="215"/>
-      <c r="M49" s="216"/>
-      <c r="N49" s="216"/>
-      <c r="O49" s="218"/>
-      <c r="P49" s="218"/>
-      <c r="Q49" s="219">
+      <c r="K49" s="170"/>
+      <c r="L49" s="170"/>
+      <c r="M49" s="171"/>
+      <c r="N49" s="171" t="s">
+        <v>167</v>
+      </c>
+      <c r="O49" s="325"/>
+      <c r="P49" s="325"/>
+      <c r="Q49" s="326">
         <v>0</v>
       </c>
       <c r="R49" s="314" t="e">
-        <f ca="1">IF(Q49=100%,0,IF(_xlfn.DAYS(L49,TODAY())=0,0,_xlfn.DAYS(L49,TODAY())))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S49" s="223"/>
+        <f ca="1">IF(Q49=100%,0,IF(DAYS(L49,TODAY())=0,0,DAYS(L49,TODAY())))</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="S49" s="177"/>
       <c r="T49" s="30"/>
       <c r="U49" s="31"/>
       <c r="V49" s="34"/>
     </row>
-    <row r="50" spans="2:22" outlineLevel="1">
-      <c r="B50" s="32"/>
-      <c r="D50" s="32"/>
-      <c r="E50" s="32"/>
-      <c r="F50" s="32"/>
-      <c r="G50" s="32"/>
-      <c r="H50" s="32"/>
-      <c r="I50" s="32"/>
-      <c r="K50" s="32"/>
-      <c r="M50" s="32"/>
-      <c r="N50" s="32"/>
-      <c r="T50" s="32"/>
-      <c r="V50" s="32"/>
+    <row r="50" spans="2:22" s="32" customFormat="1" ht="19.500000" customHeight="1" outlineLevel="3">
+      <c r="B50" s="88">
+        <f>B49+1</f>
+        <v>31</v>
+      </c>
+      <c r="C50" s="165" t="s">
+        <v>89</v>
+      </c>
+      <c r="D50" s="166">
+        <f>IF(COUNTBLANK(E50:I50)&lt;5,IF(E50&lt;&gt;"",0,IF(F50&lt;&gt;"",1,IF(G50&lt;&gt;"",2,IF(H50&lt;&gt;"",3,IF(I50&lt;&gt;"",4))))),"")</f>
+        <v>3</v>
+      </c>
+      <c r="E50" s="167"/>
+      <c r="F50" s="168"/>
+      <c r="G50" s="168"/>
+      <c r="H50" s="165" t="s">
+        <v>120</v>
+      </c>
+      <c r="I50" s="165"/>
+      <c r="J50" s="365" t="str">
+        <f>CONCATENATE(NETWORKDAYS(K50,L50),"일")</f>
+        <v>0일</v>
+      </c>
+      <c r="K50" s="170"/>
+      <c r="L50" s="170"/>
+      <c r="M50" s="171"/>
+      <c r="N50" s="171" t="s">
+        <v>167</v>
+      </c>
+      <c r="O50" s="325"/>
+      <c r="P50" s="325"/>
+      <c r="Q50" s="326">
+        <v>0</v>
+      </c>
+      <c r="R50" s="314" t="e">
+        <f ca="1">IF(Q50=100%,0,IF(DAYS(L50,TODAY())=0,0,DAYS(L50,TODAY())))</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="S50" s="177"/>
+      <c r="T50" s="30"/>
+      <c r="U50" s="31"/>
+      <c r="V50" s="34"/>
     </row>
-    <row r="51" spans="2:22">
-      <c r="B51" s="29"/>
-      <c r="D51" s="29"/>
-      <c r="E51" s="29"/>
-      <c r="F51" s="29"/>
-      <c r="G51" s="29"/>
-      <c r="H51" s="29"/>
-      <c r="I51" s="29"/>
-      <c r="K51" s="29"/>
-      <c r="M51" s="29"/>
-      <c r="N51" s="29"/>
-      <c r="T51" s="29"/>
-      <c r="V51" s="29"/>
+    <row r="51" spans="2:22" s="32" customFormat="1" ht="19.500000" customHeight="1" outlineLevel="3">
+      <c r="B51" s="88">
+        <f>B50+1</f>
+        <v>32</v>
+      </c>
+      <c r="C51" s="165" t="s">
+        <v>90</v>
+      </c>
+      <c r="D51" s="166">
+        <f>IF(COUNTBLANK(E51:I51)&lt;5,IF(E51&lt;&gt;"",0,IF(F51&lt;&gt;"",1,IF(G51&lt;&gt;"",2,IF(H51&lt;&gt;"",3,IF(I51&lt;&gt;"",4))))),"")</f>
+        <v>3</v>
+      </c>
+      <c r="E51" s="167"/>
+      <c r="F51" s="168"/>
+      <c r="G51" s="168"/>
+      <c r="H51" s="165" t="s">
+        <v>122</v>
+      </c>
+      <c r="I51" s="165"/>
+      <c r="J51" s="365" t="str">
+        <f>CONCATENATE(NETWORKDAYS(K51,L51),"일")</f>
+        <v>0일</v>
+      </c>
+      <c r="K51" s="170"/>
+      <c r="L51" s="170"/>
+      <c r="M51" s="171"/>
+      <c r="N51" s="171" t="s">
+        <v>167</v>
+      </c>
+      <c r="O51" s="325"/>
+      <c r="P51" s="325"/>
+      <c r="Q51" s="326">
+        <v>0</v>
+      </c>
+      <c r="R51" s="314" t="e">
+        <f ca="1">IF(Q51=100%,0,IF(_xlfn.DAYS(L51,TODAY())=0,0,_xlfn.DAYS(L51,TODAY())))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S51" s="177"/>
+      <c r="T51" s="30"/>
+      <c r="U51" s="31"/>
+      <c r="V51" s="34"/>
     </row>
-    <row r="52" spans="2:22">
-      <c r="B52" s="32"/>
-      <c r="D52" s="32"/>
-      <c r="E52" s="32"/>
-      <c r="F52" s="32"/>
-      <c r="G52" s="32"/>
-      <c r="H52" s="32"/>
-      <c r="I52" s="32"/>
-      <c r="K52" s="32"/>
-      <c r="M52" s="32"/>
-      <c r="N52" s="32"/>
-      <c r="T52" s="32"/>
-      <c r="V52" s="32"/>
+    <row r="52" spans="2:22" s="29" customFormat="1" ht="19.500000" customHeight="1" outlineLevel="1">
+      <c r="B52" s="88">
+        <f>B51+1</f>
+        <v>33</v>
+      </c>
+      <c r="C52" s="183" t="s">
+        <v>81</v>
+      </c>
+      <c r="D52" s="184">
+        <f>IF(COUNTBLANK(E52:I52)&lt;5,IF(E52&lt;&gt;"",0,IF(F52&lt;&gt;"",1,IF(G52&lt;&gt;"",2,IF(H52&lt;&gt;"",3,IF(I52&lt;&gt;"",4))))),"")</f>
+        <v>1</v>
+      </c>
+      <c r="E52" s="185"/>
+      <c r="F52" s="186" t="s">
+        <v>260</v>
+      </c>
+      <c r="G52" s="186"/>
+      <c r="H52" s="187"/>
+      <c r="I52" s="187"/>
+      <c r="J52" s="368" t="str">
+        <f>CONCATENATE(NETWORKDAYS(K52,L52),"일")</f>
+        <v>0일</v>
+      </c>
+      <c r="K52" s="189"/>
+      <c r="L52" s="189"/>
+      <c r="M52" s="189"/>
+      <c r="N52" s="189"/>
+      <c r="O52" s="189"/>
+      <c r="P52" s="189"/>
+      <c r="Q52" s="190">
+        <v>0</v>
+      </c>
+      <c r="R52" s="314" t="e">
+        <f ca="1">IF(Q52=100%,0,IF(_xlfn.DAYS(L52,TODAY())=0,0,_xlfn.DAYS(L52,TODAY())))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S52" s="196"/>
+      <c r="T52" s="27"/>
+      <c r="U52" s="28"/>
+      <c r="V52" s="42"/>
     </row>
-    <row r="53" spans="2:22">
-      <c r="B53" s="32"/>
-      <c r="D53" s="32"/>
-      <c r="E53" s="32"/>
-      <c r="F53" s="32"/>
-      <c r="G53" s="32"/>
-      <c r="H53" s="32"/>
-      <c r="I53" s="32"/>
-      <c r="K53" s="32"/>
-      <c r="M53" s="32"/>
-      <c r="N53" s="32"/>
-      <c r="T53" s="32"/>
-      <c r="V53" s="32"/>
+    <row r="53" spans="2:22" s="32" customFormat="1" ht="19.500000" customHeight="1" outlineLevel="3">
+      <c r="B53" s="88">
+        <f>B52+1</f>
+        <v>34</v>
+      </c>
+      <c r="C53" s="197" t="s">
+        <v>91</v>
+      </c>
+      <c r="D53" s="198">
+        <f>IF(COUNTBLANK(E53:I53)&lt;5,IF(E53&lt;&gt;"",0,IF(F53&lt;&gt;"",1,IF(G53&lt;&gt;"",2,IF(H53&lt;&gt;"",3,IF(I53&lt;&gt;"",4))))),"")</f>
+        <v>2</v>
+      </c>
+      <c r="E53" s="154"/>
+      <c r="F53" s="199"/>
+      <c r="G53" s="199" t="s">
+        <v>113</v>
+      </c>
+      <c r="H53" s="197"/>
+      <c r="I53" s="197"/>
+      <c r="J53" s="377" t="str">
+        <f>CONCATENATE(NETWORKDAYS(K53,L53),"일")</f>
+        <v>0일</v>
+      </c>
+      <c r="K53" s="201"/>
+      <c r="L53" s="201"/>
+      <c r="M53" s="202"/>
+      <c r="N53" s="202"/>
+      <c r="O53" s="204"/>
+      <c r="P53" s="204"/>
+      <c r="Q53" s="203">
+        <v>0</v>
+      </c>
+      <c r="R53" s="314" t="e">
+        <f ca="1">IF(Q53=100%,0,IF(_xlfn.DAYS(L53,TODAY())=0,0,_xlfn.DAYS(L53,TODAY())))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S53" s="208"/>
+      <c r="T53" s="30"/>
+      <c r="U53" s="31"/>
+      <c r="V53" s="34"/>
     </row>
-    <row r="54" spans="2:22">
-      <c r="B54" s="32"/>
-      <c r="C54" s="38"/>
-      <c r="D54" s="32"/>
-      <c r="E54" s="32"/>
-      <c r="F54" s="32"/>
-      <c r="G54" s="32"/>
-      <c r="H54" s="32"/>
-      <c r="I54" s="32"/>
-      <c r="J54" s="39"/>
-      <c r="K54" s="32"/>
-      <c r="L54" s="36"/>
-      <c r="M54" s="32"/>
-      <c r="N54" s="32"/>
-      <c r="O54" s="36"/>
-      <c r="P54" s="36"/>
-      <c r="Q54" s="33"/>
-      <c r="R54" s="37"/>
-      <c r="S54" s="20"/>
-      <c r="T54" s="32"/>
-      <c r="U54" s="15"/>
-      <c r="V54" s="32"/>
+    <row r="54" spans="2:22" s="32" customFormat="1" ht="19.500000" customHeight="1" outlineLevel="3">
+      <c r="B54" s="88">
+        <f>B53+1</f>
+        <v>35</v>
+      </c>
+      <c r="C54" s="165" t="s">
+        <v>261</v>
+      </c>
+      <c r="D54" s="166">
+        <f>IF(COUNTBLANK(E54:I54)&lt;5,IF(E54&lt;&gt;"",0,IF(F54&lt;&gt;"",1,IF(G54&lt;&gt;"",2,IF(H54&lt;&gt;"",3,IF(I54&lt;&gt;"",4))))),"")</f>
+        <v>3</v>
+      </c>
+      <c r="E54" s="167"/>
+      <c r="F54" s="168"/>
+      <c r="G54" s="168"/>
+      <c r="H54" s="165" t="s">
+        <v>116</v>
+      </c>
+      <c r="I54" s="165"/>
+      <c r="J54" s="365" t="str">
+        <f>CONCATENATE(NETWORKDAYS(K54,L54),"일")</f>
+        <v>0일</v>
+      </c>
+      <c r="K54" s="170"/>
+      <c r="L54" s="170"/>
+      <c r="M54" s="171"/>
+      <c r="N54" s="171"/>
+      <c r="O54" s="325"/>
+      <c r="P54" s="325"/>
+      <c r="Q54" s="326">
+        <v>0</v>
+      </c>
+      <c r="R54" s="314" t="e">
+        <f ca="1">IF(Q54=100%,0,IF(DAYS(L54,TODAY())=0,0,DAYS(L54,TODAY())))</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="S54" s="177"/>
+      <c r="T54" s="30"/>
+      <c r="U54" s="31"/>
+      <c r="V54" s="34"/>
     </row>
-    <row r="55" spans="2:22">
-      <c r="B55" s="32"/>
-      <c r="D55" s="32"/>
-      <c r="E55" s="32"/>
-      <c r="F55" s="32"/>
-      <c r="G55" s="32"/>
-      <c r="H55" s="32"/>
-      <c r="I55" s="32"/>
-      <c r="J55" s="20"/>
-      <c r="K55" s="32"/>
-      <c r="L55" s="36"/>
-      <c r="M55" s="32"/>
-      <c r="N55" s="32"/>
-      <c r="O55" s="36"/>
-      <c r="P55" s="36"/>
-      <c r="Q55" s="33"/>
-      <c r="R55" s="37"/>
-      <c r="S55" s="20"/>
-      <c r="T55" s="32"/>
-      <c r="U55" s="15"/>
-      <c r="V55" s="32"/>
+    <row r="55" spans="2:22" s="32" customFormat="1" ht="19.500000" customHeight="1" outlineLevel="3">
+      <c r="B55" s="88">
+        <f>B54+1</f>
+        <v>36</v>
+      </c>
+      <c r="C55" s="197" t="s">
+        <v>75</v>
+      </c>
+      <c r="D55" s="153">
+        <f>IF(COUNTBLANK(E55:I55)&lt;5,IF(E55&lt;&gt;"",0,IF(F55&lt;&gt;"",1,IF(G55&lt;&gt;"",2,IF(H55&lt;&gt;"",3,IF(I55&lt;&gt;"",4))))),"")</f>
+        <v>2</v>
+      </c>
+      <c r="E55" s="154"/>
+      <c r="F55" s="155"/>
+      <c r="G55" s="155" t="s">
+        <v>114</v>
+      </c>
+      <c r="H55" s="152"/>
+      <c r="I55" s="152"/>
+      <c r="J55" s="377" t="str">
+        <f>CONCATENATE(NETWORKDAYS(K55,L55),"일")</f>
+        <v>0일</v>
+      </c>
+      <c r="K55" s="157"/>
+      <c r="L55" s="157"/>
+      <c r="M55" s="158"/>
+      <c r="N55" s="158"/>
+      <c r="O55" s="160"/>
+      <c r="P55" s="160"/>
+      <c r="Q55" s="159">
+        <v>0</v>
+      </c>
+      <c r="R55" s="314" t="e">
+        <f ca="1">IF(Q55=100%,0,IF(_xlfn.DAYS(L55,TODAY())=0,0,_xlfn.DAYS(L55,TODAY())))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S55" s="164"/>
+      <c r="T55" s="30"/>
+      <c r="U55" s="31"/>
+      <c r="V55" s="34"/>
     </row>
-    <row r="56" spans="2:22">
-      <c r="B56" s="32"/>
-      <c r="C56" s="32"/>
-      <c r="D56" s="32"/>
-      <c r="E56" s="32"/>
-      <c r="F56" s="32"/>
-      <c r="G56" s="32"/>
-      <c r="H56" s="32"/>
-      <c r="I56" s="32"/>
-      <c r="K56" s="32"/>
-      <c r="M56" s="32"/>
-      <c r="N56" s="32"/>
-      <c r="R56" s="33"/>
-      <c r="T56" s="32"/>
-      <c r="V56" s="32"/>
+    <row r="56" spans="2:22" s="32" customFormat="1" ht="19.500000" customHeight="1" outlineLevel="3">
+      <c r="B56" s="88">
+        <f>B55+1</f>
+        <v>37</v>
+      </c>
+      <c r="C56" s="165" t="s">
+        <v>262</v>
+      </c>
+      <c r="D56" s="166">
+        <f>IF(COUNTBLANK(E56:I56)&lt;5,IF(E56&lt;&gt;"",0,IF(F56&lt;&gt;"",1,IF(G56&lt;&gt;"",2,IF(H56&lt;&gt;"",3,IF(I56&lt;&gt;"",4))))),"")</f>
+        <v>3</v>
+      </c>
+      <c r="E56" s="167"/>
+      <c r="F56" s="168"/>
+      <c r="G56" s="168"/>
+      <c r="H56" s="165" t="s">
+        <v>116</v>
+      </c>
+      <c r="I56" s="165"/>
+      <c r="J56" s="365" t="str">
+        <f>CONCATENATE(NETWORKDAYS(K56,L56),"일")</f>
+        <v>0일</v>
+      </c>
+      <c r="K56" s="170"/>
+      <c r="L56" s="170"/>
+      <c r="M56" s="171"/>
+      <c r="N56" s="171"/>
+      <c r="O56" s="325"/>
+      <c r="P56" s="325"/>
+      <c r="Q56" s="326">
+        <v>0</v>
+      </c>
+      <c r="R56" s="314" t="e">
+        <f ca="1">IF(Q56=100%,0,IF(DAYS(L56,TODAY())=0,0,DAYS(L56,TODAY())))</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="S56" s="177"/>
+      <c r="T56" s="30"/>
+      <c r="U56" s="31"/>
+      <c r="V56" s="34"/>
     </row>
-    <row r="57" spans="2:22">
-      <c r="C57" s="32"/>
-      <c r="J57" s="32"/>
-      <c r="L57" s="32"/>
-      <c r="O57" s="32"/>
-      <c r="P57" s="32"/>
-      <c r="Q57" s="32"/>
-      <c r="R57" s="33"/>
-      <c r="S57" s="32"/>
-      <c r="U57" s="32"/>
+    <row r="57" spans="2:22" s="32" customFormat="1" ht="19.500000" customHeight="1" outlineLevel="3">
+      <c r="B57" s="88">
+        <f>B56+1</f>
+        <v>38</v>
+      </c>
+      <c r="C57" s="197" t="s">
+        <v>76</v>
+      </c>
+      <c r="D57" s="153">
+        <f>IF(COUNTBLANK(E57:I57)&lt;5,IF(E57&lt;&gt;"",0,IF(F57&lt;&gt;"",1,IF(G57&lt;&gt;"",2,IF(H57&lt;&gt;"",3,IF(I57&lt;&gt;"",4))))),"")</f>
+        <v>2</v>
+      </c>
+      <c r="E57" s="154"/>
+      <c r="F57" s="155"/>
+      <c r="G57" s="155" t="s">
+        <v>114</v>
+      </c>
+      <c r="H57" s="152"/>
+      <c r="I57" s="152"/>
+      <c r="J57" s="377" t="str">
+        <f>CONCATENATE(NETWORKDAYS(K57,L57),"일")</f>
+        <v>0일</v>
+      </c>
+      <c r="K57" s="157"/>
+      <c r="L57" s="157"/>
+      <c r="M57" s="158"/>
+      <c r="N57" s="158"/>
+      <c r="O57" s="160"/>
+      <c r="P57" s="160"/>
+      <c r="Q57" s="159">
+        <v>0</v>
+      </c>
+      <c r="R57" s="314" t="e">
+        <f ca="1">IF(Q57=100%,0,IF(DAYS(L57,TODAY())=0,0,DAYS(L57,TODAY())))</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="S57" s="164"/>
+      <c r="T57" s="30"/>
+      <c r="U57" s="31"/>
+      <c r="V57" s="34"/>
     </row>
-    <row r="58" spans="2:22">
-      <c r="C58" s="32"/>
-      <c r="J58" s="32"/>
-      <c r="L58" s="32"/>
-      <c r="O58" s="32"/>
-      <c r="P58" s="32"/>
-      <c r="Q58" s="32"/>
-      <c r="S58" s="32"/>
-      <c r="U58" s="32"/>
+    <row r="58" spans="2:22" s="32" customFormat="1" ht="19.500000" customHeight="1" outlineLevel="3">
+      <c r="B58" s="88">
+        <f>B57+1</f>
+        <v>39</v>
+      </c>
+      <c r="C58" s="407" t="s">
+        <v>263</v>
+      </c>
+      <c r="D58" s="408">
+        <f>IF(COUNTBLANK(E58:I58)&lt;5,IF(E58&lt;&gt;"",0,IF(F58&lt;&gt;"",1,IF(G58&lt;&gt;"",2,IF(H58&lt;&gt;"",3,IF(I58&lt;&gt;"",4))))),"")</f>
+        <v>3</v>
+      </c>
+      <c r="E58" s="409"/>
+      <c r="F58" s="410"/>
+      <c r="G58" s="410"/>
+      <c r="H58" s="407" t="s">
+        <v>116</v>
+      </c>
+      <c r="I58" s="407"/>
+      <c r="J58" s="411" t="str">
+        <f>CONCATENATE(NETWORKDAYS(K58,L58),"일")</f>
+        <v>0일</v>
+      </c>
+      <c r="K58" s="412"/>
+      <c r="L58" s="412"/>
+      <c r="M58" s="413"/>
+      <c r="N58" s="413"/>
+      <c r="O58" s="414"/>
+      <c r="P58" s="414"/>
+      <c r="Q58" s="415">
+        <v>0</v>
+      </c>
+      <c r="R58" s="416" t="e">
+        <f ca="1">IF(Q58=100%,0,IF(DAYS(L58,TODAY())=0,0,DAYS(L58,TODAY())))</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="S58" s="417"/>
+      <c r="T58" s="30"/>
+      <c r="U58" s="31"/>
+      <c r="V58" s="34"/>
     </row>
-    <row r="59" spans="2:22">
-      <c r="C59" s="32"/>
-      <c r="J59" s="32"/>
-      <c r="L59" s="32"/>
-      <c r="O59" s="32"/>
-      <c r="P59" s="32"/>
-      <c r="Q59" s="32"/>
-      <c r="R59" s="32"/>
-      <c r="S59" s="32"/>
-      <c r="U59" s="32"/>
+    <row r="59" spans="2:22" outlineLevel="1">
+      <c r="B59" s="32"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="32"/>
+      <c r="E59" s="32"/>
+      <c r="F59" s="32"/>
+      <c r="G59" s="32"/>
+      <c r="H59" s="32"/>
+      <c r="I59" s="32"/>
+      <c r="J59" s="15"/>
+      <c r="K59" s="32"/>
+      <c r="L59" s="35"/>
+      <c r="M59" s="32"/>
+      <c r="N59" s="32"/>
+      <c r="O59" s="35"/>
+      <c r="P59" s="35"/>
+      <c r="Q59" s="36"/>
+      <c r="R59" s="34"/>
+      <c r="S59" s="37"/>
+      <c r="T59" s="32"/>
+      <c r="U59" s="20"/>
+      <c r="V59" s="32"/>
     </row>
     <row r="60" spans="2:22">
-      <c r="C60" s="29"/>
-      <c r="J60" s="29"/>
-      <c r="L60" s="29"/>
-      <c r="O60" s="29"/>
-      <c r="P60" s="29"/>
-      <c r="Q60" s="29"/>
-      <c r="R60" s="29"/>
-      <c r="S60" s="29"/>
-      <c r="U60" s="29"/>
+      <c r="B60" s="29"/>
+      <c r="C60" s="16"/>
+      <c r="D60" s="29"/>
+      <c r="E60" s="29"/>
+      <c r="F60" s="29"/>
+      <c r="G60" s="29"/>
+      <c r="H60" s="29"/>
+      <c r="I60" s="29"/>
+      <c r="J60" s="15"/>
+      <c r="K60" s="29"/>
+      <c r="L60" s="35"/>
+      <c r="M60" s="29"/>
+      <c r="N60" s="29"/>
+      <c r="O60" s="35"/>
+      <c r="P60" s="35"/>
+      <c r="Q60" s="36"/>
+      <c r="R60" s="34"/>
+      <c r="S60" s="37"/>
+      <c r="T60" s="29"/>
+      <c r="U60" s="20"/>
+      <c r="V60" s="29"/>
     </row>
     <row r="61" spans="2:22">
-      <c r="C61" s="32"/>
-      <c r="J61" s="32"/>
-      <c r="L61" s="32"/>
-      <c r="O61" s="32"/>
-      <c r="P61" s="32"/>
-      <c r="Q61" s="32"/>
-      <c r="R61" s="32"/>
-      <c r="S61" s="32"/>
-      <c r="U61" s="32"/>
+      <c r="B61" s="32"/>
+      <c r="C61" s="16"/>
+      <c r="D61" s="32"/>
+      <c r="E61" s="32"/>
+      <c r="F61" s="32"/>
+      <c r="G61" s="32"/>
+      <c r="H61" s="32"/>
+      <c r="I61" s="32"/>
+      <c r="J61" s="15"/>
+      <c r="K61" s="32"/>
+      <c r="L61" s="35"/>
+      <c r="M61" s="32"/>
+      <c r="N61" s="32"/>
+      <c r="O61" s="35"/>
+      <c r="P61" s="35"/>
+      <c r="Q61" s="36"/>
+      <c r="R61" s="34"/>
+      <c r="S61" s="37"/>
+      <c r="T61" s="32"/>
+      <c r="U61" s="20"/>
+      <c r="V61" s="32"/>
     </row>
     <row r="62" spans="2:22">
-      <c r="C62" s="32"/>
-      <c r="J62" s="32"/>
-      <c r="L62" s="32"/>
-      <c r="O62" s="32"/>
-      <c r="P62" s="32"/>
-      <c r="Q62" s="32"/>
-      <c r="R62" s="32"/>
-      <c r="S62" s="32"/>
-      <c r="U62" s="32"/>
+      <c r="B62" s="32"/>
+      <c r="D62" s="32"/>
+      <c r="E62" s="32"/>
+      <c r="F62" s="32"/>
+      <c r="G62" s="32"/>
+      <c r="H62" s="32"/>
+      <c r="I62" s="32"/>
+      <c r="K62" s="32"/>
+      <c r="M62" s="32"/>
+      <c r="N62" s="32"/>
+      <c r="T62" s="32"/>
+      <c r="V62" s="32"/>
     </row>
     <row r="63" spans="2:22">
-      <c r="J63" s="32"/>
-      <c r="L63" s="32"/>
-      <c r="O63" s="32"/>
-      <c r="P63" s="32"/>
-      <c r="Q63" s="32"/>
-      <c r="R63" s="32"/>
-      <c r="S63" s="32"/>
-      <c r="U63" s="32"/>
+      <c r="B63" s="32"/>
+      <c r="C63" s="38"/>
+      <c r="D63" s="32"/>
+      <c r="E63" s="32"/>
+      <c r="F63" s="32"/>
+      <c r="G63" s="32"/>
+      <c r="H63" s="32"/>
+      <c r="I63" s="32"/>
+      <c r="J63" s="39"/>
+      <c r="K63" s="32"/>
+      <c r="L63" s="36"/>
+      <c r="M63" s="32"/>
+      <c r="N63" s="32"/>
+      <c r="O63" s="36"/>
+      <c r="P63" s="36"/>
+      <c r="Q63" s="33"/>
+      <c r="R63" s="37"/>
+      <c r="S63" s="20"/>
+      <c r="T63" s="32"/>
+      <c r="U63" s="15"/>
+      <c r="V63" s="32"/>
+    </row>
+    <row r="64" spans="2:22">
+      <c r="B64" s="32"/>
+      <c r="D64" s="32"/>
+      <c r="E64" s="32"/>
+      <c r="F64" s="32"/>
+      <c r="G64" s="32"/>
+      <c r="H64" s="32"/>
+      <c r="I64" s="32"/>
+      <c r="J64" s="20"/>
+      <c r="K64" s="32"/>
+      <c r="L64" s="36"/>
+      <c r="M64" s="32"/>
+      <c r="N64" s="32"/>
+      <c r="O64" s="36"/>
+      <c r="P64" s="36"/>
+      <c r="Q64" s="33"/>
+      <c r="R64" s="37"/>
+      <c r="S64" s="20"/>
+      <c r="T64" s="32"/>
+      <c r="U64" s="15"/>
+      <c r="V64" s="32"/>
+    </row>
+    <row r="65" spans="2:22">
+      <c r="B65" s="32"/>
+      <c r="C65" s="32"/>
+      <c r="D65" s="32"/>
+      <c r="E65" s="32"/>
+      <c r="F65" s="32"/>
+      <c r="G65" s="32"/>
+      <c r="H65" s="32"/>
+      <c r="I65" s="32"/>
+      <c r="K65" s="32"/>
+      <c r="M65" s="32"/>
+      <c r="N65" s="32"/>
+      <c r="R65" s="33"/>
+      <c r="T65" s="32"/>
+      <c r="V65" s="32"/>
+    </row>
+    <row r="66" spans="2:22">
+      <c r="B66" s="15"/>
+      <c r="C66" s="32"/>
+      <c r="D66" s="35"/>
+      <c r="E66" s="15"/>
+      <c r="F66" s="14"/>
+      <c r="G66" s="14"/>
+      <c r="H66" s="15"/>
+      <c r="I66" s="16"/>
+      <c r="J66" s="32"/>
+      <c r="K66" s="35"/>
+      <c r="L66" s="32"/>
+      <c r="M66" s="35"/>
+      <c r="N66" s="35"/>
+      <c r="O66" s="32"/>
+      <c r="P66" s="32"/>
+      <c r="Q66" s="32"/>
+      <c r="R66" s="33"/>
+      <c r="S66" s="32"/>
+      <c r="T66" s="15"/>
+      <c r="U66" s="32"/>
+      <c r="V66" s="15"/>
+    </row>
+    <row r="67" spans="2:22">
+      <c r="B67" s="15"/>
+      <c r="C67" s="32"/>
+      <c r="D67" s="35"/>
+      <c r="E67" s="15"/>
+      <c r="F67" s="14"/>
+      <c r="G67" s="14"/>
+      <c r="H67" s="15"/>
+      <c r="I67" s="16"/>
+      <c r="J67" s="32"/>
+      <c r="K67" s="35"/>
+      <c r="L67" s="32"/>
+      <c r="M67" s="35"/>
+      <c r="N67" s="35"/>
+      <c r="O67" s="32"/>
+      <c r="P67" s="32"/>
+      <c r="Q67" s="32"/>
+      <c r="S67" s="32"/>
+      <c r="T67" s="15"/>
+      <c r="U67" s="32"/>
+      <c r="V67" s="15"/>
+    </row>
+    <row r="68" spans="2:22">
+      <c r="B68" s="15"/>
+      <c r="C68" s="32"/>
+      <c r="D68" s="35"/>
+      <c r="E68" s="15"/>
+      <c r="F68" s="14"/>
+      <c r="G68" s="14"/>
+      <c r="H68" s="15"/>
+      <c r="I68" s="16"/>
+      <c r="J68" s="32"/>
+      <c r="K68" s="35"/>
+      <c r="L68" s="32"/>
+      <c r="M68" s="35"/>
+      <c r="N68" s="35"/>
+      <c r="O68" s="32"/>
+      <c r="P68" s="32"/>
+      <c r="Q68" s="32"/>
+      <c r="R68" s="32"/>
+      <c r="S68" s="32"/>
+      <c r="T68" s="15"/>
+      <c r="U68" s="32"/>
+      <c r="V68" s="15"/>
+    </row>
+    <row r="69" spans="2:22">
+      <c r="C69" s="29"/>
+      <c r="J69" s="29"/>
+      <c r="L69" s="29"/>
+      <c r="O69" s="29"/>
+      <c r="P69" s="29"/>
+      <c r="Q69" s="29"/>
+      <c r="R69" s="29"/>
+      <c r="S69" s="29"/>
+      <c r="U69" s="29"/>
+    </row>
+    <row r="70" spans="2:22">
+      <c r="C70" s="32"/>
+      <c r="J70" s="32"/>
+      <c r="L70" s="32"/>
+      <c r="O70" s="32"/>
+      <c r="P70" s="32"/>
+      <c r="Q70" s="32"/>
+      <c r="R70" s="32"/>
+      <c r="S70" s="32"/>
+      <c r="U70" s="32"/>
+    </row>
+    <row r="71" spans="2:22">
+      <c r="C71" s="32"/>
+      <c r="J71" s="32"/>
+      <c r="L71" s="32"/>
+      <c r="O71" s="32"/>
+      <c r="P71" s="32"/>
+      <c r="Q71" s="32"/>
+      <c r="R71" s="32"/>
+      <c r="S71" s="32"/>
+      <c r="U71" s="32"/>
+    </row>
+    <row r="72" spans="2:22">
+      <c r="C72" s="16"/>
+      <c r="J72" s="32"/>
+      <c r="L72" s="32"/>
+      <c r="O72" s="32"/>
+      <c r="P72" s="32"/>
+      <c r="Q72" s="32"/>
+      <c r="R72" s="32"/>
+      <c r="S72" s="32"/>
+      <c r="U72" s="32"/>
+    </row>
+    <row r="73" spans="2:22">
+      <c r="C73" s="16"/>
+      <c r="J73" s="15"/>
+      <c r="L73" s="35"/>
+      <c r="O73" s="35"/>
+      <c r="P73" s="35"/>
+      <c r="Q73" s="36"/>
+      <c r="R73" s="34"/>
+      <c r="S73" s="37"/>
+      <c r="U73" s="20"/>
+    </row>
+    <row r="74" spans="2:22">
+      <c r="C74" s="16"/>
+      <c r="J74" s="15"/>
+      <c r="L74" s="35"/>
+      <c r="O74" s="35"/>
+      <c r="P74" s="35"/>
+      <c r="Q74" s="36"/>
+      <c r="R74" s="34"/>
+      <c r="S74" s="37"/>
+      <c r="U74" s="20"/>
+    </row>
+    <row r="75" spans="2:22">
+      <c r="J75" s="15"/>
+      <c r="L75" s="35"/>
+      <c r="O75" s="35"/>
+      <c r="P75" s="35"/>
+      <c r="Q75" s="36"/>
+      <c r="R75" s="34"/>
+      <c r="S75" s="37"/>
+      <c r="U75" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -22400,8 +23368,8 @@
     <mergeCell ref="E6:I6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="Q6:Q49">
-    <cfRule type="dataBar" priority="1623">
+  <conditionalFormatting sqref="Q6:Q57">
+    <cfRule type="dataBar" priority="1687">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -22409,13 +23377,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6626763f-1332-3fc1-6626-763f13323fc1}</x14:id>
+          <x14:id>{5616462f-233f-1131-5616-462f233f1131}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q25">
-    <cfRule type="dataBar" priority="1326">
+    <cfRule type="dataBar" priority="1330">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -22423,7 +23391,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{e2a2f2bb-97b6-b485-e2a2-f2bb97b6b485}</x14:id>
+          <x14:id>{d292c28b-a784-94b5-d292-c28ba78494b5}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -22437,7 +23405,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6e2e7e37-1b3a-3859-6e2e-7e371b3a3859}</x14:id>
+          <x14:id>{6e2e7e37-1b38-18f9-6e2e-7e371b3818f9}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -22451,13 +23419,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{eaaafab3-9fbe-bc8d-eaaa-fab39fbebc8d}</x14:id>
+          <x14:id>{eaaafab3-9fbc-9c8d-eaaa-fab39fbc9c8d}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q34">
-    <cfRule type="dataBar" priority="1585">
+    <cfRule type="dataBar" priority="1605">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -22465,13 +23433,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7636662f-0322-3e11-7636-662f03223e11}</x14:id>
+          <x14:id>{82c292db-f7d4-d4e5-82c2-92dbf7d4d4e5}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q34">
-    <cfRule type="dataBar" priority="1577">
+    <cfRule type="dataBar" priority="1593">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -22479,7 +23447,21 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{f2b2e2ab-87a6-b495-f2b2-e2ab87a6b495}</x14:id>
+          <x14:id>{1646165f-7356-5c61-1646-165f73565c61}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q35">
+    <cfRule type="dataBar" priority="1581">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{8aca9ad3-ffdc-dced-8aca-9ad3ffdcdced}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -22493,13 +23475,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7e3e6e27-9b2a-3819-7e3e-6e279b2a3819}</x14:id>
+          <x14:id>{8e4e1e57-7b58-5869-8e4e-1e577b585869}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q35">
-    <cfRule type="dataBar" priority="1561">
+  <conditionalFormatting sqref="Q36">
+    <cfRule type="dataBar" priority="1557">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -22507,21 +23489,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{fabaeaa3-8fae-bc9d-faba-eaa38faebc9d}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q36">
-    <cfRule type="dataBar" priority="1553">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4626561f-3312-3921-4626-561f33123921}</x14:id>
+          <x14:id>{92d282cb-e7c4-d4f5-92d2-82cbe7c4d4f5}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -22535,7 +23503,371 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{c282d29b-b796-b4a5-c282-d29bb796b4a5}</x14:id>
+          <x14:id>{1656b64f-6347-5d71-1656-b64f63475d71}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q54">
+    <cfRule type="dataBar" priority="1639">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9ada8ac3-efcc-dcfd-9ada-8ac3efccdcfd}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q54">
+    <cfRule type="dataBar" priority="1635">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{1e5e2e47-6b48-5879-1e5e-2e476b485879}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q56">
+    <cfRule type="dataBar" priority="1631">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{a2e2b2fb-d7f4-d4c5-a2e2-b2fbd7f4d4c5}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q56">
+    <cfRule type="dataBar" priority="1625">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{2666367f-5370-5a41-2666-367f53705a41}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q58">
+    <cfRule type="dataBar" priority="1659">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{21613178-5475-7746-2161-317854757746}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q58">
+    <cfRule type="dataBar" priority="1657">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{a5e5b5fc-d5f1-f3c2-a5e5-b5fcd5f1f3c2}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q57">
+    <cfRule type="dataBar" priority="1655">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{29693971-5c7d-7f4e-2969-39715c7d7f4e}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q58">
+    <cfRule type="dataBar" priority="1653">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{adedbdf4-d8f9-fbca-aded-bdf4d8f9fbca}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q58">
+    <cfRule type="dataBar" priority="1627">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{31712168-4465-7756-3171-216844657756}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q58">
+    <cfRule type="dataBar" priority="1623">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{b5f5a5ec-c4e1-f3d2-b5f5-a5ecc4e1f3d2}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q41">
+    <cfRule type="dataBar" priority="1687">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{39792960-4c6d-7f5e-3979-29604c6d7f5e}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q41">
+    <cfRule type="dataBar" priority="1687">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{bdfdade4-c8e9-fbda-bdfd-ade4c8e9fbda}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q50">
+    <cfRule type="dataBar" priority="1687">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{71411158-7455-7766-7141-115874557766}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q50">
+    <cfRule type="dataBar" priority="1687">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{85c595dc-f3d1-f3e2-85c5-95dcf3d1f3e2}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q49">
+    <cfRule type="dataBar" priority="1687">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{edadfdb4-98b9-bb8a-edad-fdb498b9bb8a}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q49">
+    <cfRule type="dataBar" priority="1687">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{6929793d-1c3d-3f9e-6929-793d1c3d3f9e}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q48">
+    <cfRule type="dataBar" priority="1687">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{e5a5f5bc-99b1-b382-e5a5-f5bc99b1b382}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q48">
+    <cfRule type="dataBar" priority="1687">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{61217138-1435-3706-6121-713814353706}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q47">
+    <cfRule type="dataBar" priority="1687">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{fdbdeda4-88a9-bb9a-fdbd-eda488a9bb9a}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q47">
+    <cfRule type="dataBar" priority="1687">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7939692c-5c2d-3f1e-7939-692c5c2d3f1e}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q46">
+    <cfRule type="dataBar" priority="1687">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{f5b5e5ac-88a1-b392-f5b5-e5ac88a1b392}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q46">
+    <cfRule type="dataBar" priority="1687">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{71316128-c425-3716-7131-6128c4253716}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q45">
+    <cfRule type="dataBar" priority="1687">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{cd8ddd94-b899-bbaa-cd8d-dd94b899bbaa}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q45">
+    <cfRule type="dataBar" priority="1687">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{4979591b-3c1d-3f2e-4979-591b3c1d3f2e}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q44">
+    <cfRule type="dataBar" priority="1687">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{a8e8b8f1-ddfc-fecf-a8e8-b8f1ddfcfecf}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q44">
+    <cfRule type="dataBar" priority="1687">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{2c6c3c75-5978-7a4b-2c6c-3c7559787a4b}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -22548,7 +23880,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6626763f-1332-3fc1-6626-763f13323fc1}">
+          <x14:cfRule type="dataBar" id="{5616462f-233f-1131-5616-462f233f1131}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -22559,7 +23891,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{e2a2f2bb-97b6-b485-e2a2-f2bb97b6b485}">
+          <x14:cfRule type="dataBar" id="{d292c28b-a784-94b5-d292-c28ba78494b5}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -22570,7 +23902,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6e2e7e37-1b3a-3859-6e2e-7e371b3a3859}">
+          <x14:cfRule type="dataBar" id="{6e2e7e37-1b38-18f9-6e2e-7e371b3818f9}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -22581,7 +23913,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{eaaafab3-9fbe-bc8d-eaaa-fab39fbebc8d}">
+          <x14:cfRule type="dataBar" id="{eaaafab3-9fbc-9c8d-eaaa-fab39fbc9c8d}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -22592,7 +23924,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7636662f-0322-3e11-7636-662f03223e11}">
+          <x14:cfRule type="dataBar" id="{82c292db-f7d4-d4e5-82c2-92dbf7d4d4e5}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -22603,7 +23935,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{f2b2e2ab-87a6-b495-f2b2-e2ab87a6b495}">
+          <x14:cfRule type="dataBar" id="{1646165f-7356-5c61-1646-165f73565c61}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -22614,7 +23946,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7e3e6e27-9b2a-3819-7e3e-6e279b2a3819}">
+          <x14:cfRule type="dataBar" id="{8aca9ad3-ffdc-dced-8aca-9ad3ffdcdced}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -22625,7 +23957,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{fabaeaa3-8fae-bc9d-faba-eaa38faebc9d}">
+          <x14:cfRule type="dataBar" id="{8e4e1e57-7b58-5869-8e4e-1e577b585869}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -22636,7 +23968,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4626561f-3312-3921-4626-561f33123921}">
+          <x14:cfRule type="dataBar" id="{92d282cb-e7c4-d4f5-92d2-82cbe7c4d4f5}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -22647,7 +23979,293 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{c282d29b-b796-b4a5-c282-d29bb796b4a5}">
+          <x14:cfRule type="dataBar" id="{1656b64f-6347-5d71-1656-b64f63475d71}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF000000"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{9ada8ac3-efcc-dcfd-9ada-8ac3efccdcfd}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF000000"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{1e5e2e47-6b48-5879-1e5e-2e476b485879}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF000000"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{a2e2b2fb-d7f4-d4c5-a2e2-b2fbd7f4d4c5}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF000000"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{2666367f-5370-5a41-2666-367f53705a41}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF000000"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{21613178-5475-7746-2161-317854757746}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF000000"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{a5e5b5fc-d5f1-f3c2-a5e5-b5fcd5f1f3c2}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF000000"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{29693971-5c7d-7f4e-2969-39715c7d7f4e}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF000000"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{adedbdf4-d8f9-fbca-aded-bdf4d8f9fbca}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF000000"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{31712168-4465-7756-3171-216844657756}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF000000"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{b5f5a5ec-c4e1-f3d2-b5f5-a5ecc4e1f3d2}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF000000"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{39792960-4c6d-7f5e-3979-29604c6d7f5e}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF000000"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{bdfdade4-c8e9-fbda-bdfd-ade4c8e9fbda}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF000000"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{71411158-7455-7766-7141-115874557766}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF000000"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{85c595dc-f3d1-f3e2-85c5-95dcf3d1f3e2}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF000000"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{edadfdb4-98b9-bb8a-edad-fdb498b9bb8a}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF000000"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{6929793d-1c3d-3f9e-6929-793d1c3d3f9e}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF000000"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{e5a5f5bc-99b1-b382-e5a5-f5bc99b1b382}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF000000"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{61217138-1435-3706-6121-713814353706}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF000000"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{fdbdeda4-88a9-bb9a-fdbd-eda488a9bb9a}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF000000"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{7939692c-5c2d-3f1e-7939-692c5c2d3f1e}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF000000"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{f5b5e5ac-88a1-b392-f5b5-e5ac88a1b392}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF000000"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{71316128-c425-3716-7131-6128c4253716}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF000000"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{cd8ddd94-b899-bbaa-cd8d-dd94b899bbaa}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF000000"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{4979591b-3c1d-3f2e-4979-591b3c1d3f2e}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF000000"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{a8e8b8f1-ddfc-fecf-a8e8-b8f1ddfcfecf}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF000000"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{2c6c3c75-5978-7a4b-2c6c-3c7559787a4b}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>

--- a/0.WBS.xlsx
+++ b/0.WBS.xlsx
@@ -14,9 +14,85 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">WBS!$C$19:$S$57</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">WBS!$C$19:$S$56</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">history!$A$1:$H$39</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">WBS!$A$2:$S$57</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">WBS!$A$2:$S$56</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
     <definedName name="DAYS" hidden="1">#NAME?</definedName>
     <definedName name="DAYS" hidden="1">#NAME?</definedName>
     <definedName name="DAYS" hidden="1">#NAME?</definedName>
@@ -955,7 +1031,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="303">
   <si>
     <t>기간</t>
   </si>
@@ -1829,6 +1905,78 @@
   </si>
   <si>
     <t>유저 기능 개발</t>
+  </si>
+  <si>
+    <t>공통기능개발</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filter, Interceptor </t>
+  </si>
+  <si>
+    <t>Request/Response Body 재사용</t>
+  </si>
+  <si>
+    <t>Request/Response Body 재사용되도록 Filter 추가</t>
+  </si>
+  <si>
+    <t>API Call 기본 정보 세팅</t>
+  </si>
+  <si>
+    <t>API Call Log insert(User,Memo,Calender,Routine,Group,ETC)</t>
+  </si>
+  <si>
+    <t>API Call Log insert (User,Memo,Calender,Routine,Group,ETC)</t>
+  </si>
+  <si>
+    <t>API Call Log insert (U/M/C/R/G/E)</t>
+  </si>
+  <si>
+    <t>API Call Body 재사용 기능(Filter)</t>
+  </si>
+  <si>
+    <t>API Call Body 재사용 기능(Filter Wrapper)</t>
+  </si>
+  <si>
+    <t>API Call Log Insert (U/M/C/R/G/E)</t>
+  </si>
+  <si>
+    <t>2024-01-189</t>
+  </si>
+  <si>
+    <t>API Call Log Update</t>
+  </si>
+  <si>
+    <t>API Call Log Insert</t>
+  </si>
+  <si>
+    <t>API 별 로그인 체크 기능</t>
+  </si>
+  <si>
+    <t>API 별 로그인/세션 체크 기능</t>
+  </si>
+  <si>
+    <t>Project 3.3</t>
+  </si>
+  <si>
+    <t>유저기능개발</t>
+  </si>
+  <si>
+    <t>예외처리 기능</t>
+  </si>
+  <si>
+    <t>Project 3.2.3</t>
+  </si>
+  <si>
+    <t>Project 3.2.4</t>
+  </si>
+  <si>
+    <t>Project 3.2.5</t>
+  </si>
+  <si>
+    <t>Project 3.2.6</t>
+  </si>
+  <si>
+    <t>Project 3.3.1</t>
   </si>
 </sst>
 </file>
@@ -2631,7 +2779,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="105">
+  <borders count="109">
     <border>
       <left/>
       <right/>
@@ -3617,22 +3765,6 @@
       </bottom>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -3642,14 +3774,6 @@
       <top style="hair">
         <color auto="1"/>
       </top>
-      <bottom/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
       <bottom/>
     </border>
     <border>
@@ -3678,36 +3802,6 @@
       <top style="hair">
         <color auto="1"/>
       </top>
-      <bottom/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom/>
     </border>
     <border>
@@ -3794,6 +3888,128 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="2919">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -12554,7 +12770,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="418">
+  <cellXfs count="541">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -13701,113 +13917,482 @@
     <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="10" borderId="86" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="10" borderId="82" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="10" borderId="86" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="49" fillId="10" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="10" borderId="87" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="10" borderId="87" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="10" borderId="88" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="49" fillId="10" borderId="89" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="50" fillId="10" borderId="88" xfId="964" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="50" fillId="10" borderId="88" xfId="963" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="50" fillId="10" borderId="88" xfId="962" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="50" fillId="10" borderId="88" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="10" borderId="89" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="49" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="10" borderId="90" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="10" borderId="90" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="10" borderId="0" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="50" fillId="10" borderId="0" xfId="964" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="50" fillId="10" borderId="0" xfId="963" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="50" fillId="10" borderId="0" xfId="962" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="50" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="64" fontId="40" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="14" borderId="90" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="16" borderId="91" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="50" fillId="10" borderId="91" xfId="964" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="16" borderId="92" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="49" fillId="16" borderId="93" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="16" borderId="91" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="22" borderId="94" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="50" fillId="16" borderId="95" xfId="964" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="50" fillId="10" borderId="91" xfId="963" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="50" fillId="16" borderId="95" xfId="963" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="50" fillId="10" borderId="91" xfId="962" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="50" fillId="22" borderId="95" xfId="962" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="50" fillId="10" borderId="91" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="10" borderId="92" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="50" fillId="22" borderId="95" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="64" fontId="40" fillId="13" borderId="94" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="16" borderId="96" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="14" borderId="93" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="10" borderId="93" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="22" borderId="97" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="22" borderId="98" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="22" borderId="97" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="10" borderId="93" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="49" fillId="10" borderId="94" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="22" borderId="98" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="10" borderId="95" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="10" borderId="95" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="19" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="19" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="19" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="19" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="19" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="19" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="19" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="19" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="19" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="14" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="22" borderId="97" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="22" borderId="98" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="50" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="22" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="14" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="15" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="16" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="50" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="22" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="22" borderId="97" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="22" borderId="98" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="16" borderId="91" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="14" borderId="99" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="14" borderId="100" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="15" borderId="101" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="13" borderId="101" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="9" borderId="101" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="10" borderId="101" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="16" borderId="101" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="50" borderId="101" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="22" borderId="101" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="16" borderId="102" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="16" borderId="103" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="16" borderId="99" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="14" borderId="104" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="14" borderId="105" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="14" borderId="104" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="14" borderId="106" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="14" borderId="105" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="14" borderId="104" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="14" borderId="106" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="14" borderId="105" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="14" borderId="104" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="50" borderId="96" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="50" fillId="10" borderId="97" xfId="964" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="14" borderId="106" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="14" borderId="105" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="9" borderId="97" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="9" borderId="97" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="9" borderId="98" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="9" borderId="97" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="9" borderId="97" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="9" borderId="98" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="9" borderId="97" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="9" borderId="97" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="9" borderId="98" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="10" borderId="97" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="10" borderId="97" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="10" borderId="98" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="10" borderId="97" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="10" borderId="97" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="10" borderId="98" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="16" borderId="97" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="16" borderId="98" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="16" borderId="97" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="16" borderId="98" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="50" borderId="97" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="50" borderId="97" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="50" borderId="98" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="50" borderId="97" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="50" borderId="97" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="50" borderId="98" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="16" borderId="107" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="16" borderId="108" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="10" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="16" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="10" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="16" borderId="91" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="16" borderId="107" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="16" borderId="108" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="50" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="22" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="16" borderId="97" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="16" borderId="98" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="50" fillId="10" borderId="97" xfId="963" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="50" fillId="10" borderId="97" xfId="962" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="14" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="50" fillId="10" borderId="97" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="64" fontId="40" fillId="13" borderId="96" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="10" borderId="97" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="14" borderId="98" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="16" borderId="99" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="16" borderId="100" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="49" fillId="16" borderId="101" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="16" borderId="99" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="76" fillId="22" borderId="102" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="50" fillId="16" borderId="103" xfId="964" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="16" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="50" fillId="16" borderId="103" xfId="963" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="49" fillId="16" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="16" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="22" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="50" fillId="22" borderId="103" xfId="962" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="50" fillId="22" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="50" fillId="22" borderId="103" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="64" fontId="40" fillId="13" borderId="102" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="16" borderId="104" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="64" fontId="40" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="16" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2908">
@@ -16729,13 +17314,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -16747,7 +17332,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="11249025"/>
+          <a:off x="3874770" y="11029950"/>
           <a:ext cx="19050" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -16764,13 +17349,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -16782,7 +17367,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="11249025"/>
+          <a:off x="3874770" y="11029950"/>
           <a:ext cx="19050" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -16799,13 +17384,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>960120</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>960120</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>246380</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -16817,7 +17402,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13645515" y="11506200"/>
+          <a:off x="13602335" y="11287125"/>
           <a:ext cx="0" cy="246380"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -16834,13 +17419,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>960120</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>960120</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>246380</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -16852,7 +17437,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13645515" y="11506200"/>
+          <a:off x="13602335" y="11287125"/>
           <a:ext cx="0" cy="246380"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -16869,13 +17454,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -16887,7 +17472,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="11249025"/>
+          <a:off x="3874770" y="11029950"/>
           <a:ext cx="19050" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -16904,13 +17489,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -16922,7 +17507,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="11249025"/>
+          <a:off x="3874770" y="11029950"/>
           <a:ext cx="19050" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -16939,13 +17524,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -16957,7 +17542,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="11249025"/>
+          <a:off x="3874770" y="11029950"/>
           <a:ext cx="19050" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -16974,13 +17559,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -16992,7 +17577,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="11249025"/>
+          <a:off x="3874770" y="11029950"/>
           <a:ext cx="19050" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -17009,13 +17594,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -17027,7 +17612,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="11249025"/>
+          <a:off x="3874770" y="11029950"/>
           <a:ext cx="19050" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -17044,13 +17629,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>960120</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>960120</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>246380</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -17062,7 +17647,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13645515" y="11506200"/>
+          <a:off x="13602335" y="11287125"/>
           <a:ext cx="0" cy="246380"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -17079,13 +17664,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>960120</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>960120</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>246380</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -17097,7 +17682,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13645515" y="11506200"/>
+          <a:off x="13602335" y="11287125"/>
           <a:ext cx="0" cy="246380"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -17114,13 +17699,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -17132,7 +17717,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="11249025"/>
+          <a:off x="3874770" y="11029950"/>
           <a:ext cx="19050" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -17149,13 +17734,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -17167,7 +17752,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="11249025"/>
+          <a:off x="3874770" y="11029950"/>
           <a:ext cx="19050" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -17184,13 +17769,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -17202,7 +17787,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="11249025"/>
+          <a:off x="3874770" y="11029950"/>
           <a:ext cx="19050" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -17219,13 +17804,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -17237,7 +17822,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="11249025"/>
+          <a:off x="3874770" y="11029950"/>
           <a:ext cx="19050" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -17254,13 +17839,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -17272,7 +17857,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="11249025"/>
+          <a:off x="3874770" y="11029950"/>
           <a:ext cx="19050" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -17289,13 +17874,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -17307,7 +17892,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="11249025"/>
+          <a:off x="3874770" y="11029950"/>
           <a:ext cx="19050" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -17324,13 +17909,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -17342,7 +17927,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="11249025"/>
+          <a:off x="3874770" y="11029950"/>
           <a:ext cx="19050" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -17359,13 +17944,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -17377,7 +17962,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="11249025"/>
+          <a:off x="3874770" y="11029950"/>
           <a:ext cx="19050" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -17394,13 +17979,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -17412,7 +17997,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="11249025"/>
+          <a:off x="3874770" y="11029950"/>
           <a:ext cx="19050" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -17429,13 +18014,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -17447,7 +18032,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="11249025"/>
+          <a:off x="3874770" y="11029950"/>
           <a:ext cx="19050" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -17464,13 +18049,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -17482,7 +18067,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="11249025"/>
+          <a:off x="3874770" y="11029950"/>
           <a:ext cx="19050" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -17499,13 +18084,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -17517,7 +18102,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="11249025"/>
+          <a:off x="3874770" y="11029950"/>
           <a:ext cx="19050" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -17534,13 +18119,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -17552,7 +18137,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="11249025"/>
+          <a:off x="3874770" y="11029950"/>
           <a:ext cx="19050" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -17569,13 +18154,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>960120</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>960120</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>246380</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -17587,7 +18172,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13645515" y="11506200"/>
+          <a:off x="13602335" y="11287125"/>
           <a:ext cx="0" cy="246380"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -17604,13 +18189,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>960120</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>960120</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>246380</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -17622,7 +18207,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13645515" y="11506200"/>
+          <a:off x="13602335" y="11287125"/>
           <a:ext cx="0" cy="246380"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -17639,13 +18224,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -17657,7 +18242,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="11249025"/>
+          <a:off x="3874770" y="11029950"/>
           <a:ext cx="19050" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -17674,13 +18259,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -17692,7 +18277,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="11249025"/>
+          <a:off x="3874770" y="11029950"/>
           <a:ext cx="19050" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -17709,13 +18294,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -17727,7 +18312,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="11249025"/>
+          <a:off x="3874770" y="11029950"/>
           <a:ext cx="19050" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -17744,13 +18329,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -17762,7 +18347,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="11249025"/>
+          <a:off x="3874770" y="11029950"/>
           <a:ext cx="19050" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -17779,13 +18364,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -17797,7 +18382,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="11249025"/>
+          <a:off x="3874770" y="11029950"/>
           <a:ext cx="19050" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -17814,13 +18399,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -17832,7 +18417,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="11249025"/>
+          <a:off x="3874770" y="11029950"/>
           <a:ext cx="19050" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -17849,13 +18434,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -17867,7 +18452,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="11249025"/>
+          <a:off x="3874770" y="11029950"/>
           <a:ext cx="19050" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -17884,13 +18469,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -17902,7 +18487,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="11249025"/>
+          <a:off x="3874770" y="11029950"/>
           <a:ext cx="19050" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -17919,13 +18504,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -17937,7 +18522,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="11249025"/>
+          <a:off x="3874770" y="11029950"/>
           <a:ext cx="19050" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -17954,13 +18539,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>960120</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>960120</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>246380</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -17972,7 +18557,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13645515" y="11506200"/>
+          <a:off x="13602335" y="11287125"/>
           <a:ext cx="0" cy="246380"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -17989,13 +18574,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>960120</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>960120</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>246380</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -18007,7 +18592,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13645515" y="11506200"/>
+          <a:off x="13602335" y="11287125"/>
           <a:ext cx="0" cy="246380"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -18024,13 +18609,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -18042,7 +18627,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="11249025"/>
+          <a:off x="3874770" y="11029950"/>
           <a:ext cx="19050" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -18059,13 +18644,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -18077,7 +18662,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="11249025"/>
+          <a:off x="3874770" y="11029950"/>
           <a:ext cx="19050" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -18094,13 +18679,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -18112,7 +18697,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="11249025"/>
+          <a:off x="3874770" y="11029950"/>
           <a:ext cx="19050" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -18129,13 +18714,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -18147,7 +18732,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="11249025"/>
+          <a:off x="3874770" y="11029950"/>
           <a:ext cx="19050" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -18164,13 +18749,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -18182,7 +18767,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="11249025"/>
+          <a:off x="3874770" y="11029950"/>
           <a:ext cx="19050" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -18199,13 +18784,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>960120</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>960120</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>246380</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -18217,7 +18802,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13645515" y="11506200"/>
+          <a:off x="13602335" y="11287125"/>
           <a:ext cx="0" cy="246380"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -18234,13 +18819,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>960120</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>960120</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>246380</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -18252,7 +18837,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13645515" y="11506200"/>
+          <a:off x="13602335" y="11287125"/>
           <a:ext cx="0" cy="246380"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -18269,13 +18854,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -18287,7 +18872,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="11249025"/>
+          <a:off x="3874770" y="11029950"/>
           <a:ext cx="19050" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -18304,13 +18889,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -18322,7 +18907,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="11249025"/>
+          <a:off x="3874770" y="11029950"/>
           <a:ext cx="19050" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -18339,13 +18924,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -18357,7 +18942,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="11249025"/>
+          <a:off x="3874770" y="11029950"/>
           <a:ext cx="19050" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -18374,13 +18959,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -18392,7 +18977,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="11249025"/>
+          <a:off x="3874770" y="11029950"/>
           <a:ext cx="19050" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -18409,13 +18994,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -18427,7 +19012,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="11249025"/>
+          <a:off x="3874770" y="11029950"/>
           <a:ext cx="19050" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -18444,13 +19029,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -18462,7 +19047,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="11249025"/>
+          <a:off x="3874770" y="11029950"/>
           <a:ext cx="19050" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -18479,13 +19064,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -18497,7 +19082,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="11249025"/>
+          <a:off x="3874770" y="11029950"/>
           <a:ext cx="19050" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -18514,13 +19099,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -18532,7 +19117,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="11249025"/>
+          <a:off x="3874770" y="11029950"/>
           <a:ext cx="19050" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -18549,13 +19134,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -18567,7 +19152,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="11249025"/>
+          <a:off x="3874770" y="11029950"/>
           <a:ext cx="19050" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -18584,13 +19169,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -18602,7 +19187,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="11249025"/>
+          <a:off x="3874770" y="11029950"/>
           <a:ext cx="19050" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -18619,13 +19204,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -18637,7 +19222,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="11249025"/>
+          <a:off x="3874770" y="11029950"/>
           <a:ext cx="19050" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -18654,13 +19239,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -18672,7 +19257,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="11249025"/>
+          <a:off x="3874770" y="11029950"/>
           <a:ext cx="19050" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -18689,13 +19274,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -18707,7 +19292,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="11249025"/>
+          <a:off x="3874770" y="11029950"/>
           <a:ext cx="19050" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -18724,13 +19309,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>960120</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>960120</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>246380</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -18742,7 +19327,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13645515" y="11506200"/>
+          <a:off x="13602335" y="11287125"/>
           <a:ext cx="0" cy="246380"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -18759,13 +19344,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>960120</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>960120</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>246380</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -18777,7 +19362,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13645515" y="11506200"/>
+          <a:off x="13602335" y="11287125"/>
           <a:ext cx="0" cy="246380"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -18794,13 +19379,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -18812,7 +19397,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="11249025"/>
+          <a:off x="3874770" y="11029950"/>
           <a:ext cx="19050" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -18829,13 +19414,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -18847,7 +19432,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="11249025"/>
+          <a:off x="3874770" y="11029950"/>
           <a:ext cx="19050" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -18864,13 +19449,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -18882,7 +19467,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="11249025"/>
+          <a:off x="3874770" y="11029950"/>
           <a:ext cx="19050" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -18899,13 +19484,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -18917,7 +19502,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="11249025"/>
+          <a:off x="3874770" y="11029950"/>
           <a:ext cx="19050" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -18934,13 +19519,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -18952,7 +19537,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="11249025"/>
+          <a:off x="3874770" y="11029950"/>
           <a:ext cx="19050" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -18969,13 +19554,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -18987,7 +19572,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="11249025"/>
+          <a:off x="3874770" y="11029950"/>
           <a:ext cx="19050" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -19004,13 +19589,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -19022,7 +19607,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3874770" y="11249025"/>
+          <a:off x="3874770" y="11029950"/>
           <a:ext cx="19050" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -20275,14 +20860,14 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:AD75"/>
+  <dimension ref="B2:AD72"/>
   <sheetViews>
     <sheetView topLeftCell="A2" showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="9" ySplit="5" topLeftCell="J37" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="5" topLeftCell="J34" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="J2" sqref="J2"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="K43" sqref="K43"/>
+      <selection pane="bottomRight" activeCell="O47" sqref="O47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14062500" defaultRowHeight="13.500000" outlineLevelRow="3"/>
@@ -20294,7 +20879,7 @@
     <col min="5" max="5" style="15" width="4.71928583" customWidth="1" outlineLevel="0"/>
     <col min="6" max="7" style="14" width="4.14785705" customWidth="1" outlineLevel="0"/>
     <col min="8" max="8" style="15" width="4.14785705" customWidth="1" outlineLevel="0"/>
-    <col min="9" max="9" style="16" width="27.43357168" customWidth="1" outlineLevel="0"/>
+    <col min="9" max="9" style="16" width="26.71928488" customWidth="1" outlineLevel="0"/>
     <col min="10" max="10" style="15" width="6.71928583" customWidth="1" outlineLevel="0"/>
     <col min="11" max="11" style="35" width="18.29071508" customWidth="1" outlineLevel="0"/>
     <col min="12" max="12" style="35" width="17.86214338" customWidth="1" outlineLevel="0"/>
@@ -20343,7 +20928,7 @@
       <c r="U2" s="19"/>
       <c r="V2" s="15"/>
     </row>
-    <row r="3" spans="2:30" s="10" customFormat="1" ht="14.400000">
+    <row r="3" spans="2:30" s="10" customFormat="1" ht="14.400000" customHeight="1">
       <c r="B3" s="241" t="s">
         <v>20</v>
       </c>
@@ -20353,13 +20938,13 @@
       <c r="D3" s="245" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="248" t="s">
+      <c r="E3" s="419" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="249"/>
-      <c r="G3" s="249"/>
-      <c r="H3" s="249"/>
-      <c r="I3" s="250"/>
+      <c r="F3" s="420"/>
+      <c r="G3" s="420"/>
+      <c r="H3" s="420"/>
+      <c r="I3" s="421"/>
       <c r="J3" s="237" t="s">
         <v>49</v>
       </c>
@@ -20378,15 +20963,15 @@
       </c>
       <c r="U3" s="11"/>
     </row>
-    <row r="4" spans="2:30" s="10" customFormat="1" ht="14.400000">
+    <row r="4" spans="2:30" s="10" customFormat="1" ht="14.400000" customHeight="1">
       <c r="B4" s="242"/>
       <c r="C4" s="234"/>
       <c r="D4" s="246"/>
-      <c r="E4" s="251"/>
-      <c r="F4" s="252"/>
-      <c r="G4" s="252"/>
-      <c r="H4" s="252"/>
-      <c r="I4" s="253"/>
+      <c r="E4" s="422"/>
+      <c r="F4" s="423"/>
+      <c r="G4" s="423"/>
+      <c r="H4" s="423"/>
+      <c r="I4" s="424"/>
       <c r="J4" s="239"/>
       <c r="K4" s="231"/>
       <c r="L4" s="231"/>
@@ -20399,15 +20984,15 @@
       <c r="S4" s="234"/>
       <c r="U4" s="11"/>
     </row>
-    <row r="5" spans="2:30" s="12" customFormat="1" ht="24.750000">
+    <row r="5" spans="2:30" s="12" customFormat="1" ht="24.750000" customHeight="1">
       <c r="B5" s="243"/>
       <c r="C5" s="235"/>
       <c r="D5" s="247"/>
-      <c r="E5" s="254"/>
-      <c r="F5" s="255"/>
-      <c r="G5" s="255"/>
-      <c r="H5" s="255"/>
-      <c r="I5" s="256"/>
+      <c r="E5" s="425"/>
+      <c r="F5" s="426"/>
+      <c r="G5" s="426"/>
+      <c r="H5" s="426"/>
+      <c r="I5" s="427"/>
       <c r="J5" s="68" t="s">
         <v>0</v>
       </c>
@@ -20449,13 +21034,13 @@
         <f>IF(COUNTBLANK(E6:I6)&lt;5,IF(E6&lt;&gt;"",0,IF(F6&lt;&gt;"",1,IF(G6&lt;&gt;"",2,IF(H6&lt;&gt;"",3,IF(I6&lt;&gt;"",4))))),"")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="236" t="s">
+      <c r="E6" s="482" t="s">
         <v>140</v>
       </c>
-      <c r="F6" s="236"/>
-      <c r="G6" s="236"/>
-      <c r="H6" s="236"/>
-      <c r="I6" s="236"/>
+      <c r="F6" s="483"/>
+      <c r="G6" s="483"/>
+      <c r="H6" s="483"/>
+      <c r="I6" s="484"/>
       <c r="J6" s="78" t="str">
         <f>CONCATENATE(_xlfn.DAYS(L6,K6),"일")</f>
         <v>118일</v>
@@ -20482,7 +21067,7 @@
       </c>
       <c r="R6" s="378">
         <f ca="1">IF(Q6=100%,0,IF(_xlfn.DAYS(L6,TODAY())=0,0,_xlfn.DAYS(L6,TODAY())))</f>
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="S6" s="379"/>
       <c r="U6" s="22"/>
@@ -21136,12 +21721,12 @@
         <v>1</v>
       </c>
       <c r="E19" s="138"/>
-      <c r="F19" s="139" t="s">
+      <c r="F19" s="491" t="s">
         <v>154</v>
       </c>
-      <c r="G19" s="139"/>
-      <c r="H19" s="140"/>
-      <c r="I19" s="140"/>
+      <c r="G19" s="491"/>
+      <c r="H19" s="492"/>
+      <c r="I19" s="493"/>
       <c r="J19" s="368" t="str">
         <f>CONCATENATE(_xlfn.DAYS(L19,K19),"일")</f>
         <v>9일</v>
@@ -21194,11 +21779,11 @@
       </c>
       <c r="E20" s="154"/>
       <c r="F20" s="155"/>
-      <c r="G20" s="155" t="s">
+      <c r="G20" s="497" t="s">
         <v>155</v>
       </c>
-      <c r="H20" s="152"/>
-      <c r="I20" s="152"/>
+      <c r="H20" s="498"/>
+      <c r="I20" s="499"/>
       <c r="J20" s="377" t="str">
         <f>CONCATENATE(_xlfn.DAYS(L20,K20),"일")</f>
         <v>1일</v>
@@ -21249,10 +21834,10 @@
       <c r="E21" s="167"/>
       <c r="F21" s="168"/>
       <c r="G21" s="168"/>
-      <c r="H21" s="165" t="s">
+      <c r="H21" s="502" t="s">
         <v>150</v>
       </c>
-      <c r="I21" s="165"/>
+      <c r="I21" s="503"/>
       <c r="J21" s="365" t="str">
         <f>CONCATENATE(_xlfn.DAYS(L21,K21),"일")</f>
         <v>1일</v>
@@ -21305,10 +21890,10 @@
       <c r="E22" s="167"/>
       <c r="F22" s="168"/>
       <c r="G22" s="168"/>
-      <c r="H22" s="165" t="s">
+      <c r="H22" s="502" t="s">
         <v>157</v>
       </c>
-      <c r="I22" s="165"/>
+      <c r="I22" s="503"/>
       <c r="J22" s="365" t="str">
         <f>CONCATENATE(_xlfn.DAYS(L22,K22),"일")</f>
         <v>1일</v>
@@ -21359,11 +21944,11 @@
       </c>
       <c r="E23" s="302"/>
       <c r="F23" s="303"/>
-      <c r="G23" s="303" t="s">
+      <c r="G23" s="507" t="s">
         <v>188</v>
       </c>
-      <c r="H23" s="300"/>
-      <c r="I23" s="300"/>
+      <c r="H23" s="508"/>
+      <c r="I23" s="509"/>
       <c r="J23" s="377" t="str">
         <f>CONCATENATE(_xlfn.DAYS(L23,K23),"일")</f>
         <v>3일</v>
@@ -21414,10 +21999,10 @@
       <c r="E24" s="167"/>
       <c r="F24" s="168"/>
       <c r="G24" s="168"/>
-      <c r="H24" s="165" t="s">
+      <c r="H24" s="502" t="s">
         <v>156</v>
       </c>
-      <c r="I24" s="165"/>
+      <c r="I24" s="503"/>
       <c r="J24" s="365" t="str">
         <f>CONCATENATE(_xlfn.DAYS(L24,K24),"일")</f>
         <v>1일</v>
@@ -21467,10 +22052,10 @@
       <c r="E25" s="167"/>
       <c r="F25" s="168"/>
       <c r="G25" s="168"/>
-      <c r="H25" s="165" t="s">
+      <c r="H25" s="502" t="s">
         <v>172</v>
       </c>
-      <c r="I25" s="165"/>
+      <c r="I25" s="503"/>
       <c r="J25" s="365" t="str">
         <f>CONCATENATE(_xlfn.DAYS(L25,K25),"일")</f>
         <v>1일</v>
@@ -21520,12 +22105,12 @@
         <v>1</v>
       </c>
       <c r="E26" s="138"/>
-      <c r="F26" s="139" t="s">
+      <c r="F26" s="491" t="s">
         <v>109</v>
       </c>
-      <c r="G26" s="139"/>
-      <c r="H26" s="140"/>
-      <c r="I26" s="140"/>
+      <c r="G26" s="491"/>
+      <c r="H26" s="492"/>
+      <c r="I26" s="493"/>
       <c r="J26" s="368" t="str">
         <f>CONCATENATE(NETWORKDAYS(K26,L26),"일")</f>
         <v>15일</v>
@@ -21575,11 +22160,11 @@
       </c>
       <c r="E27" s="154"/>
       <c r="F27" s="155"/>
-      <c r="G27" s="155" t="s">
+      <c r="G27" s="497" t="s">
         <v>202</v>
       </c>
-      <c r="H27" s="152"/>
-      <c r="I27" s="152"/>
+      <c r="H27" s="498"/>
+      <c r="I27" s="499"/>
       <c r="J27" s="377" t="str">
         <f>CONCATENATE(_xlfn.DAYS(L27,K27),"일")</f>
         <v>0일</v>
@@ -21630,11 +22215,11 @@
       </c>
       <c r="E28" s="154"/>
       <c r="F28" s="155"/>
-      <c r="G28" s="155" t="s">
+      <c r="G28" s="497" t="s">
         <v>146</v>
       </c>
-      <c r="H28" s="152"/>
-      <c r="I28" s="152"/>
+      <c r="H28" s="498"/>
+      <c r="I28" s="499"/>
       <c r="J28" s="377" t="str">
         <f>CONCATENATE(_xlfn.DAYS(L28,K28),"일")</f>
         <v>6일</v>
@@ -21685,10 +22270,10 @@
       <c r="E29" s="167"/>
       <c r="F29" s="168"/>
       <c r="G29" s="316"/>
-      <c r="H29" s="165" t="s">
+      <c r="H29" s="502" t="s">
         <v>207</v>
       </c>
-      <c r="I29" s="165"/>
+      <c r="I29" s="503"/>
       <c r="J29" s="365" t="str">
         <f>CONCATENATE(_xlfn.DAYS(L29,K29),"일")</f>
         <v>0일</v>
@@ -21738,10 +22323,10 @@
       <c r="E30" s="321"/>
       <c r="F30" s="316"/>
       <c r="G30" s="316"/>
-      <c r="H30" s="319" t="s">
+      <c r="H30" s="417" t="s">
         <v>208</v>
       </c>
-      <c r="I30" s="319"/>
+      <c r="I30" s="418"/>
       <c r="J30" s="365" t="str">
         <f>CONCATENATE(_xlfn.DAYS(L30,K30),"일")</f>
         <v>3일</v>
@@ -21778,7 +22363,7 @@
       <c r="U30" s="31"/>
       <c r="V30" s="34"/>
     </row>
-    <row r="31" spans="2:23" s="32" customFormat="1" ht="19.500000">
+    <row r="31" spans="2:23" s="32" customFormat="1" ht="19.500000" customHeight="1">
       <c r="B31" s="88">
         <f>B30+1</f>
         <v>13</v>
@@ -21793,10 +22378,10 @@
       <c r="E31" s="321"/>
       <c r="F31" s="316"/>
       <c r="G31" s="316"/>
-      <c r="H31" s="319" t="s">
+      <c r="H31" s="417" t="s">
         <v>239</v>
       </c>
-      <c r="I31" s="319"/>
+      <c r="I31" s="418"/>
       <c r="J31" s="365" t="str">
         <f>CONCATENATE(_xlfn.DAYS(L31,K31),"일")</f>
         <v>3일</v>
@@ -21831,7 +22416,7 @@
       <c r="U31" s="31"/>
       <c r="V31" s="34"/>
     </row>
-    <row r="32" spans="2:23" s="32" customFormat="1" ht="19.500000">
+    <row r="32" spans="2:23" s="32" customFormat="1" ht="19.500000" customHeight="1">
       <c r="B32" s="88">
         <f>B31+1</f>
         <v>14</v>
@@ -21846,10 +22431,10 @@
       <c r="E32" s="321"/>
       <c r="F32" s="316"/>
       <c r="G32" s="316"/>
-      <c r="H32" s="319" t="s">
+      <c r="H32" s="417" t="s">
         <v>210</v>
       </c>
-      <c r="I32" s="319"/>
+      <c r="I32" s="418"/>
       <c r="J32" s="365" t="str">
         <f>CONCATENATE(_xlfn.DAYS(L32,K32),"일")</f>
         <v>0일</v>
@@ -21897,12 +22482,12 @@
         <v>2</v>
       </c>
       <c r="E33" s="302"/>
-      <c r="F33" s="303"/>
-      <c r="G33" s="303" t="s">
+      <c r="F33" s="518"/>
+      <c r="G33" s="507" t="s">
         <v>147</v>
       </c>
-      <c r="H33" s="300"/>
-      <c r="I33" s="300"/>
+      <c r="H33" s="508"/>
+      <c r="I33" s="509"/>
       <c r="J33" s="377" t="str">
         <f>CONCATENATE(_xlfn.DAYS(L33,K33),"일")</f>
         <v>15일</v>
@@ -21936,7 +22521,7 @@
       <c r="U33" s="31"/>
       <c r="V33" s="34"/>
     </row>
-    <row r="34" spans="2:22" s="32" customFormat="1" ht="19.500000">
+    <row r="34" spans="2:22" s="32" customFormat="1" ht="19.500000" customHeight="1">
       <c r="B34" s="88">
         <f>B33+1</f>
         <v>16</v>
@@ -21949,12 +22534,12 @@
         <v>3</v>
       </c>
       <c r="E34" s="321"/>
-      <c r="F34" s="316"/>
-      <c r="G34" s="316"/>
-      <c r="H34" s="319" t="s">
+      <c r="F34" s="519"/>
+      <c r="G34" s="519"/>
+      <c r="H34" s="417" t="s">
         <v>244</v>
       </c>
-      <c r="I34" s="319"/>
+      <c r="I34" s="418"/>
       <c r="J34" s="365" t="str">
         <f>CONCATENATE(_xlfn.DAYS(L34,K34),"일")</f>
         <v>2일</v>
@@ -21989,7 +22574,7 @@
       <c r="U34" s="31"/>
       <c r="V34" s="34"/>
     </row>
-    <row r="35" spans="2:22" s="32" customFormat="1" ht="19.500000">
+    <row r="35" spans="2:22" s="32" customFormat="1" ht="19.500000" customHeight="1">
       <c r="B35" s="88">
         <f>B34+1</f>
         <v>17</v>
@@ -22002,12 +22587,12 @@
         <v>3</v>
       </c>
       <c r="E35" s="321"/>
-      <c r="F35" s="316"/>
-      <c r="G35" s="316"/>
-      <c r="H35" s="319" t="s">
+      <c r="F35" s="519"/>
+      <c r="G35" s="519"/>
+      <c r="H35" s="417" t="s">
         <v>143</v>
       </c>
-      <c r="I35" s="319"/>
+      <c r="I35" s="418"/>
       <c r="J35" s="365" t="str">
         <f>CONCATENATE(_xlfn.DAYS(L35,K35),"일")</f>
         <v>6일</v>
@@ -22042,7 +22627,7 @@
       <c r="U35" s="31"/>
       <c r="V35" s="34"/>
     </row>
-    <row r="36" spans="2:22" s="32" customFormat="1" ht="19.500000">
+    <row r="36" spans="2:22" s="32" customFormat="1" ht="19.500000" customHeight="1">
       <c r="B36" s="88">
         <f>B35+1</f>
         <v>18</v>
@@ -22055,12 +22640,12 @@
         <v>3</v>
       </c>
       <c r="E36" s="321"/>
-      <c r="F36" s="316"/>
-      <c r="G36" s="316"/>
-      <c r="H36" s="319" t="s">
+      <c r="F36" s="519"/>
+      <c r="G36" s="519"/>
+      <c r="H36" s="417" t="s">
         <v>254</v>
       </c>
-      <c r="I36" s="319"/>
+      <c r="I36" s="418"/>
       <c r="J36" s="365" t="str">
         <f>CONCATENATE(_xlfn.DAYS(L36,K36),"일")</f>
         <v>3일</v>
@@ -22108,12 +22693,12 @@
         <v>1</v>
       </c>
       <c r="E37" s="138"/>
-      <c r="F37" s="139" t="s">
+      <c r="F37" s="491" t="s">
         <v>259</v>
       </c>
-      <c r="G37" s="139"/>
-      <c r="H37" s="140"/>
-      <c r="I37" s="140"/>
+      <c r="G37" s="491"/>
+      <c r="H37" s="492"/>
+      <c r="I37" s="493"/>
       <c r="J37" s="368" t="str">
         <f>CONCATENATE(NETWORKDAYS(K37,L37),"일")</f>
         <v>-32360일</v>
@@ -22156,12 +22741,12 @@
         <v>2</v>
       </c>
       <c r="E38" s="154"/>
-      <c r="F38" s="155"/>
-      <c r="G38" s="155" t="s">
+      <c r="F38" s="512"/>
+      <c r="G38" s="497" t="s">
         <v>264</v>
       </c>
-      <c r="H38" s="152"/>
-      <c r="I38" s="152"/>
+      <c r="H38" s="498"/>
+      <c r="I38" s="499"/>
       <c r="J38" s="377" t="str">
         <f>CONCATENATE(NETWORKDAYS(K38,L38),"일")</f>
         <v>1일</v>
@@ -22208,12 +22793,12 @@
         <v>3</v>
       </c>
       <c r="E39" s="167"/>
-      <c r="F39" s="168"/>
-      <c r="G39" s="168"/>
-      <c r="H39" s="165" t="s">
+      <c r="F39" s="513"/>
+      <c r="G39" s="513"/>
+      <c r="H39" s="502" t="s">
         <v>273</v>
       </c>
-      <c r="I39" s="165"/>
+      <c r="I39" s="503"/>
       <c r="J39" s="365" t="str">
         <f>CONCATENATE(NETWORKDAYS(K39,L39),"일")</f>
         <v>1일</v>
@@ -22246,7 +22831,7 @@
       <c r="U39" s="31"/>
       <c r="V39" s="34"/>
     </row>
-    <row r="40" spans="2:22" s="32" customFormat="1" ht="19.500000">
+    <row r="40" spans="2:22" s="32" customFormat="1" ht="19.500000" customHeight="1">
       <c r="B40" s="88">
         <f>B39+1</f>
         <v>22</v>
@@ -22259,12 +22844,12 @@
         <v>3</v>
       </c>
       <c r="E40" s="167"/>
-      <c r="F40" s="168"/>
-      <c r="G40" s="168"/>
-      <c r="H40" s="165" t="s">
+      <c r="F40" s="513"/>
+      <c r="G40" s="513"/>
+      <c r="H40" s="502" t="s">
         <v>274</v>
       </c>
-      <c r="I40" s="165"/>
+      <c r="I40" s="503"/>
       <c r="J40" s="365" t="str">
         <f>CONCATENATE(NETWORKDAYS(K40,L40),"일")</f>
         <v>1일</v>
@@ -22289,7 +22874,7 @@
         <v>1</v>
       </c>
       <c r="R40" s="314">
-        <f>IF(Q40=100%,0,IF(_xlfn.DAYS(L40,TODAY())=0,0,_xlfn.DAYS(L40,TODAY())))</f>
+        <f ca="1">IF(Q40=100%,0,IF(_xlfn.DAYS(L40,TODAY())=0,0,_xlfn.DAYS(L40,TODAY())))</f>
         <v>0</v>
       </c>
       <c r="S40" s="177"/>
@@ -22297,7 +22882,7 @@
       <c r="U40" s="31"/>
       <c r="V40" s="34"/>
     </row>
-    <row r="41" spans="2:22" s="32" customFormat="1" ht="19.500000">
+    <row r="41" spans="2:22" s="32" customFormat="1" ht="19.500000" customHeight="1">
       <c r="B41" s="88">
         <f>B40+1</f>
         <v>23</v>
@@ -22310,12 +22895,12 @@
         <v>3</v>
       </c>
       <c r="E41" s="167"/>
-      <c r="F41" s="168"/>
-      <c r="G41" s="168"/>
-      <c r="H41" s="165" t="s">
+      <c r="F41" s="513"/>
+      <c r="G41" s="513"/>
+      <c r="H41" s="502" t="s">
         <v>277</v>
       </c>
-      <c r="I41" s="165"/>
+      <c r="I41" s="503"/>
       <c r="J41" s="365" t="str">
         <f>CONCATENATE(NETWORKDAYS(K41,L41),"일")</f>
         <v>1일</v>
@@ -22340,7 +22925,7 @@
         <v>1</v>
       </c>
       <c r="R41" s="314">
-        <f>IF(Q41=100%,0,IF(DAYS(L41,TODAY())=0,0,DAYS(L41,TODAY())))</f>
+        <f ca="1">IF(Q41=100%,0,IF(_xlfn.DAYS(L41,TODAY())=0,0,_xlfn.DAYS(L41,TODAY())))</f>
         <v>0</v>
       </c>
       <c r="S41" s="177"/>
@@ -22361,12 +22946,12 @@
         <v>2</v>
       </c>
       <c r="E42" s="154"/>
-      <c r="F42" s="155"/>
-      <c r="G42" s="155" t="s">
-        <v>278</v>
-      </c>
-      <c r="H42" s="152"/>
-      <c r="I42" s="152"/>
+      <c r="F42" s="512"/>
+      <c r="G42" s="497" t="s">
+        <v>279</v>
+      </c>
+      <c r="H42" s="498"/>
+      <c r="I42" s="499"/>
       <c r="J42" s="377" t="str">
         <f>CONCATENATE(NETWORKDAYS(K42,L42),"일")</f>
         <v>0일</v>
@@ -22379,7 +22964,9 @@
       <c r="N42" s="158" t="s">
         <v>167</v>
       </c>
-      <c r="O42" s="160"/>
+      <c r="O42" s="160">
+        <v>45303</v>
+      </c>
       <c r="P42" s="160"/>
       <c r="Q42" s="159">
         <v>0</v>
@@ -22393,7 +22980,7 @@
       <c r="U42" s="31"/>
       <c r="V42" s="34"/>
     </row>
-    <row r="43" spans="2:22" s="32" customFormat="1" ht="19.500000" customHeight="1" outlineLevel="3">
+    <row r="43" spans="2:22" s="32" customFormat="1" ht="27.000000" outlineLevel="3">
       <c r="B43" s="88">
         <f>B42+1</f>
         <v>24</v>
@@ -22406,30 +22993,38 @@
         <v>3</v>
       </c>
       <c r="E43" s="167"/>
-      <c r="F43" s="168"/>
-      <c r="G43" s="168"/>
-      <c r="H43" s="165" t="s">
-        <v>120</v>
-      </c>
-      <c r="I43" s="165"/>
+      <c r="F43" s="513"/>
+      <c r="G43" s="513"/>
+      <c r="H43" s="520" t="s">
+        <v>288</v>
+      </c>
+      <c r="I43" s="521"/>
       <c r="J43" s="365" t="str">
         <f>CONCATENATE(NETWORKDAYS(K43,L43),"일")</f>
-        <v>0일</v>
-      </c>
-      <c r="K43" s="170"/>
-      <c r="L43" s="170"/>
+        <v>4일</v>
+      </c>
+      <c r="K43" s="170">
+        <v>45303</v>
+      </c>
+      <c r="L43" s="170">
+        <v>45308</v>
+      </c>
       <c r="M43" s="171"/>
       <c r="N43" s="171" t="s">
         <v>167</v>
       </c>
-      <c r="O43" s="325"/>
-      <c r="P43" s="325"/>
+      <c r="O43" s="325">
+        <v>45303</v>
+      </c>
+      <c r="P43" s="325">
+        <v>45308</v>
+      </c>
       <c r="Q43" s="326">
+        <v>1</v>
+      </c>
+      <c r="R43" s="314">
+        <f ca="1">IF(Q43=100%,0,IF(_xlfn.DAYS(L43,TODAY())=0,0,_xlfn.DAYS(L43,TODAY())))</f>
         <v>0</v>
-      </c>
-      <c r="R43" s="314" t="e">
-        <f ca="1">IF(Q43=100%,0,IF(_xlfn.DAYS(L43,TODAY())=0,0,_xlfn.DAYS(L43,TODAY())))</f>
-        <v>#VALUE!</v>
       </c>
       <c r="S43" s="177"/>
       <c r="T43" s="30"/>
@@ -22442,85 +23037,101 @@
         <v>25</v>
       </c>
       <c r="C44" s="165" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D44" s="166">
         <f>IF(COUNTBLANK(E44:I44)&lt;5,IF(E44&lt;&gt;"",0,IF(F44&lt;&gt;"",1,IF(G44&lt;&gt;"",2,IF(H44&lt;&gt;"",3,IF(I44&lt;&gt;"",4))))),"")</f>
         <v>3</v>
       </c>
       <c r="E44" s="167"/>
-      <c r="F44" s="168"/>
-      <c r="G44" s="168"/>
-      <c r="H44" s="165" t="s">
-        <v>120</v>
-      </c>
-      <c r="I44" s="165"/>
+      <c r="F44" s="513"/>
+      <c r="G44" s="513"/>
+      <c r="H44" s="502" t="s">
+        <v>283</v>
+      </c>
+      <c r="I44" s="503"/>
       <c r="J44" s="365" t="str">
         <f>CONCATENATE(NETWORKDAYS(K44,L44),"일")</f>
-        <v>0일</v>
-      </c>
-      <c r="K44" s="170"/>
-      <c r="L44" s="170"/>
+        <v>1일</v>
+      </c>
+      <c r="K44" s="170">
+        <v>45309</v>
+      </c>
+      <c r="L44" s="170">
+        <v>45309</v>
+      </c>
       <c r="M44" s="171"/>
       <c r="N44" s="171" t="s">
         <v>167</v>
       </c>
-      <c r="O44" s="325"/>
-      <c r="P44" s="325"/>
+      <c r="O44" s="325">
+        <v>45309</v>
+      </c>
+      <c r="P44" s="325">
+        <v>45309</v>
+      </c>
       <c r="Q44" s="326">
+        <v>1</v>
+      </c>
+      <c r="R44" s="314">
+        <f ca="1">IF(Q44=100%,0,IF(_xlfn.DAYS(L44,TODAY())=0,0,_xlfn.DAYS(L44,TODAY())))</f>
         <v>0</v>
-      </c>
-      <c r="R44" s="314" t="e">
-        <f>IF(Q44=100%,0,IF(DAYS(L44,TODAY())=0,0,DAYS(L44,TODAY())))</f>
-        <v>#NAME?</v>
       </c>
       <c r="S44" s="177"/>
       <c r="T44" s="30"/>
       <c r="U44" s="31"/>
       <c r="V44" s="34"/>
     </row>
-    <row r="45" spans="2:22" s="32" customFormat="1" ht="19.500000" customHeight="1" outlineLevel="3">
-      <c r="B45" s="88">
+    <row r="45" spans="2:22" s="522" customFormat="1" ht="14.250000" outlineLevel="3">
+      <c r="B45" s="530">
         <f>B44+1</f>
         <v>26</v>
       </c>
-      <c r="C45" s="165" t="s">
-        <v>89</v>
-      </c>
-      <c r="D45" s="166">
+      <c r="C45" s="531" t="s">
+        <v>298</v>
+      </c>
+      <c r="D45" s="532">
         <f>IF(COUNTBLANK(E45:I45)&lt;5,IF(E45&lt;&gt;"",0,IF(F45&lt;&gt;"",1,IF(G45&lt;&gt;"",2,IF(H45&lt;&gt;"",3,IF(I45&lt;&gt;"",4))))),"")</f>
         <v>3</v>
       </c>
-      <c r="E45" s="167"/>
-      <c r="F45" s="168"/>
-      <c r="G45" s="168"/>
-      <c r="H45" s="165" t="s">
-        <v>120</v>
-      </c>
-      <c r="I45" s="165"/>
-      <c r="J45" s="365" t="str">
+      <c r="E45" s="533"/>
+      <c r="F45" s="534"/>
+      <c r="G45" s="534"/>
+      <c r="H45" s="520" t="s">
+        <v>292</v>
+      </c>
+      <c r="I45" s="521"/>
+      <c r="J45" s="535" t="str">
         <f>CONCATENATE(NETWORKDAYS(K45,L45),"일")</f>
-        <v>0일</v>
-      </c>
-      <c r="K45" s="170"/>
-      <c r="L45" s="170"/>
+        <v>2일</v>
+      </c>
+      <c r="K45" s="170">
+        <v>45309</v>
+      </c>
+      <c r="L45" s="170">
+        <v>45310</v>
+      </c>
       <c r="M45" s="171"/>
       <c r="N45" s="171" t="s">
         <v>167</v>
       </c>
-      <c r="O45" s="325"/>
-      <c r="P45" s="325"/>
-      <c r="Q45" s="326">
+      <c r="O45" s="325">
+        <v>45309</v>
+      </c>
+      <c r="P45" s="325">
+        <v>45310</v>
+      </c>
+      <c r="Q45" s="536">
+        <v>1</v>
+      </c>
+      <c r="R45" s="537">
+        <f ca="1">IF(Q45=100%,0,IF(_xlfn.DAYS(L45,TODAY())=0,0,_xlfn.DAYS(L45,TODAY())))</f>
         <v>0</v>
       </c>
-      <c r="R45" s="314" t="e">
-        <f ca="1">IF(Q45=100%,0,IF(DAYS(L45,TODAY())=0,0,DAYS(L45,TODAY())))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="S45" s="177"/>
-      <c r="T45" s="30"/>
-      <c r="U45" s="31"/>
-      <c r="V45" s="34"/>
+      <c r="S45" s="538"/>
+      <c r="T45" s="539"/>
+      <c r="U45" s="540"/>
+      <c r="V45" s="527"/>
     </row>
     <row r="46" spans="2:22" s="32" customFormat="1" ht="19.500000" customHeight="1" outlineLevel="3">
       <c r="B46" s="88">
@@ -22528,37 +23139,43 @@
         <v>27</v>
       </c>
       <c r="C46" s="165" t="s">
-        <v>89</v>
+        <v>299</v>
       </c>
       <c r="D46" s="166">
         <f>IF(COUNTBLANK(E46:I46)&lt;5,IF(E46&lt;&gt;"",0,IF(F46&lt;&gt;"",1,IF(G46&lt;&gt;"",2,IF(H46&lt;&gt;"",3,IF(I46&lt;&gt;"",4))))),"")</f>
         <v>3</v>
       </c>
       <c r="E46" s="167"/>
-      <c r="F46" s="168"/>
-      <c r="G46" s="168"/>
-      <c r="H46" s="165" t="s">
-        <v>120</v>
-      </c>
-      <c r="I46" s="165"/>
+      <c r="F46" s="513"/>
+      <c r="G46" s="513"/>
+      <c r="H46" s="502" t="s">
+        <v>291</v>
+      </c>
+      <c r="I46" s="503"/>
       <c r="J46" s="365" t="str">
         <f>CONCATENATE(NETWORKDAYS(K46,L46),"일")</f>
-        <v>0일</v>
-      </c>
-      <c r="K46" s="170"/>
-      <c r="L46" s="170"/>
+        <v>1일</v>
+      </c>
+      <c r="K46" s="170">
+        <v>45310</v>
+      </c>
+      <c r="L46" s="170">
+        <v>45310</v>
+      </c>
       <c r="M46" s="171"/>
       <c r="N46" s="171" t="s">
         <v>167</v>
       </c>
-      <c r="O46" s="325"/>
+      <c r="O46" s="325">
+        <v>45310</v>
+      </c>
       <c r="P46" s="325"/>
       <c r="Q46" s="326">
         <v>0</v>
       </c>
-      <c r="R46" s="314" t="e">
-        <f ca="1">IF(Q46=100%,0,IF(DAYS(L46,TODAY())=0,0,DAYS(L46,TODAY())))</f>
-        <v>#NAME?</v>
+      <c r="R46" s="314">
+        <f ca="1">IF(Q46=100%,0,IF(_xlfn.DAYS(L46,TODAY())=0,0,_xlfn.DAYS(L46,TODAY())))</f>
+        <v>0</v>
       </c>
       <c r="S46" s="177"/>
       <c r="T46" s="30"/>
@@ -22571,25 +23188,29 @@
         <v>28</v>
       </c>
       <c r="C47" s="165" t="s">
-        <v>89</v>
+        <v>300</v>
       </c>
       <c r="D47" s="166">
         <f>IF(COUNTBLANK(E47:I47)&lt;5,IF(E47&lt;&gt;"",0,IF(F47&lt;&gt;"",1,IF(G47&lt;&gt;"",2,IF(H47&lt;&gt;"",3,IF(I47&lt;&gt;"",4))))),"")</f>
         <v>3</v>
       </c>
       <c r="E47" s="167"/>
-      <c r="F47" s="168"/>
-      <c r="G47" s="168"/>
-      <c r="H47" s="165" t="s">
-        <v>120</v>
-      </c>
-      <c r="I47" s="165"/>
+      <c r="F47" s="513"/>
+      <c r="G47" s="513"/>
+      <c r="H47" s="502" t="s">
+        <v>294</v>
+      </c>
+      <c r="I47" s="503"/>
       <c r="J47" s="365" t="str">
         <f>CONCATENATE(NETWORKDAYS(K47,L47),"일")</f>
-        <v>0일</v>
-      </c>
-      <c r="K47" s="170"/>
-      <c r="L47" s="170"/>
+        <v>2일</v>
+      </c>
+      <c r="K47" s="170">
+        <v>45313</v>
+      </c>
+      <c r="L47" s="170">
+        <v>45314</v>
+      </c>
       <c r="M47" s="171"/>
       <c r="N47" s="171" t="s">
         <v>167</v>
@@ -22599,9 +23220,9 @@
       <c r="Q47" s="326">
         <v>0</v>
       </c>
-      <c r="R47" s="314" t="e">
-        <f ca="1">IF(Q47=100%,0,IF(DAYS(L47,TODAY())=0,0,DAYS(L47,TODAY())))</f>
-        <v>#NAME?</v>
+      <c r="R47" s="314">
+        <f ca="1">IF(Q47=100%,0,IF(_xlfn.DAYS(L47,TODAY())=0,0,_xlfn.DAYS(L47,TODAY())))</f>
+        <v>4</v>
       </c>
       <c r="S47" s="177"/>
       <c r="T47" s="30"/>
@@ -22614,25 +23235,29 @@
         <v>29</v>
       </c>
       <c r="C48" s="165" t="s">
-        <v>89</v>
+        <v>301</v>
       </c>
       <c r="D48" s="166">
         <f>IF(COUNTBLANK(E48:I48)&lt;5,IF(E48&lt;&gt;"",0,IF(F48&lt;&gt;"",1,IF(G48&lt;&gt;"",2,IF(H48&lt;&gt;"",3,IF(I48&lt;&gt;"",4))))),"")</f>
         <v>3</v>
       </c>
       <c r="E48" s="167"/>
-      <c r="F48" s="168"/>
-      <c r="G48" s="168"/>
-      <c r="H48" s="165" t="s">
-        <v>120</v>
-      </c>
-      <c r="I48" s="165"/>
+      <c r="F48" s="513"/>
+      <c r="G48" s="513"/>
+      <c r="H48" s="502" t="s">
+        <v>297</v>
+      </c>
+      <c r="I48" s="503"/>
       <c r="J48" s="365" t="str">
         <f>CONCATENATE(NETWORKDAYS(K48,L48),"일")</f>
-        <v>0일</v>
-      </c>
-      <c r="K48" s="170"/>
-      <c r="L48" s="170"/>
+        <v>3일</v>
+      </c>
+      <c r="K48" s="170">
+        <v>45315</v>
+      </c>
+      <c r="L48" s="170">
+        <v>45317</v>
+      </c>
       <c r="M48" s="171"/>
       <c r="N48" s="171" t="s">
         <v>167</v>
@@ -22642,54 +23267,54 @@
       <c r="Q48" s="326">
         <v>0</v>
       </c>
-      <c r="R48" s="314" t="e">
-        <f ca="1">IF(Q48=100%,0,IF(DAYS(L48,TODAY())=0,0,DAYS(L48,TODAY())))</f>
-        <v>#NAME?</v>
+      <c r="R48" s="314">
+        <f ca="1">IF(Q48=100%,0,IF(_xlfn.DAYS(L48,TODAY())=0,0,_xlfn.DAYS(L48,TODAY())))</f>
+        <v>7</v>
       </c>
       <c r="S48" s="177"/>
       <c r="T48" s="30"/>
       <c r="U48" s="31"/>
       <c r="V48" s="34"/>
     </row>
-    <row r="49" spans="2:22" s="32" customFormat="1" ht="19.500000" customHeight="1" outlineLevel="3">
+    <row r="49" spans="2:22" s="32" customFormat="1" ht="19.500000" customHeight="1" outlineLevel="2">
       <c r="B49" s="88">
         <f>B48+1</f>
         <v>30</v>
       </c>
-      <c r="C49" s="165" t="s">
-        <v>89</v>
-      </c>
-      <c r="D49" s="166">
+      <c r="C49" s="152" t="s">
+        <v>295</v>
+      </c>
+      <c r="D49" s="153">
         <f>IF(COUNTBLANK(E49:I49)&lt;5,IF(E49&lt;&gt;"",0,IF(F49&lt;&gt;"",1,IF(G49&lt;&gt;"",2,IF(H49&lt;&gt;"",3,IF(I49&lt;&gt;"",4))))),"")</f>
-        <v>3</v>
-      </c>
-      <c r="E49" s="167"/>
-      <c r="F49" s="168"/>
-      <c r="G49" s="168"/>
-      <c r="H49" s="165" t="s">
-        <v>120</v>
-      </c>
-      <c r="I49" s="165"/>
-      <c r="J49" s="365" t="str">
+        <v>2</v>
+      </c>
+      <c r="E49" s="154"/>
+      <c r="F49" s="512"/>
+      <c r="G49" s="497" t="s">
+        <v>296</v>
+      </c>
+      <c r="H49" s="498"/>
+      <c r="I49" s="499"/>
+      <c r="J49" s="377" t="str">
         <f>CONCATENATE(NETWORKDAYS(K49,L49),"일")</f>
         <v>0일</v>
       </c>
-      <c r="K49" s="170"/>
-      <c r="L49" s="170"/>
-      <c r="M49" s="171"/>
-      <c r="N49" s="171" t="s">
+      <c r="K49" s="157"/>
+      <c r="L49" s="157"/>
+      <c r="M49" s="158"/>
+      <c r="N49" s="158" t="s">
         <v>167</v>
       </c>
-      <c r="O49" s="325"/>
-      <c r="P49" s="325"/>
-      <c r="Q49" s="326">
+      <c r="O49" s="160"/>
+      <c r="P49" s="160"/>
+      <c r="Q49" s="159">
         <v>0</v>
       </c>
       <c r="R49" s="314" t="e">
-        <f ca="1">IF(Q49=100%,0,IF(DAYS(L49,TODAY())=0,0,DAYS(L49,TODAY())))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="S49" s="177"/>
+        <f ca="1">IF(Q49=100%,0,IF(_xlfn.DAYS(L49,TODAY())=0,0,_xlfn.DAYS(L49,TODAY())))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S49" s="164"/>
       <c r="T49" s="30"/>
       <c r="U49" s="31"/>
       <c r="V49" s="34"/>
@@ -22700,19 +23325,19 @@
         <v>31</v>
       </c>
       <c r="C50" s="165" t="s">
-        <v>89</v>
+        <v>302</v>
       </c>
       <c r="D50" s="166">
         <f>IF(COUNTBLANK(E50:I50)&lt;5,IF(E50&lt;&gt;"",0,IF(F50&lt;&gt;"",1,IF(G50&lt;&gt;"",2,IF(H50&lt;&gt;"",3,IF(I50&lt;&gt;"",4))))),"")</f>
         <v>3</v>
       </c>
       <c r="E50" s="167"/>
-      <c r="F50" s="168"/>
-      <c r="G50" s="168"/>
-      <c r="H50" s="165" t="s">
-        <v>120</v>
-      </c>
-      <c r="I50" s="165"/>
+      <c r="F50" s="513"/>
+      <c r="G50" s="513"/>
+      <c r="H50" s="502" t="s">
+        <v>122</v>
+      </c>
+      <c r="I50" s="503"/>
       <c r="J50" s="365" t="str">
         <f>CONCATENATE(NETWORKDAYS(K50,L50),"일")</f>
         <v>0일</v>
@@ -22729,135 +23354,133 @@
         <v>0</v>
       </c>
       <c r="R50" s="314" t="e">
-        <f ca="1">IF(Q50=100%,0,IF(DAYS(L50,TODAY())=0,0,DAYS(L50,TODAY())))</f>
-        <v>#NAME?</v>
+        <f ca="1">IF(Q50=100%,0,IF(_xlfn.DAYS(L50,TODAY())=0,0,_xlfn.DAYS(L50,TODAY())))</f>
+        <v>#VALUE!</v>
       </c>
       <c r="S50" s="177"/>
       <c r="T50" s="30"/>
       <c r="U50" s="31"/>
       <c r="V50" s="34"/>
     </row>
-    <row r="51" spans="2:22" s="32" customFormat="1" ht="19.500000" customHeight="1" outlineLevel="3">
+    <row r="51" spans="2:22" s="29" customFormat="1" ht="19.500000" customHeight="1" outlineLevel="1">
       <c r="B51" s="88">
         <f>B50+1</f>
         <v>32</v>
       </c>
-      <c r="C51" s="165" t="s">
-        <v>90</v>
-      </c>
-      <c r="D51" s="166">
+      <c r="C51" s="183" t="s">
+        <v>81</v>
+      </c>
+      <c r="D51" s="184">
         <f>IF(COUNTBLANK(E51:I51)&lt;5,IF(E51&lt;&gt;"",0,IF(F51&lt;&gt;"",1,IF(G51&lt;&gt;"",2,IF(H51&lt;&gt;"",3,IF(I51&lt;&gt;"",4))))),"")</f>
-        <v>3</v>
-      </c>
-      <c r="E51" s="167"/>
-      <c r="F51" s="168"/>
-      <c r="G51" s="168"/>
-      <c r="H51" s="165" t="s">
-        <v>122</v>
-      </c>
-      <c r="I51" s="165"/>
-      <c r="J51" s="365" t="str">
+        <v>1</v>
+      </c>
+      <c r="E51" s="185"/>
+      <c r="F51" s="491" t="s">
+        <v>260</v>
+      </c>
+      <c r="G51" s="491"/>
+      <c r="H51" s="492"/>
+      <c r="I51" s="493"/>
+      <c r="J51" s="368" t="str">
         <f>CONCATENATE(NETWORKDAYS(K51,L51),"일")</f>
         <v>0일</v>
       </c>
-      <c r="K51" s="170"/>
-      <c r="L51" s="170"/>
-      <c r="M51" s="171"/>
-      <c r="N51" s="171" t="s">
-        <v>167</v>
-      </c>
-      <c r="O51" s="325"/>
-      <c r="P51" s="325"/>
-      <c r="Q51" s="326">
+      <c r="K51" s="189"/>
+      <c r="L51" s="189"/>
+      <c r="M51" s="189"/>
+      <c r="N51" s="189"/>
+      <c r="O51" s="189"/>
+      <c r="P51" s="189"/>
+      <c r="Q51" s="190">
         <v>0</v>
       </c>
       <c r="R51" s="314" t="e">
         <f ca="1">IF(Q51=100%,0,IF(_xlfn.DAYS(L51,TODAY())=0,0,_xlfn.DAYS(L51,TODAY())))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="S51" s="177"/>
-      <c r="T51" s="30"/>
-      <c r="U51" s="31"/>
-      <c r="V51" s="34"/>
+      <c r="S51" s="196"/>
+      <c r="T51" s="27"/>
+      <c r="U51" s="28"/>
+      <c r="V51" s="42"/>
     </row>
-    <row r="52" spans="2:22" s="29" customFormat="1" ht="19.500000" customHeight="1" outlineLevel="1">
+    <row r="52" spans="2:22" s="32" customFormat="1" ht="19.500000" customHeight="1" outlineLevel="3">
       <c r="B52" s="88">
         <f>B51+1</f>
         <v>33</v>
       </c>
-      <c r="C52" s="183" t="s">
-        <v>81</v>
-      </c>
-      <c r="D52" s="184">
+      <c r="C52" s="197" t="s">
+        <v>91</v>
+      </c>
+      <c r="D52" s="198">
         <f>IF(COUNTBLANK(E52:I52)&lt;5,IF(E52&lt;&gt;"",0,IF(F52&lt;&gt;"",1,IF(G52&lt;&gt;"",2,IF(H52&lt;&gt;"",3,IF(I52&lt;&gt;"",4))))),"")</f>
-        <v>1</v>
-      </c>
-      <c r="E52" s="185"/>
-      <c r="F52" s="186" t="s">
-        <v>260</v>
-      </c>
-      <c r="G52" s="186"/>
-      <c r="H52" s="187"/>
-      <c r="I52" s="187"/>
-      <c r="J52" s="368" t="str">
+        <v>2</v>
+      </c>
+      <c r="E52" s="154"/>
+      <c r="F52" s="514"/>
+      <c r="G52" s="497" t="s">
+        <v>113</v>
+      </c>
+      <c r="H52" s="498"/>
+      <c r="I52" s="499"/>
+      <c r="J52" s="377" t="str">
         <f>CONCATENATE(NETWORKDAYS(K52,L52),"일")</f>
         <v>0일</v>
       </c>
-      <c r="K52" s="189"/>
-      <c r="L52" s="189"/>
-      <c r="M52" s="189"/>
-      <c r="N52" s="189"/>
-      <c r="O52" s="189"/>
-      <c r="P52" s="189"/>
-      <c r="Q52" s="190">
+      <c r="K52" s="201"/>
+      <c r="L52" s="201"/>
+      <c r="M52" s="202"/>
+      <c r="N52" s="202"/>
+      <c r="O52" s="204"/>
+      <c r="P52" s="204"/>
+      <c r="Q52" s="203">
         <v>0</v>
       </c>
       <c r="R52" s="314" t="e">
         <f ca="1">IF(Q52=100%,0,IF(_xlfn.DAYS(L52,TODAY())=0,0,_xlfn.DAYS(L52,TODAY())))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="S52" s="196"/>
-      <c r="T52" s="27"/>
-      <c r="U52" s="28"/>
-      <c r="V52" s="42"/>
+      <c r="S52" s="208"/>
+      <c r="T52" s="30"/>
+      <c r="U52" s="31"/>
+      <c r="V52" s="34"/>
     </row>
     <row r="53" spans="2:22" s="32" customFormat="1" ht="19.500000" customHeight="1" outlineLevel="3">
       <c r="B53" s="88">
         <f>B52+1</f>
         <v>34</v>
       </c>
-      <c r="C53" s="197" t="s">
-        <v>91</v>
-      </c>
-      <c r="D53" s="198">
+      <c r="C53" s="165" t="s">
+        <v>261</v>
+      </c>
+      <c r="D53" s="166">
         <f>IF(COUNTBLANK(E53:I53)&lt;5,IF(E53&lt;&gt;"",0,IF(F53&lt;&gt;"",1,IF(G53&lt;&gt;"",2,IF(H53&lt;&gt;"",3,IF(I53&lt;&gt;"",4))))),"")</f>
-        <v>2</v>
-      </c>
-      <c r="E53" s="154"/>
-      <c r="F53" s="199"/>
-      <c r="G53" s="199" t="s">
-        <v>113</v>
-      </c>
-      <c r="H53" s="197"/>
-      <c r="I53" s="197"/>
-      <c r="J53" s="377" t="str">
+        <v>3</v>
+      </c>
+      <c r="E53" s="167"/>
+      <c r="F53" s="513"/>
+      <c r="G53" s="513"/>
+      <c r="H53" s="502" t="s">
+        <v>116</v>
+      </c>
+      <c r="I53" s="503"/>
+      <c r="J53" s="365" t="str">
         <f>CONCATENATE(NETWORKDAYS(K53,L53),"일")</f>
         <v>0일</v>
       </c>
-      <c r="K53" s="201"/>
-      <c r="L53" s="201"/>
-      <c r="M53" s="202"/>
-      <c r="N53" s="202"/>
-      <c r="O53" s="204"/>
-      <c r="P53" s="204"/>
-      <c r="Q53" s="203">
+      <c r="K53" s="170"/>
+      <c r="L53" s="170"/>
+      <c r="M53" s="171"/>
+      <c r="N53" s="171"/>
+      <c r="O53" s="325"/>
+      <c r="P53" s="325"/>
+      <c r="Q53" s="326">
         <v>0</v>
       </c>
       <c r="R53" s="314" t="e">
         <f ca="1">IF(Q53=100%,0,IF(_xlfn.DAYS(L53,TODAY())=0,0,_xlfn.DAYS(L53,TODAY())))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="S53" s="208"/>
+      <c r="S53" s="177"/>
       <c r="T53" s="30"/>
       <c r="U53" s="31"/>
       <c r="V53" s="34"/>
@@ -22867,38 +23490,38 @@
         <f>B53+1</f>
         <v>35</v>
       </c>
-      <c r="C54" s="165" t="s">
-        <v>261</v>
-      </c>
-      <c r="D54" s="166">
+      <c r="C54" s="197" t="s">
+        <v>75</v>
+      </c>
+      <c r="D54" s="153">
         <f>IF(COUNTBLANK(E54:I54)&lt;5,IF(E54&lt;&gt;"",0,IF(F54&lt;&gt;"",1,IF(G54&lt;&gt;"",2,IF(H54&lt;&gt;"",3,IF(I54&lt;&gt;"",4))))),"")</f>
-        <v>3</v>
-      </c>
-      <c r="E54" s="167"/>
-      <c r="F54" s="168"/>
-      <c r="G54" s="168"/>
-      <c r="H54" s="165" t="s">
-        <v>116</v>
-      </c>
-      <c r="I54" s="165"/>
-      <c r="J54" s="365" t="str">
+        <v>2</v>
+      </c>
+      <c r="E54" s="154"/>
+      <c r="F54" s="512"/>
+      <c r="G54" s="497" t="s">
+        <v>114</v>
+      </c>
+      <c r="H54" s="498"/>
+      <c r="I54" s="499"/>
+      <c r="J54" s="377" t="str">
         <f>CONCATENATE(NETWORKDAYS(K54,L54),"일")</f>
         <v>0일</v>
       </c>
-      <c r="K54" s="170"/>
-      <c r="L54" s="170"/>
-      <c r="M54" s="171"/>
-      <c r="N54" s="171"/>
-      <c r="O54" s="325"/>
-      <c r="P54" s="325"/>
-      <c r="Q54" s="326">
+      <c r="K54" s="157"/>
+      <c r="L54" s="157"/>
+      <c r="M54" s="158"/>
+      <c r="N54" s="158"/>
+      <c r="O54" s="160"/>
+      <c r="P54" s="160"/>
+      <c r="Q54" s="159">
         <v>0</v>
       </c>
       <c r="R54" s="314" t="e">
-        <f ca="1">IF(Q54=100%,0,IF(DAYS(L54,TODAY())=0,0,DAYS(L54,TODAY())))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="S54" s="177"/>
+        <f ca="1">IF(Q54=100%,0,IF(_xlfn.DAYS(L54,TODAY())=0,0,_xlfn.DAYS(L54,TODAY())))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S54" s="164"/>
       <c r="T54" s="30"/>
       <c r="U54" s="31"/>
       <c r="V54" s="34"/>
@@ -22908,38 +23531,38 @@
         <f>B54+1</f>
         <v>36</v>
       </c>
-      <c r="C55" s="197" t="s">
-        <v>75</v>
-      </c>
-      <c r="D55" s="153">
+      <c r="C55" s="165" t="s">
+        <v>262</v>
+      </c>
+      <c r="D55" s="166">
         <f>IF(COUNTBLANK(E55:I55)&lt;5,IF(E55&lt;&gt;"",0,IF(F55&lt;&gt;"",1,IF(G55&lt;&gt;"",2,IF(H55&lt;&gt;"",3,IF(I55&lt;&gt;"",4))))),"")</f>
-        <v>2</v>
-      </c>
-      <c r="E55" s="154"/>
-      <c r="F55" s="155"/>
-      <c r="G55" s="155" t="s">
-        <v>114</v>
-      </c>
-      <c r="H55" s="152"/>
-      <c r="I55" s="152"/>
-      <c r="J55" s="377" t="str">
+        <v>3</v>
+      </c>
+      <c r="E55" s="167"/>
+      <c r="F55" s="513"/>
+      <c r="G55" s="513"/>
+      <c r="H55" s="502" t="s">
+        <v>116</v>
+      </c>
+      <c r="I55" s="503"/>
+      <c r="J55" s="365" t="str">
         <f>CONCATENATE(NETWORKDAYS(K55,L55),"일")</f>
         <v>0일</v>
       </c>
-      <c r="K55" s="157"/>
-      <c r="L55" s="157"/>
-      <c r="M55" s="158"/>
-      <c r="N55" s="158"/>
-      <c r="O55" s="160"/>
-      <c r="P55" s="160"/>
-      <c r="Q55" s="159">
+      <c r="K55" s="170"/>
+      <c r="L55" s="170"/>
+      <c r="M55" s="171"/>
+      <c r="N55" s="171"/>
+      <c r="O55" s="325"/>
+      <c r="P55" s="325"/>
+      <c r="Q55" s="326">
         <v>0</v>
       </c>
       <c r="R55" s="314" t="e">
         <f ca="1">IF(Q55=100%,0,IF(_xlfn.DAYS(L55,TODAY())=0,0,_xlfn.DAYS(L55,TODAY())))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="S55" s="164"/>
+      <c r="S55" s="177"/>
       <c r="T55" s="30"/>
       <c r="U55" s="31"/>
       <c r="V55" s="34"/>
@@ -22949,38 +23572,38 @@
         <f>B55+1</f>
         <v>37</v>
       </c>
-      <c r="C56" s="165" t="s">
-        <v>262</v>
-      </c>
-      <c r="D56" s="166">
+      <c r="C56" s="197" t="s">
+        <v>76</v>
+      </c>
+      <c r="D56" s="153">
         <f>IF(COUNTBLANK(E56:I56)&lt;5,IF(E56&lt;&gt;"",0,IF(F56&lt;&gt;"",1,IF(G56&lt;&gt;"",2,IF(H56&lt;&gt;"",3,IF(I56&lt;&gt;"",4))))),"")</f>
-        <v>3</v>
-      </c>
-      <c r="E56" s="167"/>
-      <c r="F56" s="168"/>
-      <c r="G56" s="168"/>
-      <c r="H56" s="165" t="s">
-        <v>116</v>
-      </c>
-      <c r="I56" s="165"/>
-      <c r="J56" s="365" t="str">
+        <v>2</v>
+      </c>
+      <c r="E56" s="154"/>
+      <c r="F56" s="512"/>
+      <c r="G56" s="497" t="s">
+        <v>114</v>
+      </c>
+      <c r="H56" s="498"/>
+      <c r="I56" s="499"/>
+      <c r="J56" s="377" t="str">
         <f>CONCATENATE(NETWORKDAYS(K56,L56),"일")</f>
         <v>0일</v>
       </c>
-      <c r="K56" s="170"/>
-      <c r="L56" s="170"/>
-      <c r="M56" s="171"/>
-      <c r="N56" s="171"/>
-      <c r="O56" s="325"/>
-      <c r="P56" s="325"/>
-      <c r="Q56" s="326">
+      <c r="K56" s="157"/>
+      <c r="L56" s="157"/>
+      <c r="M56" s="158"/>
+      <c r="N56" s="158"/>
+      <c r="O56" s="160"/>
+      <c r="P56" s="160"/>
+      <c r="Q56" s="159">
         <v>0</v>
       </c>
       <c r="R56" s="314" t="e">
-        <f ca="1">IF(Q56=100%,0,IF(DAYS(L56,TODAY())=0,0,DAYS(L56,TODAY())))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="S56" s="177"/>
+        <f ca="1">IF(Q56=100%,0,IF(_xlfn.DAYS(L56,TODAY())=0,0,_xlfn.DAYS(L56,TODAY())))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S56" s="164"/>
       <c r="T56" s="30"/>
       <c r="U56" s="31"/>
       <c r="V56" s="34"/>
@@ -22990,176 +23613,139 @@
         <f>B56+1</f>
         <v>38</v>
       </c>
-      <c r="C57" s="197" t="s">
-        <v>76</v>
-      </c>
-      <c r="D57" s="153">
+      <c r="C57" s="404" t="s">
+        <v>263</v>
+      </c>
+      <c r="D57" s="405">
         <f>IF(COUNTBLANK(E57:I57)&lt;5,IF(E57&lt;&gt;"",0,IF(F57&lt;&gt;"",1,IF(G57&lt;&gt;"",2,IF(H57&lt;&gt;"",3,IF(I57&lt;&gt;"",4))))),"")</f>
-        <v>2</v>
-      </c>
-      <c r="E57" s="154"/>
-      <c r="F57" s="155"/>
-      <c r="G57" s="155" t="s">
-        <v>114</v>
-      </c>
-      <c r="H57" s="152"/>
-      <c r="I57" s="152"/>
-      <c r="J57" s="377" t="str">
+        <v>3</v>
+      </c>
+      <c r="E57" s="406"/>
+      <c r="F57" s="515"/>
+      <c r="G57" s="515"/>
+      <c r="H57" s="516" t="s">
+        <v>116</v>
+      </c>
+      <c r="I57" s="517"/>
+      <c r="J57" s="408" t="str">
         <f>CONCATENATE(NETWORKDAYS(K57,L57),"일")</f>
         <v>0일</v>
       </c>
-      <c r="K57" s="157"/>
-      <c r="L57" s="157"/>
-      <c r="M57" s="158"/>
-      <c r="N57" s="158"/>
-      <c r="O57" s="160"/>
-      <c r="P57" s="160"/>
-      <c r="Q57" s="159">
+      <c r="K57" s="409"/>
+      <c r="L57" s="409"/>
+      <c r="M57" s="410"/>
+      <c r="N57" s="410"/>
+      <c r="O57" s="411"/>
+      <c r="P57" s="411"/>
+      <c r="Q57" s="412">
         <v>0</v>
       </c>
-      <c r="R57" s="314" t="e">
-        <f ca="1">IF(Q57=100%,0,IF(DAYS(L57,TODAY())=0,0,DAYS(L57,TODAY())))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="S57" s="164"/>
+      <c r="R57" s="413" t="e">
+        <f ca="1">IF(Q57=100%,0,IF(_xlfn.DAYS(L57,TODAY())=0,0,_xlfn.DAYS(L57,TODAY())))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S57" s="414"/>
       <c r="T57" s="30"/>
       <c r="U57" s="31"/>
       <c r="V57" s="34"/>
     </row>
-    <row r="58" spans="2:22" s="32" customFormat="1" ht="19.500000" customHeight="1" outlineLevel="3">
-      <c r="B58" s="88">
-        <f>B57+1</f>
-        <v>39</v>
-      </c>
-      <c r="C58" s="407" t="s">
-        <v>263</v>
-      </c>
-      <c r="D58" s="408">
-        <f>IF(COUNTBLANK(E58:I58)&lt;5,IF(E58&lt;&gt;"",0,IF(F58&lt;&gt;"",1,IF(G58&lt;&gt;"",2,IF(H58&lt;&gt;"",3,IF(I58&lt;&gt;"",4))))),"")</f>
-        <v>3</v>
-      </c>
-      <c r="E58" s="409"/>
-      <c r="F58" s="410"/>
-      <c r="G58" s="410"/>
-      <c r="H58" s="407" t="s">
-        <v>116</v>
-      </c>
-      <c r="I58" s="407"/>
-      <c r="J58" s="411" t="str">
-        <f>CONCATENATE(NETWORKDAYS(K58,L58),"일")</f>
-        <v>0일</v>
-      </c>
-      <c r="K58" s="412"/>
-      <c r="L58" s="412"/>
-      <c r="M58" s="413"/>
-      <c r="N58" s="413"/>
-      <c r="O58" s="414"/>
-      <c r="P58" s="414"/>
-      <c r="Q58" s="415">
-        <v>0</v>
-      </c>
-      <c r="R58" s="416" t="e">
-        <f ca="1">IF(Q58=100%,0,IF(DAYS(L58,TODAY())=0,0,DAYS(L58,TODAY())))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="S58" s="417"/>
-      <c r="T58" s="30"/>
-      <c r="U58" s="31"/>
-      <c r="V58" s="34"/>
+    <row r="58" spans="2:22" outlineLevel="1">
+      <c r="B58" s="32"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="32"/>
+      <c r="E58" s="32"/>
+      <c r="F58" s="32"/>
+      <c r="G58" s="32"/>
+      <c r="H58" s="32"/>
+      <c r="I58" s="32"/>
+      <c r="J58" s="15"/>
+      <c r="K58" s="32"/>
+      <c r="L58" s="35"/>
+      <c r="M58" s="32"/>
+      <c r="N58" s="32"/>
+      <c r="O58" s="35"/>
+      <c r="P58" s="35"/>
+      <c r="Q58" s="36"/>
+      <c r="R58" s="34"/>
+      <c r="S58" s="37"/>
+      <c r="T58" s="32"/>
+      <c r="U58" s="20"/>
+      <c r="V58" s="32"/>
     </row>
-    <row r="59" spans="2:22" outlineLevel="1">
-      <c r="B59" s="32"/>
-      <c r="C59" s="16"/>
-      <c r="D59" s="32"/>
-      <c r="E59" s="32"/>
-      <c r="F59" s="32"/>
-      <c r="G59" s="32"/>
-      <c r="H59" s="32"/>
-      <c r="I59" s="32"/>
-      <c r="J59" s="15"/>
-      <c r="K59" s="32"/>
-      <c r="L59" s="35"/>
-      <c r="M59" s="32"/>
-      <c r="N59" s="32"/>
-      <c r="O59" s="35"/>
-      <c r="P59" s="35"/>
-      <c r="Q59" s="36"/>
-      <c r="R59" s="34"/>
-      <c r="S59" s="37"/>
-      <c r="T59" s="32"/>
-      <c r="U59" s="20"/>
-      <c r="V59" s="32"/>
+    <row r="59" spans="2:22">
+      <c r="B59" s="29"/>
+      <c r="D59" s="29"/>
+      <c r="E59" s="29"/>
+      <c r="F59" s="29"/>
+      <c r="G59" s="29"/>
+      <c r="H59" s="29"/>
+      <c r="I59" s="29"/>
+      <c r="K59" s="29"/>
+      <c r="M59" s="29"/>
+      <c r="N59" s="29"/>
+      <c r="T59" s="29"/>
+      <c r="V59" s="29"/>
     </row>
     <row r="60" spans="2:22">
-      <c r="B60" s="29"/>
-      <c r="C60" s="16"/>
-      <c r="D60" s="29"/>
-      <c r="E60" s="29"/>
-      <c r="F60" s="29"/>
-      <c r="G60" s="29"/>
-      <c r="H60" s="29"/>
-      <c r="I60" s="29"/>
-      <c r="J60" s="15"/>
-      <c r="K60" s="29"/>
-      <c r="L60" s="35"/>
-      <c r="M60" s="29"/>
-      <c r="N60" s="29"/>
-      <c r="O60" s="35"/>
-      <c r="P60" s="35"/>
-      <c r="Q60" s="36"/>
-      <c r="R60" s="34"/>
-      <c r="S60" s="37"/>
-      <c r="T60" s="29"/>
-      <c r="U60" s="20"/>
-      <c r="V60" s="29"/>
+      <c r="B60" s="32"/>
+      <c r="D60" s="32"/>
+      <c r="E60" s="32"/>
+      <c r="F60" s="32"/>
+      <c r="G60" s="32"/>
+      <c r="H60" s="32"/>
+      <c r="I60" s="32"/>
+      <c r="K60" s="32"/>
+      <c r="M60" s="32"/>
+      <c r="N60" s="32"/>
+      <c r="T60" s="32"/>
+      <c r="V60" s="32"/>
     </row>
     <row r="61" spans="2:22">
       <c r="B61" s="32"/>
-      <c r="C61" s="16"/>
       <c r="D61" s="32"/>
       <c r="E61" s="32"/>
       <c r="F61" s="32"/>
       <c r="G61" s="32"/>
       <c r="H61" s="32"/>
       <c r="I61" s="32"/>
-      <c r="J61" s="15"/>
       <c r="K61" s="32"/>
-      <c r="L61" s="35"/>
       <c r="M61" s="32"/>
       <c r="N61" s="32"/>
-      <c r="O61" s="35"/>
-      <c r="P61" s="35"/>
-      <c r="Q61" s="36"/>
-      <c r="R61" s="34"/>
-      <c r="S61" s="37"/>
       <c r="T61" s="32"/>
-      <c r="U61" s="20"/>
       <c r="V61" s="32"/>
     </row>
     <row r="62" spans="2:22">
       <c r="B62" s="32"/>
+      <c r="C62" s="38"/>
       <c r="D62" s="32"/>
       <c r="E62" s="32"/>
       <c r="F62" s="32"/>
       <c r="G62" s="32"/>
       <c r="H62" s="32"/>
       <c r="I62" s="32"/>
+      <c r="J62" s="39"/>
       <c r="K62" s="32"/>
+      <c r="L62" s="36"/>
       <c r="M62" s="32"/>
       <c r="N62" s="32"/>
+      <c r="O62" s="36"/>
+      <c r="P62" s="36"/>
+      <c r="Q62" s="33"/>
+      <c r="R62" s="37"/>
+      <c r="S62" s="20"/>
       <c r="T62" s="32"/>
+      <c r="U62" s="15"/>
       <c r="V62" s="32"/>
     </row>
     <row r="63" spans="2:22">
       <c r="B63" s="32"/>
-      <c r="C63" s="38"/>
       <c r="D63" s="32"/>
       <c r="E63" s="32"/>
       <c r="F63" s="32"/>
       <c r="G63" s="32"/>
       <c r="H63" s="32"/>
       <c r="I63" s="32"/>
-      <c r="J63" s="39"/>
+      <c r="J63" s="20"/>
       <c r="K63" s="32"/>
       <c r="L63" s="36"/>
       <c r="M63" s="32"/>
@@ -23175,120 +23761,85 @@
     </row>
     <row r="64" spans="2:22">
       <c r="B64" s="32"/>
+      <c r="C64" s="32"/>
       <c r="D64" s="32"/>
       <c r="E64" s="32"/>
       <c r="F64" s="32"/>
       <c r="G64" s="32"/>
       <c r="H64" s="32"/>
       <c r="I64" s="32"/>
-      <c r="J64" s="20"/>
       <c r="K64" s="32"/>
-      <c r="L64" s="36"/>
       <c r="M64" s="32"/>
       <c r="N64" s="32"/>
-      <c r="O64" s="36"/>
-      <c r="P64" s="36"/>
-      <c r="Q64" s="33"/>
-      <c r="R64" s="37"/>
-      <c r="S64" s="20"/>
+      <c r="R64" s="33"/>
       <c r="T64" s="32"/>
-      <c r="U64" s="15"/>
       <c r="V64" s="32"/>
     </row>
     <row r="65" spans="2:22">
-      <c r="B65" s="32"/>
+      <c r="B65" s="15"/>
       <c r="C65" s="32"/>
-      <c r="D65" s="32"/>
-      <c r="E65" s="32"/>
-      <c r="F65" s="32"/>
-      <c r="G65" s="32"/>
-      <c r="H65" s="32"/>
-      <c r="I65" s="32"/>
-      <c r="K65" s="32"/>
-      <c r="M65" s="32"/>
-      <c r="N65" s="32"/>
+      <c r="D65" s="35"/>
+      <c r="E65" s="15"/>
+      <c r="F65" s="14"/>
+      <c r="G65" s="14"/>
+      <c r="H65" s="15"/>
+      <c r="I65" s="16"/>
+      <c r="J65" s="32"/>
+      <c r="K65" s="35"/>
+      <c r="L65" s="32"/>
+      <c r="M65" s="35"/>
+      <c r="N65" s="35"/>
+      <c r="O65" s="32"/>
+      <c r="P65" s="32"/>
+      <c r="Q65" s="32"/>
       <c r="R65" s="33"/>
-      <c r="T65" s="32"/>
-      <c r="V65" s="32"/>
+      <c r="S65" s="32"/>
+      <c r="T65" s="15"/>
+      <c r="U65" s="32"/>
+      <c r="V65" s="15"/>
     </row>
     <row r="66" spans="2:22">
-      <c r="B66" s="15"/>
       <c r="C66" s="32"/>
-      <c r="D66" s="35"/>
-      <c r="E66" s="15"/>
-      <c r="F66" s="14"/>
-      <c r="G66" s="14"/>
-      <c r="H66" s="15"/>
-      <c r="I66" s="16"/>
       <c r="J66" s="32"/>
-      <c r="K66" s="35"/>
       <c r="L66" s="32"/>
-      <c r="M66" s="35"/>
-      <c r="N66" s="35"/>
       <c r="O66" s="32"/>
       <c r="P66" s="32"/>
       <c r="Q66" s="32"/>
-      <c r="R66" s="33"/>
       <c r="S66" s="32"/>
-      <c r="T66" s="15"/>
       <c r="U66" s="32"/>
-      <c r="V66" s="15"/>
     </row>
     <row r="67" spans="2:22">
-      <c r="B67" s="15"/>
       <c r="C67" s="32"/>
-      <c r="D67" s="35"/>
-      <c r="E67" s="15"/>
-      <c r="F67" s="14"/>
-      <c r="G67" s="14"/>
-      <c r="H67" s="15"/>
-      <c r="I67" s="16"/>
       <c r="J67" s="32"/>
-      <c r="K67" s="35"/>
       <c r="L67" s="32"/>
-      <c r="M67" s="35"/>
-      <c r="N67" s="35"/>
       <c r="O67" s="32"/>
       <c r="P67" s="32"/>
       <c r="Q67" s="32"/>
+      <c r="R67" s="32"/>
       <c r="S67" s="32"/>
-      <c r="T67" s="15"/>
       <c r="U67" s="32"/>
-      <c r="V67" s="15"/>
     </row>
     <row r="68" spans="2:22">
-      <c r="B68" s="15"/>
-      <c r="C68" s="32"/>
-      <c r="D68" s="35"/>
-      <c r="E68" s="15"/>
-      <c r="F68" s="14"/>
-      <c r="G68" s="14"/>
-      <c r="H68" s="15"/>
-      <c r="I68" s="16"/>
-      <c r="J68" s="32"/>
-      <c r="K68" s="35"/>
-      <c r="L68" s="32"/>
-      <c r="M68" s="35"/>
-      <c r="N68" s="35"/>
-      <c r="O68" s="32"/>
-      <c r="P68" s="32"/>
-      <c r="Q68" s="32"/>
-      <c r="R68" s="32"/>
-      <c r="S68" s="32"/>
-      <c r="T68" s="15"/>
-      <c r="U68" s="32"/>
-      <c r="V68" s="15"/>
+      <c r="C68" s="29"/>
+      <c r="J68" s="29"/>
+      <c r="L68" s="29"/>
+      <c r="O68" s="29"/>
+      <c r="P68" s="29"/>
+      <c r="Q68" s="29"/>
+      <c r="R68" s="29"/>
+      <c r="S68" s="29"/>
+      <c r="U68" s="29"/>
     </row>
     <row r="69" spans="2:22">
-      <c r="C69" s="29"/>
-      <c r="J69" s="29"/>
-      <c r="L69" s="29"/>
-      <c r="O69" s="29"/>
-      <c r="P69" s="29"/>
-      <c r="Q69" s="29"/>
-      <c r="R69" s="29"/>
-      <c r="S69" s="29"/>
-      <c r="U69" s="29"/>
+      <c r="C69" s="32"/>
+      <c r="J69" s="32"/>
+      <c r="L69" s="32"/>
+      <c r="O69" s="32"/>
+      <c r="P69" s="32"/>
+      <c r="Q69" s="32"/>
+      <c r="R69" s="32"/>
+      <c r="S69" s="32"/>
+      <c r="U69" s="32"/>
     </row>
     <row r="70" spans="2:22">
       <c r="C70" s="32"/>
@@ -23302,7 +23853,7 @@
       <c r="U70" s="32"/>
     </row>
     <row r="71" spans="2:22">
-      <c r="C71" s="32"/>
+      <c r="C71" s="16"/>
       <c r="J71" s="32"/>
       <c r="L71" s="32"/>
       <c r="O71" s="32"/>
@@ -23313,62 +23864,67 @@
       <c r="U71" s="32"/>
     </row>
     <row r="72" spans="2:22">
-      <c r="C72" s="16"/>
-      <c r="J72" s="32"/>
-      <c r="L72" s="32"/>
-      <c r="O72" s="32"/>
-      <c r="P72" s="32"/>
-      <c r="Q72" s="32"/>
-      <c r="R72" s="32"/>
-      <c r="S72" s="32"/>
-      <c r="U72" s="32"/>
-    </row>
-    <row r="73" spans="2:22">
-      <c r="C73" s="16"/>
-      <c r="J73" s="15"/>
-      <c r="L73" s="35"/>
-      <c r="O73" s="35"/>
-      <c r="P73" s="35"/>
-      <c r="Q73" s="36"/>
-      <c r="R73" s="34"/>
-      <c r="S73" s="37"/>
-      <c r="U73" s="20"/>
-    </row>
-    <row r="74" spans="2:22">
-      <c r="C74" s="16"/>
-      <c r="J74" s="15"/>
-      <c r="L74" s="35"/>
-      <c r="O74" s="35"/>
-      <c r="P74" s="35"/>
-      <c r="Q74" s="36"/>
-      <c r="R74" s="34"/>
-      <c r="S74" s="37"/>
-      <c r="U74" s="20"/>
-    </row>
-    <row r="75" spans="2:22">
-      <c r="J75" s="15"/>
-      <c r="L75" s="35"/>
-      <c r="O75" s="35"/>
-      <c r="P75" s="35"/>
-      <c r="Q75" s="36"/>
-      <c r="R75" s="34"/>
-      <c r="S75" s="37"/>
-      <c r="U75" s="20"/>
+      <c r="J72" s="15"/>
+      <c r="L72" s="35"/>
+      <c r="O72" s="35"/>
+      <c r="P72" s="35"/>
+      <c r="Q72" s="36"/>
+      <c r="R72" s="34"/>
+      <c r="S72" s="37"/>
+      <c r="U72" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="47">
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="D3:D5"/>
-    <mergeCell ref="E3:I5"/>
     <mergeCell ref="J3:N4"/>
     <mergeCell ref="O3:Q4"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="S3:S5"/>
     <mergeCell ref="E6:I6"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="F51:I51"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="H57:I57"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="Q6:Q57">
+  <conditionalFormatting sqref="Q6:Q56">
     <cfRule type="dataBar" priority="1687">
       <dataBar>
         <cfvo type="min"/>
@@ -23377,7 +23933,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5616462f-233f-1131-5616-462f233f1131}</x14:id>
+          <x14:id>{cb8bdb92-be8d-9dac-cb8b-db92be8d9dac}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -23391,7 +23947,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{d292c28b-a784-94b5-d292-c28ba78494b5}</x14:id>
+          <x14:id>{4faf5f16-3af9-1928-4faf-5f163af91928}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -23405,7 +23961,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6e2e7e37-1b38-18f9-6e2e-7e371b3818f9}</x14:id>
+          <x14:id>{d393c38a-a695-95b4-d393-c38aa69595b4}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -23419,7 +23975,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{eaaafab3-9fbc-9c8d-eaaa-fab39fbc9c8d}</x14:id>
+          <x14:id>{5717479e-2211-113a-5717-479e2211113a}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -23433,7 +23989,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{82c292db-f7d4-d4e5-82c2-92dbf7d4d4e5}</x14:id>
+          <x14:id>{db9bcb82-ae9d-9dbc-db9b-cb82ae9d9dbc}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -23447,7 +24003,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1646165f-7356-5c61-1646-165f73565c61}</x14:id>
+          <x14:id>{5f1f4f06-2a19-1938-5f1f-4f062a191938}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -23461,7 +24017,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8aca9ad3-ffdc-dced-8aca-9ad3ffdcdced}</x14:id>
+          <x14:id>{e3a3f3ba-96a5-9584-e3a3-f3ba96a59584}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -23475,7 +24031,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8e4e1e57-7b58-5869-8e4e-1e577b585869}</x14:id>
+          <x14:id>{6727773e-1221-11dd-6727-773e122111dd}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -23489,7 +24045,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{92d282cb-e7c4-d4f5-92d2-82cbe7c4d4f5}</x14:id>
+          <x14:id>{ebabfbb2-9eaf-bd8c-ebab-fbb29eafbd8c}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -23503,12 +24059,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1656b64f-6347-5d71-1656-b64f63475d71}</x14:id>
+          <x14:id>{6f2f7f36-1a2b-39e8-6f2f-7f361a2b39e8}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q54">
+  <conditionalFormatting sqref="Q53">
     <cfRule type="dataBar" priority="1639">
       <dataBar>
         <cfvo type="min"/>
@@ -23517,12 +24073,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9ada8ac3-efcc-dcfd-9ada-8ac3efccdcfd}</x14:id>
+          <x14:id>{e3a3f3ba-96a7-b584-e3a3-f3ba96a7b584}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q54">
+  <conditionalFormatting sqref="Q53">
     <cfRule type="dataBar" priority="1635">
       <dataBar>
         <cfvo type="min"/>
@@ -23531,12 +24087,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1e5e2e47-6b48-5879-1e5e-2e476b485879}</x14:id>
+          <x14:id>{6727773e-1223-3174-6727-773e12233174}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q56">
+  <conditionalFormatting sqref="Q55">
     <cfRule type="dataBar" priority="1631">
       <dataBar>
         <cfvo type="min"/>
@@ -23545,12 +24101,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{a2e2b2fb-d7f4-d4c5-a2e2-b2fbd7f4d4c5}</x14:id>
+          <x14:id>{fbbbeba2-8ebf-bd9c-fbbb-eba28ebfbd9c}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q56">
+  <conditionalFormatting sqref="Q55">
     <cfRule type="dataBar" priority="1625">
       <dataBar>
         <cfvo type="min"/>
@@ -23559,12 +24115,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2666367f-5370-5a41-2666-367f53705a41}</x14:id>
+          <x14:id>{7f3f6f26-2a3b-3918-7f3f-6f262a3b3918}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q58">
+  <conditionalFormatting sqref="Q57">
     <cfRule type="dataBar" priority="1659">
       <dataBar>
         <cfvo type="min"/>
@@ -23573,12 +24129,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{21613178-5475-7746-2161-317854757746}</x14:id>
+          <x14:id>{f3b3e3aa-86b7-b594-f3b3-e3aa86b7b594}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q58">
+  <conditionalFormatting sqref="Q57">
     <cfRule type="dataBar" priority="1657">
       <dataBar>
         <cfvo type="min"/>
@@ -23587,12 +24143,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{a5e5b5fc-d5f1-f3c2-a5e5-b5fcd5f1f3c2}</x14:id>
+          <x14:id>{7737672e-b233-3115-7737-672eb2333115}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q57">
+  <conditionalFormatting sqref="Q56">
     <cfRule type="dataBar" priority="1655">
       <dataBar>
         <cfvo type="min"/>
@@ -23601,12 +24157,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{29693971-5c7d-7f4e-2969-39715c7d7f4e}</x14:id>
+          <x14:id>{cb8bdb92-be8f-bdac-cb8b-db92be8fbdac}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q58">
+  <conditionalFormatting sqref="Q57">
     <cfRule type="dataBar" priority="1653">
       <dataBar>
         <cfvo type="min"/>
@@ -23615,12 +24171,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{adedbdf4-d8f9-fbca-aded-bdf4d8f9fbca}</x14:id>
+          <x14:id>{4f0f5f16-3a9b-3928-4f0f-5f163a9b3928}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q58">
+  <conditionalFormatting sqref="Q57">
     <cfRule type="dataBar" priority="1627">
       <dataBar>
         <cfvo type="min"/>
@@ -23629,12 +24185,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{31712168-4465-7756-3171-216844657756}</x14:id>
+          <x14:id>{2767377e-5263-7148-2767-377e52637148}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q58">
+  <conditionalFormatting sqref="Q57">
     <cfRule type="dataBar" priority="1623">
       <dataBar>
         <cfvo type="min"/>
@@ -23643,7 +24199,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b5f5a5ec-c4e1-f3d2-b5f5-a5ecc4e1f3d2}</x14:id>
+          <x14:id>{a3e3b3fa-d6e7-f5c4-a3e3-b3fad6e7f5c4}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -23657,7 +24213,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{39792960-4c6d-7f5e-3979-29604c6d7f5e}</x14:id>
+          <x14:id>{2f6f3f76-5a6b-7948-2f6f-3f765a6b7948}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -23671,35 +24227,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{bdfdade4-c8e9-fbda-bdfd-ade4c8e9fbda}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q50">
-    <cfRule type="dataBar" priority="1687">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{71411158-7455-7766-7141-115874557766}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q50">
-    <cfRule type="dataBar" priority="1687">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF0000"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{85c595dc-f3d1-f3e2-85c5-95dcf3d1f3e2}</x14:id>
+          <x14:id>{abebbbf2-deef-fdcc-abeb-bbf2deeffdcc}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -23713,7 +24241,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{edadfdb4-98b9-bb8a-edad-fdb498b9bb8a}</x14:id>
+          <x14:id>{3777276e-4273-7159-3777-276e42737159}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -23727,7 +24255,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6929793d-1c3d-3f9e-6929-793d1c3d3f9e}</x14:id>
+          <x14:id>{b3f3a3ea-c6f7-f5d4-b3f3-a3eac6f7f5d4}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -23741,7 +24269,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{e5a5f5bc-99b1-b382-e5a5-f5bc99b1b382}</x14:id>
+          <x14:id>{3f7f2f66-4a7b-7958-3f7f-2f664a7b7958}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -23755,7 +24283,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{61217138-1435-3706-6121-713814353706}</x14:id>
+          <x14:id>{bbfbabe2-ceff-fddc-bbfb-abe2cefffddc}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -23769,7 +24297,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{fdbdeda4-88a9-bb9a-fdbd-eda488a9bb9a}</x14:id>
+          <x14:id>{0747175e-7243-716e-0747-175e7243716e}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -23783,7 +24311,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7939692c-5c2d-3f1e-7939-692c5c2d3f1e}</x14:id>
+          <x14:id>{83c393da-f6c7-f5e4-83c3-93daf6c7f5e4}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -23797,7 +24325,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{f5b5e5ac-88a1-b392-f5b5-e5ac88a1b392}</x14:id>
+          <x14:id>{6222723b-1726-3435-6222-723b17263435}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -23811,7 +24339,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{71316128-c425-3716-7131-6128c4253716}</x14:id>
+          <x14:id>{e6a6f6bf-93a2-bc81-e6a6-f6bf93a2bc81}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -23825,7 +24353,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{cd8ddd94-b899-bbaa-cd8d-dd94b899bbaa}</x14:id>
+          <x14:id>{6a2a7a33-1f2e-3cad-6a2a-7a331f2e3cad}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -23839,7 +24367,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4979591b-3c1d-3f2e-4979-591b3c1d3f2e}</x14:id>
+          <x14:id>{eeaefeb7-9baa-b889-eeae-feb79baab889}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -23853,7 +24381,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{a8e8b8f1-ddfc-fecf-a8e8-b8f1ddfcfecf}</x14:id>
+          <x14:id>{7232622b-f736-3415-7232-622bf7363415}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -23867,7 +24395,63 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2c6c3c75-5978-7a4b-2c6c-3c7559787a4b}</x14:id>
+          <x14:id>{f6b6e6af-83b2-bd91-f6b6-e6af83b2bd91}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q49">
+    <cfRule type="dataBar" priority="1687">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7a3a6a23-6f3e-3c1d-7a3a-6a236f3e3c1d}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q49">
+    <cfRule type="dataBar" priority="1687">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{febeeea7-8bba-b899-febe-eea78bbab899}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q49">
+    <cfRule type="dataBar" priority="1687">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{42d2521b-3746-3425-42d2-521b37463425}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q49">
+    <cfRule type="dataBar" priority="1687">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{c686d69f-b382-baa1-c686-d69fb382baa1}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -23880,7 +24464,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5616462f-233f-1131-5616-462f233f1131}">
+          <x14:cfRule type="dataBar" id="{cb8bdb92-be8d-9dac-cb8b-db92be8d9dac}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -23891,7 +24475,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{d292c28b-a784-94b5-d292-c28ba78494b5}">
+          <x14:cfRule type="dataBar" id="{4faf5f16-3af9-1928-4faf-5f163af91928}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -23902,7 +24486,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6e2e7e37-1b38-18f9-6e2e-7e371b3818f9}">
+          <x14:cfRule type="dataBar" id="{d393c38a-a695-95b4-d393-c38aa69595b4}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -23913,7 +24497,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{eaaafab3-9fbc-9c8d-eaaa-fab39fbc9c8d}">
+          <x14:cfRule type="dataBar" id="{5717479e-2211-113a-5717-479e2211113a}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -23924,7 +24508,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{82c292db-f7d4-d4e5-82c2-92dbf7d4d4e5}">
+          <x14:cfRule type="dataBar" id="{db9bcb82-ae9d-9dbc-db9b-cb82ae9d9dbc}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -23935,7 +24519,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1646165f-7356-5c61-1646-165f73565c61}">
+          <x14:cfRule type="dataBar" id="{5f1f4f06-2a19-1938-5f1f-4f062a191938}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -23946,7 +24530,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8aca9ad3-ffdc-dced-8aca-9ad3ffdcdced}">
+          <x14:cfRule type="dataBar" id="{e3a3f3ba-96a5-9584-e3a3-f3ba96a59584}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -23957,7 +24541,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8e4e1e57-7b58-5869-8e4e-1e577b585869}">
+          <x14:cfRule type="dataBar" id="{6727773e-1221-11dd-6727-773e122111dd}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -23968,7 +24552,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{92d282cb-e7c4-d4f5-92d2-82cbe7c4d4f5}">
+          <x14:cfRule type="dataBar" id="{ebabfbb2-9eaf-bd8c-ebab-fbb29eafbd8c}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -23979,7 +24563,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1656b64f-6347-5d71-1656-b64f63475d71}">
+          <x14:cfRule type="dataBar" id="{6f2f7f36-1a2b-39e8-6f2f-7f361a2b39e8}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -23990,7 +24574,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9ada8ac3-efcc-dcfd-9ada-8ac3efccdcfd}">
+          <x14:cfRule type="dataBar" id="{e3a3f3ba-96a7-b584-e3a3-f3ba96a7b584}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -24001,7 +24585,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1e5e2e47-6b48-5879-1e5e-2e476b485879}">
+          <x14:cfRule type="dataBar" id="{6727773e-1223-3174-6727-773e12233174}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -24012,7 +24596,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{a2e2b2fb-d7f4-d4c5-a2e2-b2fbd7f4d4c5}">
+          <x14:cfRule type="dataBar" id="{fbbbeba2-8ebf-bd9c-fbbb-eba28ebfbd9c}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -24023,7 +24607,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2666367f-5370-5a41-2666-367f53705a41}">
+          <x14:cfRule type="dataBar" id="{7f3f6f26-2a3b-3918-7f3f-6f262a3b3918}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -24034,7 +24618,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{21613178-5475-7746-2161-317854757746}">
+          <x14:cfRule type="dataBar" id="{f3b3e3aa-86b7-b594-f3b3-e3aa86b7b594}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -24045,7 +24629,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{a5e5b5fc-d5f1-f3c2-a5e5-b5fcd5f1f3c2}">
+          <x14:cfRule type="dataBar" id="{7737672e-b233-3115-7737-672eb2333115}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -24056,7 +24640,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{29693971-5c7d-7f4e-2969-39715c7d7f4e}">
+          <x14:cfRule type="dataBar" id="{cb8bdb92-be8f-bdac-cb8b-db92be8fbdac}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -24067,7 +24651,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{adedbdf4-d8f9-fbca-aded-bdf4d8f9fbca}">
+          <x14:cfRule type="dataBar" id="{4f0f5f16-3a9b-3928-4f0f-5f163a9b3928}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -24078,7 +24662,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{31712168-4465-7756-3171-216844657756}">
+          <x14:cfRule type="dataBar" id="{2767377e-5263-7148-2767-377e52637148}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -24089,7 +24673,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{b5f5a5ec-c4e1-f3d2-b5f5-a5ecc4e1f3d2}">
+          <x14:cfRule type="dataBar" id="{a3e3b3fa-d6e7-f5c4-a3e3-b3fad6e7f5c4}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -24100,7 +24684,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{39792960-4c6d-7f5e-3979-29604c6d7f5e}">
+          <x14:cfRule type="dataBar" id="{2f6f3f76-5a6b-7948-2f6f-3f765a6b7948}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -24111,7 +24695,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{bdfdade4-c8e9-fbda-bdfd-ade4c8e9fbda}">
+          <x14:cfRule type="dataBar" id="{abebbbf2-deef-fdcc-abeb-bbf2deeffdcc}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -24122,7 +24706,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{71411158-7455-7766-7141-115874557766}">
+          <x14:cfRule type="dataBar" id="{3777276e-4273-7159-3777-276e42737159}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -24133,7 +24717,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{85c595dc-f3d1-f3e2-85c5-95dcf3d1f3e2}">
+          <x14:cfRule type="dataBar" id="{b3f3a3ea-c6f7-f5d4-b3f3-a3eac6f7f5d4}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -24144,7 +24728,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{edadfdb4-98b9-bb8a-edad-fdb498b9bb8a}">
+          <x14:cfRule type="dataBar" id="{3f7f2f66-4a7b-7958-3f7f-2f664a7b7958}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -24155,7 +24739,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6929793d-1c3d-3f9e-6929-793d1c3d3f9e}">
+          <x14:cfRule type="dataBar" id="{bbfbabe2-ceff-fddc-bbfb-abe2cefffddc}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -24166,7 +24750,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{e5a5f5bc-99b1-b382-e5a5-f5bc99b1b382}">
+          <x14:cfRule type="dataBar" id="{0747175e-7243-716e-0747-175e7243716e}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -24177,7 +24761,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{61217138-1435-3706-6121-713814353706}">
+          <x14:cfRule type="dataBar" id="{83c393da-f6c7-f5e4-83c3-93daf6c7f5e4}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -24188,7 +24772,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{fdbdeda4-88a9-bb9a-fdbd-eda488a9bb9a}">
+          <x14:cfRule type="dataBar" id="{6222723b-1726-3435-6222-723b17263435}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -24199,7 +24783,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7939692c-5c2d-3f1e-7939-692c5c2d3f1e}">
+          <x14:cfRule type="dataBar" id="{e6a6f6bf-93a2-bc81-e6a6-f6bf93a2bc81}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -24210,7 +24794,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{f5b5e5ac-88a1-b392-f5b5-e5ac88a1b392}">
+          <x14:cfRule type="dataBar" id="{6a2a7a33-1f2e-3cad-6a2a-7a331f2e3cad}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -24221,7 +24805,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{71316128-c425-3716-7131-6128c4253716}">
+          <x14:cfRule type="dataBar" id="{eeaefeb7-9baa-b889-eeae-feb79baab889}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -24232,7 +24816,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{cd8ddd94-b899-bbaa-cd8d-dd94b899bbaa}">
+          <x14:cfRule type="dataBar" id="{7232622b-f736-3415-7232-622bf7363415}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -24243,7 +24827,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4979591b-3c1d-3f2e-4979-591b3c1d3f2e}">
+          <x14:cfRule type="dataBar" id="{f6b6e6af-83b2-bd91-f6b6-e6af83b2bd91}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -24254,7 +24838,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{a8e8b8f1-ddfc-fecf-a8e8-b8f1ddfcfecf}">
+          <x14:cfRule type="dataBar" id="{7a3a6a23-6f3e-3c1d-7a3a-6a236f3e3c1d}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -24265,7 +24849,29 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2c6c3c75-5978-7a4b-2c6c-3c7559787a4b}">
+          <x14:cfRule type="dataBar" id="{febeeea7-8bba-b899-febe-eea78bbab899}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF000000"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{42d2521b-3746-3425-42d2-521b37463425}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF000000"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{c686d69f-b382-baa1-c686-d69fb382baa1}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>

--- a/0.WBS.xlsx
+++ b/0.WBS.xlsx
@@ -17,6 +17,104 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">WBS!$C$19:$S$56</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">history!$A$1:$H$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">WBS!$A$2:$S$56</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
+    <definedName name="DAYS" hidden="1">#NAME?</definedName>
     <definedName name="DAYS" hidden="1">#NAME?</definedName>
     <definedName name="DAYS" hidden="1">#NAME?</definedName>
     <definedName name="DAYS" hidden="1">#NAME?</definedName>
@@ -17402,7 +17500,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13602335" y="11287125"/>
+          <a:off x="13597890" y="11287125"/>
           <a:ext cx="0" cy="246380"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -17437,7 +17535,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13602335" y="11287125"/>
+          <a:off x="13597890" y="11287125"/>
           <a:ext cx="0" cy="246380"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -17647,7 +17745,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13602335" y="11287125"/>
+          <a:off x="13597890" y="11287125"/>
           <a:ext cx="0" cy="246380"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -17682,7 +17780,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13602335" y="11287125"/>
+          <a:off x="13597890" y="11287125"/>
           <a:ext cx="0" cy="246380"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -18172,7 +18270,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13602335" y="11287125"/>
+          <a:off x="13597890" y="11287125"/>
           <a:ext cx="0" cy="246380"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -18207,7 +18305,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13602335" y="11287125"/>
+          <a:off x="13597890" y="11287125"/>
           <a:ext cx="0" cy="246380"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -18557,7 +18655,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13602335" y="11287125"/>
+          <a:off x="13597890" y="11287125"/>
           <a:ext cx="0" cy="246380"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -18592,7 +18690,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13602335" y="11287125"/>
+          <a:off x="13597890" y="11287125"/>
           <a:ext cx="0" cy="246380"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -18802,7 +18900,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13602335" y="11287125"/>
+          <a:off x="13597890" y="11287125"/>
           <a:ext cx="0" cy="246380"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -18837,7 +18935,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13602335" y="11287125"/>
+          <a:off x="13597890" y="11287125"/>
           <a:ext cx="0" cy="246380"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -19327,7 +19425,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13602335" y="11287125"/>
+          <a:off x="13597890" y="11287125"/>
           <a:ext cx="0" cy="246380"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -19362,7 +19460,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13602335" y="11287125"/>
+          <a:off x="13597890" y="11287125"/>
           <a:ext cx="0" cy="246380"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -20863,11 +20961,11 @@
   <dimension ref="B2:AD72"/>
   <sheetViews>
     <sheetView topLeftCell="A2" showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="9" ySplit="5" topLeftCell="J34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="5" topLeftCell="J40" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="J2" sqref="J2"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="O47" sqref="O47"/>
+      <selection pane="bottomRight" activeCell="H50" sqref="H50:I50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14062500" defaultRowHeight="13.500000" outlineLevelRow="3"/>
@@ -21067,7 +21165,7 @@
       </c>
       <c r="R6" s="378">
         <f ca="1">IF(Q6=100%,0,IF(_xlfn.DAYS(L6,TODAY())=0,0,_xlfn.DAYS(L6,TODAY())))</f>
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="S6" s="379"/>
       <c r="U6" s="22"/>
@@ -23169,9 +23267,11 @@
       <c r="O46" s="325">
         <v>45310</v>
       </c>
-      <c r="P46" s="325"/>
+      <c r="P46" s="325">
+        <v>45310</v>
+      </c>
       <c r="Q46" s="326">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R46" s="314">
         <f ca="1">IF(Q46=100%,0,IF(_xlfn.DAYS(L46,TODAY())=0,0,_xlfn.DAYS(L46,TODAY())))</f>
@@ -23222,7 +23322,7 @@
       </c>
       <c r="R47" s="314">
         <f ca="1">IF(Q47=100%,0,IF(_xlfn.DAYS(L47,TODAY())=0,0,_xlfn.DAYS(L47,TODAY())))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S47" s="177"/>
       <c r="T47" s="30"/>
@@ -23269,7 +23369,7 @@
       </c>
       <c r="R48" s="314">
         <f ca="1">IF(Q48=100%,0,IF(_xlfn.DAYS(L48,TODAY())=0,0,_xlfn.DAYS(L48,TODAY())))</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="S48" s="177"/>
       <c r="T48" s="30"/>
@@ -23651,25 +23751,16 @@
     </row>
     <row r="58" spans="2:22" outlineLevel="1">
       <c r="B58" s="32"/>
-      <c r="C58" s="16"/>
       <c r="D58" s="32"/>
       <c r="E58" s="32"/>
       <c r="F58" s="32"/>
       <c r="G58" s="32"/>
       <c r="H58" s="32"/>
       <c r="I58" s="32"/>
-      <c r="J58" s="15"/>
       <c r="K58" s="32"/>
-      <c r="L58" s="35"/>
       <c r="M58" s="32"/>
       <c r="N58" s="32"/>
-      <c r="O58" s="35"/>
-      <c r="P58" s="35"/>
-      <c r="Q58" s="36"/>
-      <c r="R58" s="34"/>
-      <c r="S58" s="37"/>
       <c r="T58" s="32"/>
-      <c r="U58" s="20"/>
       <c r="V58" s="32"/>
     </row>
     <row r="59" spans="2:22">
@@ -23775,30 +23866,18 @@
       <c r="T64" s="32"/>
       <c r="V64" s="32"/>
     </row>
-    <row r="65" spans="2:22">
-      <c r="B65" s="15"/>
+    <row r="65" spans="3:21">
       <c r="C65" s="32"/>
-      <c r="D65" s="35"/>
-      <c r="E65" s="15"/>
-      <c r="F65" s="14"/>
-      <c r="G65" s="14"/>
-      <c r="H65" s="15"/>
-      <c r="I65" s="16"/>
       <c r="J65" s="32"/>
-      <c r="K65" s="35"/>
       <c r="L65" s="32"/>
-      <c r="M65" s="35"/>
-      <c r="N65" s="35"/>
       <c r="O65" s="32"/>
       <c r="P65" s="32"/>
       <c r="Q65" s="32"/>
       <c r="R65" s="33"/>
       <c r="S65" s="32"/>
-      <c r="T65" s="15"/>
       <c r="U65" s="32"/>
-      <c r="V65" s="15"/>
     </row>
-    <row r="66" spans="2:22">
+    <row r="66" spans="3:21">
       <c r="C66" s="32"/>
       <c r="J66" s="32"/>
       <c r="L66" s="32"/>
@@ -23808,7 +23887,7 @@
       <c r="S66" s="32"/>
       <c r="U66" s="32"/>
     </row>
-    <row r="67" spans="2:22">
+    <row r="67" spans="3:21">
       <c r="C67" s="32"/>
       <c r="J67" s="32"/>
       <c r="L67" s="32"/>
@@ -23819,7 +23898,7 @@
       <c r="S67" s="32"/>
       <c r="U67" s="32"/>
     </row>
-    <row r="68" spans="2:22">
+    <row r="68" spans="3:21">
       <c r="C68" s="29"/>
       <c r="J68" s="29"/>
       <c r="L68" s="29"/>
@@ -23830,7 +23909,7 @@
       <c r="S68" s="29"/>
       <c r="U68" s="29"/>
     </row>
-    <row r="69" spans="2:22">
+    <row r="69" spans="3:21">
       <c r="C69" s="32"/>
       <c r="J69" s="32"/>
       <c r="L69" s="32"/>
@@ -23841,7 +23920,7 @@
       <c r="S69" s="32"/>
       <c r="U69" s="32"/>
     </row>
-    <row r="70" spans="2:22">
+    <row r="70" spans="3:21">
       <c r="C70" s="32"/>
       <c r="J70" s="32"/>
       <c r="L70" s="32"/>
@@ -23852,8 +23931,7 @@
       <c r="S70" s="32"/>
       <c r="U70" s="32"/>
     </row>
-    <row r="71" spans="2:22">
-      <c r="C71" s="16"/>
+    <row r="71" spans="3:21">
       <c r="J71" s="32"/>
       <c r="L71" s="32"/>
       <c r="O71" s="32"/>
@@ -23862,16 +23940,6 @@
       <c r="R71" s="32"/>
       <c r="S71" s="32"/>
       <c r="U71" s="32"/>
-    </row>
-    <row r="72" spans="2:22">
-      <c r="J72" s="15"/>
-      <c r="L72" s="35"/>
-      <c r="O72" s="35"/>
-      <c r="P72" s="35"/>
-      <c r="Q72" s="36"/>
-      <c r="R72" s="34"/>
-      <c r="S72" s="37"/>
-      <c r="U72" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="47">
@@ -23933,7 +24001,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{cb8bdb92-be8d-9dac-cb8b-db92be8d9dac}</x14:id>
+          <x14:id>{3a7a2a63-4f6f-6c5d-3a7a-2a634f6f6c5d}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -23947,7 +24015,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4faf5f16-3af9-1928-4faf-5f163af91928}</x14:id>
+          <x14:id>{befeaee7-cbeb-e8d9-befe-aee7cbebe8d9}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -23961,7 +24029,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{d393c38a-a695-95b4-d393-c38aa69595b4}</x14:id>
+          <x14:id>{2262327b-5777-6445-2262-327b57776445}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -23975,7 +24043,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5717479e-2211-113a-5717-479e2211113a}</x14:id>
+          <x14:id>{a6e6b6ff-d3f3-e8c1-a6e6-b6ffd3f3e8c1}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -23989,7 +24057,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{db9bcb82-ae9d-9dbc-db9b-cb82ae9d9dbc}</x14:id>
+          <x14:id>{2a6a3a73-5f7f-6c4d-2a6a-3a735f7f6c4d}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -24003,7 +24071,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5f1f4f06-2a19-1938-5f1f-4f062a191938}</x14:id>
+          <x14:id>{aeeebef7-dbfb-e8c9-aeee-bef7dbfbe8c9}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -24017,7 +24085,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{e3a3f3ba-96a5-9584-e3a3-f3ba96a59584}</x14:id>
+          <x14:id>{1252c24b-6747-6475-1252-c24b67476475}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -24031,7 +24099,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6727773e-1221-11dd-6727-773e122111dd}</x14:id>
+          <x14:id>{96d686cf-e3c3-eff1-96d6-86cfe3c3eff1}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -24045,7 +24113,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ebabfbb2-9eaf-bd8c-ebab-fbb29eafbd8c}</x14:id>
+          <x14:id>{febeeea7-8bab-a899-febe-eea78baba899}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -24059,7 +24127,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6f2f7f36-1a2b-39e8-6f2f-7f361a2b39e8}</x14:id>
+          <x14:id>{7a3a6a23-4f2f-2c1d-7a3a-6a234f2f2c1d}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -24073,7 +24141,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{e3a3f3ba-96a7-b584-e3a3-f3ba96a7b584}</x14:id>
+          <x14:id>{f6b6e6af-83a3-a591-f6b6-e6af83a3a591}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -24087,7 +24155,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6727773e-1223-3174-6727-773e12233174}</x14:id>
+          <x14:id>{7232622b-d727-2415-7232-622bd7272415}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -24101,7 +24169,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{fbbbeba2-8ebf-bd9c-fbbb-eba28ebfbd9c}</x14:id>
+          <x14:id>{eeaefeb7-9bbb-a889-eeae-feb79bbba889}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -24115,7 +24183,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7f3f6f26-2a3b-3918-7f3f-6f262a3b3918}</x14:id>
+          <x14:id>{6a2a7a33-1f3f-2c8d-6a2a-7a331f3f2c8d}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -24129,7 +24197,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{f3b3e3aa-86b7-b594-f3b3-e3aa86b7b594}</x14:id>
+          <x14:id>{e6a6f6bf-93b3-a481-e6a6-f6bf93b3a481}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -24143,7 +24211,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7737672e-b233-3115-7737-672eb2333115}</x14:id>
+          <x14:id>{6222723b-1737-2415-6222-723b17372415}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -24157,7 +24225,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{cb8bdb92-be8f-bdac-cb8b-db92be8fbdac}</x14:id>
+          <x14:id>{de9ece87-ab8b-a8b9-de9e-ce87ab8ba8b9}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -24171,7 +24239,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4f0f5f16-3a9b-3928-4f0f-5f163a9b3928}</x14:id>
+          <x14:id>{5a1a4ac3-2f9f-2c3d-5a1a-4ac32f9f2c3d}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -24185,7 +24253,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2767377e-5263-7148-2767-377e52637148}</x14:id>
+          <x14:id>{bbfbabe2-ceee-eddc-bbfb-abe2ceeeeddc}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -24199,7 +24267,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{a3e3b3fa-d6e7-f5c4-a3e3-b3fad6e7f5c4}</x14:id>
+          <x14:id>{3f7f2f66-4a6a-6958-3f7f-2f664a6a6958}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -24213,7 +24281,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2f6f3f76-5a6b-7948-2f6f-3f765a6b7948}</x14:id>
+          <x14:id>{b3f3a3ea-c6e6-e5d4-b3f3-a3eac6e6e5d4}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -24227,7 +24295,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{abebbbf2-deef-fdcc-abeb-bbf2deeffdcc}</x14:id>
+          <x14:id>{3777276e-4262-6151-3777-276e42626151}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -24241,7 +24309,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3777276e-4273-7159-3777-276e42737159}</x14:id>
+          <x14:id>{abebbbf2-defe-edcc-abeb-bbf2defeedcc}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -24255,7 +24323,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b3f3a3ea-c6f7-f5d4-b3f3-a3eac6f7f5d4}</x14:id>
+          <x14:id>{2f6f3f76-5a7a-6948-2f6f-3f765a7a6948}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -24269,7 +24337,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3f7f2f66-4a7b-7958-3f7f-2f664a7b7958}</x14:id>
+          <x14:id>{a3e3b3fa-d6f6-e5c4-a3e3-b3fad6f6e5c4}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -24283,7 +24351,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{bbfbabe2-ceff-fddc-bbfb-abe2cefffddc}</x14:id>
+          <x14:id>{2767377e-5272-6140-2767-377e52726140}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -24297,7 +24365,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0747175e-7243-716e-0747-175e7243716e}</x14:id>
+          <x14:id>{9bdb8bc2-eece-edfc-9bdb-8bc2eeceedfc}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -24311,7 +24379,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{83c393da-f6c7-f5e4-83c3-93daf6c7f5e4}</x14:id>
+          <x14:id>{1f5f1f46-6a4a-6978-1f5f-1f466a4a6978}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -24325,7 +24393,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6222723b-1726-3435-6222-723b17263435}</x14:id>
+          <x14:id>{7737672e-9222-211d-7737-672e9222211d}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -24339,7 +24407,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{e6a6f6bf-93a2-bc81-e6a6-f6bf93a2bc81}</x14:id>
+          <x14:id>{f3b3e3aa-86a6-a594-f3b3-e3aa86a6a594}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -24353,7 +24421,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6a2a7a33-1f2e-3cad-6a2a-7a331f2e3cad}</x14:id>
+          <x14:id>{7f3f6f26-0a2a-2918-7f3f-6f260a2a2918}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -24367,7 +24435,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{eeaefeb7-9baa-b889-eeae-feb79baab889}</x14:id>
+          <x14:id>{fbbbeba2-8eae-ad9c-fbbb-eba28eaead9c}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -24381,7 +24449,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7232622b-f736-3415-7232-622bf7363415}</x14:id>
+          <x14:id>{6727773e-1232-215c-6727-773e1232215c}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -24395,7 +24463,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{f6b6e6af-83b2-bd91-f6b6-e6af83b2bd91}</x14:id>
+          <x14:id>{e3a3f3ba-96b6-a584-e3a3-f3ba96b6a584}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -24409,7 +24477,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7a3a6a23-6f3e-3c1d-7a3a-6a236f3e3c1d}</x14:id>
+          <x14:id>{6f2f7f36-1a3a-29c8-6f2f-7f361a3a29c8}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -24423,7 +24491,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{febeeea7-8bba-b899-febe-eea78bbab899}</x14:id>
+          <x14:id>{ebabfbb2-9ebe-ad8c-ebab-fbb29ebead8c}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -24437,7 +24505,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{42d2521b-3746-3425-42d2-521b37463425}</x14:id>
+          <x14:id>{5717471e-2242-213b-5717-471e2242213b}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -24451,7 +24519,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{c686d69f-b382-baa1-c686-d69fb382baa1}</x14:id>
+          <x14:id>{d393c38a-a686-a5b4-d393-c38aa686a5b4}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -24464,7 +24532,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{cb8bdb92-be8d-9dac-cb8b-db92be8d9dac}">
+          <x14:cfRule type="dataBar" id="{3a7a2a63-4f6f-6c5d-3a7a-2a634f6f6c5d}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -24475,7 +24543,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4faf5f16-3af9-1928-4faf-5f163af91928}">
+          <x14:cfRule type="dataBar" id="{befeaee7-cbeb-e8d9-befe-aee7cbebe8d9}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -24486,7 +24554,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{d393c38a-a695-95b4-d393-c38aa69595b4}">
+          <x14:cfRule type="dataBar" id="{2262327b-5777-6445-2262-327b57776445}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -24497,7 +24565,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5717479e-2211-113a-5717-479e2211113a}">
+          <x14:cfRule type="dataBar" id="{a6e6b6ff-d3f3-e8c1-a6e6-b6ffd3f3e8c1}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -24508,7 +24576,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{db9bcb82-ae9d-9dbc-db9b-cb82ae9d9dbc}">
+          <x14:cfRule type="dataBar" id="{2a6a3a73-5f7f-6c4d-2a6a-3a735f7f6c4d}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -24519,7 +24587,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5f1f4f06-2a19-1938-5f1f-4f062a191938}">
+          <x14:cfRule type="dataBar" id="{aeeebef7-dbfb-e8c9-aeee-bef7dbfbe8c9}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -24530,7 +24598,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{e3a3f3ba-96a5-9584-e3a3-f3ba96a59584}">
+          <x14:cfRule type="dataBar" id="{1252c24b-6747-6475-1252-c24b67476475}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -24541,7 +24609,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6727773e-1221-11dd-6727-773e122111dd}">
+          <x14:cfRule type="dataBar" id="{96d686cf-e3c3-eff1-96d6-86cfe3c3eff1}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -24552,7 +24620,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{ebabfbb2-9eaf-bd8c-ebab-fbb29eafbd8c}">
+          <x14:cfRule type="dataBar" id="{febeeea7-8bab-a899-febe-eea78baba899}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -24563,7 +24631,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6f2f7f36-1a2b-39e8-6f2f-7f361a2b39e8}">
+          <x14:cfRule type="dataBar" id="{7a3a6a23-4f2f-2c1d-7a3a-6a234f2f2c1d}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -24574,7 +24642,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{e3a3f3ba-96a7-b584-e3a3-f3ba96a7b584}">
+          <x14:cfRule type="dataBar" id="{f6b6e6af-83a3-a591-f6b6-e6af83a3a591}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -24585,7 +24653,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6727773e-1223-3174-6727-773e12233174}">
+          <x14:cfRule type="dataBar" id="{7232622b-d727-2415-7232-622bd7272415}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -24596,7 +24664,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{fbbbeba2-8ebf-bd9c-fbbb-eba28ebfbd9c}">
+          <x14:cfRule type="dataBar" id="{eeaefeb7-9bbb-a889-eeae-feb79bbba889}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -24607,7 +24675,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7f3f6f26-2a3b-3918-7f3f-6f262a3b3918}">
+          <x14:cfRule type="dataBar" id="{6a2a7a33-1f3f-2c8d-6a2a-7a331f3f2c8d}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -24618,7 +24686,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{f3b3e3aa-86b7-b594-f3b3-e3aa86b7b594}">
+          <x14:cfRule type="dataBar" id="{e6a6f6bf-93b3-a481-e6a6-f6bf93b3a481}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -24629,7 +24697,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7737672e-b233-3115-7737-672eb2333115}">
+          <x14:cfRule type="dataBar" id="{6222723b-1737-2415-6222-723b17372415}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -24640,7 +24708,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{cb8bdb92-be8f-bdac-cb8b-db92be8fbdac}">
+          <x14:cfRule type="dataBar" id="{de9ece87-ab8b-a8b9-de9e-ce87ab8ba8b9}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -24651,7 +24719,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4f0f5f16-3a9b-3928-4f0f-5f163a9b3928}">
+          <x14:cfRule type="dataBar" id="{5a1a4ac3-2f9f-2c3d-5a1a-4ac32f9f2c3d}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -24662,7 +24730,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2767377e-5263-7148-2767-377e52637148}">
+          <x14:cfRule type="dataBar" id="{bbfbabe2-ceee-eddc-bbfb-abe2ceeeeddc}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -24673,7 +24741,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{a3e3b3fa-d6e7-f5c4-a3e3-b3fad6e7f5c4}">
+          <x14:cfRule type="dataBar" id="{3f7f2f66-4a6a-6958-3f7f-2f664a6a6958}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -24684,7 +24752,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2f6f3f76-5a6b-7948-2f6f-3f765a6b7948}">
+          <x14:cfRule type="dataBar" id="{b3f3a3ea-c6e6-e5d4-b3f3-a3eac6e6e5d4}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -24695,7 +24763,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{abebbbf2-deef-fdcc-abeb-bbf2deeffdcc}">
+          <x14:cfRule type="dataBar" id="{3777276e-4262-6151-3777-276e42626151}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -24706,7 +24774,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{3777276e-4273-7159-3777-276e42737159}">
+          <x14:cfRule type="dataBar" id="{abebbbf2-defe-edcc-abeb-bbf2defeedcc}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -24717,7 +24785,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{b3f3a3ea-c6f7-f5d4-b3f3-a3eac6f7f5d4}">
+          <x14:cfRule type="dataBar" id="{2f6f3f76-5a7a-6948-2f6f-3f765a7a6948}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -24728,7 +24796,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{3f7f2f66-4a7b-7958-3f7f-2f664a7b7958}">
+          <x14:cfRule type="dataBar" id="{a3e3b3fa-d6f6-e5c4-a3e3-b3fad6f6e5c4}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -24739,7 +24807,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{bbfbabe2-ceff-fddc-bbfb-abe2cefffddc}">
+          <x14:cfRule type="dataBar" id="{2767377e-5272-6140-2767-377e52726140}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -24750,7 +24818,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0747175e-7243-716e-0747-175e7243716e}">
+          <x14:cfRule type="dataBar" id="{9bdb8bc2-eece-edfc-9bdb-8bc2eeceedfc}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -24761,7 +24829,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{83c393da-f6c7-f5e4-83c3-93daf6c7f5e4}">
+          <x14:cfRule type="dataBar" id="{1f5f1f46-6a4a-6978-1f5f-1f466a4a6978}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -24772,7 +24840,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6222723b-1726-3435-6222-723b17263435}">
+          <x14:cfRule type="dataBar" id="{7737672e-9222-211d-7737-672e9222211d}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -24783,7 +24851,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{e6a6f6bf-93a2-bc81-e6a6-f6bf93a2bc81}">
+          <x14:cfRule type="dataBar" id="{f3b3e3aa-86a6-a594-f3b3-e3aa86a6a594}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -24794,7 +24862,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6a2a7a33-1f2e-3cad-6a2a-7a331f2e3cad}">
+          <x14:cfRule type="dataBar" id="{7f3f6f26-0a2a-2918-7f3f-6f260a2a2918}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -24805,7 +24873,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{eeaefeb7-9baa-b889-eeae-feb79baab889}">
+          <x14:cfRule type="dataBar" id="{fbbbeba2-8eae-ad9c-fbbb-eba28eaead9c}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -24816,7 +24884,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7232622b-f736-3415-7232-622bf7363415}">
+          <x14:cfRule type="dataBar" id="{6727773e-1232-215c-6727-773e1232215c}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -24827,7 +24895,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{f6b6e6af-83b2-bd91-f6b6-e6af83b2bd91}">
+          <x14:cfRule type="dataBar" id="{e3a3f3ba-96b6-a584-e3a3-f3ba96b6a584}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -24838,7 +24906,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7a3a6a23-6f3e-3c1d-7a3a-6a236f3e3c1d}">
+          <x14:cfRule type="dataBar" id="{6f2f7f36-1a3a-29c8-6f2f-7f361a3a29c8}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -24849,7 +24917,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{febeeea7-8bba-b899-febe-eea78bbab899}">
+          <x14:cfRule type="dataBar" id="{ebabfbb2-9ebe-ad8c-ebab-fbb29ebead8c}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -24860,7 +24928,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{42d2521b-3746-3425-42d2-521b37463425}">
+          <x14:cfRule type="dataBar" id="{5717471e-2242-213b-5717-471e2242213b}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -24871,7 +24939,7 @@
           </x14:cfRule>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{c686d69f-b382-baa1-c686-d69fb382baa1}">
+          <x14:cfRule type="dataBar" id="{d393c38a-a686-a5b4-d393-c38aa686a5b4}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
